--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -1,44 +1,212 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B919A28-5EDA-415C-A879-0753C87C2051}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
-  <si>
-    <t>HD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
   <si>
     <t>+12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAB1143-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA_RA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXD_LCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RXD_LCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIMIT_SW_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIMIT_SW_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5267-3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5267-2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX35313-2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RV_CT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FET_TEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW_IS_CT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FW_CT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIAS_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDC_IN</t>
+  </si>
+  <si>
+    <t>JP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JP_BIAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUMPER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNTRST</t>
+  </si>
+  <si>
+    <t>JTDI</t>
+  </si>
+  <si>
+    <t>SYS_SWDIO</t>
+  </si>
+  <si>
+    <t>SYS_SWCLK</t>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTDO</t>
+  </si>
+  <si>
+    <t>NRST</t>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT48V</t>
+  </si>
+  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAB1143-04</t>
+    <t>CN104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX35313-5P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,141 +214,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>J3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMA_RA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF_IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF_OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAN1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAN2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TXD_LCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RXD_LCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIMIT_SW_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIMIT_SW_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAN_PWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5267-3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5267-2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MX35313-2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RV_CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FET_TEMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PW_IS_CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FW_CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIAS_ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VDC_IN</t>
-  </si>
-  <si>
-    <t>JP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JP_BIAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JUMPER</t>
+    <t>RFOUT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA_ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5267-8P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN107</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +280,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -253,51 +326,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -435,18 +463,91 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -456,51 +557,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,18 +610,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -531,6 +655,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -540,25 +667,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>103413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1"/>
+        <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13096875" y="323850"/>
-          <a:ext cx="1333500" cy="371475"/>
+          <a:off x="12268199" y="767442"/>
+          <a:ext cx="1311730" cy="389165"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -605,26 +738,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>737507</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2"/>
+        <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5924550" y="342900"/>
-          <a:ext cx="1057275" cy="361950"/>
+          <a:off x="8760278" y="753835"/>
+          <a:ext cx="1515835" cy="508908"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -672,25 +811,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>503465</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>110218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3"/>
+        <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12392025" y="161925"/>
-          <a:ext cx="3181350" cy="8372475"/>
+          <a:off x="12053208" y="555171"/>
+          <a:ext cx="3687535" cy="10277476"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -733,28 +878,34 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5419726" y="209550"/>
-          <a:ext cx="5476874" cy="9896475"/>
+          <a:off x="5378905" y="533400"/>
+          <a:ext cx="5021034" cy="10809514"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 7008"/>
+            <a:gd name="adj" fmla="val 2056"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -791,32 +942,41 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>524692</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>153761</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5"/>
+        <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3476625" y="7639050"/>
-          <a:ext cx="1181100" cy="809625"/>
+          <a:off x="3823063" y="6219826"/>
+          <a:ext cx="1155790" cy="879021"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -841,7 +1001,7 @@
         <a:p>
           <a:pPr algn="ctr" rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -851,7 +1011,7 @@
             </a:rPr>
             <a:t>SMPS</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -863,7 +1023,7 @@
         <a:p>
           <a:pPr algn="ctr" rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -873,7 +1033,7 @@
             </a:rPr>
             <a:t>48V 12.5A</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -885,7 +1045,7 @@
         <a:p>
           <a:pPr algn="ctr" rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -895,7 +1055,7 @@
             </a:rPr>
             <a:t>PSP-600-48</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -910,32 +1070,41 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>198664</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9"/>
+        <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11325225" y="6267450"/>
-          <a:ext cx="1162050" cy="809625"/>
+          <a:off x="3829050" y="4718957"/>
+          <a:ext cx="1140279" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -960,7 +1129,7 @@
         <a:p>
           <a:pPr algn="ctr" rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -970,7 +1139,7 @@
             </a:rPr>
             <a:t>SMPS</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -982,7 +1151,7 @@
         <a:p>
           <a:pPr algn="ctr" rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -992,7 +1161,7 @@
             </a:rPr>
             <a:t>12V 100W</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1007,26 +1176,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>92528</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>575584</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>210910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6"/>
+        <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7324724" y="4152900"/>
-          <a:ext cx="1381126" cy="695325"/>
+          <a:off x="7222671" y="8229600"/>
+          <a:ext cx="1375684" cy="722539"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1079,26 +1254,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>106135</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>608240</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>189139</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8"/>
+        <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7305675" y="5153025"/>
-          <a:ext cx="1400175" cy="714375"/>
+          <a:off x="7236278" y="9092292"/>
+          <a:ext cx="1394733" cy="741590"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1152,25 +1333,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>527958</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>91167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>42183</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10"/>
+        <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3819525" y="5191125"/>
-          <a:ext cx="1162050" cy="809625"/>
+          <a:off x="3826329" y="9964510"/>
+          <a:ext cx="1147083" cy="825953"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1201,7 +1388,7 @@
         <a:p>
           <a:pPr algn="ctr" rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1215,7 +1402,7 @@
         <a:p>
           <a:pPr algn="ctr" rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1225,7 +1412,7 @@
             </a:rPr>
             <a:t>Limit S/W</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1241,25 +1428,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>527958</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>130627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>42183</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>72117</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11"/>
+        <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3819525" y="4133850"/>
-          <a:ext cx="1162050" cy="819150"/>
+          <a:off x="3826329" y="8871856"/>
+          <a:ext cx="1147083" cy="845004"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1290,7 +1483,7 @@
         <a:p>
           <a:pPr algn="ctr" rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1304,7 +1497,7 @@
         <a:p>
           <a:pPr algn="ctr" rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1314,7 +1507,7 @@
             </a:rPr>
             <a:t>Limit S/W</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1330,25 +1523,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>137433</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>613683</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167368</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="오른쪽 화살표 7"/>
+        <xdr:cNvPr id="8" name="오른쪽 화살표 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5076825" y="4429125"/>
-          <a:ext cx="476250" cy="190500"/>
+          <a:off x="5068662" y="9165772"/>
+          <a:ext cx="476250" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1384,25 +1583,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>127908</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>604158</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>157842</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="오른쪽 화살표 13"/>
+        <xdr:cNvPr id="14" name="오른쪽 화살표 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="5495925"/>
-          <a:ext cx="476250" cy="200025"/>
+          <a:off x="5059137" y="10267949"/>
+          <a:ext cx="476250" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1437,26 +1642,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107495</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>583745</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="오른쪽 화살표 14"/>
+        <xdr:cNvPr id="15" name="오른쪽 화살표 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="10782300" y="6591300"/>
-          <a:ext cx="476250" cy="209550"/>
+        <a:xfrm>
+          <a:off x="5038724" y="5029201"/>
+          <a:ext cx="476250" cy="229960"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1499,34 +1710,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>141513</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>617763</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="모서리가 둥근 직사각형 16"/>
+        <xdr:cNvPr id="16" name="오른쪽 화살표 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E350673-E94C-400E-9271-47D82C523782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343025" y="352425"/>
-          <a:ext cx="3181350" cy="7143750"/>
+          <a:off x="5072742" y="6553201"/>
+          <a:ext cx="476250" cy="219075"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7008"/>
-          </a:avLst>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050"/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1549,9 +1770,165 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:noFill/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>530680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>201385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>166004</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF590CA-A38C-4E79-A6D7-1A694015461B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829051" y="7603671"/>
+          <a:ext cx="1140279" cy="846362"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Touch LCD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>174172</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>642258</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="화살표: 왼쪽/오른쪽 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3004E09F-D64E-44C1-9DA2-F3663D2BA8C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105401" y="7924800"/>
+          <a:ext cx="468086" cy="174171"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1603,7 +1980,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1636,9 +2013,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1671,6 +2065,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1846,523 +2257,815 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:V37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="I3:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="4.625" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.625" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.875" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" customWidth="1"/>
-    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.59765625" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.69921875" customWidth="1"/>
+    <col min="13" max="13" width="9.8984375" customWidth="1"/>
+    <col min="14" max="14" width="4.59765625" customWidth="1"/>
+    <col min="15" max="15" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="3:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L4" s="29" t="s">
+    <row r="3" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I7" s="6">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I8" s="6">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I9" s="6">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="1">
+        <v>10</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I10" s="6">
+        <v>11</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1">
+        <v>12</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="14"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="6">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="1">
+        <v>14</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="S11" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" s="38"/>
+    </row>
+    <row r="12" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I12" s="6">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="1">
+        <v>16</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I13" s="6">
+        <v>17</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="1">
+        <v>18</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="6">
+        <v>2</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="6">
+        <v>2</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="9">
+        <v>19</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="10">
+        <v>20</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="6">
+        <v>3</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="6">
+        <v>3</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N15" s="6">
+        <v>4</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="6">
+        <v>4</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="N16" s="39">
+        <v>5</v>
+      </c>
+      <c r="O16" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="6">
+        <v>5</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="N17" s="6">
+        <v>6</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="6">
+        <v>6</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="39">
+        <v>7</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="6">
+        <v>7</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="9">
+        <v>2</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="9">
+        <v>8</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="9">
+        <v>8</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="N21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="S21" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="36"/>
+    </row>
+    <row r="22" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="N22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="S22" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="38"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="3:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="17" t="s">
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="S23" s="2">
+        <v>1</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I24" s="9">
         <v>2</v>
       </c>
-      <c r="O5" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="J24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="O24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" s="9">
+        <v>2</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="N26" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="S26" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="22"/>
+    </row>
+    <row r="27" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I27" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="N27" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="18"/>
+      <c r="S27" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="T27" s="20"/>
+    </row>
+    <row r="28" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I29" s="6">
+        <v>2</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="6">
+        <v>2</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" s="6">
+        <v>2</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I30" s="6">
         <v>3</v>
       </c>
-      <c r="N6" s="1">
+      <c r="J30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="6">
+        <v>3</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S30" s="6">
+        <v>3</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I31" s="6">
         <v>4</v>
       </c>
-      <c r="O6" s="27"/>
-    </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C7" s="7">
+      <c r="J31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="6">
+        <v>4</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31" s="6">
+        <v>4</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I32" s="9">
+        <v>5</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="9">
+        <v>5</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S32" s="9">
+        <v>5</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="N34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O34" s="14"/>
+      <c r="S34" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="T34" s="22"/>
+      <c r="V34" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="W34" s="32"/>
+    </row>
+    <row r="35" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="18"/>
+      <c r="N35" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="O35" s="30"/>
+      <c r="S35" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="16"/>
+      <c r="V35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="34"/>
+    </row>
+    <row r="36" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V36" s="2">
+        <v>1</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I37" s="6">
+        <v>2</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="6">
+        <v>2</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S37" s="6">
+        <v>2</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" s="6">
+        <v>2</v>
+      </c>
+      <c r="W37" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I38" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="J38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="6">
+        <v>3</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" s="6">
+        <v>3</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" s="6">
+        <v>3</v>
+      </c>
+      <c r="W38" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N39" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="O39" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" s="6">
+        <v>4</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" s="6">
+        <v>4</v>
+      </c>
+      <c r="W39" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="14"/>
+      <c r="N40" s="9">
         <v>5</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="1">
-        <v>6</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C8" s="7">
+      <c r="O40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" s="9">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="T40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="V40" s="9">
+        <v>5</v>
+      </c>
+      <c r="W40" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I41" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42" s="14"/>
+    </row>
+    <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I43" s="9">
         <v>2</v>
       </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="J43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="18"/>
+    </row>
+    <row r="44" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I45" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="N45" s="9">
         <v>2</v>
       </c>
-      <c r="L8" s="7">
-        <v>7</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="1">
-        <v>8</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="3:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="7">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="10">
-        <v>9</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="O45" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I46" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="3:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11">
-        <v>10</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="3:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="I13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="N13" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="23"/>
-      <c r="U13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V13" s="14"/>
-    </row>
-    <row r="14" spans="3:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="N14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="25"/>
-      <c r="U14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="16"/>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15" s="3">
-        <v>1</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I16" s="10">
+      <c r="O47" s="14"/>
+    </row>
+    <row r="48" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I48" s="9">
         <v>2</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="18"/>
+    </row>
+    <row r="49" spans="11:15" x14ac:dyDescent="0.4">
+      <c r="N49" s="2">
+        <v>1</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="11:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N50" s="9">
+        <v>2</v>
+      </c>
+      <c r="O50" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="10">
-        <v>2</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="U16" s="7">
-        <v>2</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="9:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U17" s="7">
-        <v>3</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I18" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="N18" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="O18" s="23"/>
-      <c r="U18" s="7">
-        <v>4</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="9:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I19" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="N19" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="25"/>
-      <c r="U19" s="10">
-        <v>5</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="9:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="9:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I21" s="10">
-        <v>2</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="10">
-        <v>2</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="V21" s="14"/>
-    </row>
-    <row r="22" spans="9:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="V22" s="16"/>
-    </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="N23" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="23"/>
-      <c r="U23" s="3">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="9:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I24" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="25"/>
-      <c r="N24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O24" s="16"/>
-      <c r="U24" s="7">
-        <v>2</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="3">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="U25" s="7">
-        <v>3</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="9:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I26" s="7">
-        <v>2</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" s="10">
-        <v>2</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="7">
-        <v>4</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="9:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="10">
-        <v>3</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="10">
-        <v>5</v>
-      </c>
-      <c r="V27" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="9:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I29" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="23"/>
-      <c r="U29" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="V29" s="14"/>
-    </row>
-    <row r="30" spans="9:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I30" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="25"/>
-      <c r="U30" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V30" s="21"/>
-    </row>
-    <row r="31" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U31" s="3">
-        <v>1</v>
-      </c>
-      <c r="V31" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="9:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I32" s="10">
-        <v>2</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="U32" s="7">
-        <v>2</v>
-      </c>
-      <c r="V32" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="14:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U33" s="7">
-        <v>3</v>
-      </c>
-      <c r="V33" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="14:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O34" s="14"/>
-      <c r="U34" s="10">
-        <v>4</v>
-      </c>
-      <c r="V34" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="14:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="16"/>
-    </row>
-    <row r="36" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N36" s="3">
-        <v>1</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="14:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N37" s="10">
-        <v>2</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="59" spans="11:15" x14ac:dyDescent="0.4">
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+    </row>
+    <row r="72" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="U22:V22"/>
+  <mergeCells count="35">
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N47:O47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2372,12 +3075,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2385,12 +3088,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B919A28-5EDA-415C-A879-0753C87C2051}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD4BEB6-709A-4DAA-A5EB-9815FBFC3AC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
   <si>
     <t>+12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PW_IS_CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FW_CT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,9 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VDC_IN</t>
-  </si>
-  <si>
     <t>JP1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,6 +228,10 @@
   </si>
   <si>
     <t>CN107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRE_AMP_ENA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -571,22 +568,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -601,34 +618,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -643,8 +642,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -818,8 +817,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>110218</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -835,7 +834,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12053208" y="555171"/>
-          <a:ext cx="3687535" cy="10277476"/>
+          <a:ext cx="4144735" cy="10776858"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1904,6 +1903,343 @@
           <a:ext cx="468086" cy="174171"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>125186</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>69397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>597355</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>220437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5DEBB1-5666-4F6D-8B41-F34933F48114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12349843" y="9213397"/>
+          <a:ext cx="1147083" cy="825954"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FAN</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>346982</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>206830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="오른쪽 화살표 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699F1C25-0936-408B-B158-52BAD6C68230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10546896" y="4920345"/>
+          <a:ext cx="1329418" cy="185056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>336097</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>174174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="오른쪽 화살표 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC3F92D-35B6-433F-AC6C-43700E592A16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10536011" y="6411688"/>
+          <a:ext cx="1329418" cy="185056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>468087</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>206828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="화살표: 왼쪽/오른쪽 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB42DE8-D7DA-41A3-90AC-8806DA5893DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668001" y="3167743"/>
+          <a:ext cx="1240970" cy="370114"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>84365</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="오른쪽 화살표 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AD1BBB-1451-489A-A181-4E540CFD3719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10284279" y="9484177"/>
+          <a:ext cx="1962149" cy="214993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -2260,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="I3:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2277,29 +2613,30 @@
     <col min="13" max="13" width="9.8984375" customWidth="1"/>
     <col min="14" max="14" width="4.59765625" customWidth="1"/>
     <col min="15" max="15" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
+      <c r="I4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K5" s="4">
         <v>2</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="9:20" x14ac:dyDescent="0.4">
@@ -2307,13 +2644,13 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6" s="1">
         <v>4</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="9:20" x14ac:dyDescent="0.4">
@@ -2321,13 +2658,13 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="1">
         <v>6</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="9:20" x14ac:dyDescent="0.4">
@@ -2335,13 +2672,13 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1">
         <v>8</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -2349,95 +2686,95 @@
         <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K9" s="1">
         <v>10</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I10" s="6">
         <v>11</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>39</v>
+      <c r="J10" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="K10" s="1">
         <v>12</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="14"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="36"/>
+        <v>40</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="22"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
     </row>
     <row r="11" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I11" s="6">
         <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1">
         <v>14</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="18"/>
-      <c r="S11" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="T11" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="24"/>
+      <c r="S11" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" s="40"/>
     </row>
     <row r="12" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I12" s="6">
         <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K12" s="1">
         <v>16</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N12" s="2">
         <v>1</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S12" s="2">
         <v>1</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I13" s="6">
         <v>17</v>
       </c>
-      <c r="J13" s="26" t="s">
-        <v>39</v>
+      <c r="J13" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="K13" s="1">
         <v>18</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N13" s="6">
         <v>2</v>
@@ -2456,14 +2793,14 @@
       <c r="I14" s="9">
         <v>19</v>
       </c>
-      <c r="J14" s="27" t="s">
-        <v>39</v>
+      <c r="J14" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="K14" s="10">
         <v>20</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N14" s="6">
         <v>3</v>
@@ -2493,28 +2830,24 @@
       </c>
     </row>
     <row r="16" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="N16" s="39">
+      <c r="I16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="N16" s="16">
         <v>5</v>
       </c>
-      <c r="O16" s="40" t="s">
-        <v>26</v>
-      </c>
+      <c r="O16" s="17"/>
       <c r="S16" s="6">
         <v>5</v>
       </c>
-      <c r="T16" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="18"/>
+      <c r="I17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="24"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -2533,19 +2866,19 @@
         <v>1</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="39">
+        <v>29</v>
+      </c>
+      <c r="N18" s="41">
         <v>7</v>
       </c>
-      <c r="O18" s="40" t="s">
-        <v>29</v>
+      <c r="O18" s="42" t="s">
+        <v>53</v>
       </c>
       <c r="S18" s="6">
         <v>7</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -2553,49 +2886,49 @@
         <v>2</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N19" s="9">
         <v>8</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S19" s="9">
         <v>8</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="N21" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O21" s="14"/>
-      <c r="S21" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="T21" s="36"/>
+      <c r="J21" s="22"/>
+      <c r="N21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="22"/>
+      <c r="S21" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="T21" s="38"/>
     </row>
     <row r="22" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="N22" s="15" t="s">
+      <c r="J22" s="28"/>
+      <c r="N22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="S22" s="37" t="s">
+      <c r="O22" s="28"/>
+      <c r="S22" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="38"/>
+      <c r="T22" s="40"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I23" s="2">
@@ -2639,51 +2972,51 @@
     </row>
     <row r="25" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="N26" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" s="14"/>
-      <c r="S26" s="21" t="s">
+      <c r="J26" s="22"/>
+      <c r="N26" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="22"/>
+      <c r="S26" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="22"/>
+      <c r="T26" s="32"/>
     </row>
     <row r="27" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="18"/>
-      <c r="N27" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="O27" s="18"/>
-      <c r="S27" s="19" t="s">
+      <c r="I27" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="24"/>
+      <c r="N27" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="24"/>
+      <c r="S27" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="20"/>
+      <c r="T27" s="30"/>
     </row>
     <row r="28" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N28" s="2">
         <v>1</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S28" s="2">
         <v>1</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="9:20" x14ac:dyDescent="0.4">
@@ -2691,19 +3024,19 @@
         <v>2</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N29" s="6">
         <v>2</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S29" s="6">
         <v>2</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="9:20" x14ac:dyDescent="0.4">
@@ -2711,19 +3044,19 @@
         <v>3</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N30" s="6">
         <v>3</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S30" s="6">
         <v>3</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="9:20" x14ac:dyDescent="0.4">
@@ -2731,19 +3064,19 @@
         <v>4</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N31" s="6">
         <v>4</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S31" s="6">
         <v>4</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -2751,53 +3084,53 @@
         <v>5</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N32" s="9">
         <v>5</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S32" s="9">
         <v>5</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="14"/>
-      <c r="N34" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O34" s="14"/>
-      <c r="S34" s="21" t="s">
+      <c r="J34" s="22"/>
+      <c r="N34" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="22"/>
+      <c r="S34" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="22"/>
-      <c r="V34" s="31" t="s">
+      <c r="T34" s="32"/>
+      <c r="V34" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="32"/>
+      <c r="W34" s="36"/>
     </row>
     <row r="35" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="18"/>
-      <c r="N35" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="O35" s="30"/>
-      <c r="S35" s="15" t="s">
+      <c r="J35" s="24"/>
+      <c r="N35" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" s="26"/>
+      <c r="S35" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="16"/>
+      <c r="T35" s="28"/>
       <c r="V35" s="33" t="s">
         <v>5</v>
       </c>
@@ -2902,10 +3235,10 @@
       </c>
     </row>
     <row r="40" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I40" s="13" t="s">
+      <c r="I40" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="14"/>
+      <c r="J40" s="22"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -2926,10 +3259,10 @@
       </c>
     </row>
     <row r="41" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="18"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I42" s="2">
@@ -2938,10 +3271,10 @@
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="13" t="s">
+      <c r="N42" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="14"/>
+      <c r="O42" s="22"/>
     </row>
     <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I43" s="9">
@@ -2950,10 +3283,10 @@
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="17" t="s">
+      <c r="N43" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="18"/>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N44" s="2">
@@ -2964,10 +3297,10 @@
       </c>
     </row>
     <row r="45" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I45" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J45" s="14"/>
+      <c r="I45" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="22"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -2976,10 +3309,10 @@
       </c>
     </row>
     <row r="46" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="18"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I47" s="2">
@@ -2988,10 +3321,10 @@
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="13" t="s">
+      <c r="N47" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="14"/>
+      <c r="O47" s="22"/>
     </row>
     <row r="48" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I48" s="9">
@@ -3000,10 +3333,10 @@
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="17" t="s">
+      <c r="N48" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="18"/>
+      <c r="O48" s="24"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.4">
       <c r="N49" s="2">
@@ -3022,50 +3355,50 @@
       </c>
     </row>
     <row r="59" spans="11:15" x14ac:dyDescent="0.4">
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
     </row>
     <row r="72" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N22:O22"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="N48:O48"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="N47:O47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD4BEB6-709A-4DAA-A5EB-9815FBFC3AC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BBAEA1-94EF-4AEF-B059-2CE3CD3E1658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
   <si>
     <t>+12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,38 @@
   </si>
   <si>
     <t>PRE_AMP_ENA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU Block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat Sink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +271,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +292,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -290,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -550,11 +602,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -573,51 +651,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,8 +677,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2242,6 +2328,80 @@
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>368754</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>185060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="오른쪽 화살표 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2DA14CB-4D60-4D9C-BE5E-CE50FAAA75B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10753725" y="8207831"/>
+          <a:ext cx="1329418" cy="185055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2594,17 +2754,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="I3:W72"/>
+  <dimension ref="D3:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="4.59765625" customWidth="1"/>
     <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.59765625" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.59765625" customWidth="1"/>
     <col min="10" max="10" width="11.69921875" bestFit="1" customWidth="1"/>
@@ -2616,16 +2776,39 @@
     <col min="20" max="20" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I4" s="18" t="s">
+    <row r="3" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="47">
+        <v>2</v>
+      </c>
+      <c r="F4" s="47">
+        <v>2</v>
+      </c>
+      <c r="I4" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-    </row>
-    <row r="5" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+    </row>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="48">
+        <v>15</v>
+      </c>
+      <c r="F5" s="48">
+        <v>15</v>
+      </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
@@ -2639,7 +2822,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="D6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="48">
+        <v>1.6</v>
+      </c>
+      <c r="F6" s="48">
+        <v>1.6</v>
+      </c>
       <c r="I6" s="6">
         <v>3</v>
       </c>
@@ -2653,7 +2845,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="D7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="49">
+        <v>5</v>
+      </c>
+      <c r="F7" s="49">
+        <v>5</v>
+      </c>
       <c r="I7" s="6">
         <v>5</v>
       </c>
@@ -2667,7 +2868,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="D8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="49">
+        <v>35</v>
+      </c>
+      <c r="F8" s="49">
+        <v>35</v>
+      </c>
       <c r="I8" s="6">
         <v>7</v>
       </c>
@@ -2681,7 +2891,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="48">
+        <v>1.6</v>
+      </c>
+      <c r="F9" s="48">
+        <v>1.6</v>
+      </c>
       <c r="I9" s="6">
         <v>9</v>
       </c>
@@ -2695,7 +2914,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="D10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="48">
+        <v>60</v>
+      </c>
+      <c r="F10" s="48">
+        <v>80</v>
+      </c>
       <c r="I10" s="6">
         <v>11</v>
       </c>
@@ -2708,14 +2936,23 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="22"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="38"/>
-    </row>
-    <row r="11" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O10" s="37"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="50">
+        <v>10</v>
+      </c>
+      <c r="F11" s="50">
+        <v>10</v>
+      </c>
       <c r="I11" s="6">
         <v>13</v>
       </c>
@@ -2728,16 +2965,27 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="24"/>
-      <c r="S11" s="39" t="s">
+      <c r="O11" s="35"/>
+      <c r="S11" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="40"/>
-    </row>
-    <row r="12" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="46">
+        <f>SUM(E4:E11)</f>
+        <v>130.19999999999999</v>
+      </c>
+      <c r="F12" s="46">
+        <f>SUM(F4:F11)</f>
+        <v>150.19999999999999</v>
+      </c>
       <c r="I12" s="6">
         <v>15</v>
       </c>
@@ -2763,7 +3011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:20" x14ac:dyDescent="0.4">
       <c r="I13" s="6">
         <v>17</v>
       </c>
@@ -2789,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I14" s="9">
         <v>19</v>
       </c>
@@ -2815,7 +3063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N15" s="6">
         <v>4</v>
       </c>
@@ -2829,11 +3077,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I16" s="21" t="s">
+    <row r="16" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="I16" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="37"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -2844,10 +3092,10 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="24"/>
+      <c r="J17" s="35"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -2868,10 +3116,10 @@
       <c r="J18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="18">
         <v>7</v>
       </c>
-      <c r="O18" s="42" t="s">
+      <c r="O18" s="19" t="s">
         <v>53</v>
       </c>
       <c r="S18" s="6">
@@ -2903,32 +3151,32 @@
     </row>
     <row r="20" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="N21" s="21" t="s">
+      <c r="J21" s="37"/>
+      <c r="N21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="22"/>
-      <c r="S21" s="37" t="s">
+      <c r="O21" s="37"/>
+      <c r="S21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="38"/>
+      <c r="T21" s="25"/>
     </row>
     <row r="22" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="N22" s="27" t="s">
+      <c r="J22" s="33"/>
+      <c r="N22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="28"/>
-      <c r="S22" s="39" t="s">
+      <c r="O22" s="33"/>
+      <c r="S22" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="40"/>
+      <c r="T22" s="27"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I23" s="2">
@@ -2972,32 +3220,32 @@
     </row>
     <row r="25" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="N26" s="21" t="s">
+      <c r="J26" s="37"/>
+      <c r="N26" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="22"/>
-      <c r="S26" s="31" t="s">
+      <c r="O26" s="37"/>
+      <c r="S26" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="32"/>
+      <c r="T26" s="31"/>
     </row>
     <row r="27" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="24"/>
-      <c r="N27" s="23" t="s">
+      <c r="J27" s="35"/>
+      <c r="N27" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="24"/>
-      <c r="S27" s="29" t="s">
+      <c r="O27" s="35"/>
+      <c r="S27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="30"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I28" s="2">
@@ -3101,40 +3349,40 @@
     </row>
     <row r="33" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="22"/>
-      <c r="N34" s="21" t="s">
+      <c r="J34" s="37"/>
+      <c r="N34" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="22"/>
-      <c r="S34" s="31" t="s">
+      <c r="O34" s="37"/>
+      <c r="S34" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="32"/>
-      <c r="V34" s="35" t="s">
+      <c r="T34" s="31"/>
+      <c r="V34" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="36"/>
+      <c r="W34" s="23"/>
     </row>
     <row r="35" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="24"/>
-      <c r="N35" s="25" t="s">
+      <c r="J35" s="35"/>
+      <c r="N35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="26"/>
-      <c r="S35" s="27" t="s">
+      <c r="O35" s="39"/>
+      <c r="S35" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="28"/>
-      <c r="V35" s="33" t="s">
+      <c r="T35" s="33"/>
+      <c r="V35" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="34"/>
+      <c r="W35" s="21"/>
     </row>
     <row r="36" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I36" s="2">
@@ -3235,10 +3483,10 @@
       </c>
     </row>
     <row r="40" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="22"/>
+      <c r="J40" s="37"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -3259,10 +3507,10 @@
       </c>
     </row>
     <row r="41" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I41" s="23" t="s">
+      <c r="I41" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="24"/>
+      <c r="J41" s="35"/>
     </row>
     <row r="42" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I42" s="2">
@@ -3271,10 +3519,10 @@
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="21" t="s">
+      <c r="N42" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="22"/>
+      <c r="O42" s="37"/>
     </row>
     <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I43" s="9">
@@ -3283,10 +3531,10 @@
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="23" t="s">
+      <c r="N43" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="24"/>
+      <c r="O43" s="35"/>
     </row>
     <row r="44" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N44" s="2">
@@ -3297,10 +3545,10 @@
       </c>
     </row>
     <row r="45" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I45" s="21" t="s">
+      <c r="I45" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="22"/>
+      <c r="J45" s="37"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -3309,10 +3557,10 @@
       </c>
     </row>
     <row r="46" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I46" s="23" t="s">
+      <c r="I46" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="24"/>
+      <c r="J46" s="35"/>
     </row>
     <row r="47" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I47" s="2">
@@ -3321,10 +3569,10 @@
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="21" t="s">
+      <c r="N47" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="22"/>
+      <c r="O47" s="37"/>
     </row>
     <row r="48" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I48" s="9">
@@ -3333,10 +3581,10 @@
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="23" t="s">
+      <c r="N48" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="24"/>
+      <c r="O48" s="35"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.4">
       <c r="N49" s="2">
@@ -3364,22 +3612,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -3392,13 +3631,22 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BBAEA1-94EF-4AEF-B059-2CE3CD3E1658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB2A774-C97B-4C96-85BE-E28E3B78DB2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="RFGEN V2.0B" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="69">
   <si>
     <t>+12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +267,34 @@
     <t>Heat Sink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Header 2x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF12V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOUTB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423x208x177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +344,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -342,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -628,11 +664,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -653,6 +728,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,47 +805,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2425,6 +2536,2402 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>195942</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>375557</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71D4073-690A-4A6B-9FB4-7A59D640DDC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13944599" y="843642"/>
+          <a:ext cx="1311729" cy="389165"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PWR</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476253</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>65316</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897250FA-2EB7-4082-A496-D5DAC5A47A6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5265967" y="775605"/>
+          <a:ext cx="1515835" cy="498022"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>87084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C2D594-3758-433A-A263-9CDA5692A327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11247665" y="751113"/>
+          <a:ext cx="4797878" cy="7271659"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3378"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1116137B-9AA9-4F18-8B47-5176431A8E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4214133" y="718456"/>
+          <a:ext cx="4879521" cy="9546773"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2056"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>535578</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>58510</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>55789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AB7A21-8FB2-4B74-8C8E-6E1C26F98D3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2669178" y="2975883"/>
+          <a:ext cx="1155789" cy="889906"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SMPS</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>48V 12.5A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PSP-600-48</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05E7836-FC6E-46CA-BD43-AC854CFFF281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="1409700"/>
+          <a:ext cx="1140278" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SMPS</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12V 100W</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>532040</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>178252</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B657CAF6-E672-44B1-B744-294EAEBB2343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048498" y="7141029"/>
+          <a:ext cx="1375685" cy="711652"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>DC/DC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>12V -&gt; 5V</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>NCP3064 1.5A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160563</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>89806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>521154</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E05A77D-901F-4AD5-9290-7D61B1B20E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7018563" y="7992835"/>
+          <a:ext cx="1394734" cy="741590"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>DC/DC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5V -&gt; 3.3V</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>LM1117-3.3V 1A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>473530</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>662669</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215D481D-F315-491F-80BA-8D810A1E4EA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2607130" y="6862081"/>
+          <a:ext cx="1147082" cy="825954"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Top Case</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Limit S/W</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>473530</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>662669</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83003</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B5DBF4-1446-450E-B3D5-6FD7564E1FBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2607130" y="5791198"/>
+          <a:ext cx="1147082" cy="834119"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RF CON</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Limit S/W</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83005</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>559255</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>189140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="오른쪽 화살표 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4BC513-B8C2-40E4-9E0F-32DFBF9BCEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3849462" y="6074229"/>
+          <a:ext cx="476250" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>73480</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>549730</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="오른쪽 화살표 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4E50BD-1EB3-4F79-B440-08C2930E8F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3839937" y="7176406"/>
+          <a:ext cx="476250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>129266</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>605516</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>164647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="오른쪽 화살표 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67776E7-E177-4EE8-8F6D-C4C1773ED0CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895723" y="1719944"/>
+          <a:ext cx="476250" cy="229960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>164647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="오른쪽 화살표 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E809BF9-B9C0-4E52-85E2-74417079A0B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3918856" y="3309258"/>
+          <a:ext cx="476250" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508909</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16330</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>198661</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23909E8D-06B6-4006-BFB3-02469B8C0C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2642509" y="4501242"/>
+          <a:ext cx="1140278" cy="868133"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Touch LCD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>620487</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA6E61B-9EA3-4E64-8EE1-3C710808BF0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3918858" y="4833257"/>
+          <a:ext cx="468086" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>70757</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>91168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>542927</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>220436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D281FD-934A-4C55-BD28-733A52DFE02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17999528" y="8222797"/>
+          <a:ext cx="864056" cy="815068"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FAN</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>346982</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>206830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="오른쪽 화살표 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAEF571-1E52-40D8-9DF6-64E319869387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10725422" y="4967154"/>
+          <a:ext cx="1320709" cy="185056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>249011</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>217716</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="오른쪽 화살표 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49DDA1B-009F-48DE-B5EF-E05CA67E82D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17970954" y="5203375"/>
+          <a:ext cx="1329418" cy="185055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>250373</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>206828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>446315</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="화살표: 왼쪽/오른쪽 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B128BB7-814B-4FA9-99CD-679949B4ECE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12137573" y="2677885"/>
+          <a:ext cx="870856" cy="413658"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160565</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>35377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="오른쪽 화살표 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3301D7E-9279-46C0-9F9A-A61A93056A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229851" y="8624206"/>
+          <a:ext cx="7698920" cy="117023"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>249012</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228602</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>206830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="오른쪽 화살표 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FD9BA3-D1CC-48E0-85CF-BEC994C8A737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17970955" y="6988632"/>
+          <a:ext cx="1329418" cy="185055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>463731</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>207916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>599803</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>150767</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C86C55-B9FE-4DD0-A2F5-2DA5B3FA1D23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20602302" y="871945"/>
+          <a:ext cx="1485901" cy="389165"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RF</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>575312</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A8718C-25AD-4662-84E2-EDDC5A2F529B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15978598" y="772885"/>
+          <a:ext cx="3300003" cy="8371115"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3050"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>436517</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>40277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>756288</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F524F0-08A9-4B9E-8C1A-FF16625DD3CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12606746" y="4764677"/>
+          <a:ext cx="1375685" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>DC/DC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>48V -&gt; 12V</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>LM2576HV-12 3A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>458289</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>778060</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B358E331-20FB-4E6E-A957-146088E52289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12628518" y="5983877"/>
+          <a:ext cx="1375685" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>DC/DC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>12V -&gt; -12V</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>TPS5430 3A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242046</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>206189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8089F9C2-564D-4886-8332-24E3C62A7488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1156446" y="654424"/>
+          <a:ext cx="4607859" cy="2886635"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3624"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>PWR</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26896</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>233082</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4AD178-DF3F-4F17-AAAC-E8582336A67D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1183343" y="3818964"/>
+          <a:ext cx="2142563" cy="5351930"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>RF</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>17036</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27444F48-246F-4D05-921D-315602B7118B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867812" y="663389"/>
+          <a:ext cx="2887529" cy="2232211"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56926</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3EF394D-CE76-4809-A6F3-BF98C739B022}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3633844" y="5710518"/>
+          <a:ext cx="2166320" cy="3361764"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>48V SMPS</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>237566</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>197223</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F42166F-F856-4E43-A743-7E935D847C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="909919" y="466165"/>
+          <a:ext cx="5042645" cy="9502588"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>71271</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE91E2A-9151-4BC6-8AF6-5ED7341ADE66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648189" y="6302189"/>
+          <a:ext cx="2134046" cy="2169458"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>12V SMPS</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2756,8 +5263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2777,36 +5284,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="24">
         <v>2</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="25">
         <v>15</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="25">
         <v>15</v>
       </c>
       <c r="I5" s="2">
@@ -2826,10 +5333,10 @@
       <c r="D6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="25">
         <v>1.6</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="25">
         <v>1.6</v>
       </c>
       <c r="I6" s="6">
@@ -2849,10 +5356,10 @@
       <c r="D7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="26">
         <v>5</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="26">
         <v>5</v>
       </c>
       <c r="I7" s="6">
@@ -2872,10 +5379,10 @@
       <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="26">
         <v>35</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="26">
         <v>35</v>
       </c>
       <c r="I8" s="6">
@@ -2895,10 +5402,10 @@
       <c r="D9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="25">
         <v>1.6</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="25">
         <v>1.6</v>
       </c>
       <c r="I9" s="6">
@@ -2918,10 +5425,10 @@
       <c r="D10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="25">
         <v>60</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="25">
         <v>80</v>
       </c>
       <c r="I10" s="6">
@@ -2936,21 +5443,21 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="36" t="s">
+      <c r="N10" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="37"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="25"/>
+      <c r="O10" s="32"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="44"/>
     </row>
     <row r="11" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="27">
         <v>10</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="27">
         <v>10</v>
       </c>
       <c r="I11" s="6">
@@ -2965,24 +5472,24 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="S11" s="26" t="s">
+      <c r="O11" s="34"/>
+      <c r="S11" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="27"/>
+      <c r="T11" s="46"/>
     </row>
     <row r="12" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="23">
         <f>SUM(E4:E11)</f>
         <v>130.19999999999999</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="23">
         <f>SUM(F4:F11)</f>
         <v>150.19999999999999</v>
       </c>
@@ -3078,10 +5585,10 @@
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="37"/>
+      <c r="J16" s="32"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -3092,10 +5599,10 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="35"/>
+      <c r="J17" s="34"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -3151,32 +5658,32 @@
     </row>
     <row r="20" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="N21" s="36" t="s">
+      <c r="J21" s="32"/>
+      <c r="N21" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="37"/>
-      <c r="S21" s="24" t="s">
+      <c r="O21" s="32"/>
+      <c r="S21" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="25"/>
+      <c r="T21" s="44"/>
     </row>
     <row r="22" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="N22" s="32" t="s">
+      <c r="J22" s="38"/>
+      <c r="N22" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="33"/>
-      <c r="S22" s="26" t="s">
+      <c r="O22" s="38"/>
+      <c r="S22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="27"/>
+      <c r="T22" s="46"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I23" s="2">
@@ -3220,32 +5727,32 @@
     </row>
     <row r="25" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="N26" s="36" t="s">
+      <c r="J26" s="32"/>
+      <c r="N26" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="37"/>
-      <c r="S26" s="30" t="s">
+      <c r="O26" s="32"/>
+      <c r="S26" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="31"/>
+      <c r="T26" s="50"/>
     </row>
     <row r="27" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="N27" s="34" t="s">
+      <c r="J27" s="34"/>
+      <c r="N27" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="35"/>
-      <c r="S27" s="28" t="s">
+      <c r="O27" s="34"/>
+      <c r="S27" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="29"/>
+      <c r="T27" s="48"/>
     </row>
     <row r="28" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I28" s="2">
@@ -3349,40 +5856,40 @@
     </row>
     <row r="33" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I34" s="36" t="s">
+      <c r="I34" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="N34" s="36" t="s">
+      <c r="J34" s="32"/>
+      <c r="N34" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="37"/>
-      <c r="S34" s="30" t="s">
+      <c r="O34" s="32"/>
+      <c r="S34" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="31"/>
-      <c r="V34" s="22" t="s">
+      <c r="T34" s="50"/>
+      <c r="V34" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="23"/>
+      <c r="W34" s="42"/>
     </row>
     <row r="35" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="35"/>
-      <c r="N35" s="38" t="s">
+      <c r="J35" s="34"/>
+      <c r="N35" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="39"/>
-      <c r="S35" s="32" t="s">
+      <c r="O35" s="36"/>
+      <c r="S35" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="33"/>
-      <c r="V35" s="20" t="s">
+      <c r="T35" s="38"/>
+      <c r="V35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="21"/>
+      <c r="W35" s="40"/>
     </row>
     <row r="36" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I36" s="2">
@@ -3483,10 +5990,10 @@
       </c>
     </row>
     <row r="40" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I40" s="36" t="s">
+      <c r="I40" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="37"/>
+      <c r="J40" s="32"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -3507,10 +6014,10 @@
       </c>
     </row>
     <row r="41" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="35"/>
+      <c r="J41" s="34"/>
     </row>
     <row r="42" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I42" s="2">
@@ -3519,10 +6026,10 @@
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="36" t="s">
+      <c r="N42" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="37"/>
+      <c r="O42" s="32"/>
     </row>
     <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I43" s="9">
@@ -3531,10 +6038,10 @@
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="34" t="s">
+      <c r="N43" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="35"/>
+      <c r="O43" s="34"/>
     </row>
     <row r="44" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N44" s="2">
@@ -3545,10 +6052,10 @@
       </c>
     </row>
     <row r="45" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I45" s="36" t="s">
+      <c r="I45" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="37"/>
+      <c r="J45" s="32"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -3557,10 +6064,10 @@
       </c>
     </row>
     <row r="46" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I46" s="34" t="s">
+      <c r="I46" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="35"/>
+      <c r="J46" s="34"/>
     </row>
     <row r="47" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I47" s="2">
@@ -3569,10 +6076,10 @@
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="36" t="s">
+      <c r="N47" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="37"/>
+      <c r="O47" s="32"/>
     </row>
     <row r="48" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I48" s="9">
@@ -3581,10 +6088,10 @@
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="34" t="s">
+      <c r="N48" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="35"/>
+      <c r="O48" s="34"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.4">
       <c r="N49" s="2">
@@ -3612,13 +6119,22 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -3631,22 +6147,13 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3656,19 +6163,1457 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5CF7C6-BCD9-4838-B263-8ED163986BCF}">
+  <dimension ref="B3:AF45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.8984375" customWidth="1"/>
+    <col min="10" max="10" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" customWidth="1"/>
+    <col min="13" max="13" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="24">
+        <v>2</v>
+      </c>
+      <c r="D4" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="25">
+        <v>15</v>
+      </c>
+      <c r="D5" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1.6</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="26">
+        <v>5</v>
+      </c>
+      <c r="D7" s="26">
+        <v>5</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="J7" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="32"/>
+      <c r="P7" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="32"/>
+      <c r="U7" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" s="44"/>
+    </row>
+    <row r="8" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="26">
+        <v>35</v>
+      </c>
+      <c r="D8" s="26">
+        <v>35</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="J8" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="68"/>
+      <c r="P8" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="68"/>
+      <c r="U8" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="V8" s="46"/>
+      <c r="AE8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF8" s="32"/>
+    </row>
+    <row r="9" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="25">
+        <v>1.6</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1.6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="62">
+        <v>1</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="63">
+        <v>2</v>
+      </c>
+      <c r="M9" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="63">
+        <v>2</v>
+      </c>
+      <c r="S9" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9" s="34"/>
+    </row>
+    <row r="10" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="25">
+        <v>60</v>
+      </c>
+      <c r="D10" s="25">
+        <v>80</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>4</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" s="6">
+        <v>2</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="27">
+        <v>10</v>
+      </c>
+      <c r="D11" s="27">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1">
+        <v>6</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="1">
+        <v>6</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="U11" s="6">
+        <v>3</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="23">
+        <f>SUM(C4:C11)</f>
+        <v>130.19999999999999</v>
+      </c>
+      <c r="D12" s="23">
+        <f>SUM(D4:D11)</f>
+        <v>150.19999999999999</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="J12" s="6">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1">
+        <v>8</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="1">
+        <v>8</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="U12" s="6">
+        <v>4</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G13" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="J13" s="6">
+        <v>9</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" s="1">
+        <v>10</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" s="6">
+        <v>5</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="6">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>12</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>12</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="6">
+        <v>6</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="17"/>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="G15" s="6">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="6">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>14</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>14</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="6">
+        <v>7</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="6">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
+        <v>16</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="P16" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1">
+        <v>16</v>
+      </c>
+      <c r="S16" s="8"/>
+      <c r="U16" s="6">
+        <v>8</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF16" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G17" s="6">
+        <v>4</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>17</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="1">
+        <v>18</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" s="1">
+        <v>18</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U17" s="6">
+        <v>9</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>8</v>
+      </c>
+      <c r="AF17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G18" s="9">
+        <v>5</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9">
+        <v>19</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="10">
+        <v>20</v>
+      </c>
+      <c r="M18" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="9">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" s="10">
+        <v>20</v>
+      </c>
+      <c r="S18" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" s="9">
+        <v>10</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G20" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="J21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30"/>
+      <c r="U21" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="V21" s="32"/>
+      <c r="Y21" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="50"/>
+    </row>
+    <row r="22" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="4">
+        <v>2</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="V22" s="34"/>
+      <c r="Y22" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="48"/>
+    </row>
+    <row r="23" spans="7:32" x14ac:dyDescent="0.4">
+      <c r="G23" s="6">
+        <v>2</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="6">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="1">
+        <v>4</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE23" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF23" s="52"/>
+    </row>
+    <row r="24" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G24" s="9">
+        <v>3</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>5</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="1">
+        <v>6</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" s="6">
+        <v>2</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE24" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF24" s="54"/>
+    </row>
+    <row r="25" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J25" s="6">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="1">
+        <v>8</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" s="6">
+        <v>3</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE25" s="55">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G26" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="J26" s="6">
+        <v>9</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="1">
+        <v>10</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U26" s="6">
+        <v>4</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="57">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="J27" s="6">
+        <v>11</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="1">
+        <v>12</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" s="9">
+        <v>5</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="6">
+        <v>13</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="1">
+        <v>14</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G29" s="9">
+        <v>2</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6">
+        <v>15</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="1">
+        <v>16</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="V29" s="32"/>
+      <c r="Y29" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="50"/>
+      <c r="AB29" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC29" s="42"/>
+    </row>
+    <row r="30" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J30" s="6">
+        <v>17</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="1">
+        <v>18</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V30" s="36"/>
+      <c r="Y30" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="38"/>
+      <c r="AB30" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC30" s="40"/>
+    </row>
+    <row r="31" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G31" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="J31" s="9">
+        <v>19</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="10">
+        <v>20</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" s="2">
+        <v>1</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G32" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="34"/>
+      <c r="U32" s="6">
+        <v>2</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="7:29" x14ac:dyDescent="0.4">
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U33" s="6">
+        <v>3</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G34" s="9">
+        <v>2</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" s="6">
+        <v>4</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC34" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U35" s="9">
+        <v>5</v>
+      </c>
+      <c r="V35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G36" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G37" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="L37" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="32"/>
+    </row>
+    <row r="38" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="34"/>
+    </row>
+    <row r="39" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G39" s="9">
+        <v>2</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L40" s="9">
+        <v>2</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="7:29" x14ac:dyDescent="0.4">
+      <c r="L42" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="32"/>
+    </row>
+    <row r="43" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L43" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="34"/>
+    </row>
+    <row r="44" spans="7:29" x14ac:dyDescent="0.4">
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L45" s="9">
+        <v>2</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="G36:H36"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="25" width="3.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="C2" s="70">
+        <v>10</v>
+      </c>
+      <c r="D2" s="70">
+        <v>20</v>
+      </c>
+      <c r="E2" s="70">
+        <v>30</v>
+      </c>
+      <c r="F2" s="70">
+        <v>40</v>
+      </c>
+      <c r="G2" s="70">
+        <v>50</v>
+      </c>
+      <c r="H2" s="70">
+        <v>60</v>
+      </c>
+      <c r="I2" s="70">
+        <v>70</v>
+      </c>
+      <c r="J2" s="70">
+        <v>80</v>
+      </c>
+      <c r="K2" s="70">
+        <v>90</v>
+      </c>
+      <c r="L2" s="70">
+        <v>100</v>
+      </c>
+      <c r="M2" s="70">
+        <v>110</v>
+      </c>
+      <c r="N2" s="70">
+        <v>120</v>
+      </c>
+      <c r="O2" s="70">
+        <v>130</v>
+      </c>
+      <c r="P2" s="70">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="70">
+        <v>150</v>
+      </c>
+      <c r="R2" s="70">
+        <v>160</v>
+      </c>
+      <c r="S2" s="70">
+        <v>170</v>
+      </c>
+      <c r="T2" s="70">
+        <v>180</v>
+      </c>
+      <c r="U2" s="70">
+        <v>190</v>
+      </c>
+      <c r="V2" s="70">
+        <v>200</v>
+      </c>
+      <c r="W2" s="70">
+        <v>210</v>
+      </c>
+      <c r="X2" s="70">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="70">
+        <v>230</v>
+      </c>
+      <c r="Z2" s="70"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B3" s="70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B4" s="70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B5" s="70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B6" s="70">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B7" s="70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B8" s="70">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B9" s="70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B10" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B11" s="70">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B12" s="70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B13" s="70">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B14" s="70">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B15" s="70">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B16" s="70">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="70">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="70">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="70">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="70">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="70">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="70">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="70">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="70">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="70">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="70">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="70">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="70">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="70">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="70">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="70">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="70">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="70">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="70">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="70">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="70">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="70">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="70">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="70">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="70">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="70">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="70">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="70">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB2A774-C97B-4C96-85BE-E28E3B78DB2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
@@ -299,11 +298,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +345,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -707,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -736,39 +742,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -805,6 +790,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,30 +847,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -878,7 +885,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +957,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1029,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,7 +1095,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1154,7 +1161,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,7 +1289,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1395,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1473,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1551,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1639,7 +1646,7 @@
         <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1741,7 @@
         <xdr:cNvPr id="8" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1794,7 +1801,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1861,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1929,7 @@
         <xdr:cNvPr id="16" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E350673-E94C-400E-9271-47D82C523782}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E350673-E94C-400E-9271-47D82C523782}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +1997,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF590CA-A38C-4E79-A6D7-1A694015461B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDF590CA-A38C-4E79-A6D7-1A694015461B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2095,7 @@
         <xdr:cNvPr id="13" name="화살표: 왼쪽/오른쪽 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3004E09F-D64E-44C1-9DA2-F3663D2BA8C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3004E09F-D64E-44C1-9DA2-F3663D2BA8C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2155,7 @@
         <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5DEBB1-5666-4F6D-8B41-F34933F48114}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E5DEBB1-5666-4F6D-8B41-F34933F48114}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2236,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699F1C25-0936-408B-B158-52BAD6C68230}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{699F1C25-0936-408B-B158-52BAD6C68230}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2304,7 @@
         <xdr:cNvPr id="21" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC3F92D-35B6-433F-AC6C-43700E592A16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCC3F92D-35B6-433F-AC6C-43700E592A16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2372,7 @@
         <xdr:cNvPr id="22" name="화살표: 왼쪽/오른쪽 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB42DE8-D7DA-41A3-90AC-8806DA5893DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FB42DE8-D7DA-41A3-90AC-8806DA5893DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2432,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AD1BBB-1451-489A-A181-4E540CFD3719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1AD1BBB-1451-489A-A181-4E540CFD3719}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2492,7 @@
         <xdr:cNvPr id="24" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2DA14CB-4D60-4D9C-BE5E-CE50FAAA75B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2DA14CB-4D60-4D9C-BE5E-CE50FAAA75B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2571,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71D4073-690A-4A6B-9FB4-7A59D640DDC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B71D4073-690A-4A6B-9FB4-7A59D640DDC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,7 +2643,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897250FA-2EB7-4082-A496-D5DAC5A47A6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{897250FA-2EB7-4082-A496-D5DAC5A47A6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2708,7 +2715,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C2D594-3758-433A-A263-9CDA5692A327}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64C2D594-3758-433A-A263-9CDA5692A327}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2781,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1116137B-9AA9-4F18-8B47-5176431A8E3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1116137B-9AA9-4F18-8B47-5176431A8E3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2840,7 +2847,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AB7A21-8FB2-4B74-8C8E-6E1C26F98D3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8AB7A21-8FB2-4B74-8C8E-6E1C26F98D3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2968,7 +2975,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05E7836-FC6E-46CA-BD43-AC854CFFF281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05E7836-FC6E-46CA-BD43-AC854CFFF281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,7 +3081,7 @@
         <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B657CAF6-E672-44B1-B744-294EAEBB2343}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B657CAF6-E672-44B1-B744-294EAEBB2343}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3159,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E05A77D-901F-4AD5-9290-7D61B1B20E3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E05A77D-901F-4AD5-9290-7D61B1B20E3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3230,7 +3237,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215D481D-F315-491F-80BA-8D810A1E4EA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{215D481D-F315-491F-80BA-8D810A1E4EA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3332,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B5DBF4-1446-450E-B3D5-6FD7564E1FBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74B5DBF4-1446-450E-B3D5-6FD7564E1FBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3427,7 @@
         <xdr:cNvPr id="12" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4BC513-B8C2-40E4-9E0F-32DFBF9BCEC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F4BC513-B8C2-40E4-9E0F-32DFBF9BCEC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3480,7 +3487,7 @@
         <xdr:cNvPr id="13" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4E50BD-1EB3-4F79-B440-08C2930E8F58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D4E50BD-1EB3-4F79-B440-08C2930E8F58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3540,7 +3547,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67776E7-E177-4EE8-8F6D-C4C1773ED0CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E67776E7-E177-4EE8-8F6D-C4C1773ED0CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3608,7 +3615,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E809BF9-B9C0-4E52-85E2-74417079A0B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E809BF9-B9C0-4E52-85E2-74417079A0B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3676,7 +3683,7 @@
         <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23909E8D-06B6-4006-BFB3-02469B8C0C07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23909E8D-06B6-4006-BFB3-02469B8C0C07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3774,7 +3781,7 @@
         <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA6E61B-9EA3-4E64-8EE1-3C710808BF0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DA6E61B-9EA3-4E64-8EE1-3C710808BF0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3834,7 +3841,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D281FD-934A-4C55-BD28-733A52DFE02C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80D281FD-934A-4C55-BD28-733A52DFE02C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3915,7 +3922,7 @@
         <xdr:cNvPr id="19" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAEF571-1E52-40D8-9DF6-64E319869387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CAEF571-1E52-40D8-9DF6-64E319869387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3983,7 +3990,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49DDA1B-009F-48DE-B5EF-E05CA67E82D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C49DDA1B-009F-48DE-B5EF-E05CA67E82D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4051,7 +4058,7 @@
         <xdr:cNvPr id="21" name="화살표: 왼쪽/오른쪽 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B128BB7-814B-4FA9-99CD-679949B4ECE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B128BB7-814B-4FA9-99CD-679949B4ECE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4111,7 +4118,7 @@
         <xdr:cNvPr id="22" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3301D7E-9279-46C0-9F9A-A61A93056A47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3301D7E-9279-46C0-9F9A-A61A93056A47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4171,7 +4178,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FD9BA3-D1CC-48E0-85CF-BEC994C8A737}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48FD9BA3-D1CC-48E0-85CF-BEC994C8A737}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4245,7 +4252,7 @@
         <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C86C55-B9FE-4DD0-A2F5-2DA5B3FA1D23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12C86C55-B9FE-4DD0-A2F5-2DA5B3FA1D23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4317,7 +4324,7 @@
         <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A8718C-25AD-4662-84E2-EDDC5A2F529B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A8718C-25AD-4662-84E2-EDDC5A2F529B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4383,7 +4390,7 @@
         <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F524F0-08A9-4B9E-8C1A-FF16625DD3CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1F524F0-08A9-4B9E-8C1A-FF16625DD3CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4461,7 +4468,7 @@
         <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B358E331-20FB-4E6E-A957-146088E52289}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B358E331-20FB-4E6E-A957-146088E52289}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4530,21 +4537,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>242046</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>206189</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>8964</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8089F9C2-564D-4886-8332-24E3C62A7488}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8089F9C2-564D-4886-8332-24E3C62A7488}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4552,8 +4559,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1156446" y="654424"/>
-          <a:ext cx="4607859" cy="2886635"/>
+          <a:off x="1261781" y="649941"/>
+          <a:ext cx="4697507" cy="2319618"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4597,23 +4604,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>26896</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>239808</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>233082</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>206188</xdr:rowOff>
+      <xdr:colOff>199464</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4AD178-DF3F-4F17-AAAC-E8582336A67D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C4AD178-DF3F-4F17-AAAC-E8582336A67D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4621,8 +4628,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1183343" y="3818964"/>
-          <a:ext cx="2142563" cy="5351930"/>
+          <a:off x="1258569" y="3128390"/>
+          <a:ext cx="2195960" cy="4930588"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4666,23 +4673,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>17036</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>215154</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>26334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>206188</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27444F48-246F-4D05-921D-315602B7118B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27444F48-246F-4D05-921D-315602B7118B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4690,8 +4697,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2867812" y="663389"/>
-          <a:ext cx="2887529" cy="2232211"/>
+          <a:off x="2980766" y="665069"/>
+          <a:ext cx="2969559" cy="2304489"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4733,22 +4740,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>56926</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
+      <xdr:colOff>48644</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>148990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:colOff>36541</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>148990</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3EF394D-CE76-4809-A6F3-BF98C739B022}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3EF394D-CE76-4809-A6F3-BF98C739B022}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4756,8 +4763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3633844" y="5710518"/>
-          <a:ext cx="2166320" cy="3361764"/>
+          <a:off x="3800666" y="5118555"/>
+          <a:ext cx="2224201" cy="3105978"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4804,8 +4811,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>237566</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
@@ -4820,7 +4827,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F42166F-F856-4E43-A743-7E935D847C9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F42166F-F856-4E43-A743-7E935D847C9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4828,8 +4835,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="909919" y="466165"/>
-          <a:ext cx="5042645" cy="9502588"/>
+          <a:off x="1030941" y="443754"/>
+          <a:ext cx="5116606" cy="9031941"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4868,22 +4875,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>71271</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>26895</xdr:rowOff>
+      <xdr:colOff>62989</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>26894</xdr:colOff>
+      <xdr:colOff>18612</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:rowOff>13642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE91E2A-9151-4BC6-8AF6-5ED7341ADE66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CE91E2A-9151-4BC6-8AF6-5ED7341ADE66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4891,8 +4898,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3648189" y="6302189"/>
-          <a:ext cx="2134046" cy="2169458"/>
+          <a:off x="3815011" y="5659069"/>
+          <a:ext cx="2191927" cy="2015986"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4932,6 +4939,315 @@
             <a:t>12V SMPS</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>17482</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CE91E2A-9151-4BC6-8AF6-5ED7341ADE66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1037217" y="8729382"/>
+          <a:ext cx="2481429" cy="627530"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>FAN</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>159709</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>61389</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27444F48-246F-4D05-921D-315602B7118B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4160209" y="2664077"/>
+          <a:ext cx="895593" cy="173447"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HD</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>163217</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27444F48-246F-4D05-921D-315602B7118B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3250487" y="2659595"/>
+          <a:ext cx="664752" cy="189135"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>48V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>37224</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165651</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27444F48-246F-4D05-921D-315602B7118B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5280115" y="2649753"/>
+          <a:ext cx="443168" cy="207746"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4983,7 +5299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5016,26 +5332,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5068,23 +5367,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5260,36 +5542,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:W72"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="4.59765625" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.625" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.59765625" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.69921875" customWidth="1"/>
-    <col min="13" max="13" width="9.8984375" customWidth="1"/>
-    <col min="14" max="14" width="4.59765625" customWidth="1"/>
-    <col min="15" max="15" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
@@ -5299,14 +5581,14 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-    </row>
-    <row r="5" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="62"/>
+    </row>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
         <v>56</v>
       </c>
@@ -5329,7 +5611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
         <v>57</v>
       </c>
@@ -5352,7 +5634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D7" s="18" t="s">
         <v>60</v>
       </c>
@@ -5375,7 +5657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
@@ -5398,7 +5680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="6" t="s">
         <v>58</v>
       </c>
@@ -5421,7 +5703,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
         <v>61</v>
       </c>
@@ -5443,14 +5725,14 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="44"/>
-    </row>
-    <row r="11" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O10" s="57"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="45"/>
+    </row>
+    <row r="11" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="9" t="s">
         <v>60</v>
       </c>
@@ -5472,16 +5754,16 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="33" t="s">
+      <c r="N11" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="34"/>
-      <c r="S11" s="45" t="s">
+      <c r="O11" s="55"/>
+      <c r="S11" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="46"/>
-    </row>
-    <row r="12" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T11" s="47"/>
+    </row>
+    <row r="12" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="22" t="s">
         <v>59</v>
       </c>
@@ -5518,7 +5800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:20" x14ac:dyDescent="0.3">
       <c r="I13" s="6">
         <v>17</v>
       </c>
@@ -5544,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I14" s="9">
         <v>19</v>
       </c>
@@ -5570,7 +5852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N15" s="6">
         <v>4</v>
       </c>
@@ -5584,11 +5866,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="I16" s="31" t="s">
+    <row r="16" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="I16" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="32"/>
+      <c r="J16" s="57"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -5598,11 +5880,11 @@
       </c>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I17" s="33" t="s">
+    <row r="17" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="34"/>
+      <c r="J17" s="55"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -5616,7 +5898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I18" s="2">
         <v>1</v>
       </c>
@@ -5636,7 +5918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I19" s="9">
         <v>2</v>
       </c>
@@ -5656,36 +5938,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I21" s="31" t="s">
+    <row r="20" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I21" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="32"/>
-      <c r="N21" s="31" t="s">
+      <c r="J21" s="57"/>
+      <c r="N21" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="32"/>
-      <c r="S21" s="43" t="s">
+      <c r="O21" s="57"/>
+      <c r="S21" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="44"/>
-    </row>
-    <row r="22" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I22" s="37" t="s">
+      <c r="T21" s="45"/>
+    </row>
+    <row r="22" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="38"/>
-      <c r="N22" s="37" t="s">
+      <c r="J22" s="53"/>
+      <c r="N22" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="38"/>
-      <c r="S22" s="45" t="s">
+      <c r="O22" s="53"/>
+      <c r="S22" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="46"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="T22" s="47"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I23" s="2">
         <v>1</v>
       </c>
@@ -5705,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="9">
         <v>2</v>
       </c>
@@ -5725,36 +6007,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I26" s="31" t="s">
+    <row r="25" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I26" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="32"/>
-      <c r="N26" s="31" t="s">
+      <c r="J26" s="57"/>
+      <c r="N26" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="32"/>
-      <c r="S26" s="49" t="s">
+      <c r="O26" s="57"/>
+      <c r="S26" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="50"/>
-    </row>
-    <row r="27" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="33" t="s">
+      <c r="T26" s="51"/>
+    </row>
+    <row r="27" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="34"/>
-      <c r="N27" s="33" t="s">
+      <c r="J27" s="55"/>
+      <c r="N27" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="34"/>
-      <c r="S27" s="47" t="s">
+      <c r="O27" s="55"/>
+      <c r="S27" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="48"/>
-    </row>
-    <row r="28" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="T27" s="49"/>
+    </row>
+    <row r="28" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I28" s="2">
         <v>1</v>
       </c>
@@ -5774,7 +6056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I29" s="6">
         <v>2</v>
       </c>
@@ -5794,7 +6076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I30" s="6">
         <v>3</v>
       </c>
@@ -5814,7 +6096,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I31" s="6">
         <v>4</v>
       </c>
@@ -5834,7 +6116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I32" s="9">
         <v>5</v>
       </c>
@@ -5854,44 +6136,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I34" s="31" t="s">
+    <row r="33" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I34" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="32"/>
-      <c r="N34" s="31" t="s">
+      <c r="J34" s="57"/>
+      <c r="N34" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="32"/>
-      <c r="S34" s="49" t="s">
+      <c r="O34" s="57"/>
+      <c r="S34" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="50"/>
-      <c r="V34" s="41" t="s">
+      <c r="T34" s="51"/>
+      <c r="V34" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="42"/>
-    </row>
-    <row r="35" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I35" s="33" t="s">
+      <c r="W34" s="43"/>
+    </row>
+    <row r="35" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="34"/>
-      <c r="N35" s="35" t="s">
+      <c r="J35" s="55"/>
+      <c r="N35" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="36"/>
-      <c r="S35" s="37" t="s">
+      <c r="O35" s="59"/>
+      <c r="S35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="38"/>
-      <c r="V35" s="39" t="s">
+      <c r="T35" s="53"/>
+      <c r="V35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="40"/>
-    </row>
-    <row r="36" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="W35" s="41"/>
+    </row>
+    <row r="36" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I36" s="2">
         <v>1</v>
       </c>
@@ -5917,7 +6199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="9:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I37" s="6">
         <v>2</v>
       </c>
@@ -5943,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I38" s="9">
         <v>3</v>
       </c>
@@ -5969,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N39" s="6">
         <v>4</v>
       </c>
@@ -5989,11 +6271,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I40" s="31" t="s">
+    <row r="40" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I40" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="32"/>
+      <c r="J40" s="57"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -6013,37 +6295,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I41" s="33" t="s">
+    <row r="41" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I41" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="34"/>
-    </row>
-    <row r="42" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="J41" s="55"/>
+    </row>
+    <row r="42" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="31" t="s">
+      <c r="N42" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="32"/>
-    </row>
-    <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O42" s="57"/>
+    </row>
+    <row r="43" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I43" s="9">
         <v>2</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="33" t="s">
+      <c r="N43" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="34"/>
-    </row>
-    <row r="44" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O43" s="55"/>
+    </row>
+    <row r="44" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N44" s="2">
         <v>1</v>
       </c>
@@ -6051,11 +6333,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I45" s="31" t="s">
+    <row r="45" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I45" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="32"/>
+      <c r="J45" s="57"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -6063,37 +6345,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I46" s="33" t="s">
+    <row r="46" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I46" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="34"/>
-    </row>
-    <row r="47" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="J46" s="55"/>
+    </row>
+    <row r="47" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I47" s="2">
         <v>1</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="31" t="s">
+      <c r="N47" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="32"/>
-    </row>
-    <row r="48" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O47" s="57"/>
+    </row>
+    <row r="48" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I48" s="9">
         <v>2</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="33" t="s">
+      <c r="N48" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="34"/>
-    </row>
-    <row r="49" spans="11:15" x14ac:dyDescent="0.4">
+      <c r="O48" s="55"/>
+    </row>
+    <row r="49" spans="11:15" x14ac:dyDescent="0.3">
       <c r="N49" s="2">
         <v>1</v>
       </c>
@@ -6101,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="11:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="11:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N50" s="9">
         <v>2</v>
       </c>
@@ -6109,32 +6391,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="11:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
     </row>
-    <row r="72" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -6147,13 +6420,22 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6163,42 +6445,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5CF7C6-BCD9-4838-B263-8ED163986BCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AF45"/>
   <sheetViews>
     <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.8984375" customWidth="1"/>
-    <col min="10" max="10" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" customWidth="1"/>
-    <col min="13" max="13" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.09765625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
@@ -6209,7 +6491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>56</v>
       </c>
@@ -6220,7 +6502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>57</v>
       </c>
@@ -6231,7 +6513,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
         <v>55</v>
       </c>
@@ -6241,28 +6523,28 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="J7" s="31" t="s">
+      <c r="H7" s="57"/>
+      <c r="J7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="32"/>
-      <c r="P7" s="31" t="s">
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="57"/>
+      <c r="P7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="32"/>
-      <c r="U7" s="43" t="s">
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="57"/>
+      <c r="U7" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="44"/>
-    </row>
-    <row r="8" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V7" s="45"/>
+    </row>
+    <row r="8" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
@@ -6272,32 +6554,32 @@
       <c r="D8" s="26">
         <v>35</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="J8" s="66" t="s">
+      <c r="H8" s="53"/>
+      <c r="J8" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="68"/>
-      <c r="P8" s="66" t="s">
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65"/>
+      <c r="P8" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="68"/>
-      <c r="U8" s="45" t="s">
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="65"/>
+      <c r="U8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="AE8" s="31" t="s">
+      <c r="V8" s="47"/>
+      <c r="AE8" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="AF8" s="32"/>
-    </row>
-    <row r="9" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF8" s="57"/>
+    </row>
+    <row r="9" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>58</v>
       </c>
@@ -6313,28 +6595,28 @@
       <c r="H9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="62">
-        <v>1</v>
-      </c>
-      <c r="K9" s="63" t="s">
+      <c r="J9" s="35">
+        <v>1</v>
+      </c>
+      <c r="K9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L9" s="36">
         <v>2</v>
       </c>
-      <c r="M9" s="64" t="s">
+      <c r="M9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="62">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="63" t="s">
+      <c r="P9" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="63">
+      <c r="R9" s="36">
         <v>2</v>
       </c>
-      <c r="S9" s="64" t="s">
+      <c r="S9" s="37" t="s">
         <v>24</v>
       </c>
       <c r="U9" s="2">
@@ -6343,12 +6625,12 @@
       <c r="V9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AE9" s="33" t="s">
+      <c r="AE9" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="AF9" s="34"/>
-    </row>
-    <row r="10" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF9" s="55"/>
+    </row>
+    <row r="10" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>61</v>
       </c>
@@ -6401,7 +6683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>55</v>
       </c>
@@ -6448,7 +6730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
         <v>59</v>
       </c>
@@ -6460,10 +6742,10 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="32"/>
+      <c r="H12" s="57"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
@@ -6499,15 +6781,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G13" s="33" t="s">
+    <row r="13" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="55"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
-      <c r="K13" s="69" t="s">
+      <c r="K13" s="38" t="s">
         <v>66</v>
       </c>
       <c r="L13" s="1">
@@ -6519,7 +6801,7 @@
       <c r="P13" s="6">
         <v>9</v>
       </c>
-      <c r="Q13" s="69" t="s">
+      <c r="Q13" s="38" t="s">
         <v>66</v>
       </c>
       <c r="R13" s="1">
@@ -6541,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
       <c r="G14" s="2">
         <v>1</v>
       </c>
@@ -6583,7 +6865,7 @@
       </c>
       <c r="AF14" s="17"/>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
       <c r="G15" s="6">
         <v>2</v>
       </c>
@@ -6627,7 +6909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
       <c r="G16" s="6">
         <v>3</v>
       </c>
@@ -6663,7 +6945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="6">
         <v>4</v>
       </c>
@@ -6673,7 +6955,7 @@
       <c r="J17" s="6">
         <v>17</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="32" t="s">
         <v>46</v>
       </c>
       <c r="L17" s="1">
@@ -6685,7 +6967,7 @@
       <c r="P17" s="6">
         <v>17</v>
       </c>
-      <c r="Q17" s="59" t="s">
+      <c r="Q17" s="32" t="s">
         <v>46</v>
       </c>
       <c r="R17" s="1">
@@ -6707,7 +6989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="9">
         <v>5</v>
       </c>
@@ -6717,25 +6999,25 @@
       <c r="J18" s="9">
         <v>19</v>
       </c>
-      <c r="K18" s="60" t="s">
+      <c r="K18" s="33" t="s">
         <v>46</v>
       </c>
       <c r="L18" s="10">
         <v>20</v>
       </c>
-      <c r="M18" s="61" t="s">
+      <c r="M18" s="34" t="s">
         <v>46</v>
       </c>
       <c r="P18" s="9">
         <v>19</v>
       </c>
-      <c r="Q18" s="60" t="s">
+      <c r="Q18" s="33" t="s">
         <v>46</v>
       </c>
       <c r="R18" s="10">
         <v>20</v>
       </c>
-      <c r="S18" s="61" t="s">
+      <c r="S18" s="34" t="s">
         <v>46</v>
       </c>
       <c r="U18" s="9">
@@ -6745,34 +7027,34 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G20" s="31" t="s">
+    <row r="19" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="33" t="s">
+      <c r="H20" s="57"/>
+    </row>
+    <row r="21" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="J21" s="28" t="s">
+      <c r="H21" s="55"/>
+      <c r="J21" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="30"/>
-      <c r="U21" s="31" t="s">
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
+      <c r="U21" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="V21" s="32"/>
-      <c r="Y21" s="49" t="s">
+      <c r="V21" s="57"/>
+      <c r="Y21" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="50"/>
-    </row>
-    <row r="22" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Z21" s="51"/>
+    </row>
+    <row r="22" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="2">
         <v>1</v>
       </c>
@@ -6791,16 +7073,16 @@
       <c r="M22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U22" s="33" t="s">
+      <c r="U22" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="V22" s="34"/>
-      <c r="Y22" s="47" t="s">
+      <c r="V22" s="55"/>
+      <c r="Y22" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="Z22" s="48"/>
-    </row>
-    <row r="23" spans="7:32" x14ac:dyDescent="0.4">
+      <c r="Z22" s="49"/>
+    </row>
+    <row r="23" spans="7:32" x14ac:dyDescent="0.3">
       <c r="G23" s="6">
         <v>2</v>
       </c>
@@ -6831,12 +7113,12 @@
       <c r="Z23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AE23" s="51" t="s">
+      <c r="AE23" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="AF23" s="52"/>
-    </row>
-    <row r="24" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF23" s="68"/>
+    </row>
+    <row r="24" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="9">
         <v>3</v>
       </c>
@@ -6867,12 +7149,12 @@
       <c r="Z24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AE24" s="53" t="s">
+      <c r="AE24" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="AF24" s="54"/>
-    </row>
-    <row r="25" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF24" s="70"/>
+    </row>
+    <row r="25" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J25" s="6">
         <v>7</v>
       </c>
@@ -6897,18 +7179,18 @@
       <c r="Z25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AE25" s="55">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="56" t="s">
+      <c r="AE25" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G26" s="31" t="s">
+    <row r="26" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="57"/>
       <c r="J26" s="6">
         <v>9</v>
       </c>
@@ -6933,18 +7215,18 @@
       <c r="Z26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AE26" s="57">
+      <c r="AE26" s="30">
         <v>2</v>
       </c>
-      <c r="AF26" s="58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G27" s="33" t="s">
+      <c r="AF26" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="34"/>
+      <c r="H27" s="55"/>
       <c r="J27" s="6">
         <v>11</v>
       </c>
@@ -6970,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G28" s="2">
         <v>1</v>
       </c>
@@ -6990,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G29" s="9">
         <v>2</v>
       </c>
@@ -7009,20 +7291,20 @@
       <c r="M29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U29" s="31" t="s">
+      <c r="U29" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="V29" s="32"/>
-      <c r="Y29" s="49" t="s">
+      <c r="V29" s="57"/>
+      <c r="Y29" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Z29" s="50"/>
-      <c r="AB29" s="41" t="s">
+      <c r="Z29" s="51"/>
+      <c r="AB29" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AC29" s="42"/>
-    </row>
-    <row r="30" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AC29" s="43"/>
+    </row>
+    <row r="30" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J30" s="6">
         <v>17</v>
       </c>
@@ -7035,24 +7317,24 @@
       <c r="M30" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U30" s="35" t="s">
+      <c r="U30" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="V30" s="36"/>
-      <c r="Y30" s="37" t="s">
+      <c r="V30" s="59"/>
+      <c r="Y30" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Z30" s="38"/>
-      <c r="AB30" s="39" t="s">
+      <c r="Z30" s="53"/>
+      <c r="AB30" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AC30" s="40"/>
-    </row>
-    <row r="31" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G31" s="31" t="s">
+      <c r="AC30" s="41"/>
+    </row>
+    <row r="31" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="32"/>
+      <c r="H31" s="57"/>
       <c r="J31" s="9">
         <v>19</v>
       </c>
@@ -7084,11 +7366,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G32" s="33" t="s">
+    <row r="32" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="34"/>
+      <c r="H32" s="55"/>
       <c r="U32" s="6">
         <v>2</v>
       </c>
@@ -7108,7 +7390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:29" x14ac:dyDescent="0.4">
+    <row r="33" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G33" s="2">
         <v>1</v>
       </c>
@@ -7134,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G34" s="9">
         <v>2</v>
       </c>
@@ -7160,7 +7442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U35" s="9">
         <v>5</v>
       </c>
@@ -7180,35 +7462,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G36" s="31" t="s">
+    <row r="36" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="32"/>
-    </row>
-    <row r="37" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G37" s="33" t="s">
+      <c r="H36" s="57"/>
+    </row>
+    <row r="37" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="34"/>
-      <c r="L37" s="31" t="s">
+      <c r="H37" s="55"/>
+      <c r="L37" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="32"/>
-    </row>
-    <row r="38" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M37" s="57"/>
+    </row>
+    <row r="38" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G38" s="2">
         <v>1</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L38" s="33" t="s">
+      <c r="L38" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="34"/>
-    </row>
-    <row r="39" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M38" s="55"/>
+    </row>
+    <row r="39" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G39" s="9">
         <v>2</v>
       </c>
@@ -7222,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L40" s="9">
         <v>2</v>
       </c>
@@ -7230,20 +7512,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="7:29" x14ac:dyDescent="0.4">
-      <c r="L42" s="31" t="s">
+    <row r="41" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="L42" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="32"/>
-    </row>
-    <row r="43" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L43" s="33" t="s">
+      <c r="M42" s="57"/>
+    </row>
+    <row r="43" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L43" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="34"/>
-    </row>
-    <row r="44" spans="7:29" x14ac:dyDescent="0.4">
+      <c r="M43" s="55"/>
+    </row>
+    <row r="44" spans="7:29" x14ac:dyDescent="0.3">
       <c r="L44" s="2">
         <v>1</v>
       </c>
@@ -7251,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L45" s="9">
         <v>2</v>
       </c>
@@ -7261,23 +7543,15 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="U8:V8"/>
     <mergeCell ref="U30:V30"/>
     <mergeCell ref="Y30:Z30"/>
     <mergeCell ref="AB30:AC30"/>
@@ -7287,17 +7561,25 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="U22:V22"/>
     <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="U8:V8"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7307,319 +7589,321 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="25" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C2" s="70">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C2" s="71">
         <v>10</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="71">
         <v>20</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="71">
         <v>30</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="71">
         <v>40</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="71">
         <v>50</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="71">
         <v>60</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="71">
         <v>70</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J2" s="71">
         <v>80</v>
       </c>
-      <c r="K2" s="70">
+      <c r="K2" s="71">
         <v>90</v>
       </c>
-      <c r="L2" s="70">
+      <c r="L2" s="71">
         <v>100</v>
       </c>
-      <c r="M2" s="70">
+      <c r="M2" s="71">
         <v>110</v>
       </c>
-      <c r="N2" s="70">
+      <c r="N2" s="71">
         <v>120</v>
       </c>
-      <c r="O2" s="70">
+      <c r="O2" s="71">
         <v>130</v>
       </c>
-      <c r="P2" s="70">
+      <c r="P2" s="71">
         <v>140</v>
       </c>
-      <c r="Q2" s="70">
+      <c r="Q2" s="71">
         <v>150</v>
       </c>
-      <c r="R2" s="70">
+      <c r="R2" s="71">
         <v>160</v>
       </c>
-      <c r="S2" s="70">
+      <c r="S2" s="71">
         <v>170</v>
       </c>
-      <c r="T2" s="70">
+      <c r="T2" s="71">
         <v>180</v>
       </c>
-      <c r="U2" s="70">
+      <c r="U2" s="71">
         <v>190</v>
       </c>
-      <c r="V2" s="70">
+      <c r="V2" s="71">
         <v>200</v>
       </c>
-      <c r="W2" s="70">
+      <c r="W2" s="71">
         <v>210</v>
       </c>
-      <c r="X2" s="70">
+      <c r="X2" s="71">
         <v>220</v>
       </c>
-      <c r="Y2" s="70">
+      <c r="Y2" s="71">
         <v>230</v>
       </c>
-      <c r="Z2" s="70"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B3" s="70">
+      <c r="Z2" s="39"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B4" s="70">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="39">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B5" s="70">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="39">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B6" s="70">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="39">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B7" s="70">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="39">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B8" s="70">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="39">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B9" s="70">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="39">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B10" s="70">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="39">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B11" s="70">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="39">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B12" s="70">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="39">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B13" s="70">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B13" s="39">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B14" s="70">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B14" s="39">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B15" s="70">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="39">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B16" s="70">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="39">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="70">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="39">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="70">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="39">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="70">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="39">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="70">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="39">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="70">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="39">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="70">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="39">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="70">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="39">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="70">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="39">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="70">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="39">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="70">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="39">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B27" s="70">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="39">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="70">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="39">
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="70">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="39">
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B30" s="70">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="39">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B31" s="70">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="39">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B32" s="70">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="39">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="70">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="39">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" s="70">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="39">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" s="70">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="39">
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="70">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="39">
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" s="70">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="39">
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B38" s="70">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="39">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B39" s="70">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="39">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B40" s="70">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="39">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B41" s="70">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="39">
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B42" s="70">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="39">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B43" s="70">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="39">
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B44" s="70">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="39">
         <v>420</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F29D34-3CFF-494F-BD0F-F4F084A0066D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
@@ -298,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -754,6 +755,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,37 +825,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,19 +849,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -885,7 +886,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,7 +958,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,7 +1030,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,7 +1096,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1162,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,7 +1290,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,7 +1396,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1474,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1552,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1647,7 @@
         <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1742,7 @@
         <xdr:cNvPr id="8" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1802,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1862,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1930,7 @@
         <xdr:cNvPr id="16" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E350673-E94C-400E-9271-47D82C523782}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +1998,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDF590CA-A38C-4E79-A6D7-1A694015461B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2096,7 @@
         <xdr:cNvPr id="13" name="화살표: 왼쪽/오른쪽 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3004E09F-D64E-44C1-9DA2-F3663D2BA8C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,7 +2156,7 @@
         <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E5DEBB1-5666-4F6D-8B41-F34933F48114}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2237,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{699F1C25-0936-408B-B158-52BAD6C68230}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2305,7 @@
         <xdr:cNvPr id="21" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCC3F92D-35B6-433F-AC6C-43700E592A16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2373,7 @@
         <xdr:cNvPr id="22" name="화살표: 왼쪽/오른쪽 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FB42DE8-D7DA-41A3-90AC-8806DA5893DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2433,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1AD1BBB-1451-489A-A181-4E540CFD3719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2493,7 @@
         <xdr:cNvPr id="24" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2DA14CB-4D60-4D9C-BE5E-CE50FAAA75B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2572,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B71D4073-690A-4A6B-9FB4-7A59D640DDC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2644,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{897250FA-2EB7-4082-A496-D5DAC5A47A6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2716,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64C2D594-3758-433A-A263-9CDA5692A327}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2781,7 +2782,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1116137B-9AA9-4F18-8B47-5176431A8E3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,7 +2848,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8AB7A21-8FB2-4B74-8C8E-6E1C26F98D3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,7 +2976,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05E7836-FC6E-46CA-BD43-AC854CFFF281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3082,7 @@
         <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B657CAF6-E672-44B1-B744-294EAEBB2343}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3159,7 +3160,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E05A77D-901F-4AD5-9290-7D61B1B20E3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3237,7 +3238,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{215D481D-F315-491F-80BA-8D810A1E4EA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3332,7 +3333,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74B5DBF4-1446-450E-B3D5-6FD7564E1FBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3427,7 +3428,7 @@
         <xdr:cNvPr id="12" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F4BC513-B8C2-40E4-9E0F-32DFBF9BCEC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3488,7 @@
         <xdr:cNvPr id="13" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D4E50BD-1EB3-4F79-B440-08C2930E8F58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3547,7 +3548,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E67776E7-E177-4EE8-8F6D-C4C1773ED0CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3615,7 +3616,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E809BF9-B9C0-4E52-85E2-74417079A0B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3684,7 @@
         <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23909E8D-06B6-4006-BFB3-02469B8C0C07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3781,7 +3782,7 @@
         <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DA6E61B-9EA3-4E64-8EE1-3C710808BF0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3841,7 +3842,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80D281FD-934A-4C55-BD28-733A52DFE02C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3922,7 +3923,7 @@
         <xdr:cNvPr id="19" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CAEF571-1E52-40D8-9DF6-64E319869387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3990,7 +3991,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C49DDA1B-009F-48DE-B5EF-E05CA67E82D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4058,7 +4059,7 @@
         <xdr:cNvPr id="21" name="화살표: 왼쪽/오른쪽 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B128BB7-814B-4FA9-99CD-679949B4ECE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4118,7 +4119,7 @@
         <xdr:cNvPr id="22" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3301D7E-9279-46C0-9F9A-A61A93056A47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4178,7 +4179,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48FD9BA3-D1CC-48E0-85CF-BEC994C8A737}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4252,7 +4253,7 @@
         <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12C86C55-B9FE-4DD0-A2F5-2DA5B3FA1D23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4324,7 +4325,7 @@
         <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A8718C-25AD-4662-84E2-EDDC5A2F529B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4390,7 +4391,7 @@
         <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1F524F0-08A9-4B9E-8C1A-FF16625DD3CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4468,7 +4469,7 @@
         <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B358E331-20FB-4E6E-A957-146088E52289}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4551,7 +4552,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8089F9C2-564D-4886-8332-24E3C62A7488}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4591,10 +4592,17 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
             <a:t>PWR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>190x110</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
         </a:p>
@@ -4604,23 +4612,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>239808</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>183577</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>116947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>199464</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>394447</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>116540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C4AD178-DF3F-4F17-AAAC-E8582336A67D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4628,8 +4636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1258569" y="3128390"/>
-          <a:ext cx="2195960" cy="4930588"/>
+          <a:off x="12698306" y="2134006"/>
+          <a:ext cx="3572635" cy="5602534"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4664,6 +4672,13 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
             <a:t>RF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>250x150x</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
         </a:p>
@@ -4689,7 +4704,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27444F48-246F-4D05-921D-315602B7118B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4731,6 +4746,13 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
             <a:t>CPU</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>120x110</a:t>
+          </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
         </a:p>
       </xdr:txBody>
@@ -4739,23 +4761,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>48644</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>148990</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54468</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36541</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>148990</xdr:rowOff>
+      <xdr:colOff>111469</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>169046</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3EF394D-CE76-4809-A6F3-BF98C739B022}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4763,8 +4785,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800666" y="5118555"/>
-          <a:ext cx="2224201" cy="3105978"/>
+          <a:off x="2994892" y="3628529"/>
+          <a:ext cx="2961565" cy="4160517"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4802,6 +4824,13 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
             <a:t>48V SMPS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>185x120x93</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
         </a:p>
@@ -4827,7 +4856,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F42166F-F856-4E43-A743-7E935D847C9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4874,23 +4903,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>62989</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>68308</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>52382</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>24684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>18612</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>13642</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>44200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>184197</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CE91E2A-9151-4BC6-8AF6-5ED7341ADE66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4898,8 +4927,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3815011" y="5659069"/>
-          <a:ext cx="2191927" cy="2015986"/>
+          <a:off x="3476900" y="4955272"/>
+          <a:ext cx="2170241" cy="2176572"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4947,22 +4976,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>17482</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>35411</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
+      <xdr:colOff>51546</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4483</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CE91E2A-9151-4BC6-8AF6-5ED7341ADE66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4970,8 +4999,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1037217" y="8729382"/>
-          <a:ext cx="2481429" cy="627530"/>
+          <a:off x="1039458" y="8095130"/>
+          <a:ext cx="2436606" cy="649941"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5034,7 +5063,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27444F48-246F-4D05-921D-315602B7118B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5113,7 +5142,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27444F48-246F-4D05-921D-315602B7118B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5192,7 +5221,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27444F48-246F-4D05-921D-315602B7118B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5248,6 +5277,82 @@
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13247</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>188257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1259341" y="3137647"/>
+          <a:ext cx="1448000" cy="4670610"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>RF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>210x60</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5299,7 +5404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5332,9 +5437,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5367,6 +5489,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5542,36 +5681,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:W72"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="4.625" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
-    <col min="14" max="14" width="4.625" customWidth="1"/>
-    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.59765625" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.69921875" customWidth="1"/>
+    <col min="13" max="13" width="9.8984375" customWidth="1"/>
+    <col min="14" max="14" width="4.59765625" customWidth="1"/>
+    <col min="15" max="15" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
@@ -5581,14 +5720,14 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="62"/>
-    </row>
-    <row r="5" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+    </row>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D5" s="6" t="s">
         <v>56</v>
       </c>
@@ -5611,7 +5750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D6" s="6" t="s">
         <v>57</v>
       </c>
@@ -5634,7 +5773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D7" s="18" t="s">
         <v>60</v>
       </c>
@@ -5657,7 +5796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
@@ -5680,7 +5819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="6" t="s">
         <v>58</v>
       </c>
@@ -5703,7 +5842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D10" s="6" t="s">
         <v>61</v>
       </c>
@@ -5725,14 +5864,14 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="56" t="s">
+      <c r="N10" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="57"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="45"/>
-    </row>
-    <row r="11" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O10" s="45"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+    </row>
+    <row r="11" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="9" t="s">
         <v>60</v>
       </c>
@@ -5754,16 +5893,16 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="54" t="s">
+      <c r="N11" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="55"/>
-      <c r="S11" s="46" t="s">
+      <c r="O11" s="47"/>
+      <c r="S11" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="47"/>
-    </row>
-    <row r="12" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T11" s="59"/>
+    </row>
+    <row r="12" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D12" s="22" t="s">
         <v>59</v>
       </c>
@@ -5800,7 +5939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:20" x14ac:dyDescent="0.4">
       <c r="I13" s="6">
         <v>17</v>
       </c>
@@ -5826,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I14" s="9">
         <v>19</v>
       </c>
@@ -5852,7 +5991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N15" s="6">
         <v>4</v>
       </c>
@@ -5866,11 +6005,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="56" t="s">
+    <row r="16" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="I16" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="57"/>
+      <c r="J16" s="45"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -5880,11 +6019,11 @@
       </c>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I17" s="54" t="s">
+    <row r="17" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="47"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -5898,7 +6037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I18" s="2">
         <v>1</v>
       </c>
@@ -5918,7 +6057,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I19" s="9">
         <v>2</v>
       </c>
@@ -5938,36 +6077,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="56" t="s">
+    <row r="20" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I21" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="57"/>
-      <c r="N21" s="56" t="s">
+      <c r="J21" s="45"/>
+      <c r="N21" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="57"/>
-      <c r="S21" s="44" t="s">
+      <c r="O21" s="45"/>
+      <c r="S21" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="45"/>
-    </row>
-    <row r="22" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I22" s="52" t="s">
+      <c r="T21" s="57"/>
+    </row>
+    <row r="22" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="N22" s="52" t="s">
+      <c r="J22" s="51"/>
+      <c r="N22" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="53"/>
-      <c r="S22" s="46" t="s">
+      <c r="O22" s="51"/>
+      <c r="S22" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="47"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="T22" s="59"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I23" s="2">
         <v>1</v>
       </c>
@@ -5987,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I24" s="9">
         <v>2</v>
       </c>
@@ -6007,36 +6146,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I26" s="56" t="s">
+    <row r="25" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="N26" s="56" t="s">
+      <c r="J26" s="45"/>
+      <c r="N26" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="57"/>
-      <c r="S26" s="50" t="s">
+      <c r="O26" s="45"/>
+      <c r="S26" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="51"/>
-    </row>
-    <row r="27" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="54" t="s">
+      <c r="T26" s="63"/>
+    </row>
+    <row r="27" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="55"/>
-      <c r="N27" s="54" t="s">
+      <c r="J27" s="47"/>
+      <c r="N27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="55"/>
-      <c r="S27" s="48" t="s">
+      <c r="O27" s="47"/>
+      <c r="S27" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="49"/>
-    </row>
-    <row r="28" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="T27" s="61"/>
+    </row>
+    <row r="28" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I28" s="2">
         <v>1</v>
       </c>
@@ -6056,7 +6195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="9:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I29" s="6">
         <v>2</v>
       </c>
@@ -6076,7 +6215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="9:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I30" s="6">
         <v>3</v>
       </c>
@@ -6096,7 +6235,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="9:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I31" s="6">
         <v>4</v>
       </c>
@@ -6116,7 +6255,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I32" s="9">
         <v>5</v>
       </c>
@@ -6136,44 +6275,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="9:23" x14ac:dyDescent="0.3">
-      <c r="I34" s="56" t="s">
+    <row r="33" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I34" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="57"/>
-      <c r="N34" s="56" t="s">
+      <c r="J34" s="45"/>
+      <c r="N34" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="57"/>
-      <c r="S34" s="50" t="s">
+      <c r="O34" s="45"/>
+      <c r="S34" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="51"/>
-      <c r="V34" s="42" t="s">
+      <c r="T34" s="63"/>
+      <c r="V34" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="43"/>
-    </row>
-    <row r="35" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I35" s="54" t="s">
+      <c r="W34" s="55"/>
+    </row>
+    <row r="35" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I35" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="55"/>
-      <c r="N35" s="58" t="s">
+      <c r="J35" s="47"/>
+      <c r="N35" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="59"/>
-      <c r="S35" s="52" t="s">
+      <c r="O35" s="49"/>
+      <c r="S35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="53"/>
-      <c r="V35" s="40" t="s">
+      <c r="T35" s="51"/>
+      <c r="V35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="41"/>
-    </row>
-    <row r="36" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="W35" s="53"/>
+    </row>
+    <row r="36" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I36" s="2">
         <v>1</v>
       </c>
@@ -6199,7 +6338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="9:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I37" s="6">
         <v>2</v>
       </c>
@@ -6225,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I38" s="9">
         <v>3</v>
       </c>
@@ -6251,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N39" s="6">
         <v>4</v>
       </c>
@@ -6271,11 +6410,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="56" t="s">
+    <row r="40" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I40" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="57"/>
+      <c r="J40" s="45"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -6295,37 +6434,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I41" s="54" t="s">
+    <row r="41" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I41" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="55"/>
-    </row>
-    <row r="42" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="J41" s="47"/>
+    </row>
+    <row r="42" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="56" t="s">
+      <c r="N42" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="57"/>
-    </row>
-    <row r="43" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O42" s="45"/>
+    </row>
+    <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I43" s="9">
         <v>2</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="54" t="s">
+      <c r="N43" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="55"/>
-    </row>
-    <row r="44" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O43" s="47"/>
+    </row>
+    <row r="44" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N44" s="2">
         <v>1</v>
       </c>
@@ -6333,11 +6472,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I45" s="56" t="s">
+    <row r="45" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I45" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="57"/>
+      <c r="J45" s="45"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -6345,37 +6484,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I46" s="54" t="s">
+    <row r="46" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I46" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="55"/>
-    </row>
-    <row r="47" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="J46" s="47"/>
+    </row>
+    <row r="47" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I47" s="2">
         <v>1</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="56" t="s">
+      <c r="N47" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="57"/>
-    </row>
-    <row r="48" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O47" s="45"/>
+    </row>
+    <row r="48" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I48" s="9">
         <v>2</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="54" t="s">
+      <c r="N48" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="55"/>
-    </row>
-    <row r="49" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="O48" s="47"/>
+    </row>
+    <row r="49" spans="11:15" x14ac:dyDescent="0.4">
       <c r="N49" s="2">
         <v>1</v>
       </c>
@@ -6383,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="11:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="11:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N50" s="9">
         <v>2</v>
       </c>
@@ -6391,23 +6530,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
     </row>
-    <row r="72" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="11:12" x14ac:dyDescent="0.4">
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -6420,22 +6568,13 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6445,42 +6584,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:AF45"/>
   <sheetViews>
     <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" customWidth="1"/>
-    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.8984375" customWidth="1"/>
+    <col min="10" max="10" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" customWidth="1"/>
+    <col min="13" max="13" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
@@ -6491,7 +6630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>56</v>
       </c>
@@ -6502,7 +6641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>57</v>
       </c>
@@ -6513,7 +6652,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18" t="s">
         <v>55</v>
       </c>
@@ -6523,28 +6662,28 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="J7" s="56" t="s">
+      <c r="H7" s="45"/>
+      <c r="J7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="57"/>
-      <c r="P7" s="56" t="s">
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="45"/>
+      <c r="P7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="57"/>
-      <c r="U7" s="44" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="45"/>
+      <c r="U7" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="45"/>
-    </row>
-    <row r="8" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V7" s="57"/>
+    </row>
+    <row r="8" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
@@ -6554,32 +6693,32 @@
       <c r="D8" s="26">
         <v>35</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="J8" s="63" t="s">
+      <c r="H8" s="51"/>
+      <c r="J8" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
-      <c r="P8" s="63" t="s">
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="70"/>
+      <c r="P8" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="65"/>
-      <c r="U8" s="46" t="s">
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="70"/>
+      <c r="U8" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="AE8" s="56" t="s">
+      <c r="V8" s="59"/>
+      <c r="AE8" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF8" s="57"/>
-    </row>
-    <row r="9" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF8" s="45"/>
+    </row>
+    <row r="9" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>58</v>
       </c>
@@ -6625,12 +6764,12 @@
       <c r="V9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AE9" s="54" t="s">
+      <c r="AE9" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="AF9" s="55"/>
-    </row>
-    <row r="10" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF9" s="47"/>
+    </row>
+    <row r="10" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>61</v>
       </c>
@@ -6683,7 +6822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="9" t="s">
         <v>55</v>
       </c>
@@ -6730,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="22" t="s">
         <v>59</v>
       </c>
@@ -6742,10 +6881,10 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="57"/>
+      <c r="H12" s="45"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
@@ -6781,11 +6920,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="54" t="s">
+    <row r="13" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G13" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="55"/>
+      <c r="H13" s="47"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
@@ -6823,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.4">
       <c r="G14" s="2">
         <v>1</v>
       </c>
@@ -6865,7 +7004,7 @@
       </c>
       <c r="AF14" s="17"/>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.4">
       <c r="G15" s="6">
         <v>2</v>
       </c>
@@ -6909,7 +7048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.4">
       <c r="G16" s="6">
         <v>3</v>
       </c>
@@ -6945,7 +7084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G17" s="6">
         <v>4</v>
       </c>
@@ -6989,7 +7128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G18" s="9">
         <v>5</v>
       </c>
@@ -7027,34 +7166,34 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G20" s="56" t="s">
+    <row r="19" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G20" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="57"/>
-    </row>
-    <row r="21" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="54" t="s">
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G21" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="55"/>
-      <c r="J21" s="60" t="s">
+      <c r="H21" s="47"/>
+      <c r="J21" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="62"/>
-      <c r="U21" s="56" t="s">
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="43"/>
+      <c r="U21" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="V21" s="57"/>
-      <c r="Y21" s="50" t="s">
+      <c r="V21" s="45"/>
+      <c r="Y21" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="51"/>
-    </row>
-    <row r="22" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z21" s="63"/>
+    </row>
+    <row r="22" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G22" s="2">
         <v>1</v>
       </c>
@@ -7073,16 +7212,16 @@
       <c r="M22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U22" s="54" t="s">
+      <c r="U22" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="V22" s="55"/>
-      <c r="Y22" s="48" t="s">
+      <c r="V22" s="47"/>
+      <c r="Y22" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="Z22" s="49"/>
-    </row>
-    <row r="23" spans="7:32" x14ac:dyDescent="0.3">
+      <c r="Z22" s="61"/>
+    </row>
+    <row r="23" spans="7:32" x14ac:dyDescent="0.4">
       <c r="G23" s="6">
         <v>2</v>
       </c>
@@ -7113,12 +7252,12 @@
       <c r="Z23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AE23" s="67" t="s">
+      <c r="AE23" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="AF23" s="68"/>
-    </row>
-    <row r="24" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF23" s="65"/>
+    </row>
+    <row r="24" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G24" s="9">
         <v>3</v>
       </c>
@@ -7149,12 +7288,12 @@
       <c r="Z24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AE24" s="69" t="s">
+      <c r="AE24" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AF24" s="70"/>
-    </row>
-    <row r="25" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF24" s="67"/>
+    </row>
+    <row r="25" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J25" s="6">
         <v>7</v>
       </c>
@@ -7186,11 +7325,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G26" s="56" t="s">
+    <row r="26" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G26" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="57"/>
+      <c r="H26" s="45"/>
       <c r="J26" s="6">
         <v>9</v>
       </c>
@@ -7222,11 +7361,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="54" t="s">
+    <row r="27" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="55"/>
+      <c r="H27" s="47"/>
       <c r="J27" s="6">
         <v>11</v>
       </c>
@@ -7252,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G28" s="2">
         <v>1</v>
       </c>
@@ -7272,7 +7411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G29" s="9">
         <v>2</v>
       </c>
@@ -7291,20 +7430,20 @@
       <c r="M29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U29" s="56" t="s">
+      <c r="U29" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="V29" s="57"/>
-      <c r="Y29" s="50" t="s">
+      <c r="V29" s="45"/>
+      <c r="Y29" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="Z29" s="51"/>
-      <c r="AB29" s="42" t="s">
+      <c r="Z29" s="63"/>
+      <c r="AB29" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AC29" s="43"/>
-    </row>
-    <row r="30" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC29" s="55"/>
+    </row>
+    <row r="30" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J30" s="6">
         <v>17</v>
       </c>
@@ -7317,24 +7456,24 @@
       <c r="M30" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U30" s="58" t="s">
+      <c r="U30" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="V30" s="59"/>
-      <c r="Y30" s="52" t="s">
+      <c r="V30" s="49"/>
+      <c r="Y30" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Z30" s="53"/>
-      <c r="AB30" s="40" t="s">
+      <c r="Z30" s="51"/>
+      <c r="AB30" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AC30" s="41"/>
-    </row>
-    <row r="31" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="56" t="s">
+      <c r="AC30" s="53"/>
+    </row>
+    <row r="31" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G31" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="57"/>
+      <c r="H31" s="45"/>
       <c r="J31" s="9">
         <v>19</v>
       </c>
@@ -7366,11 +7505,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="54" t="s">
+    <row r="32" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G32" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="55"/>
+      <c r="H32" s="47"/>
       <c r="U32" s="6">
         <v>2</v>
       </c>
@@ -7390,7 +7529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:29" x14ac:dyDescent="0.4">
       <c r="G33" s="2">
         <v>1</v>
       </c>
@@ -7416,7 +7555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G34" s="9">
         <v>2</v>
       </c>
@@ -7442,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="U35" s="9">
         <v>5</v>
       </c>
@@ -7462,35 +7601,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="56" t="s">
+    <row r="36" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G36" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="57"/>
-    </row>
-    <row r="37" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G37" s="54" t="s">
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G37" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="55"/>
-      <c r="L37" s="56" t="s">
+      <c r="H37" s="47"/>
+      <c r="L37" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="57"/>
-    </row>
-    <row r="38" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M37" s="45"/>
+    </row>
+    <row r="38" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G38" s="2">
         <v>1</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L38" s="54" t="s">
+      <c r="L38" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="55"/>
-    </row>
-    <row r="39" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M38" s="47"/>
+    </row>
+    <row r="39" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G39" s="9">
         <v>2</v>
       </c>
@@ -7504,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L40" s="9">
         <v>2</v>
       </c>
@@ -7512,20 +7651,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="7:29" x14ac:dyDescent="0.3">
-      <c r="L42" s="56" t="s">
+    <row r="41" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="7:29" x14ac:dyDescent="0.4">
+      <c r="L42" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="57"/>
-    </row>
-    <row r="43" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L43" s="54" t="s">
+      <c r="M42" s="45"/>
+    </row>
+    <row r="43" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L43" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="55"/>
-    </row>
-    <row r="44" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="M43" s="47"/>
+    </row>
+    <row r="44" spans="7:29" x14ac:dyDescent="0.4">
       <c r="L44" s="2">
         <v>1</v>
       </c>
@@ -7533,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L45" s="9">
         <v>2</v>
       </c>
@@ -7543,15 +7682,18 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="U30:V30"/>
     <mergeCell ref="Y30:Z30"/>
     <mergeCell ref="AB30:AC30"/>
@@ -7568,18 +7710,15 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="U8:V8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7589,302 +7728,432 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH26" sqref="AH26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL34" sqref="AL34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="44" width="3.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C2" s="71">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="C2" s="40">
         <v>10</v>
       </c>
-      <c r="D2" s="71">
+      <c r="D2" s="40">
         <v>20</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="40">
         <v>30</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="40">
         <v>40</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="40">
         <v>50</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="40">
         <v>60</v>
       </c>
-      <c r="I2" s="71">
+      <c r="I2" s="40">
         <v>70</v>
       </c>
-      <c r="J2" s="71">
+      <c r="J2" s="40">
         <v>80</v>
       </c>
-      <c r="K2" s="71">
+      <c r="K2" s="40">
         <v>90</v>
       </c>
-      <c r="L2" s="71">
+      <c r="L2" s="40">
         <v>100</v>
       </c>
-      <c r="M2" s="71">
+      <c r="M2" s="40">
         <v>110</v>
       </c>
-      <c r="N2" s="71">
+      <c r="N2" s="40">
         <v>120</v>
       </c>
-      <c r="O2" s="71">
+      <c r="O2" s="40">
         <v>130</v>
       </c>
-      <c r="P2" s="71">
+      <c r="P2" s="40">
         <v>140</v>
       </c>
-      <c r="Q2" s="71">
+      <c r="Q2" s="40">
         <v>150</v>
       </c>
-      <c r="R2" s="71">
+      <c r="R2" s="40">
         <v>160</v>
       </c>
-      <c r="S2" s="71">
+      <c r="S2" s="40">
         <v>170</v>
       </c>
-      <c r="T2" s="71">
+      <c r="T2" s="40">
         <v>180</v>
       </c>
-      <c r="U2" s="71">
+      <c r="U2" s="40">
         <v>190</v>
       </c>
-      <c r="V2" s="71">
+      <c r="V2" s="40">
         <v>200</v>
       </c>
-      <c r="W2" s="71">
+      <c r="W2" s="40">
         <v>210</v>
       </c>
-      <c r="X2" s="71">
+      <c r="X2" s="40">
         <v>220</v>
       </c>
-      <c r="Y2" s="71">
+      <c r="Y2" s="40">
         <v>230</v>
       </c>
       <c r="Z2" s="39"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B3" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B4" s="39">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B5" s="39">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B6" s="39">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B7" s="39">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B8" s="39">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B9" s="39">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B10" s="39">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B11" s="39">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B12" s="39">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B13" s="39">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z13" s="40">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="40">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="40">
+        <v>30</v>
+      </c>
+      <c r="AC13" s="40">
+        <v>40</v>
+      </c>
+      <c r="AD13" s="40">
+        <v>50</v>
+      </c>
+      <c r="AE13" s="40">
+        <v>60</v>
+      </c>
+      <c r="AF13" s="40">
+        <v>70</v>
+      </c>
+      <c r="AG13" s="40">
+        <v>80</v>
+      </c>
+      <c r="AH13" s="40">
+        <v>90</v>
+      </c>
+      <c r="AI13" s="40">
+        <v>100</v>
+      </c>
+      <c r="AJ13" s="40">
+        <v>110</v>
+      </c>
+      <c r="AK13" s="40">
+        <v>120</v>
+      </c>
+      <c r="AL13" s="40">
+        <v>130</v>
+      </c>
+      <c r="AM13" s="40">
+        <v>140</v>
+      </c>
+      <c r="AN13" s="40">
+        <v>150</v>
+      </c>
+      <c r="AO13" s="40">
+        <v>160</v>
+      </c>
+      <c r="AP13" s="40">
+        <v>170</v>
+      </c>
+      <c r="AQ13" s="40">
+        <v>180</v>
+      </c>
+      <c r="AR13" s="40">
+        <v>190</v>
+      </c>
+      <c r="AS13" s="40"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B14" s="39">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y14" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B15" s="39">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y15" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B16" s="39">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y16" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B17" s="39">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y17" s="39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B18" s="39">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y18" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B19" s="39">
         <v>170</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y19" s="39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B20" s="39">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y20" s="39">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B21" s="39">
         <v>190</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y21" s="39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B22" s="39">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y22" s="39">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B23" s="39">
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y23" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B24" s="39">
         <v>220</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y24" s="39">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B25" s="39">
         <v>230</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y25" s="39">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B26" s="39">
         <v>240</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y26" s="39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B27" s="39">
         <v>250</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y27" s="39">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B28" s="39">
         <v>260</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y28" s="39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B29" s="39">
         <v>270</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y29" s="39">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B30" s="39">
         <v>280</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y30" s="39">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B31" s="39">
         <v>290</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y31" s="39">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B32" s="39">
         <v>300</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y32" s="39">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B33" s="39">
         <v>310</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y33" s="39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B34" s="39">
         <v>320</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y34" s="39">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B35" s="39">
         <v>330</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y35" s="39">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B36" s="39">
         <v>340</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y36" s="39">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B37" s="39">
         <v>350</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="Y37" s="39">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B38" s="39">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B39" s="39">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B40" s="39">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B41" s="39">
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B42" s="39">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B43" s="39">
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B44" s="39">
         <v>420</v>
       </c>
@@ -7898,12 +8167,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F29D34-3CFF-494F-BD0F-F4F084A0066D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CAB0ED-42B8-4799-9E2C-3F86EBCD24CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
     <sheet name="RFGEN V2.0B" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Block1" sheetId="2" r:id="rId3"/>
+    <sheet name="Block2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="71">
   <si>
     <t>+12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +294,14 @@
   </si>
   <si>
     <t>423x208x177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170x160</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,39 +765,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,16 +801,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,6 +844,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5353,6 +5362,1004 @@
             <a:t>210x60</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242046</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247886" y="674146"/>
+          <a:ext cx="4643718" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3624"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>PWR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>190x110</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>206675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>204629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1212515" y="3298349"/>
+          <a:ext cx="2422223" cy="5264543"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>RF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>240x100</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>26334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948045" y="689274"/>
+          <a:ext cx="2934596" cy="2385171"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>CPU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>120x110</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>537318</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>256760</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11174838" y="4035521"/>
+          <a:ext cx="2401682" cy="4436262"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>48V SMPS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>203.1x101.6x40.6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>197223</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1017046" y="459890"/>
+          <a:ext cx="5062817" cy="9370807"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>576510</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>126286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>240195</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11214030" y="4987846"/>
+          <a:ext cx="2345925" cy="3450806"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>12V SMPS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>158x97x38</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247440" y="8850405"/>
+          <a:ext cx="2451845" cy="651735"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>FAN</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>146457</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>48137</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>132424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3360109" y="2789972"/>
+          <a:ext cx="882341" cy="185043"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HD</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>148308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>96957</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371953" y="2772238"/>
+          <a:ext cx="654813" cy="200731"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>48V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>37224</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165651</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5188344" y="2816730"/>
+          <a:ext cx="438529" cy="221661"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>184478</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>185530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5091758" y="4367488"/>
+          <a:ext cx="973099" cy="4436262"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>48V SMPS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>203.1x101.6x40.6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8323</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>193813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3940243" y="5375142"/>
+          <a:ext cx="967038" cy="3436891"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>12V SMPS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>158x97x38</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5720,12 +6727,12 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D5" s="6" t="s">
@@ -5864,12 +6871,12 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="45"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
+      <c r="O10" s="58"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="46"/>
     </row>
     <row r="11" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="9" t="s">
@@ -5893,14 +6900,14 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="46" t="s">
+      <c r="N11" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="47"/>
-      <c r="S11" s="58" t="s">
+      <c r="O11" s="56"/>
+      <c r="S11" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="59"/>
+      <c r="T11" s="48"/>
     </row>
     <row r="12" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D12" s="22" t="s">
@@ -6006,10 +7013,10 @@
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="45"/>
+      <c r="J16" s="58"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -6020,10 +7027,10 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="56"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -6079,32 +7086,32 @@
     </row>
     <row r="20" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="45"/>
-      <c r="N21" s="44" t="s">
+      <c r="J21" s="58"/>
+      <c r="N21" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="45"/>
-      <c r="S21" s="56" t="s">
+      <c r="O21" s="58"/>
+      <c r="S21" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="57"/>
+      <c r="T21" s="46"/>
     </row>
     <row r="22" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="N22" s="50" t="s">
+      <c r="J22" s="54"/>
+      <c r="N22" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="51"/>
-      <c r="S22" s="58" t="s">
+      <c r="O22" s="54"/>
+      <c r="S22" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="59"/>
+      <c r="T22" s="48"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I23" s="2">
@@ -6148,32 +7155,32 @@
     </row>
     <row r="25" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="N26" s="44" t="s">
+      <c r="J26" s="58"/>
+      <c r="N26" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="45"/>
-      <c r="S26" s="62" t="s">
+      <c r="O26" s="58"/>
+      <c r="S26" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="63"/>
+      <c r="T26" s="52"/>
     </row>
     <row r="27" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="N27" s="46" t="s">
+      <c r="J27" s="56"/>
+      <c r="N27" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="47"/>
-      <c r="S27" s="60" t="s">
+      <c r="O27" s="56"/>
+      <c r="S27" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="61"/>
+      <c r="T27" s="50"/>
     </row>
     <row r="28" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I28" s="2">
@@ -6277,40 +7284,40 @@
     </row>
     <row r="33" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="N34" s="44" t="s">
+      <c r="J34" s="58"/>
+      <c r="N34" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="45"/>
-      <c r="S34" s="62" t="s">
+      <c r="O34" s="58"/>
+      <c r="S34" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="63"/>
-      <c r="V34" s="54" t="s">
+      <c r="T34" s="52"/>
+      <c r="V34" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="55"/>
+      <c r="W34" s="44"/>
     </row>
     <row r="35" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I35" s="46" t="s">
+      <c r="I35" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="47"/>
-      <c r="N35" s="48" t="s">
+      <c r="J35" s="56"/>
+      <c r="N35" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="49"/>
-      <c r="S35" s="50" t="s">
+      <c r="O35" s="60"/>
+      <c r="S35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="51"/>
-      <c r="V35" s="52" t="s">
+      <c r="T35" s="54"/>
+      <c r="V35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="53"/>
+      <c r="W35" s="42"/>
     </row>
     <row r="36" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I36" s="2">
@@ -6411,10 +7418,10 @@
       </c>
     </row>
     <row r="40" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="45"/>
+      <c r="J40" s="58"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -6435,10 +7442,10 @@
       </c>
     </row>
     <row r="41" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I41" s="46" t="s">
+      <c r="I41" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="47"/>
+      <c r="J41" s="56"/>
     </row>
     <row r="42" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I42" s="2">
@@ -6447,10 +7454,10 @@
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="44" t="s">
+      <c r="N42" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="45"/>
+      <c r="O42" s="58"/>
     </row>
     <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I43" s="9">
@@ -6459,10 +7466,10 @@
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="46" t="s">
+      <c r="N43" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="47"/>
+      <c r="O43" s="56"/>
     </row>
     <row r="44" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N44" s="2">
@@ -6473,10 +7480,10 @@
       </c>
     </row>
     <row r="45" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="45"/>
+      <c r="J45" s="58"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -6485,10 +7492,10 @@
       </c>
     </row>
     <row r="46" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I46" s="46" t="s">
+      <c r="I46" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="47"/>
+      <c r="J46" s="56"/>
     </row>
     <row r="47" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I47" s="2">
@@ -6497,10 +7504,10 @@
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="44" t="s">
+      <c r="N47" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="45"/>
+      <c r="O47" s="58"/>
     </row>
     <row r="48" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I48" s="9">
@@ -6509,10 +7516,10 @@
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="46" t="s">
+      <c r="N48" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="47"/>
+      <c r="O48" s="56"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.4">
       <c r="N49" s="2">
@@ -6540,22 +7547,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -6568,13 +7566,22 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6662,26 +7669,26 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="J7" s="44" t="s">
+      <c r="H7" s="58"/>
+      <c r="J7" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="45"/>
-      <c r="P7" s="44" t="s">
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="58"/>
+      <c r="P7" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="45"/>
-      <c r="U7" s="56" t="s">
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="58"/>
+      <c r="U7" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="57"/>
+      <c r="V7" s="46"/>
     </row>
     <row r="8" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
@@ -6693,30 +7700,30 @@
       <c r="D8" s="26">
         <v>35</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="J8" s="68" t="s">
+      <c r="H8" s="54"/>
+      <c r="J8" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70"/>
-      <c r="P8" s="68" t="s">
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="66"/>
+      <c r="P8" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="70"/>
-      <c r="U8" s="58" t="s">
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="66"/>
+      <c r="U8" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="59"/>
-      <c r="AE8" s="44" t="s">
+      <c r="V8" s="48"/>
+      <c r="AE8" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="AF8" s="45"/>
+      <c r="AF8" s="58"/>
     </row>
     <row r="9" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
@@ -6764,10 +7771,10 @@
       <c r="V9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AE9" s="46" t="s">
+      <c r="AE9" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="AF9" s="47"/>
+      <c r="AF9" s="56"/>
     </row>
     <row r="10" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
@@ -6881,10 +7888,10 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="58"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
@@ -6921,10 +7928,10 @@
       </c>
     </row>
     <row r="13" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="56"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
@@ -7168,30 +8175,30 @@
     </row>
     <row r="19" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="20" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="45"/>
+      <c r="H20" s="58"/>
     </row>
     <row r="21" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="J21" s="41" t="s">
+      <c r="H21" s="56"/>
+      <c r="J21" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="43"/>
-      <c r="U21" s="44" t="s">
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="63"/>
+      <c r="U21" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="V21" s="45"/>
-      <c r="Y21" s="62" t="s">
+      <c r="V21" s="58"/>
+      <c r="Y21" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="63"/>
+      <c r="Z21" s="52"/>
     </row>
     <row r="22" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G22" s="2">
@@ -7212,14 +8219,14 @@
       <c r="M22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U22" s="46" t="s">
+      <c r="U22" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="V22" s="47"/>
-      <c r="Y22" s="60" t="s">
+      <c r="V22" s="56"/>
+      <c r="Y22" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="Z22" s="61"/>
+      <c r="Z22" s="50"/>
     </row>
     <row r="23" spans="7:32" x14ac:dyDescent="0.4">
       <c r="G23" s="6">
@@ -7252,10 +8259,10 @@
       <c r="Z23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AE23" s="64" t="s">
+      <c r="AE23" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="AF23" s="65"/>
+      <c r="AF23" s="69"/>
     </row>
     <row r="24" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G24" s="9">
@@ -7288,10 +8295,10 @@
       <c r="Z24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AE24" s="66" t="s">
+      <c r="AE24" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AF24" s="67"/>
+      <c r="AF24" s="71"/>
     </row>
     <row r="25" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J25" s="6">
@@ -7326,10 +8333,10 @@
       </c>
     </row>
     <row r="26" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="45"/>
+      <c r="H26" s="58"/>
       <c r="J26" s="6">
         <v>9</v>
       </c>
@@ -7362,10 +8369,10 @@
       </c>
     </row>
     <row r="27" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="56"/>
       <c r="J27" s="6">
         <v>11</v>
       </c>
@@ -7430,18 +8437,18 @@
       <c r="M29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U29" s="44" t="s">
+      <c r="U29" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="V29" s="45"/>
-      <c r="Y29" s="62" t="s">
+      <c r="V29" s="58"/>
+      <c r="Y29" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="Z29" s="63"/>
-      <c r="AB29" s="54" t="s">
+      <c r="Z29" s="52"/>
+      <c r="AB29" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AC29" s="55"/>
+      <c r="AC29" s="44"/>
     </row>
     <row r="30" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J30" s="6">
@@ -7456,24 +8463,24 @@
       <c r="M30" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U30" s="48" t="s">
+      <c r="U30" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="V30" s="49"/>
-      <c r="Y30" s="50" t="s">
+      <c r="V30" s="60"/>
+      <c r="Y30" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="Z30" s="51"/>
-      <c r="AB30" s="52" t="s">
+      <c r="Z30" s="54"/>
+      <c r="AB30" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AC30" s="53"/>
+      <c r="AC30" s="42"/>
     </row>
     <row r="31" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="58"/>
       <c r="J31" s="9">
         <v>19</v>
       </c>
@@ -7506,10 +8513,10 @@
       </c>
     </row>
     <row r="32" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="47"/>
+      <c r="H32" s="56"/>
       <c r="U32" s="6">
         <v>2</v>
       </c>
@@ -7602,20 +8609,20 @@
       </c>
     </row>
     <row r="36" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="45"/>
+      <c r="H36" s="58"/>
     </row>
     <row r="37" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="L37" s="44" t="s">
+      <c r="H37" s="56"/>
+      <c r="L37" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="45"/>
+      <c r="M37" s="58"/>
     </row>
     <row r="38" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G38" s="2">
@@ -7624,10 +8631,10 @@
       <c r="H38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L38" s="46" t="s">
+      <c r="L38" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="47"/>
+      <c r="M38" s="56"/>
     </row>
     <row r="39" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G39" s="9">
@@ -7653,16 +8660,16 @@
     </row>
     <row r="41" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="42" spans="7:29" x14ac:dyDescent="0.4">
-      <c r="L42" s="44" t="s">
+      <c r="L42" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="45"/>
+      <c r="M42" s="58"/>
     </row>
     <row r="43" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L43" s="46" t="s">
+      <c r="L43" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="47"/>
+      <c r="M43" s="56"/>
     </row>
     <row r="44" spans="7:29" x14ac:dyDescent="0.4">
       <c r="L44" s="2">
@@ -7682,19 +8689,15 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="U8:V8"/>
     <mergeCell ref="Y30:Z30"/>
     <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="G12:H12"/>
@@ -7710,15 +8713,19 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7731,7 +8738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AL34" sqref="AL34"/>
     </sheetView>
   </sheetViews>
@@ -8167,6 +9174,321 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1871E58A-3414-4A12-B525-A573ABFAAE4B}">
+  <dimension ref="A1:AA44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="3.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="C2" s="40">
+        <v>10</v>
+      </c>
+      <c r="D2" s="40">
+        <v>20</v>
+      </c>
+      <c r="E2" s="40">
+        <v>30</v>
+      </c>
+      <c r="F2" s="40">
+        <v>40</v>
+      </c>
+      <c r="G2" s="40">
+        <v>50</v>
+      </c>
+      <c r="H2" s="40">
+        <v>60</v>
+      </c>
+      <c r="I2" s="40">
+        <v>70</v>
+      </c>
+      <c r="J2" s="40">
+        <v>80</v>
+      </c>
+      <c r="K2" s="40">
+        <v>90</v>
+      </c>
+      <c r="L2" s="40">
+        <v>100</v>
+      </c>
+      <c r="M2" s="40">
+        <v>110</v>
+      </c>
+      <c r="N2" s="40">
+        <v>120</v>
+      </c>
+      <c r="O2" s="40">
+        <v>130</v>
+      </c>
+      <c r="P2" s="40">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="40">
+        <v>150</v>
+      </c>
+      <c r="R2" s="40">
+        <v>160</v>
+      </c>
+      <c r="S2" s="40">
+        <v>170</v>
+      </c>
+      <c r="T2" s="40">
+        <v>180</v>
+      </c>
+      <c r="U2" s="40">
+        <v>190</v>
+      </c>
+      <c r="V2" s="40">
+        <v>200</v>
+      </c>
+      <c r="W2" s="40">
+        <v>210</v>
+      </c>
+      <c r="X2" s="40">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="40">
+        <v>230</v>
+      </c>
+      <c r="Z2" s="39"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B3" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B4" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B5" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B6" s="39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B7" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B8" s="39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B9" s="39">
+        <v>70</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B10" s="39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B11" s="39">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B12" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B13" s="39">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B14" s="39">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B15" s="39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B16" s="39">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="39">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="39">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="39">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="39">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="39">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="39">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="39">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="39">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="39">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="39">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="39">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="39">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="39">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="39">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="39">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="39">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="39">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="39">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="39">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="39">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="39">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="39">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="39">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="39">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="39">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CAB0ED-42B8-4799-9E2C-3F86EBCD24CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
@@ -13,8 +12,9 @@
     <sheet name="Block1" sheetId="2" r:id="rId3"/>
     <sheet name="Block2" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Block2 (2)" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="72">
   <si>
     <t>+12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,11 +304,15 @@
     <t>170x160</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>IOUTB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -765,6 +769,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -801,37 +838,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,18 +860,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -895,7 +899,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -967,7 +971,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1039,7 +1043,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1105,7 +1109,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1171,7 +1175,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,7 +1303,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1409,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1487,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1565,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1660,7 @@
         <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1755,7 @@
         <xdr:cNvPr id="8" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,7 +1815,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1875,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1943,7 @@
         <xdr:cNvPr id="16" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2011,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2109,7 @@
         <xdr:cNvPr id="13" name="화살표: 왼쪽/오른쪽 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2169,7 @@
         <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2250,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2318,7 @@
         <xdr:cNvPr id="21" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2386,7 @@
         <xdr:cNvPr id="22" name="화살표: 왼쪽/오른쪽 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2446,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2506,7 @@
         <xdr:cNvPr id="24" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2585,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2657,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,7 +2729,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2791,7 +2795,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2857,7 +2861,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2989,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3091,7 +3095,7 @@
         <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3169,7 +3173,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,7 +3251,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3346,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3437,7 +3441,7 @@
         <xdr:cNvPr id="12" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3497,7 +3501,7 @@
         <xdr:cNvPr id="13" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3557,7 +3561,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3625,7 +3629,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3693,7 +3697,7 @@
         <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3791,7 +3795,7 @@
         <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3851,7 +3855,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3932,7 +3936,7 @@
         <xdr:cNvPr id="19" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4000,7 +4004,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4068,7 +4072,7 @@
         <xdr:cNvPr id="21" name="화살표: 왼쪽/오른쪽 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4128,7 +4132,7 @@
         <xdr:cNvPr id="22" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4188,7 +4192,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4262,7 +4266,7 @@
         <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4334,7 +4338,7 @@
         <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4400,7 +4404,7 @@
         <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4478,7 +4482,7 @@
         <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4561,7 +4565,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4637,7 +4641,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4713,7 +4717,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4786,7 +4790,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4865,7 +4869,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4928,7 +4932,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5000,7 +5004,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5072,7 +5076,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5151,7 +5155,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5230,7 +5234,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5309,7 +5313,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5390,7 +5394,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5474,7 +5478,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5558,7 +5562,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5639,7 +5643,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5738,7 +5742,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5801,7 +5805,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5888,7 +5892,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5960,7 +5964,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6039,7 +6043,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6118,7 +6122,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6197,7 +6201,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6296,7 +6300,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6306,6 +6310,1004 @@
         <a:xfrm>
           <a:off x="3940243" y="5375142"/>
           <a:ext cx="967038" cy="3436891"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>12V SMPS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>158x97x38</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242046</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1261221" y="639856"/>
+          <a:ext cx="4719918" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3624"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>PWR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>190x110</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>206675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>204629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1225850" y="3138329"/>
+          <a:ext cx="2460323" cy="4990223"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>RF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>240x100</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>26334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2988050" y="654984"/>
+          <a:ext cx="2984126" cy="2270871"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>CPU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>120x110</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>537318</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>256760</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11367243" y="3829781"/>
+          <a:ext cx="2462642" cy="4207662"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>48V SMPS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>203.1x101.6x40.6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>197223</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1030381" y="437030"/>
+          <a:ext cx="5139017" cy="8890747"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>576510</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>126286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>240195</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11406435" y="4736386"/>
+          <a:ext cx="2406885" cy="3267926"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>12V SMPS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>158x97x38</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1260775" y="8393205"/>
+          <a:ext cx="2493755" cy="617445"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>FAN</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>138174</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39854</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>115858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4138674" y="2634259"/>
+          <a:ext cx="895593" cy="173447"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HD</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>202487</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121804</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>122095</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209074" y="2624808"/>
+          <a:ext cx="664752" cy="189135"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>48V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>37224</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165651</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5266449" y="2679570"/>
+          <a:ext cx="442339" cy="210231"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>184478</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>185530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5166053" y="4150318"/>
+          <a:ext cx="988339" cy="4207662"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>48V SMPS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>203.1x101.6x40.6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8323</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>193813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3999298" y="5100822"/>
+          <a:ext cx="982278" cy="3265441"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6411,7 +7413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6444,26 +7446,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6496,23 +7481,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6688,36 +7656,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:W72"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="4.59765625" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.625" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.59765625" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.69921875" customWidth="1"/>
-    <col min="13" max="13" width="9.8984375" customWidth="1"/>
-    <col min="14" max="14" width="4.59765625" customWidth="1"/>
-    <col min="15" max="15" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
@@ -6727,14 +7695,14 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
-    </row>
-    <row r="5" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+    </row>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
         <v>56</v>
       </c>
@@ -6757,7 +7725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
         <v>57</v>
       </c>
@@ -6780,7 +7748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D7" s="18" t="s">
         <v>60</v>
       </c>
@@ -6803,7 +7771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
@@ -6826,7 +7794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="6" t="s">
         <v>58</v>
       </c>
@@ -6849,7 +7817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
         <v>61</v>
       </c>
@@ -6871,14 +7839,14 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="57" t="s">
+      <c r="N10" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="58"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46"/>
-    </row>
-    <row r="11" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O10" s="45"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+    </row>
+    <row r="11" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="9" t="s">
         <v>60</v>
       </c>
@@ -6900,16 +7868,16 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="55" t="s">
+      <c r="N11" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="S11" s="47" t="s">
+      <c r="O11" s="47"/>
+      <c r="S11" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="48"/>
-    </row>
-    <row r="12" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T11" s="59"/>
+    </row>
+    <row r="12" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="22" t="s">
         <v>59</v>
       </c>
@@ -6946,7 +7914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:20" x14ac:dyDescent="0.3">
       <c r="I13" s="6">
         <v>17</v>
       </c>
@@ -6972,7 +7940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I14" s="9">
         <v>19</v>
       </c>
@@ -6998,7 +7966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N15" s="6">
         <v>4</v>
       </c>
@@ -7012,11 +7980,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="I16" s="57" t="s">
+    <row r="16" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="I16" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="58"/>
+      <c r="J16" s="45"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -7026,11 +7994,11 @@
       </c>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I17" s="55" t="s">
+    <row r="17" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="47"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -7044,7 +8012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I18" s="2">
         <v>1</v>
       </c>
@@ -7064,7 +8032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I19" s="9">
         <v>2</v>
       </c>
@@ -7084,36 +8052,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I21" s="57" t="s">
+    <row r="20" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I21" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="58"/>
-      <c r="N21" s="57" t="s">
+      <c r="J21" s="45"/>
+      <c r="N21" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="58"/>
-      <c r="S21" s="45" t="s">
+      <c r="O21" s="45"/>
+      <c r="S21" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="46"/>
-    </row>
-    <row r="22" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I22" s="53" t="s">
+      <c r="T21" s="57"/>
+    </row>
+    <row r="22" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="54"/>
-      <c r="N22" s="53" t="s">
+      <c r="J22" s="51"/>
+      <c r="N22" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="54"/>
-      <c r="S22" s="47" t="s">
+      <c r="O22" s="51"/>
+      <c r="S22" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="48"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="T22" s="59"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I23" s="2">
         <v>1</v>
       </c>
@@ -7133,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="9">
         <v>2</v>
       </c>
@@ -7153,36 +8121,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I26" s="57" t="s">
+    <row r="25" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="58"/>
-      <c r="N26" s="57" t="s">
+      <c r="J26" s="45"/>
+      <c r="N26" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="58"/>
-      <c r="S26" s="51" t="s">
+      <c r="O26" s="45"/>
+      <c r="S26" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="52"/>
-    </row>
-    <row r="27" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="55" t="s">
+      <c r="T26" s="63"/>
+    </row>
+    <row r="27" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="56"/>
-      <c r="N27" s="55" t="s">
+      <c r="J27" s="47"/>
+      <c r="N27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="56"/>
-      <c r="S27" s="49" t="s">
+      <c r="O27" s="47"/>
+      <c r="S27" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="50"/>
-    </row>
-    <row r="28" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="T27" s="61"/>
+    </row>
+    <row r="28" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I28" s="2">
         <v>1</v>
       </c>
@@ -7202,7 +8170,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I29" s="6">
         <v>2</v>
       </c>
@@ -7222,7 +8190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I30" s="6">
         <v>3</v>
       </c>
@@ -7242,7 +8210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I31" s="6">
         <v>4</v>
       </c>
@@ -7262,7 +8230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I32" s="9">
         <v>5</v>
       </c>
@@ -7282,44 +8250,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I34" s="57" t="s">
+    <row r="33" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I34" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="58"/>
-      <c r="N34" s="57" t="s">
+      <c r="J34" s="45"/>
+      <c r="N34" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="58"/>
-      <c r="S34" s="51" t="s">
+      <c r="O34" s="45"/>
+      <c r="S34" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="52"/>
-      <c r="V34" s="43" t="s">
+      <c r="T34" s="63"/>
+      <c r="V34" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="44"/>
-    </row>
-    <row r="35" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I35" s="55" t="s">
+      <c r="W34" s="55"/>
+    </row>
+    <row r="35" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="56"/>
-      <c r="N35" s="59" t="s">
+      <c r="J35" s="47"/>
+      <c r="N35" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="60"/>
-      <c r="S35" s="53" t="s">
+      <c r="O35" s="49"/>
+      <c r="S35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="54"/>
-      <c r="V35" s="41" t="s">
+      <c r="T35" s="51"/>
+      <c r="V35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="42"/>
-    </row>
-    <row r="36" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="W35" s="53"/>
+    </row>
+    <row r="36" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I36" s="2">
         <v>1</v>
       </c>
@@ -7345,7 +8313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="9:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I37" s="6">
         <v>2</v>
       </c>
@@ -7371,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I38" s="9">
         <v>3</v>
       </c>
@@ -7397,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N39" s="6">
         <v>4</v>
       </c>
@@ -7417,11 +8385,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I40" s="57" t="s">
+    <row r="40" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I40" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="58"/>
+      <c r="J40" s="45"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -7441,37 +8409,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I41" s="55" t="s">
+    <row r="41" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I41" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="56"/>
-    </row>
-    <row r="42" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="J41" s="47"/>
+    </row>
+    <row r="42" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="57" t="s">
+      <c r="N42" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="58"/>
-    </row>
-    <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O42" s="45"/>
+    </row>
+    <row r="43" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I43" s="9">
         <v>2</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="55" t="s">
+      <c r="N43" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="56"/>
-    </row>
-    <row r="44" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O43" s="47"/>
+    </row>
+    <row r="44" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N44" s="2">
         <v>1</v>
       </c>
@@ -7479,11 +8447,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I45" s="57" t="s">
+    <row r="45" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I45" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="58"/>
+      <c r="J45" s="45"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -7491,37 +8459,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I46" s="55" t="s">
+    <row r="46" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I46" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="56"/>
-    </row>
-    <row r="47" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="J46" s="47"/>
+    </row>
+    <row r="47" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I47" s="2">
         <v>1</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="57" t="s">
+      <c r="N47" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="58"/>
-    </row>
-    <row r="48" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O47" s="45"/>
+    </row>
+    <row r="48" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I48" s="9">
         <v>2</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="55" t="s">
+      <c r="N48" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="56"/>
-    </row>
-    <row r="49" spans="11:15" x14ac:dyDescent="0.4">
+      <c r="O48" s="47"/>
+    </row>
+    <row r="49" spans="11:15" x14ac:dyDescent="0.3">
       <c r="N49" s="2">
         <v>1</v>
       </c>
@@ -7529,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="11:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="11:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N50" s="9">
         <v>2</v>
       </c>
@@ -7537,23 +8505,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="11:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
     </row>
-    <row r="72" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -7566,22 +8543,13 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7591,42 +8559,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AF45"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.8984375" customWidth="1"/>
-    <col min="10" max="10" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" customWidth="1"/>
-    <col min="13" max="13" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.09765625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
@@ -7637,7 +8605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>56</v>
       </c>
@@ -7648,7 +8616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>57</v>
       </c>
@@ -7659,7 +8627,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
         <v>55</v>
       </c>
@@ -7669,28 +8637,28 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="J7" s="57" t="s">
+      <c r="H7" s="45"/>
+      <c r="J7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="58"/>
-      <c r="P7" s="57" t="s">
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="45"/>
+      <c r="P7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="58"/>
-      <c r="U7" s="45" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="45"/>
+      <c r="U7" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="46"/>
-    </row>
-    <row r="8" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V7" s="57"/>
+    </row>
+    <row r="8" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
@@ -7700,32 +8668,32 @@
       <c r="D8" s="26">
         <v>35</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="J8" s="64" t="s">
+      <c r="H8" s="51"/>
+      <c r="J8" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="66"/>
-      <c r="P8" s="64" t="s">
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="70"/>
+      <c r="P8" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="66"/>
-      <c r="U8" s="47" t="s">
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="70"/>
+      <c r="U8" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="48"/>
-      <c r="AE8" s="57" t="s">
+      <c r="V8" s="59"/>
+      <c r="AE8" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF8" s="58"/>
-    </row>
-    <row r="9" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF8" s="45"/>
+    </row>
+    <row r="9" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>58</v>
       </c>
@@ -7771,12 +8739,12 @@
       <c r="V9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AE9" s="55" t="s">
+      <c r="AE9" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="AF9" s="56"/>
-    </row>
-    <row r="10" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF9" s="47"/>
+    </row>
+    <row r="10" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>61</v>
       </c>
@@ -7829,7 +8797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>55</v>
       </c>
@@ -7876,7 +8844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
         <v>59</v>
       </c>
@@ -7888,10 +8856,10 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="58"/>
+      <c r="H12" s="45"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
@@ -7927,11 +8895,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G13" s="55" t="s">
+    <row r="13" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="56"/>
+      <c r="H13" s="47"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
@@ -7948,7 +8916,7 @@
         <v>9</v>
       </c>
       <c r="Q13" s="38" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="R13" s="1">
         <v>10</v>
@@ -7969,7 +8937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
       <c r="G14" s="2">
         <v>1</v>
       </c>
@@ -8011,7 +8979,7 @@
       </c>
       <c r="AF14" s="17"/>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
       <c r="G15" s="6">
         <v>2</v>
       </c>
@@ -8055,7 +9023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
       <c r="G16" s="6">
         <v>3</v>
       </c>
@@ -8091,7 +9059,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="6">
         <v>4</v>
       </c>
@@ -8135,7 +9103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="9">
         <v>5</v>
       </c>
@@ -8173,34 +9141,34 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G20" s="57" t="s">
+    <row r="19" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="58"/>
-    </row>
-    <row r="21" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="55" t="s">
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="56"/>
-      <c r="J21" s="61" t="s">
+      <c r="H21" s="47"/>
+      <c r="J21" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="63"/>
-      <c r="U21" s="57" t="s">
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="43"/>
+      <c r="U21" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="V21" s="58"/>
-      <c r="Y21" s="51" t="s">
+      <c r="V21" s="45"/>
+      <c r="Y21" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="52"/>
-    </row>
-    <row r="22" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Z21" s="63"/>
+    </row>
+    <row r="22" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="2">
         <v>1</v>
       </c>
@@ -8219,16 +9187,16 @@
       <c r="M22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U22" s="55" t="s">
+      <c r="U22" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="V22" s="56"/>
-      <c r="Y22" s="49" t="s">
+      <c r="V22" s="47"/>
+      <c r="Y22" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="Z22" s="50"/>
-    </row>
-    <row r="23" spans="7:32" x14ac:dyDescent="0.4">
+      <c r="Z22" s="61"/>
+    </row>
+    <row r="23" spans="7:32" x14ac:dyDescent="0.3">
       <c r="G23" s="6">
         <v>2</v>
       </c>
@@ -8259,12 +9227,12 @@
       <c r="Z23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AE23" s="68" t="s">
+      <c r="AE23" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="AF23" s="69"/>
-    </row>
-    <row r="24" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF23" s="65"/>
+    </row>
+    <row r="24" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="9">
         <v>3</v>
       </c>
@@ -8295,12 +9263,12 @@
       <c r="Z24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AE24" s="70" t="s">
+      <c r="AE24" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AF24" s="71"/>
-    </row>
-    <row r="25" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF24" s="67"/>
+    </row>
+    <row r="25" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J25" s="6">
         <v>7</v>
       </c>
@@ -8332,11 +9300,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G26" s="57" t="s">
+    <row r="26" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="58"/>
+      <c r="H26" s="45"/>
       <c r="J26" s="6">
         <v>9</v>
       </c>
@@ -8368,11 +9336,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G27" s="55" t="s">
+    <row r="27" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="56"/>
+      <c r="H27" s="47"/>
       <c r="J27" s="6">
         <v>11</v>
       </c>
@@ -8398,7 +9366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G28" s="2">
         <v>1</v>
       </c>
@@ -8418,7 +9386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G29" s="9">
         <v>2</v>
       </c>
@@ -8437,20 +9405,20 @@
       <c r="M29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U29" s="57" t="s">
+      <c r="U29" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="V29" s="58"/>
-      <c r="Y29" s="51" t="s">
+      <c r="V29" s="45"/>
+      <c r="Y29" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="Z29" s="52"/>
-      <c r="AB29" s="43" t="s">
+      <c r="Z29" s="63"/>
+      <c r="AB29" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AC29" s="44"/>
-    </row>
-    <row r="30" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AC29" s="55"/>
+    </row>
+    <row r="30" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J30" s="6">
         <v>17</v>
       </c>
@@ -8463,24 +9431,24 @@
       <c r="M30" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U30" s="59" t="s">
+      <c r="U30" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="V30" s="60"/>
-      <c r="Y30" s="53" t="s">
+      <c r="V30" s="49"/>
+      <c r="Y30" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Z30" s="54"/>
-      <c r="AB30" s="41" t="s">
+      <c r="Z30" s="51"/>
+      <c r="AB30" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AC30" s="42"/>
-    </row>
-    <row r="31" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G31" s="57" t="s">
+      <c r="AC30" s="53"/>
+    </row>
+    <row r="31" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="45"/>
       <c r="J31" s="9">
         <v>19</v>
       </c>
@@ -8512,11 +9480,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="7:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G32" s="55" t="s">
+    <row r="32" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="56"/>
+      <c r="H32" s="47"/>
       <c r="U32" s="6">
         <v>2</v>
       </c>
@@ -8536,7 +9504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:29" x14ac:dyDescent="0.4">
+    <row r="33" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G33" s="2">
         <v>1</v>
       </c>
@@ -8562,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G34" s="9">
         <v>2</v>
       </c>
@@ -8588,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U35" s="9">
         <v>5</v>
       </c>
@@ -8608,35 +9576,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G36" s="57" t="s">
+    <row r="36" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="58"/>
-    </row>
-    <row r="37" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G37" s="55" t="s">
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="56"/>
-      <c r="L37" s="57" t="s">
+      <c r="H37" s="47"/>
+      <c r="L37" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="58"/>
-    </row>
-    <row r="38" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M37" s="45"/>
+    </row>
+    <row r="38" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G38" s="2">
         <v>1</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L38" s="55" t="s">
+      <c r="L38" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="56"/>
-    </row>
-    <row r="39" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M38" s="47"/>
+    </row>
+    <row r="39" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G39" s="9">
         <v>2</v>
       </c>
@@ -8650,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L40" s="9">
         <v>2</v>
       </c>
@@ -8658,20 +9626,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="7:29" x14ac:dyDescent="0.4">
-      <c r="L42" s="57" t="s">
+    <row r="41" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="L42" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="58"/>
-    </row>
-    <row r="43" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L43" s="55" t="s">
+      <c r="M42" s="45"/>
+    </row>
+    <row r="43" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L43" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="56"/>
-    </row>
-    <row r="44" spans="7:29" x14ac:dyDescent="0.4">
+      <c r="M43" s="47"/>
+    </row>
+    <row r="44" spans="7:29" x14ac:dyDescent="0.3">
       <c r="L44" s="2">
         <v>1</v>
       </c>
@@ -8679,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L45" s="9">
         <v>2</v>
       </c>
@@ -8689,15 +9657,19 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="U30:V30"/>
     <mergeCell ref="Y30:Z30"/>
     <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="G12:H12"/>
@@ -8713,19 +9685,15 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="U8:V8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8735,25 +9703,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AL34" sqref="AL34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="44" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="44" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="C2" s="40">
         <v>10</v>
       </c>
@@ -8825,57 +9793,57 @@
       </c>
       <c r="Z2" s="39"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B3" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B4" s="39">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B5" s="39">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B6" s="39">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B7" s="39">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B8" s="39">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B9" s="39">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B10" s="39">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B11" s="39">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B12" s="39">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B13" s="39">
         <v>110</v>
       </c>
@@ -8938,7 +9906,7 @@
       </c>
       <c r="AS13" s="40"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B14" s="39">
         <v>120</v>
       </c>
@@ -8946,7 +9914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B15" s="39">
         <v>130</v>
       </c>
@@ -8954,7 +9922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B16" s="39">
         <v>140</v>
       </c>
@@ -8962,7 +9930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="39">
         <v>150</v>
       </c>
@@ -8970,7 +9938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B18" s="39">
         <v>160</v>
       </c>
@@ -8978,7 +9946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B19" s="39">
         <v>170</v>
       </c>
@@ -8986,7 +9954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20" s="39">
         <v>180</v>
       </c>
@@ -8994,7 +9962,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21" s="39">
         <v>190</v>
       </c>
@@ -9002,7 +9970,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22" s="39">
         <v>200</v>
       </c>
@@ -9010,7 +9978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23" s="39">
         <v>210</v>
       </c>
@@ -9018,7 +9986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B24" s="39">
         <v>220</v>
       </c>
@@ -9026,7 +9994,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B25" s="39">
         <v>230</v>
       </c>
@@ -9034,7 +10002,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B26" s="39">
         <v>240</v>
       </c>
@@ -9042,7 +10010,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B27" s="39">
         <v>250</v>
       </c>
@@ -9050,7 +10018,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B28" s="39">
         <v>260</v>
       </c>
@@ -9058,7 +10026,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B29" s="39">
         <v>270</v>
       </c>
@@ -9066,7 +10034,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B30" s="39">
         <v>280</v>
       </c>
@@ -9074,7 +10042,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B31" s="39">
         <v>290</v>
       </c>
@@ -9082,7 +10050,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B32" s="39">
         <v>300</v>
       </c>
@@ -9090,7 +10058,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="39">
         <v>310</v>
       </c>
@@ -9098,7 +10066,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34" s="39">
         <v>320</v>
       </c>
@@ -9106,7 +10074,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35" s="39">
         <v>330</v>
       </c>
@@ -9114,7 +10082,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36" s="39">
         <v>340</v>
       </c>
@@ -9122,7 +10090,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B37" s="39">
         <v>350</v>
       </c>
@@ -9130,37 +10098,37 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B38" s="39">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B39" s="39">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B40" s="39">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B41" s="39">
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B42" s="39">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B43" s="39">
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B44" s="39">
         <v>420</v>
       </c>
@@ -9174,25 +10142,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1871E58A-3414-4A12-B525-A573ABFAAE4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C2" s="40">
         <v>10</v>
       </c>
@@ -9264,37 +10232,37 @@
       </c>
       <c r="Z2" s="39"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" s="39">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="39">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6" s="39">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7" s="39">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B8" s="39">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B9" s="39">
         <v>70</v>
       </c>
@@ -9305,177 +10273,177 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B10" s="39">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B11" s="39">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12" s="39">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13" s="39">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14" s="39">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" s="39">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" s="39">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="39">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="39">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="39">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="39">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="39">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="39">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="39">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="39">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="39">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="39">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="39">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="39">
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="39">
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="39">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="39">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="39">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="39">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="39">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="39">
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="39">
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="39">
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="39">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="39">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="39">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="39">
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="39">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="39">
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="39">
         <v>420</v>
       </c>
@@ -9489,14 +10457,329 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="3.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C2" s="40">
+        <v>10</v>
+      </c>
+      <c r="D2" s="40">
+        <v>20</v>
+      </c>
+      <c r="E2" s="40">
+        <v>30</v>
+      </c>
+      <c r="F2" s="40">
+        <v>40</v>
+      </c>
+      <c r="G2" s="40">
+        <v>50</v>
+      </c>
+      <c r="H2" s="40">
+        <v>60</v>
+      </c>
+      <c r="I2" s="40">
+        <v>70</v>
+      </c>
+      <c r="J2" s="40">
+        <v>80</v>
+      </c>
+      <c r="K2" s="40">
+        <v>90</v>
+      </c>
+      <c r="L2" s="40">
+        <v>100</v>
+      </c>
+      <c r="M2" s="40">
+        <v>110</v>
+      </c>
+      <c r="N2" s="40">
+        <v>120</v>
+      </c>
+      <c r="O2" s="40">
+        <v>130</v>
+      </c>
+      <c r="P2" s="40">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="40">
+        <v>150</v>
+      </c>
+      <c r="R2" s="40">
+        <v>160</v>
+      </c>
+      <c r="S2" s="40">
+        <v>170</v>
+      </c>
+      <c r="T2" s="40">
+        <v>180</v>
+      </c>
+      <c r="U2" s="40">
+        <v>190</v>
+      </c>
+      <c r="V2" s="40">
+        <v>200</v>
+      </c>
+      <c r="W2" s="40">
+        <v>210</v>
+      </c>
+      <c r="X2" s="40">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="40">
+        <v>230</v>
+      </c>
+      <c r="Z2" s="39"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B3" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B5" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B6" s="39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B7" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B8" s="39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B9" s="39">
+        <v>70</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B10" s="39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B11" s="39">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B12" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B13" s="39">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B14" s="39">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B15" s="39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B16" s="39">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="39">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="39">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="39">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="39">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="39">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="39">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="39">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="39">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="39">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="39">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="39">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="39">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="39">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="39">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="39">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="39">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="39">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="39">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="39">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="39">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="39">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="39">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="39">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="39">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="39">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="74">
   <si>
     <t>+12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,14 @@
   </si>
   <si>
     <t>IOUTB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RV_CT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -756,10 +764,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -769,39 +773,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -838,16 +809,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,6 +852,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -899,7 +912,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,7 +984,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1043,7 +1056,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,7 +1122,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +1188,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,7 +1316,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1409,7 +1422,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1500,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1578,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1673,7 @@
         <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1755,7 +1768,7 @@
         <xdr:cNvPr id="8" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1828,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1888,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1956,7 @@
         <xdr:cNvPr id="16" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2024,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2122,7 @@
         <xdr:cNvPr id="13" name="화살표: 왼쪽/오른쪽 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2182,7 @@
         <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2263,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2331,7 @@
         <xdr:cNvPr id="21" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2399,7 @@
         <xdr:cNvPr id="22" name="화살표: 왼쪽/오른쪽 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,7 +2459,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2519,7 @@
         <xdr:cNvPr id="24" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2598,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,7 +2670,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,15 +2734,15 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,8 +2750,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11247665" y="751113"/>
-          <a:ext cx="4797878" cy="7271659"/>
+          <a:off x="10273394" y="713013"/>
+          <a:ext cx="4808763" cy="8158844"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2782,20 +2795,20 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>54427</xdr:rowOff>
+      <xdr:rowOff>54426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2803,8 +2816,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4214133" y="718456"/>
-          <a:ext cx="4879521" cy="9546773"/>
+          <a:off x="4224058" y="704367"/>
+          <a:ext cx="5052732" cy="11375573"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2861,7 +2874,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2989,7 +3002,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3108,7 @@
         <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,7 +3186,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3251,7 +3264,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,7 +3359,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3441,7 +3454,7 @@
         <xdr:cNvPr id="12" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3514,7 @@
         <xdr:cNvPr id="13" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3561,7 +3574,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3629,7 +3642,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3697,7 +3710,7 @@
         <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3795,7 +3808,7 @@
         <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3855,7 +3868,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3936,7 +3949,7 @@
         <xdr:cNvPr id="19" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4004,7 +4017,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4072,7 +4085,7 @@
         <xdr:cNvPr id="21" name="화살표: 왼쪽/오른쪽 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,7 +4145,7 @@
         <xdr:cNvPr id="22" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4177,22 +4190,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>249012</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>21775</xdr:rowOff>
+      <xdr:colOff>303440</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>206830</xdr:rowOff>
+      <xdr:colOff>283030</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>70759</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4200,8 +4213,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17970955" y="6988632"/>
-          <a:ext cx="1329418" cy="185055"/>
+          <a:off x="15244083" y="2008418"/>
+          <a:ext cx="659947" cy="185055"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4250,23 +4263,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>463731</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>207916</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>654232</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>599803</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>557894</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>150767</xdr:rowOff>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4274,8 +4287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20602302" y="871945"/>
-          <a:ext cx="1485901" cy="389165"/>
+          <a:off x="16275232" y="861060"/>
+          <a:ext cx="978626" cy="336370"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4328,8 +4341,8 @@
       <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>108858</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>97971</xdr:rowOff>
     </xdr:to>
@@ -4338,7 +4351,7 @@
         <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4346,8 +4359,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15978598" y="772885"/>
-          <a:ext cx="3300003" cy="8371115"/>
+          <a:off x="16196312" y="734785"/>
+          <a:ext cx="1411331" cy="7935686"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4404,7 +4417,7 @@
         <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4482,7 +4495,7 @@
         <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4537,6 +4550,285 @@
             <a:t>TPS5430 3A</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114940</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>687963</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="모서리가 둥근 직사각형 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10558822" y="7012561"/>
+          <a:ext cx="864376" cy="780890"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FAN</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>21292</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="오른쪽 화살표 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9098057" y="7447589"/>
+          <a:ext cx="1379443" cy="161205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>564427</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>274864</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="모서리가 둥근 직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17940748" y="737505"/>
+          <a:ext cx="1411330" cy="2813959"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3050"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>71845</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>179616</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="모서리가 둥근 직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18128524" y="877389"/>
+          <a:ext cx="1139189" cy="336370"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>COUPLER</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4565,7 +4857,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4641,7 +4933,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4717,7 +5009,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4790,7 +5082,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4869,7 +5161,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4932,7 +5224,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5004,7 +5296,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5076,7 +5368,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5155,7 +5447,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5234,7 +5526,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5313,7 +5605,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5394,7 +5686,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5478,7 +5770,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5562,7 +5854,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5643,7 +5935,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5742,7 +6034,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5805,7 +6097,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5892,7 +6184,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5964,7 +6256,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6043,7 +6335,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6122,7 +6414,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6201,7 +6493,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6300,7 +6592,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6392,7 +6684,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6476,7 +6768,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6560,7 +6852,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6641,7 +6933,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6740,7 +7032,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6803,7 +7095,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6890,7 +7182,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6962,7 +7254,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7041,7 +7333,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7120,7 +7412,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7199,7 +7491,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7298,7 +7590,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7695,12 +7987,12 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
@@ -7839,12 +8131,12 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="45"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
+      <c r="O10" s="54"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
     </row>
     <row r="11" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="9" t="s">
@@ -7868,14 +8160,14 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="46" t="s">
+      <c r="N11" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="47"/>
-      <c r="S11" s="58" t="s">
+      <c r="O11" s="52"/>
+      <c r="S11" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="59"/>
+      <c r="T11" s="44"/>
     </row>
     <row r="12" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="22" t="s">
@@ -7981,10 +8273,10 @@
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="45"/>
+      <c r="J16" s="54"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -7995,10 +8287,10 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="52"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -8054,32 +8346,32 @@
     </row>
     <row r="20" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="45"/>
-      <c r="N21" s="44" t="s">
+      <c r="J21" s="54"/>
+      <c r="N21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="45"/>
-      <c r="S21" s="56" t="s">
+      <c r="O21" s="54"/>
+      <c r="S21" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="57"/>
+      <c r="T21" s="42"/>
     </row>
     <row r="22" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="N22" s="50" t="s">
+      <c r="J22" s="50"/>
+      <c r="N22" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="51"/>
-      <c r="S22" s="58" t="s">
+      <c r="O22" s="50"/>
+      <c r="S22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="59"/>
+      <c r="T22" s="44"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I23" s="2">
@@ -8123,32 +8415,32 @@
     </row>
     <row r="25" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="N26" s="44" t="s">
+      <c r="J26" s="54"/>
+      <c r="N26" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="45"/>
-      <c r="S26" s="62" t="s">
+      <c r="O26" s="54"/>
+      <c r="S26" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="63"/>
+      <c r="T26" s="48"/>
     </row>
     <row r="27" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="N27" s="46" t="s">
+      <c r="J27" s="52"/>
+      <c r="N27" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="47"/>
-      <c r="S27" s="60" t="s">
+      <c r="O27" s="52"/>
+      <c r="S27" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="61"/>
+      <c r="T27" s="46"/>
     </row>
     <row r="28" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I28" s="2">
@@ -8252,40 +8544,40 @@
     </row>
     <row r="33" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="9:23" x14ac:dyDescent="0.3">
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="N34" s="44" t="s">
+      <c r="J34" s="54"/>
+      <c r="N34" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="45"/>
-      <c r="S34" s="62" t="s">
+      <c r="O34" s="54"/>
+      <c r="S34" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="63"/>
-      <c r="V34" s="54" t="s">
+      <c r="T34" s="48"/>
+      <c r="V34" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="55"/>
+      <c r="W34" s="40"/>
     </row>
     <row r="35" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I35" s="46" t="s">
+      <c r="I35" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="47"/>
-      <c r="N35" s="48" t="s">
+      <c r="J35" s="52"/>
+      <c r="N35" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="49"/>
-      <c r="S35" s="50" t="s">
+      <c r="O35" s="56"/>
+      <c r="S35" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="51"/>
-      <c r="V35" s="52" t="s">
+      <c r="T35" s="50"/>
+      <c r="V35" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="53"/>
+      <c r="W35" s="38"/>
     </row>
     <row r="36" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I36" s="2">
@@ -8386,10 +8678,10 @@
       </c>
     </row>
     <row r="40" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="45"/>
+      <c r="J40" s="54"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -8410,10 +8702,10 @@
       </c>
     </row>
     <row r="41" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I41" s="46" t="s">
+      <c r="I41" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="47"/>
+      <c r="J41" s="52"/>
     </row>
     <row r="42" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I42" s="2">
@@ -8422,10 +8714,10 @@
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="44" t="s">
+      <c r="N42" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="45"/>
+      <c r="O42" s="54"/>
     </row>
     <row r="43" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I43" s="9">
@@ -8434,10 +8726,10 @@
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="46" t="s">
+      <c r="N43" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="47"/>
+      <c r="O43" s="52"/>
     </row>
     <row r="44" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N44" s="2">
@@ -8448,10 +8740,10 @@
       </c>
     </row>
     <row r="45" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="45"/>
+      <c r="J45" s="54"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -8460,10 +8752,10 @@
       </c>
     </row>
     <row r="46" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I46" s="46" t="s">
+      <c r="I46" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="47"/>
+      <c r="J46" s="52"/>
     </row>
     <row r="47" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I47" s="2">
@@ -8472,10 +8764,10 @@
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="44" t="s">
+      <c r="N47" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="45"/>
+      <c r="O47" s="54"/>
     </row>
     <row r="48" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I48" s="9">
@@ -8484,10 +8776,10 @@
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="46" t="s">
+      <c r="N48" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="47"/>
+      <c r="O48" s="52"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.3">
       <c r="N49" s="2">
@@ -8515,22 +8807,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -8543,13 +8826,22 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8560,10 +8852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AF45"/>
+  <dimension ref="B3:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8586,6 +8878,7 @@
     <col min="21" max="21" width="2.75" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.75" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.125" customWidth="1"/>
+    <col min="28" max="28" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8637,26 +8930,30 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="J7" s="44" t="s">
+      <c r="H7" s="54"/>
+      <c r="J7" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="45"/>
-      <c r="P7" s="44" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="54"/>
+      <c r="P7" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="45"/>
-      <c r="U7" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="V7" s="57"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="54"/>
+      <c r="U7" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" s="54"/>
+      <c r="Y7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="40"/>
     </row>
     <row r="8" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -8668,30 +8965,34 @@
       <c r="D8" s="26">
         <v>35</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="J8" s="68" t="s">
+      <c r="H8" s="50"/>
+      <c r="J8" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70"/>
-      <c r="P8" s="68" t="s">
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
+      <c r="P8" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="70"/>
-      <c r="U8" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="V8" s="59"/>
-      <c r="AE8" s="44" t="s">
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="62"/>
+      <c r="U8" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="56"/>
+      <c r="Y8" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="38"/>
+      <c r="AE8" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="AF8" s="45"/>
+      <c r="AF8" s="54"/>
     </row>
     <row r="9" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
@@ -8709,40 +9010,46 @@
       <c r="H9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="35">
-        <v>1</v>
-      </c>
-      <c r="K9" s="36" t="s">
+      <c r="J9" s="64">
+        <v>1</v>
+      </c>
+      <c r="K9" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="65">
         <v>2</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="32">
+        <v>2</v>
+      </c>
+      <c r="S9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="36">
-        <v>2</v>
-      </c>
-      <c r="S9" s="37" t="s">
-        <v>24</v>
-      </c>
       <c r="U9" s="2">
         <v>1</v>
       </c>
-      <c r="V9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE9" s="46" t="s">
+      <c r="V9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AF9" s="47"/>
+      <c r="AF9" s="52"/>
     </row>
     <row r="10" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -8788,7 +9095,13 @@
         <v>2</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="AE10" s="2">
         <v>1</v>
@@ -8807,10 +9120,10 @@
       <c r="D11" s="27">
         <v>10</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="16">
         <v>5</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="67" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="1">
@@ -8835,6 +9148,12 @@
         <v>3</v>
       </c>
       <c r="V11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AE11" s="6">
@@ -8856,10 +9175,10 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="54"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
@@ -8886,7 +9205,13 @@
         <v>4</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="AE12" s="6">
         <v>3</v>
@@ -8896,14 +9221,14 @@
       </c>
     </row>
     <row r="13" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="52"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="34" t="s">
         <v>66</v>
       </c>
       <c r="L13" s="1">
@@ -8915,7 +9240,7 @@
       <c r="P13" s="6">
         <v>9</v>
       </c>
-      <c r="Q13" s="38" t="s">
+      <c r="Q13" s="34" t="s">
         <v>71</v>
       </c>
       <c r="R13" s="1">
@@ -8924,11 +9249,17 @@
       <c r="S13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="9">
         <v>5</v>
       </c>
-      <c r="V13" s="8" t="s">
-        <v>53</v>
+      <c r="V13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="AE13" s="6">
         <v>4</v>
@@ -8968,18 +9299,12 @@
       <c r="S14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U14" s="6">
-        <v>6</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="AE14" s="16">
         <v>5</v>
       </c>
       <c r="AF14" s="17"/>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="6">
         <v>2</v>
       </c>
@@ -9008,12 +9333,6 @@
         <v>14</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15" s="6">
-        <v>7</v>
-      </c>
-      <c r="V15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AE15" s="6">
@@ -9046,12 +9365,14 @@
         <v>16</v>
       </c>
       <c r="S16" s="8"/>
-      <c r="U16" s="6">
-        <v>8</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="U16" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="V16" s="42"/>
+      <c r="Y16" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z16" s="42"/>
       <c r="AE16" s="18">
         <v>7</v>
       </c>
@@ -9069,7 +9390,7 @@
       <c r="J17" s="6">
         <v>17</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="28" t="s">
         <v>46</v>
       </c>
       <c r="L17" s="1">
@@ -9081,7 +9402,7 @@
       <c r="P17" s="6">
         <v>17</v>
       </c>
-      <c r="Q17" s="32" t="s">
+      <c r="Q17" s="28" t="s">
         <v>46</v>
       </c>
       <c r="R17" s="1">
@@ -9090,12 +9411,14 @@
       <c r="S17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U17" s="6">
-        <v>9</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="U17" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17" s="44"/>
+      <c r="Y17" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z17" s="44"/>
       <c r="AE17" s="9">
         <v>8</v>
       </c>
@@ -9113,60 +9436,79 @@
       <c r="J18" s="9">
         <v>19</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="29" t="s">
         <v>46</v>
       </c>
       <c r="L18" s="10">
         <v>20</v>
       </c>
-      <c r="M18" s="34" t="s">
+      <c r="M18" s="30" t="s">
         <v>46</v>
       </c>
       <c r="P18" s="9">
         <v>19</v>
       </c>
-      <c r="Q18" s="33" t="s">
+      <c r="Q18" s="29" t="s">
         <v>46</v>
       </c>
       <c r="R18" s="10">
         <v>20</v>
       </c>
-      <c r="S18" s="34" t="s">
+      <c r="S18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U18" s="9">
-        <v>10</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="U18" s="69">
+        <v>1</v>
+      </c>
+      <c r="V18" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="69">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U19" s="71">
+        <v>2</v>
+      </c>
+      <c r="V19" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="71">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="72" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="20" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="45"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="J21" s="41" t="s">
+      <c r="H21" s="52"/>
+      <c r="J21" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="43"/>
-      <c r="U21" s="44" t="s">
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="59"/>
+      <c r="U21" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="V21" s="45"/>
-      <c r="Y21" s="62" t="s">
+      <c r="V21" s="54"/>
+      <c r="Y21" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="63"/>
+      <c r="Z21" s="48"/>
     </row>
     <row r="22" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="2">
@@ -9187,14 +9529,14 @@
       <c r="M22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U22" s="46" t="s">
+      <c r="U22" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="V22" s="47"/>
-      <c r="Y22" s="60" t="s">
+      <c r="V22" s="52"/>
+      <c r="Y22" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="Z22" s="61"/>
+      <c r="Z22" s="46"/>
     </row>
     <row r="23" spans="7:32" x14ac:dyDescent="0.3">
       <c r="G23" s="6">
@@ -9227,10 +9569,6 @@
       <c r="Z23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AE23" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF23" s="65"/>
     </row>
     <row r="24" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="9">
@@ -9263,10 +9601,6 @@
       <c r="Z24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AE24" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF24" s="67"/>
     </row>
     <row r="25" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J25" s="6">
@@ -9293,18 +9627,12 @@
       <c r="Z25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AE25" s="28">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G26" s="44" t="s">
+    </row>
+    <row r="26" spans="7:32" x14ac:dyDescent="0.3">
+      <c r="G26" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="45"/>
+      <c r="H26" s="54"/>
       <c r="J26" s="6">
         <v>9</v>
       </c>
@@ -9329,18 +9657,12 @@
       <c r="Z26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AE26" s="30">
-        <v>2</v>
-      </c>
-      <c r="AF26" s="31" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="52"/>
       <c r="J27" s="6">
         <v>11</v>
       </c>
@@ -9405,18 +9727,10 @@
       <c r="M29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U29" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="V29" s="45"/>
-      <c r="Y29" s="62" t="s">
+      <c r="Y29" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="Z29" s="63"/>
-      <c r="AB29" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC29" s="55"/>
+      <c r="Z29" s="48"/>
     </row>
     <row r="30" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J30" s="6">
@@ -9431,24 +9745,16 @@
       <c r="M30" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U30" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="V30" s="49"/>
-      <c r="Y30" s="50" t="s">
+      <c r="Y30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="Z30" s="51"/>
-      <c r="AB30" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC30" s="53"/>
+      <c r="Z30" s="50"/>
     </row>
     <row r="31" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="54"/>
       <c r="J31" s="9">
         <v>19</v>
       </c>
@@ -9461,107 +9767,67 @@
       <c r="M31" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U31" s="2">
-        <v>1</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="Y31" s="2">
         <v>1</v>
       </c>
       <c r="Z31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AB31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="32" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="47"/>
-      <c r="U32" s="6">
-        <v>2</v>
-      </c>
-      <c r="V32" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="H32" s="52"/>
       <c r="Y32" s="6">
         <v>2</v>
       </c>
       <c r="Z32" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AB32" s="6">
-        <v>2</v>
-      </c>
-      <c r="AC32" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="7:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="7:32" x14ac:dyDescent="0.3">
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U33" s="6">
-        <v>3</v>
-      </c>
-      <c r="V33" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="L33" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="54"/>
       <c r="Y33" s="6">
         <v>3</v>
       </c>
       <c r="Z33" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AB33" s="6">
-        <v>3</v>
-      </c>
-      <c r="AC33" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G34" s="9">
         <v>2</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U34" s="6">
-        <v>4</v>
-      </c>
-      <c r="V34" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="L34" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="52"/>
       <c r="Y34" s="6">
         <v>4</v>
       </c>
       <c r="Z34" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AB34" s="6">
-        <v>4</v>
-      </c>
-      <c r="AC34" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U35" s="9">
-        <v>5</v>
-      </c>
-      <c r="V35" s="11" t="s">
-        <v>1</v>
+    </row>
+    <row r="35" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="Y35" s="9">
         <v>5</v>
@@ -9569,109 +9835,211 @@
       <c r="Z35" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AB35" s="9">
-        <v>5</v>
-      </c>
-      <c r="AC35" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="44" t="s">
+      <c r="AE35" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF35" s="76"/>
+    </row>
+    <row r="36" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="45"/>
-    </row>
-    <row r="37" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G37" s="46" t="s">
+      <c r="H36" s="54"/>
+      <c r="L36" s="9">
+        <v>2</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE36" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF36" s="74"/>
+    </row>
+    <row r="37" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="L37" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="M37" s="45"/>
-    </row>
-    <row r="38" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H37" s="52"/>
+      <c r="AE37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="7:32" x14ac:dyDescent="0.3">
       <c r="G38" s="2">
         <v>1</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L38" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="47"/>
-    </row>
-    <row r="39" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L38" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="54"/>
+      <c r="AE38" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF38" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G39" s="9">
         <v>2</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="2">
-        <v>1</v>
-      </c>
-      <c r="M39" s="5" t="s">
+      <c r="L39" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="52"/>
+      <c r="AE39" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF39" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="7:32" x14ac:dyDescent="0.3">
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L40" s="9">
+      <c r="AE40" s="6">
+        <v>4</v>
+      </c>
+      <c r="AF40" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L41" s="9">
         <v>2</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="M41" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="7:29" x14ac:dyDescent="0.3">
-      <c r="L42" s="44" t="s">
+      <c r="AE41" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF41" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE42" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF42" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="7:32" x14ac:dyDescent="0.3">
+      <c r="L43" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" s="54"/>
+      <c r="AE43" s="6">
+        <v>7</v>
+      </c>
+      <c r="AF43" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L44" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="62"/>
+      <c r="AE44" s="6">
+        <v>8</v>
+      </c>
+      <c r="AF44" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="7:32" x14ac:dyDescent="0.3">
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE45" s="6">
+        <v>9</v>
+      </c>
+      <c r="AF45" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L46" s="9">
+        <v>2</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="9">
         <v>10</v>
       </c>
-      <c r="M42" s="45"/>
-    </row>
-    <row r="43" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L43" s="46" t="s">
+      <c r="AF46" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="7:32" x14ac:dyDescent="0.3">
+      <c r="L48" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="M48" s="54"/>
+    </row>
+    <row r="49" spans="12:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L49" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="47"/>
-    </row>
-    <row r="44" spans="7:29" x14ac:dyDescent="0.3">
-      <c r="L44" s="2">
-        <v>1</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L45" s="9">
+      <c r="M49" s="62"/>
+    </row>
+    <row r="50" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="12:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L51" s="9">
         <v>2</v>
       </c>
-      <c r="M45" s="11" t="s">
-        <v>19</v>
+      <c r="M51" s="11" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="L42:M42"/>
+  <mergeCells count="43">
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AE36:AF36"/>
     <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="U21:V21"/>
     <mergeCell ref="Y21:Z21"/>
@@ -9679,21 +10047,25 @@
     <mergeCell ref="U22:V22"/>
     <mergeCell ref="Y22:Z22"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U7:V7"/>
     <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="U8:V8"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9722,414 +10094,414 @@
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="C2" s="40">
+      <c r="C2" s="36">
         <v>10</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="36">
         <v>20</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="36">
         <v>30</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="36">
         <v>40</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="36">
         <v>50</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="36">
         <v>60</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="36">
         <v>70</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="36">
         <v>80</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="36">
         <v>90</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="36">
         <v>100</v>
       </c>
-      <c r="M2" s="40">
+      <c r="M2" s="36">
         <v>110</v>
       </c>
-      <c r="N2" s="40">
+      <c r="N2" s="36">
         <v>120</v>
       </c>
-      <c r="O2" s="40">
+      <c r="O2" s="36">
         <v>130</v>
       </c>
-      <c r="P2" s="40">
+      <c r="P2" s="36">
         <v>140</v>
       </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="36">
         <v>150</v>
       </c>
-      <c r="R2" s="40">
+      <c r="R2" s="36">
         <v>160</v>
       </c>
-      <c r="S2" s="40">
+      <c r="S2" s="36">
         <v>170</v>
       </c>
-      <c r="T2" s="40">
+      <c r="T2" s="36">
         <v>180</v>
       </c>
-      <c r="U2" s="40">
+      <c r="U2" s="36">
         <v>190</v>
       </c>
-      <c r="V2" s="40">
+      <c r="V2" s="36">
         <v>200</v>
       </c>
-      <c r="W2" s="40">
+      <c r="W2" s="36">
         <v>210</v>
       </c>
-      <c r="X2" s="40">
+      <c r="X2" s="36">
         <v>220</v>
       </c>
-      <c r="Y2" s="40">
+      <c r="Y2" s="36">
         <v>230</v>
       </c>
-      <c r="Z2" s="39"/>
+      <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B3" s="39">
+      <c r="B3" s="35">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B4" s="39">
+      <c r="B4" s="35">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B5" s="39">
+      <c r="B5" s="35">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B6" s="39">
+      <c r="B6" s="35">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B7" s="39">
+      <c r="B7" s="35">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B8" s="39">
+      <c r="B8" s="35">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B9" s="39">
+      <c r="B9" s="35">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B10" s="39">
+      <c r="B10" s="35">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B11" s="39">
+      <c r="B11" s="35">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B12" s="39">
+      <c r="B12" s="35">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B13" s="39">
+      <c r="B13" s="35">
         <v>110</v>
       </c>
-      <c r="Z13" s="40">
+      <c r="Z13" s="36">
         <v>10</v>
       </c>
-      <c r="AA13" s="40">
+      <c r="AA13" s="36">
         <v>20</v>
       </c>
-      <c r="AB13" s="40">
+      <c r="AB13" s="36">
         <v>30</v>
       </c>
-      <c r="AC13" s="40">
+      <c r="AC13" s="36">
         <v>40</v>
       </c>
-      <c r="AD13" s="40">
+      <c r="AD13" s="36">
         <v>50</v>
       </c>
-      <c r="AE13" s="40">
+      <c r="AE13" s="36">
         <v>60</v>
       </c>
-      <c r="AF13" s="40">
+      <c r="AF13" s="36">
         <v>70</v>
       </c>
-      <c r="AG13" s="40">
+      <c r="AG13" s="36">
         <v>80</v>
       </c>
-      <c r="AH13" s="40">
+      <c r="AH13" s="36">
         <v>90</v>
       </c>
-      <c r="AI13" s="40">
+      <c r="AI13" s="36">
         <v>100</v>
       </c>
-      <c r="AJ13" s="40">
+      <c r="AJ13" s="36">
         <v>110</v>
       </c>
-      <c r="AK13" s="40">
+      <c r="AK13" s="36">
         <v>120</v>
       </c>
-      <c r="AL13" s="40">
+      <c r="AL13" s="36">
         <v>130</v>
       </c>
-      <c r="AM13" s="40">
+      <c r="AM13" s="36">
         <v>140</v>
       </c>
-      <c r="AN13" s="40">
+      <c r="AN13" s="36">
         <v>150</v>
       </c>
-      <c r="AO13" s="40">
+      <c r="AO13" s="36">
         <v>160</v>
       </c>
-      <c r="AP13" s="40">
+      <c r="AP13" s="36">
         <v>170</v>
       </c>
-      <c r="AQ13" s="40">
+      <c r="AQ13" s="36">
         <v>180</v>
       </c>
-      <c r="AR13" s="40">
+      <c r="AR13" s="36">
         <v>190</v>
       </c>
-      <c r="AS13" s="40"/>
+      <c r="AS13" s="36"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B14" s="39">
+      <c r="B14" s="35">
         <v>120</v>
       </c>
-      <c r="Y14" s="39">
+      <c r="Y14" s="35">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B15" s="39">
+      <c r="B15" s="35">
         <v>130</v>
       </c>
-      <c r="Y15" s="39">
+      <c r="Y15" s="35">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B16" s="39">
+      <c r="B16" s="35">
         <v>140</v>
       </c>
-      <c r="Y16" s="39">
+      <c r="Y16" s="35">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B17" s="39">
+      <c r="B17" s="35">
         <v>150</v>
       </c>
-      <c r="Y17" s="39">
+      <c r="Y17" s="35">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B18" s="39">
+      <c r="B18" s="35">
         <v>160</v>
       </c>
-      <c r="Y18" s="39">
+      <c r="Y18" s="35">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B19" s="39">
+      <c r="B19" s="35">
         <v>170</v>
       </c>
-      <c r="Y19" s="39">
+      <c r="Y19" s="35">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B20" s="39">
+      <c r="B20" s="35">
         <v>180</v>
       </c>
-      <c r="Y20" s="39">
+      <c r="Y20" s="35">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" s="39">
+      <c r="B21" s="35">
         <v>190</v>
       </c>
-      <c r="Y21" s="39">
+      <c r="Y21" s="35">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="39">
+      <c r="B22" s="35">
         <v>200</v>
       </c>
-      <c r="Y22" s="39">
+      <c r="Y22" s="35">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" s="39">
+      <c r="B23" s="35">
         <v>210</v>
       </c>
-      <c r="Y23" s="39">
+      <c r="Y23" s="35">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B24" s="39">
+      <c r="B24" s="35">
         <v>220</v>
       </c>
-      <c r="Y24" s="39">
+      <c r="Y24" s="35">
         <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B25" s="39">
+      <c r="B25" s="35">
         <v>230</v>
       </c>
-      <c r="Y25" s="39">
+      <c r="Y25" s="35">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B26" s="39">
+      <c r="B26" s="35">
         <v>240</v>
       </c>
-      <c r="Y26" s="39">
+      <c r="Y26" s="35">
         <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" s="39">
+      <c r="B27" s="35">
         <v>250</v>
       </c>
-      <c r="Y27" s="39">
+      <c r="Y27" s="35">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B28" s="39">
+      <c r="B28" s="35">
         <v>260</v>
       </c>
-      <c r="Y28" s="39">
+      <c r="Y28" s="35">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B29" s="39">
+      <c r="B29" s="35">
         <v>270</v>
       </c>
-      <c r="Y29" s="39">
+      <c r="Y29" s="35">
         <v>160</v>
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B30" s="39">
+      <c r="B30" s="35">
         <v>280</v>
       </c>
-      <c r="Y30" s="39">
+      <c r="Y30" s="35">
         <v>170</v>
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B31" s="39">
+      <c r="B31" s="35">
         <v>290</v>
       </c>
-      <c r="Y31" s="39">
+      <c r="Y31" s="35">
         <v>180</v>
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B32" s="39">
+      <c r="B32" s="35">
         <v>300</v>
       </c>
-      <c r="Y32" s="39">
+      <c r="Y32" s="35">
         <v>190</v>
       </c>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B33" s="39">
+      <c r="B33" s="35">
         <v>310</v>
       </c>
-      <c r="Y33" s="39">
+      <c r="Y33" s="35">
         <v>200</v>
       </c>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B34" s="39">
+      <c r="B34" s="35">
         <v>320</v>
       </c>
-      <c r="Y34" s="39">
+      <c r="Y34" s="35">
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B35" s="39">
+      <c r="B35" s="35">
         <v>330</v>
       </c>
-      <c r="Y35" s="39">
+      <c r="Y35" s="35">
         <v>220</v>
       </c>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B36" s="39">
+      <c r="B36" s="35">
         <v>340</v>
       </c>
-      <c r="Y36" s="39">
+      <c r="Y36" s="35">
         <v>230</v>
       </c>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B37" s="39">
+      <c r="B37" s="35">
         <v>350</v>
       </c>
-      <c r="Y37" s="39">
+      <c r="Y37" s="35">
         <v>240</v>
       </c>
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B38" s="39">
+      <c r="B38" s="35">
         <v>360</v>
       </c>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B39" s="39">
+      <c r="B39" s="35">
         <v>370</v>
       </c>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B40" s="39">
+      <c r="B40" s="35">
         <v>380</v>
       </c>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B41" s="39">
+      <c r="B41" s="35">
         <v>390</v>
       </c>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B42" s="39">
+      <c r="B42" s="35">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B43" s="39">
+      <c r="B43" s="35">
         <v>410</v>
       </c>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B44" s="39">
+      <c r="B44" s="35">
         <v>420</v>
       </c>
     </row>
@@ -10161,109 +10533,109 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C2" s="40">
+      <c r="C2" s="36">
         <v>10</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="36">
         <v>20</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="36">
         <v>30</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="36">
         <v>40</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="36">
         <v>50</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="36">
         <v>60</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="36">
         <v>70</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="36">
         <v>80</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="36">
         <v>90</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="36">
         <v>100</v>
       </c>
-      <c r="M2" s="40">
+      <c r="M2" s="36">
         <v>110</v>
       </c>
-      <c r="N2" s="40">
+      <c r="N2" s="36">
         <v>120</v>
       </c>
-      <c r="O2" s="40">
+      <c r="O2" s="36">
         <v>130</v>
       </c>
-      <c r="P2" s="40">
+      <c r="P2" s="36">
         <v>140</v>
       </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="36">
         <v>150</v>
       </c>
-      <c r="R2" s="40">
+      <c r="R2" s="36">
         <v>160</v>
       </c>
-      <c r="S2" s="40">
+      <c r="S2" s="36">
         <v>170</v>
       </c>
-      <c r="T2" s="40">
+      <c r="T2" s="36">
         <v>180</v>
       </c>
-      <c r="U2" s="40">
+      <c r="U2" s="36">
         <v>190</v>
       </c>
-      <c r="V2" s="40">
+      <c r="V2" s="36">
         <v>200</v>
       </c>
-      <c r="W2" s="40">
+      <c r="W2" s="36">
         <v>210</v>
       </c>
-      <c r="X2" s="40">
+      <c r="X2" s="36">
         <v>220</v>
       </c>
-      <c r="Y2" s="40">
+      <c r="Y2" s="36">
         <v>230</v>
       </c>
-      <c r="Z2" s="39"/>
+      <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="39">
+      <c r="B3" s="35">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="39">
+      <c r="B4" s="35">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B5" s="39">
+      <c r="B5" s="35">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="39">
+      <c r="B6" s="35">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="39">
+      <c r="B7" s="35">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="39">
+      <c r="B8" s="35">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B9" s="39">
+      <c r="B9" s="35">
         <v>70</v>
       </c>
       <c r="Z9" t="s">
@@ -10274,177 +10646,177 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B10" s="39">
+      <c r="B10" s="35">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B11" s="39">
+      <c r="B11" s="35">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B12" s="39">
+      <c r="B12" s="35">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B13" s="39">
+      <c r="B13" s="35">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="39">
+      <c r="B14" s="35">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="39">
+      <c r="B15" s="35">
         <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="39">
+      <c r="B16" s="35">
         <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="39">
+      <c r="B17" s="35">
         <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="39">
+      <c r="B18" s="35">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="39">
+      <c r="B19" s="35">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="39">
+      <c r="B20" s="35">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="39">
+      <c r="B21" s="35">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="39">
+      <c r="B22" s="35">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="39">
+      <c r="B23" s="35">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="39">
+      <c r="B24" s="35">
         <v>220</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="39">
+      <c r="B25" s="35">
         <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="39">
+      <c r="B26" s="35">
         <v>240</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="39">
+      <c r="B27" s="35">
         <v>250</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="39">
+      <c r="B28" s="35">
         <v>260</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="39">
+      <c r="B29" s="35">
         <v>270</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="39">
+      <c r="B30" s="35">
         <v>280</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="39">
+      <c r="B31" s="35">
         <v>290</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="39">
+      <c r="B32" s="35">
         <v>300</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="39">
+      <c r="B33" s="35">
         <v>310</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="39">
+      <c r="B34" s="35">
         <v>320</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="39">
+      <c r="B35" s="35">
         <v>330</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="39">
+      <c r="B36" s="35">
         <v>340</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="39">
+      <c r="B37" s="35">
         <v>350</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="39">
+      <c r="B38" s="35">
         <v>360</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="39">
+      <c r="B39" s="35">
         <v>370</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="39">
+      <c r="B40" s="35">
         <v>380</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="39">
+      <c r="B41" s="35">
         <v>390</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="39">
+      <c r="B42" s="35">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="39">
+      <c r="B43" s="35">
         <v>410</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="39">
+      <c r="B44" s="35">
         <v>420</v>
       </c>
     </row>
@@ -10473,7 +10845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
@@ -10489,109 +10861,109 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C2" s="40">
+      <c r="C2" s="36">
         <v>10</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="36">
         <v>20</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="36">
         <v>30</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="36">
         <v>40</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="36">
         <v>50</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="36">
         <v>60</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="36">
         <v>70</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="36">
         <v>80</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="36">
         <v>90</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="36">
         <v>100</v>
       </c>
-      <c r="M2" s="40">
+      <c r="M2" s="36">
         <v>110</v>
       </c>
-      <c r="N2" s="40">
+      <c r="N2" s="36">
         <v>120</v>
       </c>
-      <c r="O2" s="40">
+      <c r="O2" s="36">
         <v>130</v>
       </c>
-      <c r="P2" s="40">
+      <c r="P2" s="36">
         <v>140</v>
       </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="36">
         <v>150</v>
       </c>
-      <c r="R2" s="40">
+      <c r="R2" s="36">
         <v>160</v>
       </c>
-      <c r="S2" s="40">
+      <c r="S2" s="36">
         <v>170</v>
       </c>
-      <c r="T2" s="40">
+      <c r="T2" s="36">
         <v>180</v>
       </c>
-      <c r="U2" s="40">
+      <c r="U2" s="36">
         <v>190</v>
       </c>
-      <c r="V2" s="40">
+      <c r="V2" s="36">
         <v>200</v>
       </c>
-      <c r="W2" s="40">
+      <c r="W2" s="36">
         <v>210</v>
       </c>
-      <c r="X2" s="40">
+      <c r="X2" s="36">
         <v>220</v>
       </c>
-      <c r="Y2" s="40">
+      <c r="Y2" s="36">
         <v>230</v>
       </c>
-      <c r="Z2" s="39"/>
+      <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="39">
+      <c r="B3" s="35">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="39">
+      <c r="B4" s="35">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B5" s="39">
+      <c r="B5" s="35">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="39">
+      <c r="B6" s="35">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="39">
+      <c r="B7" s="35">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="39">
+      <c r="B8" s="35">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B9" s="39">
+      <c r="B9" s="35">
         <v>70</v>
       </c>
       <c r="Z9" t="s">
@@ -10602,177 +10974,177 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B10" s="39">
+      <c r="B10" s="35">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B11" s="39">
+      <c r="B11" s="35">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B12" s="39">
+      <c r="B12" s="35">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B13" s="39">
+      <c r="B13" s="35">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="39">
+      <c r="B14" s="35">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="39">
+      <c r="B15" s="35">
         <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="39">
+      <c r="B16" s="35">
         <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="39">
+      <c r="B17" s="35">
         <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="39">
+      <c r="B18" s="35">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="39">
+      <c r="B19" s="35">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="39">
+      <c r="B20" s="35">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="39">
+      <c r="B21" s="35">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="39">
+      <c r="B22" s="35">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="39">
+      <c r="B23" s="35">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="39">
+      <c r="B24" s="35">
         <v>220</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="39">
+      <c r="B25" s="35">
         <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="39">
+      <c r="B26" s="35">
         <v>240</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="39">
+      <c r="B27" s="35">
         <v>250</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="39">
+      <c r="B28" s="35">
         <v>260</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="39">
+      <c r="B29" s="35">
         <v>270</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="39">
+      <c r="B30" s="35">
         <v>280</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="39">
+      <c r="B31" s="35">
         <v>290</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="39">
+      <c r="B32" s="35">
         <v>300</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="39">
+      <c r="B33" s="35">
         <v>310</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="39">
+      <c r="B34" s="35">
         <v>320</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="39">
+      <c r="B35" s="35">
         <v>330</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="39">
+      <c r="B36" s="35">
         <v>340</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="39">
+      <c r="B37" s="35">
         <v>350</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="39">
+      <c r="B38" s="35">
         <v>360</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="39">
+      <c r="B39" s="35">
         <v>370</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="39">
+      <c r="B40" s="35">
         <v>380</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="39">
+      <c r="B41" s="35">
         <v>390</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="39">
+      <c r="B42" s="35">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="39">
+      <c r="B43" s="35">
         <v>410</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="39">
+      <c r="B44" s="35">
         <v>420</v>
       </c>
     </row>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -11,8 +11,8 @@
     <sheet name="RFGEN V2.0B" sheetId="4" r:id="rId2"/>
     <sheet name="Block1" sheetId="2" r:id="rId3"/>
     <sheet name="Block2" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
-    <sheet name="Block2 (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="Block2 (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="93">
   <si>
     <t>+12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,22 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CN200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF12V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOUTB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PW_PWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>423x208x177</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,6 +298,97 @@
   </si>
   <si>
     <t>RV_CT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDC_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDC_IN</t>
+  </si>
+  <si>
+    <t>PW_IS_CT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FET_TEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FW_CT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RV_CT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vrms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V Gate bias On/Off control 검토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +480,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -718,24 +799,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -769,10 +837,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -809,72 +913,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -912,7 +964,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -984,7 +1036,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1056,7 +1108,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1122,7 +1174,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1188,7 +1240,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1368,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1474,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1552,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1630,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1725,7 @@
         <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1820,7 @@
         <xdr:cNvPr id="8" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1880,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +1940,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +2008,7 @@
         <xdr:cNvPr id="16" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +2076,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2174,7 @@
         <xdr:cNvPr id="13" name="화살표: 왼쪽/오른쪽 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2234,7 @@
         <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2315,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2383,7 @@
         <xdr:cNvPr id="21" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,7 +2451,7 @@
         <xdr:cNvPr id="22" name="화살표: 왼쪽/오른쪽 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2511,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +2571,7 @@
         <xdr:cNvPr id="24" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2598,7 +2650,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2722,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,20 +2781,20 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>503465</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>87084</xdr:rowOff>
+      <xdr:rowOff>87085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,8 +2802,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10273394" y="713013"/>
-          <a:ext cx="4808763" cy="8158844"/>
+          <a:off x="10273394" y="713014"/>
+          <a:ext cx="4808763" cy="5015594"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2795,20 +2847,20 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>54426</xdr:rowOff>
+      <xdr:rowOff>54425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>212911</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2816,8 +2868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4224058" y="704367"/>
-          <a:ext cx="5052732" cy="11375573"/>
+          <a:off x="4230462" y="680354"/>
+          <a:ext cx="5059134" cy="8640539"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2874,7 +2926,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3054,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3108,7 +3160,7 @@
         <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,7 +3238,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3316,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3359,7 +3411,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3454,7 +3506,7 @@
         <xdr:cNvPr id="12" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3566,7 @@
         <xdr:cNvPr id="13" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3626,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3694,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3710,7 +3762,7 @@
         <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3808,7 +3860,7 @@
         <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3852,23 +3904,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>70757</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>91168</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>542927</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>220436</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>176895</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3876,8 +3928,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17999528" y="8222797"/>
-          <a:ext cx="864056" cy="815068"/>
+          <a:off x="17383124" y="5527222"/>
+          <a:ext cx="815071" cy="763361"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3926,74 +3978,6 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>346982</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>21774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>206830</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="오른쪽 화살표 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725422" y="4967154"/>
-          <a:ext cx="1320709" cy="185056"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4017,7 +4001,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4085,7 +4069,7 @@
         <xdr:cNvPr id="21" name="화살표: 왼쪽/오른쪽 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4130,22 +4114,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>160565</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>35377</xdr:rowOff>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,8 +4137,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10229851" y="8624206"/>
-          <a:ext cx="7698920" cy="117023"/>
+          <a:off x="9168493" y="5851067"/>
+          <a:ext cx="8128907" cy="92533"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4205,7 +4189,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4263,23 +4247,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>654232</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>477339</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>31024</xdr:rowOff>
+      <xdr:rowOff>17417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>557894</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:rowOff>149680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4287,7 +4271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16275232" y="861060"/>
+          <a:off x="17173303" y="847453"/>
           <a:ext cx="978626" cy="336370"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4341,17 +4325,17 @@
       <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4360,7 +4344,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16196312" y="734785"/>
-          <a:ext cx="1411331" cy="7935686"/>
+          <a:ext cx="2948938" cy="6408965"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4401,23 +4385,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>436517</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>40277</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28302</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>153217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>756288</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>98788</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>280037</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3539</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4425,8 +4409,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12606746" y="4764677"/>
-          <a:ext cx="1375685" cy="733425"/>
+          <a:off x="11825695" y="4004038"/>
+          <a:ext cx="1381128" cy="693965"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4479,23 +4463,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>458289</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>127363</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9254</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>778060</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>185873</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>260989</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>213087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4503,8 +4487,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12628518" y="5983877"/>
-          <a:ext cx="1375685" cy="733425"/>
+          <a:off x="11806647" y="4835434"/>
+          <a:ext cx="1381128" cy="725260"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4558,22 +4542,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>114940</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>154561</xdr:rowOff>
+      <xdr:colOff>169369</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>59311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>687963</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>50186</xdr:rowOff>
+      <xdr:colOff>742392</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>159044</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4581,8 +4565,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10558822" y="7012561"/>
-          <a:ext cx="864376" cy="780890"/>
+          <a:off x="10619655" y="4114240"/>
+          <a:ext cx="858773" cy="752875"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4639,22 +4623,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>21292</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152560</xdr:rowOff>
+      <xdr:colOff>75721</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>43703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:colOff>88047</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>198504</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4662,8 +4646,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9098057" y="7447589"/>
-          <a:ext cx="1379443" cy="161205"/>
+          <a:off x="9165292" y="4534060"/>
+          <a:ext cx="1373041" cy="154801"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4698,23 +4682,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>564427</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>482784</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>111576</xdr:rowOff>
+      <xdr:rowOff>97968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>274864</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>193221</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4722,8 +4706,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17940748" y="737505"/>
-          <a:ext cx="1411330" cy="2813959"/>
+          <a:off x="20172320" y="723897"/>
+          <a:ext cx="1411330" cy="8569781"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4764,23 +4748,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>71845</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47353</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>656953</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>183423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>179616</xdr:rowOff>
+      <xdr:rowOff>125186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4788,8 +4772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18128524" y="877389"/>
-          <a:ext cx="1139189" cy="336370"/>
+          <a:off x="20346489" y="809352"/>
+          <a:ext cx="1139190" cy="349977"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4828,6 +4812,349 @@
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>336096</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>141517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="오른쪽 화살표 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15276739" y="3339196"/>
+          <a:ext cx="659947" cy="185055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>10884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="오른쪽 화살표 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="6706959"/>
+          <a:ext cx="8134350" cy="112941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="오른쪽 화살표 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9184822" y="7834990"/>
+          <a:ext cx="11103428" cy="125189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>122461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>601435</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="오른쪽 화살표 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9187543" y="8899068"/>
+          <a:ext cx="11103428" cy="125189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>164647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>176895</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>51708</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="모서리가 둥근 직사각형 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17383124" y="6422572"/>
+          <a:ext cx="815071" cy="763361"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TEMP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sensor</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -4857,7 +5184,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4933,7 +5260,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5009,7 +5336,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5082,7 +5409,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5161,7 +5488,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5224,7 +5551,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5296,7 +5623,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5368,7 +5695,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5447,7 +5774,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5526,7 +5853,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5605,7 +5932,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5686,7 +6013,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5770,7 +6097,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5854,7 +6181,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5919,23 +6246,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>537318</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57881</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247427</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>256760</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>74543</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5943,8 +6270,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11174838" y="4035521"/>
-          <a:ext cx="2401682" cy="4436262"/>
+          <a:off x="6484231" y="3230120"/>
+          <a:ext cx="2469268" cy="4157966"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6034,7 +6361,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6081,23 +6408,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>576510</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>126286</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38140</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>192547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>240195</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107672</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6105,8 +6432,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11214030" y="4987846"/>
-          <a:ext cx="2345925" cy="3450806"/>
+          <a:off x="6523423" y="4126786"/>
+          <a:ext cx="2413511" cy="3228169"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6184,7 +6511,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6256,7 +6583,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6335,7 +6662,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6414,7 +6741,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6493,7 +6820,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6592,7 +6919,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6684,7 +7011,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6768,7 +7095,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6852,7 +7179,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6933,7 +7260,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7032,7 +7359,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7095,7 +7422,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7182,7 +7509,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7254,7 +7581,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7333,7 +7660,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7412,7 +7739,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7491,7 +7818,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7590,7 +7917,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7987,12 +8314,12 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
@@ -8131,12 +8458,12 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="53" t="s">
+      <c r="N10" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="54"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="42"/>
+      <c r="O10" s="44"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="56"/>
     </row>
     <row r="11" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="9" t="s">
@@ -8160,14 +8487,14 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="51" t="s">
+      <c r="N11" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="52"/>
-      <c r="S11" s="43" t="s">
+      <c r="O11" s="46"/>
+      <c r="S11" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="44"/>
+      <c r="T11" s="58"/>
     </row>
     <row r="12" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="22" t="s">
@@ -8273,10 +8600,10 @@
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="54"/>
+      <c r="J16" s="44"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -8287,10 +8614,10 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="52"/>
+      <c r="J17" s="46"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -8346,18 +8673,18 @@
     </row>
     <row r="20" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="53" t="s">
+      <c r="I21" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="N21" s="53" t="s">
+      <c r="J21" s="44"/>
+      <c r="N21" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="54"/>
-      <c r="S21" s="41" t="s">
+      <c r="O21" s="44"/>
+      <c r="S21" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="42"/>
+      <c r="T21" s="56"/>
     </row>
     <row r="22" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I22" s="49" t="s">
@@ -8368,10 +8695,10 @@
         <v>22</v>
       </c>
       <c r="O22" s="50"/>
-      <c r="S22" s="43" t="s">
+      <c r="S22" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="44"/>
+      <c r="T22" s="58"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I23" s="2">
@@ -8415,32 +8742,32 @@
     </row>
     <row r="25" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I26" s="53" t="s">
+      <c r="I26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="N26" s="53" t="s">
+      <c r="J26" s="44"/>
+      <c r="N26" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="54"/>
-      <c r="S26" s="47" t="s">
+      <c r="O26" s="44"/>
+      <c r="S26" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="48"/>
+      <c r="T26" s="62"/>
     </row>
     <row r="27" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="N27" s="51" t="s">
+      <c r="J27" s="46"/>
+      <c r="N27" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="52"/>
-      <c r="S27" s="45" t="s">
+      <c r="O27" s="46"/>
+      <c r="S27" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="46"/>
+      <c r="T27" s="60"/>
     </row>
     <row r="28" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I28" s="2">
@@ -8544,40 +8871,40 @@
     </row>
     <row r="33" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="9:23" x14ac:dyDescent="0.3">
-      <c r="I34" s="53" t="s">
+      <c r="I34" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="54"/>
-      <c r="N34" s="53" t="s">
+      <c r="J34" s="44"/>
+      <c r="N34" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="54"/>
-      <c r="S34" s="47" t="s">
+      <c r="O34" s="44"/>
+      <c r="S34" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="48"/>
-      <c r="V34" s="39" t="s">
+      <c r="T34" s="62"/>
+      <c r="V34" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="40"/>
+      <c r="W34" s="54"/>
     </row>
     <row r="35" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I35" s="51" t="s">
+      <c r="I35" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="N35" s="55" t="s">
+      <c r="J35" s="46"/>
+      <c r="N35" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="56"/>
+      <c r="O35" s="48"/>
       <c r="S35" s="49" t="s">
         <v>5</v>
       </c>
       <c r="T35" s="50"/>
-      <c r="V35" s="37" t="s">
+      <c r="V35" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="38"/>
+      <c r="W35" s="52"/>
     </row>
     <row r="36" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I36" s="2">
@@ -8678,10 +9005,10 @@
       </c>
     </row>
     <row r="40" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="53" t="s">
+      <c r="I40" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="54"/>
+      <c r="J40" s="44"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -8702,10 +9029,10 @@
       </c>
     </row>
     <row r="41" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="52"/>
+      <c r="J41" s="46"/>
     </row>
     <row r="42" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I42" s="2">
@@ -8714,10 +9041,10 @@
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="53" t="s">
+      <c r="N42" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="54"/>
+      <c r="O42" s="44"/>
     </row>
     <row r="43" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I43" s="9">
@@ -8726,10 +9053,10 @@
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="51" t="s">
+      <c r="N43" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="52"/>
+      <c r="O43" s="46"/>
     </row>
     <row r="44" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N44" s="2">
@@ -8740,10 +9067,10 @@
       </c>
     </row>
     <row r="45" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I45" s="53" t="s">
+      <c r="I45" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="54"/>
+      <c r="J45" s="44"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -8752,10 +9079,10 @@
       </c>
     </row>
     <row r="46" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I46" s="51" t="s">
+      <c r="I46" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="52"/>
+      <c r="J46" s="46"/>
     </row>
     <row r="47" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I47" s="2">
@@ -8764,10 +9091,10 @@
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="53" t="s">
+      <c r="N47" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="54"/>
+      <c r="O47" s="44"/>
     </row>
     <row r="48" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I48" s="9">
@@ -8776,10 +9103,10 @@
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="51" t="s">
+      <c r="N48" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="52"/>
+      <c r="O48" s="46"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.3">
       <c r="N49" s="2">
@@ -8807,13 +9134,22 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -8826,22 +9162,13 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8852,10 +9179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AF51"/>
+  <dimension ref="B2:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8877,17 +9204,23 @@
     <col min="19" max="19" width="14.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.75" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.125" customWidth="1"/>
-    <col min="28" max="28" width="4.375" customWidth="1"/>
+    <col min="25" max="25" width="4.375" customWidth="1"/>
+    <col min="28" max="28" width="4.25" customWidth="1"/>
+    <col min="32" max="32" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="V2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
@@ -8898,7 +9231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>56</v>
       </c>
@@ -8909,7 +9242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>57</v>
       </c>
@@ -8920,7 +9253,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>55</v>
       </c>
@@ -8930,32 +9263,40 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="J7" s="53" t="s">
+      <c r="H7" s="44"/>
+      <c r="J7" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="54"/>
-      <c r="P7" s="53" t="s">
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="44"/>
+      <c r="P7" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="54"/>
-      <c r="U7" s="53" t="s">
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="44"/>
+      <c r="U7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="54"/>
-      <c r="Y7" s="39" t="s">
+      <c r="V7" s="44"/>
+      <c r="Y7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="40"/>
-    </row>
-    <row r="8" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z7" s="54"/>
+      <c r="AB7" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="62"/>
+      <c r="AF7" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG7" s="62"/>
+    </row>
+    <row r="8" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
@@ -8969,32 +9310,36 @@
         <v>22</v>
       </c>
       <c r="H8" s="50"/>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
-      <c r="P8" s="60" t="s">
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="64"/>
+      <c r="P8" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="62"/>
-      <c r="U8" s="55" t="s">
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="64"/>
+      <c r="U8" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="56"/>
-      <c r="Y8" s="37" t="s">
+      <c r="V8" s="46"/>
+      <c r="Y8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="38"/>
-      <c r="AE8" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF8" s="54"/>
-    </row>
-    <row r="9" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z8" s="52"/>
+      <c r="AB8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="50"/>
+      <c r="AF8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="50"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>58</v>
       </c>
@@ -9010,29 +9355,29 @@
       <c r="H9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="64">
+      <c r="J9" s="31">
         <v>1</v>
       </c>
-      <c r="K9" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="65">
+      <c r="K9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="32">
         <v>2</v>
       </c>
-      <c r="M9" s="66" t="s">
-        <v>73</v>
+      <c r="M9" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="P9" s="31">
         <v>1</v>
       </c>
-      <c r="Q9" s="32" t="s">
-        <v>26</v>
+      <c r="Q9" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="R9" s="32">
         <v>2</v>
       </c>
-      <c r="S9" s="33" t="s">
-        <v>24</v>
+      <c r="S9" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="U9" s="2">
         <v>1</v>
@@ -9046,12 +9391,20 @@
       <c r="Z9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AE9" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF9" s="52"/>
-    </row>
-    <row r="10" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>61</v>
       </c>
@@ -9070,26 +9423,22 @@
       <c r="J10" s="6">
         <v>3</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K10" s="1"/>
       <c r="L10" s="1">
         <v>4</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="P10" s="6">
         <v>3</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q10" s="1"/>
       <c r="R10" s="1">
         <v>4</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="U10" s="6">
         <v>2</v>
@@ -9103,14 +9452,20 @@
       <c r="Z10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AB10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AF10" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>55</v>
       </c>
@@ -9120,29 +9475,25 @@
       <c r="D11" s="27">
         <v>10</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="6">
         <v>5</v>
       </c>
-      <c r="K11" s="67" t="s">
-        <v>25</v>
-      </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="1">
         <v>6</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P11" s="6">
         <v>5</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="Q11" s="1"/>
       <c r="R11" s="1">
         <v>6</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="U11" s="6">
         <v>3</v>
@@ -9156,14 +9507,20 @@
       <c r="Z11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AE11" s="6">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="8" t="s">
+      <c r="AB11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG11" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
         <v>59</v>
       </c>
@@ -9175,32 +9532,34 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="54"/>
+      <c r="H12" s="44"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="67" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="1">
         <v>8</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P12" s="6">
         <v>7</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="67" t="s">
         <v>27</v>
       </c>
       <c r="R12" s="1">
         <v>8</v>
       </c>
-      <c r="S12" s="8"/>
+      <c r="S12" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="U12" s="6">
         <v>4</v>
       </c>
@@ -9213,41 +9572,47 @@
       <c r="Z12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AE12" s="6">
-        <v>3</v>
-      </c>
-      <c r="AF12" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="51" t="s">
+      <c r="AB12" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG12" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="52"/>
+      <c r="H13" s="46"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
-      <c r="K13" s="34" t="s">
-        <v>66</v>
+      <c r="K13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="L13" s="1">
         <v>10</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="P13" s="6">
         <v>9</v>
       </c>
-      <c r="Q13" s="34" t="s">
-        <v>71</v>
+      <c r="Q13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>10</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="U13" s="9">
         <v>5</v>
@@ -9261,14 +9626,20 @@
       <c r="Z13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AE13" s="6">
-        <v>4</v>
-      </c>
-      <c r="AF13" s="8" t="s">
+      <c r="AB13" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="AF13" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="2">
         <v>1</v>
       </c>
@@ -9299,12 +9670,8 @@
       <c r="S14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AE14" s="16">
-        <v>5</v>
-      </c>
-      <c r="AF14" s="17"/>
-    </row>
-    <row r="15" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="G15" s="6">
         <v>2</v>
       </c>
@@ -9333,16 +9700,18 @@
         <v>14</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>6</v>
-      </c>
-      <c r="AF15" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="U15" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" s="44"/>
+      <c r="Y15" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z15" s="44"/>
+    </row>
+    <row r="16" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="6">
         <v>3</v>
       </c>
@@ -9365,22 +9734,16 @@
         <v>16</v>
       </c>
       <c r="S16" s="8"/>
-      <c r="U16" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="V16" s="42"/>
-      <c r="Y16" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z16" s="42"/>
-      <c r="AE16" s="18">
-        <v>7</v>
-      </c>
-      <c r="AF16" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U16" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" s="46"/>
+      <c r="Y16" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z16" s="46"/>
+    </row>
+    <row r="17" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G17" s="6">
         <v>4</v>
       </c>
@@ -9411,22 +9774,20 @@
       <c r="S17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U17" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="V17" s="44"/>
-      <c r="Y17" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z17" s="44"/>
-      <c r="AE17" s="9">
-        <v>8</v>
-      </c>
-      <c r="AF17" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U17" s="36">
+        <v>1</v>
+      </c>
+      <c r="V17" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="36">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="9">
         <v>5</v>
       </c>
@@ -9457,615 +9818,590 @@
       <c r="S18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U18" s="69">
+      <c r="U18" s="38">
+        <v>2</v>
+      </c>
+      <c r="V18" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="V18" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="69">
+      <c r="Y18" s="38">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Z18" s="70" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U19" s="71">
-        <v>2</v>
-      </c>
-      <c r="V19" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="71">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="72" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G20" s="53" t="s">
+    </row>
+    <row r="19" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="G20" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="54"/>
-    </row>
-    <row r="21" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="51" t="s">
+      <c r="H20" s="44"/>
+      <c r="L20" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="44"/>
+      <c r="U20" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="V20" s="44"/>
+      <c r="Y20" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z20" s="44"/>
+    </row>
+    <row r="21" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="J21" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
-      <c r="U21" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="V21" s="54"/>
-      <c r="Y21" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="48"/>
-    </row>
-    <row r="22" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="46"/>
+      <c r="L21" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="46"/>
+      <c r="U21" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" s="46"/>
+      <c r="Y21" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z21" s="46"/>
+    </row>
+    <row r="22" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G22" s="2">
         <v>1</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="2">
+      <c r="L22" s="2">
         <v>1</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="4">
-        <v>2</v>
-      </c>
       <c r="M22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U22" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="V22" s="52"/>
-      <c r="Y22" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z22" s="46"/>
-    </row>
-    <row r="23" spans="7:32" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="6">
         <v>2</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="6">
-        <v>3</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="1">
-        <v>4</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="U23" s="2">
-        <v>1</v>
-      </c>
-      <c r="V23" s="5" t="s">
+      <c r="L23" s="9">
+        <v>2</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="6">
+        <v>2</v>
+      </c>
+      <c r="V23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Y23" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="5" t="s">
+      <c r="Y23" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="9">
         <v>3</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="6">
+      <c r="U24" s="6">
+        <v>3</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="44"/>
+      <c r="U25" s="6">
+        <v>4</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="L26" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="46"/>
+      <c r="U26" s="9">
         <v>5</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="1">
-        <v>6</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="V26" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U24" s="6">
-        <v>2</v>
-      </c>
-      <c r="V24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y24" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z24" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J25" s="6">
-        <v>7</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="1">
-        <v>8</v>
-      </c>
-      <c r="M25" s="8" t="s">
+      <c r="Y26" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U25" s="6">
-        <v>3</v>
-      </c>
-      <c r="V25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z25" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="7:32" x14ac:dyDescent="0.3">
-      <c r="G26" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="54"/>
-      <c r="J26" s="6">
-        <v>9</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="1">
-        <v>10</v>
-      </c>
-      <c r="M26" s="8" t="s">
+    </row>
+    <row r="27" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="L27" s="2">
         <v>1</v>
       </c>
-      <c r="U26" s="6">
-        <v>4</v>
-      </c>
-      <c r="V26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="52"/>
-      <c r="J27" s="6">
-        <v>11</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="1">
-        <v>12</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="U27" s="9">
-        <v>5</v>
-      </c>
-      <c r="V27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="9">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="6">
-        <v>13</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28" s="1">
-        <v>14</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L28" s="9">
+        <v>2</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G29" s="9">
         <v>2</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="6">
-        <v>15</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="1">
-        <v>16</v>
-      </c>
-      <c r="M29" s="8" t="s">
+    </row>
+    <row r="30" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L30" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="44"/>
+    </row>
+    <row r="31" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="L31" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="64"/>
+    </row>
+    <row r="32" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="46"/>
+      <c r="L32" s="2">
         <v>1</v>
       </c>
-      <c r="Y29" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z29" s="48"/>
-    </row>
-    <row r="30" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J30" s="6">
-        <v>17</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" s="1">
-        <v>18</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z30" s="50"/>
-    </row>
-    <row r="31" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="54"/>
-      <c r="J31" s="9">
-        <v>19</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="10">
-        <v>20</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="52"/>
-      <c r="Y32" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z32" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="7:32" x14ac:dyDescent="0.3">
+      <c r="M32" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="M33" s="54"/>
-      <c r="Y33" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z33" s="8" t="s">
+      <c r="L33" s="9">
+        <v>2</v>
+      </c>
+      <c r="M33" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G34" s="9">
         <v>2</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="51" t="s">
+    </row>
+    <row r="35" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L35" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="M35" s="44"/>
+      <c r="AF35" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG35" s="44"/>
+    </row>
+    <row r="36" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="44"/>
+      <c r="L36" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="52"/>
-      <c r="Y34" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z34" s="8" t="s">
+      <c r="M36" s="64"/>
+      <c r="AF36" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG36" s="64"/>
+    </row>
+    <row r="37" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="46"/>
+      <c r="L37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="2">
+      <c r="M37" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF37" s="2">
         <v>1</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="9">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF35" s="76"/>
-    </row>
-    <row r="36" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="54"/>
-      <c r="L36" s="9">
-        <v>2</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE36" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF36" s="74"/>
-    </row>
-    <row r="37" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G37" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="52"/>
-      <c r="AE37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF37" s="12" t="s">
+      <c r="AG37" s="35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="7:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G38" s="2">
         <v>1</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L38" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="M38" s="54"/>
-      <c r="AE38" s="6">
+      <c r="L38" s="9">
         <v>2</v>
       </c>
-      <c r="AF38" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="9">
+        <v>2</v>
+      </c>
+      <c r="AG38" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G39" s="9">
         <v>2</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="51" t="s">
+    </row>
+    <row r="40" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="L40" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="M40" s="44"/>
+      <c r="AF40" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG40" s="44"/>
+    </row>
+    <row r="41" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L41" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="M39" s="52"/>
-      <c r="AE39" s="6">
+      <c r="M41" s="64"/>
+      <c r="AF41" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG41" s="64"/>
+    </row>
+    <row r="42" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L43" s="9">
+        <v>2</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="9">
+        <v>2</v>
+      </c>
+      <c r="AG43" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J46" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="42"/>
+    </row>
+    <row r="47" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="4">
+        <v>2</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y47" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z47" s="44"/>
+    </row>
+    <row r="48" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J48" s="6">
         <v>3</v>
       </c>
-      <c r="AF39" s="8" t="s">
+      <c r="K48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" s="1">
+        <v>4</v>
+      </c>
+      <c r="M48" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="7:32" x14ac:dyDescent="0.3">
-      <c r="L40" s="2">
+      <c r="Y48" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z48" s="64"/>
+    </row>
+    <row r="49" spans="10:26" x14ac:dyDescent="0.3">
+      <c r="J49" s="6">
+        <v>5</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="1">
+        <v>6</v>
+      </c>
+      <c r="M49" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="6">
-        <v>4</v>
-      </c>
-      <c r="AF40" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L41" s="9">
+      <c r="Y49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="10:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J50" s="6">
+        <v>7</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" s="1">
+        <v>8</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="9">
         <v>2</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="Z50" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="10:26" x14ac:dyDescent="0.3">
+      <c r="J51" s="6">
+        <v>9</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="1">
+        <v>10</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="10:26" x14ac:dyDescent="0.3">
+      <c r="J52" s="6">
+        <v>11</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L52" s="1">
+        <v>12</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="10:26" x14ac:dyDescent="0.3">
+      <c r="J53" s="6">
+        <v>13</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" s="1">
+        <v>14</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="10:26" x14ac:dyDescent="0.3">
+      <c r="J54" s="6">
+        <v>15</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L54" s="1">
+        <v>16</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="10:26" x14ac:dyDescent="0.3">
+      <c r="J55" s="6">
+        <v>17</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L55" s="1">
+        <v>18</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="10:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J56" s="9">
         <v>19</v>
       </c>
-      <c r="AE41" s="6">
-        <v>5</v>
-      </c>
-      <c r="AF41" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AE42" s="6">
-        <v>6</v>
-      </c>
-      <c r="AF42" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="7:32" x14ac:dyDescent="0.3">
-      <c r="L43" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="M43" s="54"/>
-      <c r="AE43" s="6">
-        <v>7</v>
-      </c>
-      <c r="AF43" s="8" t="s">
+      <c r="K56" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L56" s="10">
+        <v>20</v>
+      </c>
+      <c r="M56" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L44" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="62"/>
-      <c r="AE44" s="6">
-        <v>8</v>
-      </c>
-      <c r="AF44" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="7:32" x14ac:dyDescent="0.3">
-      <c r="L45" s="2">
-        <v>1</v>
-      </c>
-      <c r="M45" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE45" s="6">
-        <v>9</v>
-      </c>
-      <c r="AF45" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L46" s="9">
-        <v>2</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="9">
-        <v>10</v>
-      </c>
-      <c r="AF46" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="7:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="7:32" x14ac:dyDescent="0.3">
-      <c r="L48" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="M48" s="54"/>
-    </row>
-    <row r="49" spans="12:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L49" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" s="62"/>
-    </row>
-    <row r="50" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L50" s="2">
-        <v>1</v>
-      </c>
-      <c r="M50" s="68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="12:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L51" s="9">
-        <v>2</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Y29:Z29"/>
+  <mergeCells count="49">
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="P8:S8"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="L26:M26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10090,418 +10426,418 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="C2" s="36">
+      <c r="C2" s="34">
         <v>10</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="34">
         <v>20</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="34">
         <v>30</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="34">
         <v>40</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="34">
         <v>50</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="34">
         <v>60</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="34">
         <v>70</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="34">
         <v>80</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="34">
         <v>90</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="34">
         <v>100</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="34">
         <v>110</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="34">
         <v>120</v>
       </c>
-      <c r="O2" s="36">
+      <c r="O2" s="34">
         <v>130</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="34">
         <v>140</v>
       </c>
-      <c r="Q2" s="36">
+      <c r="Q2" s="34">
         <v>150</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="34">
         <v>160</v>
       </c>
-      <c r="S2" s="36">
+      <c r="S2" s="34">
         <v>170</v>
       </c>
-      <c r="T2" s="36">
+      <c r="T2" s="34">
         <v>180</v>
       </c>
-      <c r="U2" s="36">
+      <c r="U2" s="34">
         <v>190</v>
       </c>
-      <c r="V2" s="36">
+      <c r="V2" s="34">
         <v>200</v>
       </c>
-      <c r="W2" s="36">
+      <c r="W2" s="34">
         <v>210</v>
       </c>
-      <c r="X2" s="36">
+      <c r="X2" s="34">
         <v>220</v>
       </c>
-      <c r="Y2" s="36">
+      <c r="Y2" s="34">
         <v>230</v>
       </c>
-      <c r="Z2" s="35"/>
+      <c r="Z2" s="33"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B3" s="35">
+      <c r="B3" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B4" s="35">
+      <c r="B4" s="33">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B5" s="35">
+      <c r="B5" s="33">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B6" s="35">
+      <c r="B6" s="33">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B8" s="35">
+      <c r="B8" s="33">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B9" s="35">
+      <c r="B9" s="33">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
+      <c r="B10" s="33">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
+      <c r="B11" s="33">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B12" s="35">
+      <c r="B12" s="33">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B13" s="35">
+      <c r="B13" s="33">
         <v>110</v>
       </c>
-      <c r="Z13" s="36">
+      <c r="Z13" s="34">
         <v>10</v>
       </c>
-      <c r="AA13" s="36">
+      <c r="AA13" s="34">
         <v>20</v>
       </c>
-      <c r="AB13" s="36">
+      <c r="AB13" s="34">
         <v>30</v>
       </c>
-      <c r="AC13" s="36">
+      <c r="AC13" s="34">
         <v>40</v>
       </c>
-      <c r="AD13" s="36">
+      <c r="AD13" s="34">
         <v>50</v>
       </c>
-      <c r="AE13" s="36">
+      <c r="AE13" s="34">
         <v>60</v>
       </c>
-      <c r="AF13" s="36">
+      <c r="AF13" s="34">
         <v>70</v>
       </c>
-      <c r="AG13" s="36">
+      <c r="AG13" s="34">
         <v>80</v>
       </c>
-      <c r="AH13" s="36">
+      <c r="AH13" s="34">
         <v>90</v>
       </c>
-      <c r="AI13" s="36">
+      <c r="AI13" s="34">
         <v>100</v>
       </c>
-      <c r="AJ13" s="36">
+      <c r="AJ13" s="34">
         <v>110</v>
       </c>
-      <c r="AK13" s="36">
+      <c r="AK13" s="34">
         <v>120</v>
       </c>
-      <c r="AL13" s="36">
+      <c r="AL13" s="34">
         <v>130</v>
       </c>
-      <c r="AM13" s="36">
+      <c r="AM13" s="34">
         <v>140</v>
       </c>
-      <c r="AN13" s="36">
+      <c r="AN13" s="34">
         <v>150</v>
       </c>
-      <c r="AO13" s="36">
+      <c r="AO13" s="34">
         <v>160</v>
       </c>
-      <c r="AP13" s="36">
+      <c r="AP13" s="34">
         <v>170</v>
       </c>
-      <c r="AQ13" s="36">
+      <c r="AQ13" s="34">
         <v>180</v>
       </c>
-      <c r="AR13" s="36">
+      <c r="AR13" s="34">
         <v>190</v>
       </c>
-      <c r="AS13" s="36"/>
+      <c r="AS13" s="34"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B14" s="35">
+      <c r="B14" s="33">
         <v>120</v>
       </c>
-      <c r="Y14" s="35">
+      <c r="Y14" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B15" s="35">
+      <c r="B15" s="33">
         <v>130</v>
       </c>
-      <c r="Y15" s="35">
+      <c r="Y15" s="33">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B16" s="35">
+      <c r="B16" s="33">
         <v>140</v>
       </c>
-      <c r="Y16" s="35">
+      <c r="Y16" s="33">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B17" s="35">
+      <c r="B17" s="33">
         <v>150</v>
       </c>
-      <c r="Y17" s="35">
+      <c r="Y17" s="33">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B18" s="35">
+      <c r="B18" s="33">
         <v>160</v>
       </c>
-      <c r="Y18" s="35">
+      <c r="Y18" s="33">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B19" s="35">
+      <c r="B19" s="33">
         <v>170</v>
       </c>
-      <c r="Y19" s="35">
+      <c r="Y19" s="33">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B20" s="35">
+      <c r="B20" s="33">
         <v>180</v>
       </c>
-      <c r="Y20" s="35">
+      <c r="Y20" s="33">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" s="35">
+      <c r="B21" s="33">
         <v>190</v>
       </c>
-      <c r="Y21" s="35">
+      <c r="Y21" s="33">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="35">
+      <c r="B22" s="33">
         <v>200</v>
       </c>
-      <c r="Y22" s="35">
+      <c r="Y22" s="33">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" s="35">
+      <c r="B23" s="33">
         <v>210</v>
       </c>
-      <c r="Y23" s="35">
+      <c r="Y23" s="33">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B24" s="35">
+      <c r="B24" s="33">
         <v>220</v>
       </c>
-      <c r="Y24" s="35">
+      <c r="Y24" s="33">
         <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B25" s="35">
+      <c r="B25" s="33">
         <v>230</v>
       </c>
-      <c r="Y25" s="35">
+      <c r="Y25" s="33">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B26" s="35">
+      <c r="B26" s="33">
         <v>240</v>
       </c>
-      <c r="Y26" s="35">
+      <c r="Y26" s="33">
         <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" s="35">
+      <c r="B27" s="33">
         <v>250</v>
       </c>
-      <c r="Y27" s="35">
+      <c r="Y27" s="33">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B28" s="35">
+      <c r="B28" s="33">
         <v>260</v>
       </c>
-      <c r="Y28" s="35">
+      <c r="Y28" s="33">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B29" s="35">
+      <c r="B29" s="33">
         <v>270</v>
       </c>
-      <c r="Y29" s="35">
+      <c r="Y29" s="33">
         <v>160</v>
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B30" s="35">
+      <c r="B30" s="33">
         <v>280</v>
       </c>
-      <c r="Y30" s="35">
+      <c r="Y30" s="33">
         <v>170</v>
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B31" s="35">
+      <c r="B31" s="33">
         <v>290</v>
       </c>
-      <c r="Y31" s="35">
+      <c r="Y31" s="33">
         <v>180</v>
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B32" s="35">
+      <c r="B32" s="33">
         <v>300</v>
       </c>
-      <c r="Y32" s="35">
+      <c r="Y32" s="33">
         <v>190</v>
       </c>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B33" s="35">
+      <c r="B33" s="33">
         <v>310</v>
       </c>
-      <c r="Y33" s="35">
+      <c r="Y33" s="33">
         <v>200</v>
       </c>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B34" s="35">
+      <c r="B34" s="33">
         <v>320</v>
       </c>
-      <c r="Y34" s="35">
+      <c r="Y34" s="33">
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B35" s="35">
+      <c r="B35" s="33">
         <v>330</v>
       </c>
-      <c r="Y35" s="35">
+      <c r="Y35" s="33">
         <v>220</v>
       </c>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B36" s="35">
+      <c r="B36" s="33">
         <v>340</v>
       </c>
-      <c r="Y36" s="35">
+      <c r="Y36" s="33">
         <v>230</v>
       </c>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B37" s="35">
+      <c r="B37" s="33">
         <v>350</v>
       </c>
-      <c r="Y37" s="35">
+      <c r="Y37" s="33">
         <v>240</v>
       </c>
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B38" s="35">
+      <c r="B38" s="33">
         <v>360</v>
       </c>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B39" s="35">
+      <c r="B39" s="33">
         <v>370</v>
       </c>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B40" s="35">
+      <c r="B40" s="33">
         <v>380</v>
       </c>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B41" s="35">
+      <c r="B41" s="33">
         <v>390</v>
       </c>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B42" s="35">
+      <c r="B42" s="33">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B43" s="35">
+      <c r="B43" s="33">
         <v>410</v>
       </c>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B44" s="35">
+      <c r="B44" s="33">
         <v>420</v>
       </c>
     </row>
@@ -10517,8 +10853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10529,294 +10865,294 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C2" s="36">
+      <c r="C2" s="34">
         <v>10</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="34">
         <v>20</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="34">
         <v>30</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="34">
         <v>40</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="34">
         <v>50</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="34">
         <v>60</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="34">
         <v>70</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="34">
         <v>80</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="34">
         <v>90</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="34">
         <v>100</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="34">
         <v>110</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="34">
         <v>120</v>
       </c>
-      <c r="O2" s="36">
+      <c r="O2" s="34">
         <v>130</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="34">
         <v>140</v>
       </c>
-      <c r="Q2" s="36">
+      <c r="Q2" s="34">
         <v>150</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="34">
         <v>160</v>
       </c>
-      <c r="S2" s="36">
+      <c r="S2" s="34">
         <v>170</v>
       </c>
-      <c r="T2" s="36">
+      <c r="T2" s="34">
         <v>180</v>
       </c>
-      <c r="U2" s="36">
+      <c r="U2" s="34">
         <v>190</v>
       </c>
-      <c r="V2" s="36">
+      <c r="V2" s="34">
         <v>200</v>
       </c>
-      <c r="W2" s="36">
+      <c r="W2" s="34">
         <v>210</v>
       </c>
-      <c r="X2" s="36">
+      <c r="X2" s="34">
         <v>220</v>
       </c>
-      <c r="Y2" s="36">
+      <c r="Y2" s="34">
         <v>230</v>
       </c>
-      <c r="Z2" s="35"/>
+      <c r="Z2" s="33"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="35">
+      <c r="B3" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="35">
+      <c r="B4" s="33">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B5" s="35">
+      <c r="B5" s="33">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="35">
+      <c r="B6" s="33">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="35">
+      <c r="B8" s="33">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B9" s="35">
+      <c r="B9" s="33">
         <v>70</v>
       </c>
       <c r="Z9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AA9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
+      <c r="B10" s="33">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
+      <c r="B11" s="33">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B12" s="35">
+      <c r="B12" s="33">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B13" s="35">
+      <c r="B13" s="33">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="35">
+      <c r="B14" s="33">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="35">
+      <c r="B15" s="33">
         <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="35">
+      <c r="B16" s="33">
         <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="35">
+      <c r="B17" s="33">
         <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="35">
+      <c r="B18" s="33">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="35">
+      <c r="B19" s="33">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="35">
+      <c r="B20" s="33">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="35">
+      <c r="B21" s="33">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="35">
+      <c r="B22" s="33">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="35">
+      <c r="B23" s="33">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="35">
+      <c r="B24" s="33">
         <v>220</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="35">
+      <c r="B25" s="33">
         <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="35">
+      <c r="B26" s="33">
         <v>240</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="35">
+      <c r="B27" s="33">
         <v>250</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="35">
+      <c r="B28" s="33">
         <v>260</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="35">
+      <c r="B29" s="33">
         <v>270</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="35">
+      <c r="B30" s="33">
         <v>280</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="35">
+      <c r="B31" s="33">
         <v>290</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="35">
+      <c r="B32" s="33">
         <v>300</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="35">
+      <c r="B33" s="33">
         <v>310</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="35">
+      <c r="B34" s="33">
         <v>320</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="35">
+      <c r="B35" s="33">
         <v>330</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="35">
+      <c r="B36" s="33">
         <v>340</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="35">
+      <c r="B37" s="33">
         <v>350</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="35">
+      <c r="B38" s="33">
         <v>360</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="35">
+      <c r="B39" s="33">
         <v>370</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="35">
+      <c r="B40" s="33">
         <v>380</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="35">
+      <c r="B41" s="33">
         <v>390</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="35">
+      <c r="B42" s="33">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="35">
+      <c r="B43" s="33">
         <v>410</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="35">
+      <c r="B44" s="33">
         <v>420</v>
       </c>
     </row>
@@ -10829,19 +11165,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA44"/>
   <sheetViews>
@@ -10857,294 +11180,294 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C2" s="36">
+      <c r="C2" s="34">
         <v>10</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="34">
         <v>20</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="34">
         <v>30</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="34">
         <v>40</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="34">
         <v>50</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="34">
         <v>60</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="34">
         <v>70</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="34">
         <v>80</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="34">
         <v>90</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="34">
         <v>100</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="34">
         <v>110</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="34">
         <v>120</v>
       </c>
-      <c r="O2" s="36">
+      <c r="O2" s="34">
         <v>130</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="34">
         <v>140</v>
       </c>
-      <c r="Q2" s="36">
+      <c r="Q2" s="34">
         <v>150</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="34">
         <v>160</v>
       </c>
-      <c r="S2" s="36">
+      <c r="S2" s="34">
         <v>170</v>
       </c>
-      <c r="T2" s="36">
+      <c r="T2" s="34">
         <v>180</v>
       </c>
-      <c r="U2" s="36">
+      <c r="U2" s="34">
         <v>190</v>
       </c>
-      <c r="V2" s="36">
+      <c r="V2" s="34">
         <v>200</v>
       </c>
-      <c r="W2" s="36">
+      <c r="W2" s="34">
         <v>210</v>
       </c>
-      <c r="X2" s="36">
+      <c r="X2" s="34">
         <v>220</v>
       </c>
-      <c r="Y2" s="36">
+      <c r="Y2" s="34">
         <v>230</v>
       </c>
-      <c r="Z2" s="35"/>
+      <c r="Z2" s="33"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="35">
+      <c r="B3" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="35">
+      <c r="B4" s="33">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B5" s="35">
+      <c r="B5" s="33">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="35">
+      <c r="B6" s="33">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="35">
+      <c r="B8" s="33">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B9" s="35">
+      <c r="B9" s="33">
         <v>70</v>
       </c>
       <c r="Z9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AA9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
+      <c r="B10" s="33">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
+      <c r="B11" s="33">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B12" s="35">
+      <c r="B12" s="33">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B13" s="35">
+      <c r="B13" s="33">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="35">
+      <c r="B14" s="33">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="35">
+      <c r="B15" s="33">
         <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="35">
+      <c r="B16" s="33">
         <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="35">
+      <c r="B17" s="33">
         <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="35">
+      <c r="B18" s="33">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="35">
+      <c r="B19" s="33">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="35">
+      <c r="B20" s="33">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="35">
+      <c r="B21" s="33">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="35">
+      <c r="B22" s="33">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="35">
+      <c r="B23" s="33">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="35">
+      <c r="B24" s="33">
         <v>220</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="35">
+      <c r="B25" s="33">
         <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="35">
+      <c r="B26" s="33">
         <v>240</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="35">
+      <c r="B27" s="33">
         <v>250</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="35">
+      <c r="B28" s="33">
         <v>260</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="35">
+      <c r="B29" s="33">
         <v>270</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="35">
+      <c r="B30" s="33">
         <v>280</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="35">
+      <c r="B31" s="33">
         <v>290</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="35">
+      <c r="B32" s="33">
         <v>300</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="35">
+      <c r="B33" s="33">
         <v>310</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="35">
+      <c r="B34" s="33">
         <v>320</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="35">
+      <c r="B35" s="33">
         <v>330</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="35">
+      <c r="B36" s="33">
         <v>340</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="35">
+      <c r="B37" s="33">
         <v>350</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="35">
+      <c r="B38" s="33">
         <v>360</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="35">
+      <c r="B39" s="33">
         <v>370</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="35">
+      <c r="B40" s="33">
         <v>380</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="35">
+      <c r="B41" s="33">
         <v>390</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="35">
+      <c r="B42" s="33">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="35">
+      <c r="B43" s="33">
         <v>410</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="35">
+      <c r="B44" s="33">
         <v>420</v>
       </c>
     </row>
@@ -11154,4 +11477,63 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="68">
+        <f>(E7*E8)^0.5</f>
+        <v>122.47448713915891</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="68">
+        <f>(E9/0.707)*2</f>
+        <v>346.46248129889369</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
     <sheet name="RFGEN V2.0B" sheetId="4" r:id="rId2"/>
     <sheet name="Block1" sheetId="2" r:id="rId3"/>
     <sheet name="Block2" sheetId="5" r:id="rId4"/>
-    <sheet name="Block2 (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="Block3" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -844,39 +844,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -913,6 +882,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,8 +927,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -964,7 +964,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1036,7 +1036,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,7 +1108,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1174,7 +1174,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1240,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1368,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1474,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1552,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1630,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1725,7 @@
         <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1820,7 @@
         <xdr:cNvPr id="8" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1880,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1940,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2008,7 @@
         <xdr:cNvPr id="16" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,7 +2174,7 @@
         <xdr:cNvPr id="13" name="화살표: 왼쪽/오른쪽 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2234,7 @@
         <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2315,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2383,7 @@
         <xdr:cNvPr id="21" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2451,7 @@
         <xdr:cNvPr id="22" name="화살표: 왼쪽/오른쪽 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2571,7 @@
         <xdr:cNvPr id="24" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2650,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2722,7 +2722,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,7 +2794,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2926,7 +2926,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3054,7 +3054,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3238,7 +3238,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3316,7 +3316,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3411,7 +3411,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3506,7 +3506,7 @@
         <xdr:cNvPr id="12" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3566,7 +3566,7 @@
         <xdr:cNvPr id="13" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3626,7 +3626,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3694,7 +3694,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3762,7 +3762,7 @@
         <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3860,7 +3860,7 @@
         <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3920,7 +3920,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4001,7 +4001,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4069,7 +4069,7 @@
         <xdr:cNvPr id="21" name="화살표: 왼쪽/오른쪽 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4129,7 +4129,7 @@
         <xdr:cNvPr id="22" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4189,7 +4189,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4263,7 +4263,7 @@
         <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4335,7 +4335,7 @@
         <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4401,7 +4401,7 @@
         <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4479,7 +4479,7 @@
         <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4557,7 +4557,7 @@
         <xdr:cNvPr id="28" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4638,7 +4638,7 @@
         <xdr:cNvPr id="29" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4698,7 +4698,7 @@
         <xdr:cNvPr id="30" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4764,7 +4764,7 @@
         <xdr:cNvPr id="31" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4836,7 +4836,7 @@
         <xdr:cNvPr id="32" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4904,7 +4904,7 @@
         <xdr:cNvPr id="33" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4964,7 +4964,7 @@
         <xdr:cNvPr id="34" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5024,7 +5024,7 @@
         <xdr:cNvPr id="35" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5084,7 +5084,7 @@
         <xdr:cNvPr id="36" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5184,7 +5184,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5260,7 +5260,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5336,7 +5336,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5409,7 +5409,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5488,7 +5488,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5551,7 +5551,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5623,7 +5623,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5695,7 +5695,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5774,7 +5774,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5853,7 +5853,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5932,7 +5932,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6013,7 +6013,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6097,7 +6097,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6181,7 +6181,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6262,7 +6262,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6361,7 +6361,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6424,7 +6424,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6511,7 +6511,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6583,7 +6583,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6662,7 +6662,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6741,7 +6741,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6820,7 +6820,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6919,7 +6919,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7004,14 +7004,14 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>8964</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7019,8 +7019,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1261221" y="639856"/>
-          <a:ext cx="4719918" cy="2286000"/>
+          <a:off x="1260807" y="632402"/>
+          <a:ext cx="4736483" cy="2059446"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7065,7 +7065,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>190x110</a:t>
+            <a:t>190x100</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -7095,7 +7095,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7171,15 +7171,15 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>201705</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7187,8 +7187,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2988050" y="654984"/>
-          <a:ext cx="2984126" cy="2270871"/>
+          <a:off x="2993434" y="647530"/>
+          <a:ext cx="2994893" cy="2036035"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7230,7 +7230,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>120x110</a:t>
+            <a:t>120x100</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -7260,7 +7260,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7359,7 +7359,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7422,7 +7422,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7509,7 +7509,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7565,23 +7565,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>138174</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>149476</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>80196</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>116347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>39854</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>115858</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>230354</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7589,7 +7589,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4138674" y="2634259"/>
+          <a:off x="3583739" y="2394064"/>
           <a:ext cx="895593" cy="173447"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7644,23 +7644,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>202487</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>140025</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78248</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>121804</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>122095</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7668,8 +7668,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209074" y="2624808"/>
-          <a:ext cx="664752" cy="189135"/>
+          <a:off x="4575705" y="2376331"/>
+          <a:ext cx="584360" cy="182996"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7724,22 +7724,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>37224</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>164970</xdr:rowOff>
+      <xdr:colOff>12377</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>231913</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>165651</xdr:rowOff>
+      <xdr:colOff>207066</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107673</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7747,8 +7747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5266449" y="2679570"/>
-          <a:ext cx="442339" cy="210231"/>
+          <a:off x="5255268" y="2384710"/>
+          <a:ext cx="443168" cy="207746"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7818,7 +7818,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7917,7 +7917,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8314,12 +8314,12 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
@@ -8458,12 +8458,12 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="43" t="s">
+      <c r="N10" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="44"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="56"/>
+      <c r="O10" s="59"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="47"/>
     </row>
     <row r="11" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="9" t="s">
@@ -8487,14 +8487,14 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="45" t="s">
+      <c r="N11" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="46"/>
-      <c r="S11" s="57" t="s">
+      <c r="O11" s="57"/>
+      <c r="S11" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="58"/>
+      <c r="T11" s="49"/>
     </row>
     <row r="12" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="22" t="s">
@@ -8600,10 +8600,10 @@
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="44"/>
+      <c r="J16" s="59"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -8614,10 +8614,10 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="57"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -8673,32 +8673,32 @@
     </row>
     <row r="20" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="N21" s="43" t="s">
+      <c r="J21" s="59"/>
+      <c r="N21" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="44"/>
-      <c r="S21" s="55" t="s">
+      <c r="O21" s="59"/>
+      <c r="S21" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="56"/>
+      <c r="T21" s="47"/>
     </row>
     <row r="22" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I22" s="49" t="s">
+      <c r="I22" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="50"/>
-      <c r="N22" s="49" t="s">
+      <c r="J22" s="55"/>
+      <c r="N22" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="50"/>
-      <c r="S22" s="57" t="s">
+      <c r="O22" s="55"/>
+      <c r="S22" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="58"/>
+      <c r="T22" s="49"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I23" s="2">
@@ -8742,32 +8742,32 @@
     </row>
     <row r="25" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="N26" s="43" t="s">
+      <c r="J26" s="59"/>
+      <c r="N26" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="44"/>
-      <c r="S26" s="61" t="s">
+      <c r="O26" s="59"/>
+      <c r="S26" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="62"/>
+      <c r="T26" s="53"/>
     </row>
     <row r="27" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="N27" s="45" t="s">
+      <c r="J27" s="57"/>
+      <c r="N27" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="46"/>
-      <c r="S27" s="59" t="s">
+      <c r="O27" s="57"/>
+      <c r="S27" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="60"/>
+      <c r="T27" s="51"/>
     </row>
     <row r="28" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I28" s="2">
@@ -8871,40 +8871,40 @@
     </row>
     <row r="33" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="9:23" x14ac:dyDescent="0.3">
-      <c r="I34" s="43" t="s">
+      <c r="I34" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="44"/>
-      <c r="N34" s="43" t="s">
+      <c r="J34" s="59"/>
+      <c r="N34" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="44"/>
-      <c r="S34" s="61" t="s">
+      <c r="O34" s="59"/>
+      <c r="S34" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="62"/>
-      <c r="V34" s="53" t="s">
+      <c r="T34" s="53"/>
+      <c r="V34" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="54"/>
+      <c r="W34" s="45"/>
     </row>
     <row r="35" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="46"/>
-      <c r="N35" s="47" t="s">
+      <c r="J35" s="57"/>
+      <c r="N35" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="48"/>
-      <c r="S35" s="49" t="s">
+      <c r="O35" s="61"/>
+      <c r="S35" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="50"/>
-      <c r="V35" s="51" t="s">
+      <c r="T35" s="55"/>
+      <c r="V35" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="52"/>
+      <c r="W35" s="43"/>
     </row>
     <row r="36" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I36" s="2">
@@ -9005,10 +9005,10 @@
       </c>
     </row>
     <row r="40" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="43" t="s">
+      <c r="I40" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="44"/>
+      <c r="J40" s="59"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -9029,10 +9029,10 @@
       </c>
     </row>
     <row r="41" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="46"/>
+      <c r="J41" s="57"/>
     </row>
     <row r="42" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I42" s="2">
@@ -9041,10 +9041,10 @@
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="43" t="s">
+      <c r="N42" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="44"/>
+      <c r="O42" s="59"/>
     </row>
     <row r="43" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I43" s="9">
@@ -9053,10 +9053,10 @@
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="45" t="s">
+      <c r="N43" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="46"/>
+      <c r="O43" s="57"/>
     </row>
     <row r="44" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N44" s="2">
@@ -9067,10 +9067,10 @@
       </c>
     </row>
     <row r="45" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I45" s="43" t="s">
+      <c r="I45" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="44"/>
+      <c r="J45" s="59"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -9079,10 +9079,10 @@
       </c>
     </row>
     <row r="46" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="46"/>
+      <c r="J46" s="57"/>
     </row>
     <row r="47" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I47" s="2">
@@ -9091,10 +9091,10 @@
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="43" t="s">
+      <c r="N47" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="44"/>
+      <c r="O47" s="59"/>
     </row>
     <row r="48" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I48" s="9">
@@ -9103,10 +9103,10 @@
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="45" t="s">
+      <c r="N48" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="46"/>
+      <c r="O48" s="57"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.3">
       <c r="N49" s="2">
@@ -9134,22 +9134,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -9162,13 +9153,22 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9181,7 +9181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
@@ -9263,38 +9263,38 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="J7" s="43" t="s">
+      <c r="H7" s="59"/>
+      <c r="J7" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="44"/>
-      <c r="P7" s="43" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="59"/>
+      <c r="P7" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="44"/>
-      <c r="U7" s="43" t="s">
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="59"/>
+      <c r="U7" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="44"/>
-      <c r="Y7" s="53" t="s">
+      <c r="V7" s="59"/>
+      <c r="Y7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="54"/>
-      <c r="AB7" s="61" t="s">
+      <c r="Z7" s="45"/>
+      <c r="AB7" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="62"/>
-      <c r="AF7" s="61" t="s">
+      <c r="AC7" s="53"/>
+      <c r="AF7" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="62"/>
+      <c r="AG7" s="53"/>
     </row>
     <row r="8" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -9306,38 +9306,38 @@
       <c r="D8" s="26">
         <v>35</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="J8" s="63" t="s">
+      <c r="H8" s="55"/>
+      <c r="J8" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="64"/>
-      <c r="P8" s="63" t="s">
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="66"/>
+      <c r="P8" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="64"/>
-      <c r="U8" s="45" t="s">
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="66"/>
+      <c r="U8" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="Y8" s="51" t="s">
+      <c r="V8" s="57"/>
+      <c r="Y8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="52"/>
-      <c r="AB8" s="49" t="s">
+      <c r="Z8" s="43"/>
+      <c r="AB8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AC8" s="50"/>
-      <c r="AF8" s="49" t="s">
+      <c r="AC8" s="55"/>
+      <c r="AF8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="50"/>
+      <c r="AG8" s="55"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -9532,14 +9532,14 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="59"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
-      <c r="K12" s="67" t="s">
+      <c r="K12" s="40" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="1">
@@ -9551,7 +9551,7 @@
       <c r="P12" s="6">
         <v>7</v>
       </c>
-      <c r="Q12" s="67" t="s">
+      <c r="Q12" s="40" t="s">
         <v>27</v>
       </c>
       <c r="R12" s="1">
@@ -9586,10 +9586,10 @@
       </c>
     </row>
     <row r="13" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="46"/>
+      <c r="H13" s="57"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
@@ -9702,14 +9702,14 @@
       <c r="S15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="U15" s="43" t="s">
+      <c r="U15" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="V15" s="44"/>
-      <c r="Y15" s="43" t="s">
+      <c r="V15" s="59"/>
+      <c r="Y15" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="Z15" s="44"/>
+      <c r="Z15" s="59"/>
     </row>
     <row r="16" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="6">
@@ -9734,14 +9734,14 @@
         <v>16</v>
       </c>
       <c r="S16" s="8"/>
-      <c r="U16" s="45" t="s">
+      <c r="U16" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="V16" s="46"/>
-      <c r="Y16" s="45" t="s">
+      <c r="V16" s="57"/>
+      <c r="Y16" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="46"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G17" s="6">
@@ -9833,40 +9833,40 @@
     </row>
     <row r="19" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="L20" s="43" t="s">
+      <c r="H20" s="59"/>
+      <c r="L20" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="44"/>
-      <c r="U20" s="43" t="s">
+      <c r="M20" s="59"/>
+      <c r="U20" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="V20" s="44"/>
-      <c r="Y20" s="43" t="s">
+      <c r="V20" s="59"/>
+      <c r="Y20" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="44"/>
+      <c r="Z20" s="59"/>
     </row>
     <row r="21" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="L21" s="45" t="s">
+      <c r="H21" s="57"/>
+      <c r="L21" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="46"/>
-      <c r="U21" s="45" t="s">
+      <c r="M21" s="57"/>
+      <c r="U21" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="V21" s="46"/>
-      <c r="Y21" s="45" t="s">
+      <c r="V21" s="57"/>
+      <c r="Y21" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="46"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G22" s="2">
@@ -9941,10 +9941,10 @@
       </c>
     </row>
     <row r="25" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L25" s="43" t="s">
+      <c r="L25" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="44"/>
+      <c r="M25" s="59"/>
       <c r="U25" s="6">
         <v>4</v>
       </c>
@@ -9959,14 +9959,14 @@
       </c>
     </row>
     <row r="26" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="L26" s="45" t="s">
+      <c r="H26" s="59"/>
+      <c r="L26" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="46"/>
+      <c r="M26" s="57"/>
       <c r="U26" s="9">
         <v>5</v>
       </c>
@@ -9981,10 +9981,10 @@
       </c>
     </row>
     <row r="27" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="46"/>
+      <c r="H27" s="57"/>
       <c r="L27" s="2">
         <v>1</v>
       </c>
@@ -10015,26 +10015,26 @@
       </c>
     </row>
     <row r="30" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L30" s="43" t="s">
+      <c r="L30" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="44"/>
+      <c r="M30" s="59"/>
     </row>
     <row r="31" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="44"/>
-      <c r="L31" s="63" t="s">
+      <c r="H31" s="59"/>
+      <c r="L31" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="64"/>
+      <c r="M31" s="66"/>
     </row>
     <row r="32" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="46"/>
+      <c r="H32" s="57"/>
       <c r="L32" s="2">
         <v>1</v>
       </c>
@@ -10065,34 +10065,34 @@
       </c>
     </row>
     <row r="35" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="43" t="s">
+      <c r="L35" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="M35" s="44"/>
-      <c r="AF35" s="43" t="s">
+      <c r="M35" s="59"/>
+      <c r="AF35" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AG35" s="44"/>
+      <c r="AG35" s="59"/>
     </row>
     <row r="36" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="L36" s="63" t="s">
+      <c r="H36" s="59"/>
+      <c r="L36" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="64"/>
-      <c r="AF36" s="63" t="s">
+      <c r="M36" s="66"/>
+      <c r="AF36" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AG36" s="64"/>
+      <c r="AG36" s="66"/>
     </row>
     <row r="37" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="46"/>
+      <c r="H37" s="57"/>
       <c r="L37" s="2">
         <v>1</v>
       </c>
@@ -10135,24 +10135,24 @@
       </c>
     </row>
     <row r="40" spans="7:33" x14ac:dyDescent="0.3">
-      <c r="L40" s="43" t="s">
+      <c r="L40" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="44"/>
-      <c r="AF40" s="43" t="s">
+      <c r="M40" s="59"/>
+      <c r="AF40" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AG40" s="44"/>
+      <c r="AG40" s="59"/>
     </row>
     <row r="41" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L41" s="63" t="s">
+      <c r="L41" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="M41" s="64"/>
-      <c r="AF41" s="63" t="s">
+      <c r="M41" s="66"/>
+      <c r="AF41" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AG41" s="64"/>
+      <c r="AG41" s="66"/>
     </row>
     <row r="42" spans="7:33" x14ac:dyDescent="0.3">
       <c r="L42" s="2">
@@ -10184,12 +10184,12 @@
     </row>
     <row r="45" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J46" s="40" t="s">
+      <c r="J46" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="42"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="64"/>
     </row>
     <row r="47" spans="7:33" x14ac:dyDescent="0.3">
       <c r="J47" s="2">
@@ -10204,10 +10204,10 @@
       <c r="M47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y47" s="43" t="s">
+      <c r="Y47" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="Z47" s="44"/>
+      <c r="Z47" s="59"/>
     </row>
     <row r="48" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J48" s="6">
@@ -10222,10 +10222,10 @@
       <c r="M48" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y48" s="63" t="s">
+      <c r="Y48" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="Z48" s="64"/>
+      <c r="Z48" s="66"/>
     </row>
     <row r="49" spans="10:26" x14ac:dyDescent="0.3">
       <c r="J49" s="6">
@@ -10353,12 +10353,38 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G36:H36"/>
@@ -10370,38 +10396,12 @@
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="L31:M31"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11168,8 +11168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11512,7 +11512,7 @@
       <c r="D9" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="41">
         <f>(E7*E8)^0.5</f>
         <v>122.47448713915891</v>
       </c>
@@ -11524,7 +11524,7 @@
       <c r="D10" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="41">
         <f>(E9/0.707)*2</f>
         <v>346.46248129889369</v>
       </c>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,12 +477,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -844,8 +838,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -882,49 +908,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -964,7 +957,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1036,7 +1029,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,7 +1101,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1174,7 +1167,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1233,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1361,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1467,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1545,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1623,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1718,7 @@
         <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1813,7 @@
         <xdr:cNvPr id="8" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1873,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1933,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2001,7 @@
         <xdr:cNvPr id="16" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2069,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,7 +2167,7 @@
         <xdr:cNvPr id="13" name="화살표: 왼쪽/오른쪽 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2227,7 @@
         <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2308,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2376,7 @@
         <xdr:cNvPr id="21" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2444,7 @@
         <xdr:cNvPr id="22" name="화살표: 왼쪽/오른쪽 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2504,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2564,7 @@
         <xdr:cNvPr id="24" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2643,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2722,7 +2715,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,7 +2787,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2853,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2926,7 +2919,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3054,7 +3047,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3153,7 @@
         <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3238,7 +3231,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3316,7 +3309,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3411,7 +3404,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3506,7 +3499,7 @@
         <xdr:cNvPr id="12" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3566,7 +3559,7 @@
         <xdr:cNvPr id="13" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3626,7 +3619,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3694,7 +3687,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3762,7 +3755,7 @@
         <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3860,7 +3853,7 @@
         <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3920,7 +3913,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4001,7 +3994,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4069,7 +4062,7 @@
         <xdr:cNvPr id="21" name="화살표: 왼쪽/오른쪽 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4129,7 +4122,7 @@
         <xdr:cNvPr id="22" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4189,7 +4182,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4263,7 +4256,7 @@
         <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4335,7 +4328,7 @@
         <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4401,7 +4394,7 @@
         <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4479,7 +4472,7 @@
         <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4557,7 +4550,7 @@
         <xdr:cNvPr id="28" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4638,7 +4631,7 @@
         <xdr:cNvPr id="29" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4698,7 +4691,7 @@
         <xdr:cNvPr id="30" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4764,7 +4757,7 @@
         <xdr:cNvPr id="31" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4836,7 +4829,7 @@
         <xdr:cNvPr id="32" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4904,7 +4897,7 @@
         <xdr:cNvPr id="33" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4964,7 +4957,7 @@
         <xdr:cNvPr id="34" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5024,7 +5017,7 @@
         <xdr:cNvPr id="35" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5084,7 +5077,7 @@
         <xdr:cNvPr id="36" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5184,7 +5177,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5260,7 +5253,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5336,7 +5329,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5409,7 +5402,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5488,7 +5481,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5551,7 +5544,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5623,7 +5616,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5695,7 +5688,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5774,7 +5767,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5853,7 +5846,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5932,7 +5925,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6013,7 +6006,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6097,7 +6090,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6181,7 +6174,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6262,7 +6255,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6361,7 +6354,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6424,7 +6417,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6511,7 +6504,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6583,7 +6576,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6662,7 +6655,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6741,7 +6734,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6820,7 +6813,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6919,7 +6912,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7011,7 +7004,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7095,7 +7088,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7179,7 +7172,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7260,7 +7253,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7359,7 +7352,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7422,7 +7415,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7509,7 +7502,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7581,7 +7574,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7660,7 +7653,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7739,7 +7732,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7818,7 +7811,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7917,7 +7910,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8314,12 +8307,12 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
@@ -8458,12 +8451,12 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="58" t="s">
+      <c r="N10" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="59"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="47"/>
+      <c r="O10" s="45"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
     </row>
     <row r="11" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="9" t="s">
@@ -8487,14 +8480,14 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="56" t="s">
+      <c r="N11" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="57"/>
-      <c r="S11" s="48" t="s">
+      <c r="O11" s="47"/>
+      <c r="S11" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="49"/>
+      <c r="T11" s="59"/>
     </row>
     <row r="12" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="22" t="s">
@@ -8600,10 +8593,10 @@
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="59"/>
+      <c r="J16" s="45"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -8614,10 +8607,10 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="57"/>
+      <c r="J17" s="47"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -8673,32 +8666,32 @@
     </row>
     <row r="20" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="58" t="s">
+      <c r="I21" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="59"/>
-      <c r="N21" s="58" t="s">
+      <c r="J21" s="45"/>
+      <c r="N21" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="59"/>
-      <c r="S21" s="46" t="s">
+      <c r="O21" s="45"/>
+      <c r="S21" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="47"/>
+      <c r="T21" s="57"/>
     </row>
     <row r="22" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I22" s="54" t="s">
+      <c r="I22" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="55"/>
-      <c r="N22" s="54" t="s">
+      <c r="J22" s="51"/>
+      <c r="N22" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="55"/>
-      <c r="S22" s="48" t="s">
+      <c r="O22" s="51"/>
+      <c r="S22" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="49"/>
+      <c r="T22" s="59"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I23" s="2">
@@ -8742,32 +8735,32 @@
     </row>
     <row r="25" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I26" s="58" t="s">
+      <c r="I26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="59"/>
-      <c r="N26" s="58" t="s">
+      <c r="J26" s="45"/>
+      <c r="N26" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="59"/>
-      <c r="S26" s="52" t="s">
+      <c r="O26" s="45"/>
+      <c r="S26" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="53"/>
+      <c r="T26" s="63"/>
     </row>
     <row r="27" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="N27" s="56" t="s">
+      <c r="J27" s="47"/>
+      <c r="N27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="57"/>
-      <c r="S27" s="50" t="s">
+      <c r="O27" s="47"/>
+      <c r="S27" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="51"/>
+      <c r="T27" s="61"/>
     </row>
     <row r="28" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I28" s="2">
@@ -8871,40 +8864,40 @@
     </row>
     <row r="33" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="9:23" x14ac:dyDescent="0.3">
-      <c r="I34" s="58" t="s">
+      <c r="I34" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="59"/>
-      <c r="N34" s="58" t="s">
+      <c r="J34" s="45"/>
+      <c r="N34" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="59"/>
-      <c r="S34" s="52" t="s">
+      <c r="O34" s="45"/>
+      <c r="S34" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="53"/>
-      <c r="V34" s="44" t="s">
+      <c r="T34" s="63"/>
+      <c r="V34" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="45"/>
+      <c r="W34" s="55"/>
     </row>
     <row r="35" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I35" s="56" t="s">
+      <c r="I35" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="57"/>
-      <c r="N35" s="60" t="s">
+      <c r="J35" s="47"/>
+      <c r="N35" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="61"/>
-      <c r="S35" s="54" t="s">
+      <c r="O35" s="49"/>
+      <c r="S35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="55"/>
-      <c r="V35" s="42" t="s">
+      <c r="T35" s="51"/>
+      <c r="V35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="43"/>
+      <c r="W35" s="53"/>
     </row>
     <row r="36" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I36" s="2">
@@ -9005,10 +8998,10 @@
       </c>
     </row>
     <row r="40" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="58" t="s">
+      <c r="I40" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="59"/>
+      <c r="J40" s="45"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -9029,10 +9022,10 @@
       </c>
     </row>
     <row r="41" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I41" s="56" t="s">
+      <c r="I41" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="57"/>
+      <c r="J41" s="47"/>
     </row>
     <row r="42" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I42" s="2">
@@ -9041,10 +9034,10 @@
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="58" t="s">
+      <c r="N42" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="59"/>
+      <c r="O42" s="45"/>
     </row>
     <row r="43" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I43" s="9">
@@ -9053,10 +9046,10 @@
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="56" t="s">
+      <c r="N43" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="57"/>
+      <c r="O43" s="47"/>
     </row>
     <row r="44" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N44" s="2">
@@ -9067,10 +9060,10 @@
       </c>
     </row>
     <row r="45" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I45" s="58" t="s">
+      <c r="I45" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="59"/>
+      <c r="J45" s="45"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -9079,10 +9072,10 @@
       </c>
     </row>
     <row r="46" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I46" s="56" t="s">
+      <c r="I46" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="57"/>
+      <c r="J46" s="47"/>
     </row>
     <row r="47" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I47" s="2">
@@ -9091,10 +9084,10 @@
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="58" t="s">
+      <c r="N47" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="59"/>
+      <c r="O47" s="45"/>
     </row>
     <row r="48" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I48" s="9">
@@ -9103,10 +9096,10 @@
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="56" t="s">
+      <c r="N48" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="57"/>
+      <c r="O48" s="47"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.3">
       <c r="N49" s="2">
@@ -9134,13 +9127,22 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -9153,22 +9155,13 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9181,8 +9174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9263,38 +9256,38 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="J7" s="58" t="s">
+      <c r="H7" s="45"/>
+      <c r="J7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="59"/>
-      <c r="P7" s="58" t="s">
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="45"/>
+      <c r="P7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="59"/>
-      <c r="U7" s="58" t="s">
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="45"/>
+      <c r="U7" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="59"/>
-      <c r="Y7" s="44" t="s">
+      <c r="V7" s="45"/>
+      <c r="Y7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="45"/>
-      <c r="AB7" s="52" t="s">
+      <c r="Z7" s="55"/>
+      <c r="AB7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="53"/>
-      <c r="AF7" s="52" t="s">
+      <c r="AC7" s="63"/>
+      <c r="AF7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="53"/>
+      <c r="AG7" s="63"/>
     </row>
     <row r="8" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -9306,38 +9299,38 @@
       <c r="D8" s="26">
         <v>35</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="J8" s="65" t="s">
+      <c r="H8" s="51"/>
+      <c r="J8" s="64" t="s">
         <v>62</v>
       </c>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
-      <c r="M8" s="66"/>
-      <c r="P8" s="65" t="s">
+      <c r="M8" s="65"/>
+      <c r="P8" s="64" t="s">
         <v>62</v>
       </c>
       <c r="Q8" s="67"/>
       <c r="R8" s="67"/>
-      <c r="S8" s="66"/>
-      <c r="U8" s="56" t="s">
+      <c r="S8" s="65"/>
+      <c r="U8" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="57"/>
-      <c r="Y8" s="42" t="s">
+      <c r="V8" s="47"/>
+      <c r="Y8" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="43"/>
-      <c r="AB8" s="54" t="s">
+      <c r="Z8" s="53"/>
+      <c r="AB8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AC8" s="55"/>
-      <c r="AF8" s="54" t="s">
+      <c r="AC8" s="51"/>
+      <c r="AF8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="55"/>
+      <c r="AG8" s="51"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -9532,14 +9525,14 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="59"/>
+      <c r="H12" s="45"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="1">
@@ -9551,7 +9544,7 @@
       <c r="P12" s="6">
         <v>7</v>
       </c>
-      <c r="Q12" s="40" t="s">
+      <c r="Q12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="R12" s="1">
@@ -9586,10 +9579,10 @@
       </c>
     </row>
     <row r="13" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="57"/>
+      <c r="H13" s="47"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
@@ -9702,14 +9695,14 @@
       <c r="S15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="U15" s="58" t="s">
+      <c r="U15" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="V15" s="59"/>
-      <c r="Y15" s="58" t="s">
+      <c r="V15" s="45"/>
+      <c r="Y15" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="Z15" s="59"/>
+      <c r="Z15" s="45"/>
     </row>
     <row r="16" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="6">
@@ -9734,14 +9727,14 @@
         <v>16</v>
       </c>
       <c r="S16" s="8"/>
-      <c r="U16" s="56" t="s">
+      <c r="U16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="V16" s="57"/>
-      <c r="Y16" s="56" t="s">
+      <c r="V16" s="47"/>
+      <c r="Y16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="57"/>
+      <c r="Z16" s="47"/>
     </row>
     <row r="17" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G17" s="6">
@@ -9833,40 +9826,40 @@
     </row>
     <row r="19" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="L20" s="58" t="s">
+      <c r="H20" s="45"/>
+      <c r="L20" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="59"/>
-      <c r="U20" s="58" t="s">
+      <c r="M20" s="45"/>
+      <c r="U20" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="V20" s="59"/>
-      <c r="Y20" s="58" t="s">
+      <c r="V20" s="45"/>
+      <c r="Y20" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="59"/>
+      <c r="Z20" s="45"/>
     </row>
     <row r="21" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="L21" s="56" t="s">
+      <c r="H21" s="47"/>
+      <c r="L21" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="57"/>
-      <c r="U21" s="56" t="s">
+      <c r="M21" s="47"/>
+      <c r="U21" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="V21" s="57"/>
-      <c r="Y21" s="56" t="s">
+      <c r="V21" s="47"/>
+      <c r="Y21" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="57"/>
+      <c r="Z21" s="47"/>
     </row>
     <row r="22" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G22" s="2">
@@ -9941,10 +9934,10 @@
       </c>
     </row>
     <row r="25" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L25" s="58" t="s">
+      <c r="L25" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="59"/>
+      <c r="M25" s="45"/>
       <c r="U25" s="6">
         <v>4</v>
       </c>
@@ -9959,14 +9952,14 @@
       </c>
     </row>
     <row r="26" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="L26" s="56" t="s">
+      <c r="H26" s="45"/>
+      <c r="L26" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="57"/>
+      <c r="M26" s="47"/>
       <c r="U26" s="9">
         <v>5</v>
       </c>
@@ -9981,10 +9974,10 @@
       </c>
     </row>
     <row r="27" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="57"/>
+      <c r="H27" s="47"/>
       <c r="L27" s="2">
         <v>1</v>
       </c>
@@ -10015,26 +10008,26 @@
       </c>
     </row>
     <row r="30" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L30" s="58" t="s">
+      <c r="L30" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="59"/>
+      <c r="M30" s="45"/>
     </row>
     <row r="31" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="59"/>
-      <c r="L31" s="65" t="s">
+      <c r="H31" s="45"/>
+      <c r="L31" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="66"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="57"/>
+      <c r="H32" s="47"/>
       <c r="L32" s="2">
         <v>1</v>
       </c>
@@ -10065,34 +10058,34 @@
       </c>
     </row>
     <row r="35" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="58" t="s">
+      <c r="L35" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="M35" s="59"/>
-      <c r="AF35" s="58" t="s">
+      <c r="M35" s="45"/>
+      <c r="AF35" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="AG35" s="59"/>
+      <c r="AG35" s="45"/>
     </row>
     <row r="36" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="58" t="s">
+      <c r="G36" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="59"/>
-      <c r="L36" s="65" t="s">
+      <c r="H36" s="45"/>
+      <c r="L36" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="66"/>
-      <c r="AF36" s="65" t="s">
+      <c r="M36" s="65"/>
+      <c r="AF36" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AG36" s="66"/>
+      <c r="AG36" s="65"/>
     </row>
     <row r="37" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G37" s="56" t="s">
+      <c r="G37" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="57"/>
+      <c r="H37" s="47"/>
       <c r="L37" s="2">
         <v>1</v>
       </c>
@@ -10135,24 +10128,24 @@
       </c>
     </row>
     <row r="40" spans="7:33" x14ac:dyDescent="0.3">
-      <c r="L40" s="58" t="s">
+      <c r="L40" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="59"/>
-      <c r="AF40" s="58" t="s">
+      <c r="M40" s="45"/>
+      <c r="AF40" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="AG40" s="59"/>
+      <c r="AG40" s="45"/>
     </row>
     <row r="41" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L41" s="65" t="s">
+      <c r="L41" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="M41" s="66"/>
-      <c r="AF41" s="65" t="s">
+      <c r="M41" s="65"/>
+      <c r="AF41" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AG41" s="66"/>
+      <c r="AG41" s="65"/>
     </row>
     <row r="42" spans="7:33" x14ac:dyDescent="0.3">
       <c r="L42" s="2">
@@ -10184,12 +10177,12 @@
     </row>
     <row r="45" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J46" s="62" t="s">
+      <c r="J46" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="64"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="43"/>
     </row>
     <row r="47" spans="7:33" x14ac:dyDescent="0.3">
       <c r="J47" s="2">
@@ -10204,10 +10197,10 @@
       <c r="M47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y47" s="58" t="s">
+      <c r="Y47" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="Z47" s="59"/>
+      <c r="Z47" s="45"/>
     </row>
     <row r="48" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J48" s="6">
@@ -10222,10 +10215,10 @@
       <c r="M48" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y48" s="65" t="s">
+      <c r="Y48" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="Z48" s="66"/>
+      <c r="Z48" s="65"/>
     </row>
     <row r="49" spans="10:26" x14ac:dyDescent="0.3">
       <c r="J49" s="6">
@@ -10353,6 +10346,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="U20:V20"/>
@@ -10364,44 +10390,11 @@
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="U21:V21"/>
     <mergeCell ref="L26:M26"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:M7"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11168,8 +11161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11512,7 +11505,7 @@
       <c r="D9" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="40">
         <f>(E7*E8)^0.5</f>
         <v>122.47448713915891</v>
       </c>
@@ -11524,7 +11517,7 @@
       <c r="D10" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="40">
         <f>(E9/0.707)*2</f>
         <v>346.46248129889369</v>
       </c>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="94">
   <si>
     <t>+12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,10 @@
   </si>
   <si>
     <t>12V Gate bias On/Off control 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+9V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,39 +843,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -908,16 +879,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -957,7 +961,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,7 +1033,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1101,7 +1105,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,7 +1171,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1233,7 +1237,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1365,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1471,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1545,7 +1549,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1627,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1722,7 @@
         <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1817,7 @@
         <xdr:cNvPr id="8" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1877,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1937,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2005,7 @@
         <xdr:cNvPr id="16" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2073,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2171,7 @@
         <xdr:cNvPr id="13" name="화살표: 왼쪽/오른쪽 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2231,7 @@
         <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2312,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2380,7 @@
         <xdr:cNvPr id="21" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,7 +2448,7 @@
         <xdr:cNvPr id="22" name="화살표: 왼쪽/오른쪽 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2508,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2568,7 @@
         <xdr:cNvPr id="24" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2647,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2719,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2791,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2857,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2919,7 +2923,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3047,7 +3051,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3153,7 +3157,7 @@
         <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3231,7 +3235,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3313,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3408,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3499,7 +3503,7 @@
         <xdr:cNvPr id="12" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3559,7 +3563,7 @@
         <xdr:cNvPr id="13" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3619,7 +3623,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3687,7 +3691,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3755,7 +3759,7 @@
         <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,7 +3857,7 @@
         <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3913,7 +3917,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3994,7 +3998,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4062,7 +4066,7 @@
         <xdr:cNvPr id="21" name="화살표: 왼쪽/오른쪽 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4122,7 +4126,7 @@
         <xdr:cNvPr id="22" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4182,7 +4186,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4256,7 +4260,7 @@
         <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4328,7 +4332,7 @@
         <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4394,7 +4398,7 @@
         <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4472,7 +4476,7 @@
         <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4550,7 +4554,7 @@
         <xdr:cNvPr id="28" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4631,7 +4635,7 @@
         <xdr:cNvPr id="29" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4691,7 +4695,7 @@
         <xdr:cNvPr id="30" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4757,7 +4761,7 @@
         <xdr:cNvPr id="31" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4829,7 +4833,7 @@
         <xdr:cNvPr id="32" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4897,7 +4901,7 @@
         <xdr:cNvPr id="33" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4957,7 +4961,7 @@
         <xdr:cNvPr id="34" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5017,7 +5021,7 @@
         <xdr:cNvPr id="35" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5077,7 +5081,7 @@
         <xdr:cNvPr id="36" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5177,7 +5181,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5253,7 +5257,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5329,7 +5333,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5402,7 +5406,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5481,7 +5485,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5544,7 +5548,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5616,7 +5620,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5688,7 +5692,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5767,7 +5771,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5846,7 +5850,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5925,7 +5929,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6006,7 +6010,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6090,7 +6094,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6174,7 +6178,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6255,7 +6259,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6354,7 +6358,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6417,7 +6421,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6504,7 +6508,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6576,7 +6580,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6655,7 +6659,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6734,7 +6738,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6813,7 +6817,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6912,7 +6916,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7004,7 +7008,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7088,7 +7092,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7172,7 +7176,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7253,7 +7257,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7352,7 +7356,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7415,7 +7419,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7502,7 +7506,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7574,7 +7578,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7653,7 +7657,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7732,7 +7736,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7811,7 +7815,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7910,7 +7914,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7970,6 +7974,164 @@
             <a:t>158x97x38</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40149</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1555866" y="2454188"/>
+          <a:ext cx="647308" cy="171399"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DC48V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32256</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>226946</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>168964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2293408" y="2446001"/>
+          <a:ext cx="443168" cy="207746"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -8307,12 +8469,12 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
@@ -8451,12 +8613,12 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="45"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
+      <c r="O10" s="58"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="46"/>
     </row>
     <row r="11" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="9" t="s">
@@ -8480,14 +8642,14 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="46" t="s">
+      <c r="N11" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="47"/>
-      <c r="S11" s="58" t="s">
+      <c r="O11" s="56"/>
+      <c r="S11" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="59"/>
+      <c r="T11" s="48"/>
     </row>
     <row r="12" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="22" t="s">
@@ -8593,10 +8755,10 @@
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="45"/>
+      <c r="J16" s="58"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -8607,10 +8769,10 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="56"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -8666,32 +8828,32 @@
     </row>
     <row r="20" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="45"/>
-      <c r="N21" s="44" t="s">
+      <c r="J21" s="58"/>
+      <c r="N21" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="45"/>
-      <c r="S21" s="56" t="s">
+      <c r="O21" s="58"/>
+      <c r="S21" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="57"/>
+      <c r="T21" s="46"/>
     </row>
     <row r="22" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="N22" s="50" t="s">
+      <c r="J22" s="54"/>
+      <c r="N22" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="51"/>
-      <c r="S22" s="58" t="s">
+      <c r="O22" s="54"/>
+      <c r="S22" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="59"/>
+      <c r="T22" s="48"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I23" s="2">
@@ -8735,32 +8897,32 @@
     </row>
     <row r="25" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="N26" s="44" t="s">
+      <c r="J26" s="58"/>
+      <c r="N26" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="45"/>
-      <c r="S26" s="62" t="s">
+      <c r="O26" s="58"/>
+      <c r="S26" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="63"/>
+      <c r="T26" s="52"/>
     </row>
     <row r="27" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="N27" s="46" t="s">
+      <c r="J27" s="56"/>
+      <c r="N27" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="47"/>
-      <c r="S27" s="60" t="s">
+      <c r="O27" s="56"/>
+      <c r="S27" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="61"/>
+      <c r="T27" s="50"/>
     </row>
     <row r="28" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I28" s="2">
@@ -8864,40 +9026,40 @@
     </row>
     <row r="33" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="9:23" x14ac:dyDescent="0.3">
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="N34" s="44" t="s">
+      <c r="J34" s="58"/>
+      <c r="N34" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="45"/>
-      <c r="S34" s="62" t="s">
+      <c r="O34" s="58"/>
+      <c r="S34" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="63"/>
-      <c r="V34" s="54" t="s">
+      <c r="T34" s="52"/>
+      <c r="V34" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="55"/>
+      <c r="W34" s="44"/>
     </row>
     <row r="35" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I35" s="46" t="s">
+      <c r="I35" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="47"/>
-      <c r="N35" s="48" t="s">
+      <c r="J35" s="56"/>
+      <c r="N35" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="49"/>
-      <c r="S35" s="50" t="s">
+      <c r="O35" s="60"/>
+      <c r="S35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="51"/>
-      <c r="V35" s="52" t="s">
+      <c r="T35" s="54"/>
+      <c r="V35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="53"/>
+      <c r="W35" s="42"/>
     </row>
     <row r="36" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I36" s="2">
@@ -8998,10 +9160,10 @@
       </c>
     </row>
     <row r="40" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="45"/>
+      <c r="J40" s="58"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -9022,10 +9184,10 @@
       </c>
     </row>
     <row r="41" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I41" s="46" t="s">
+      <c r="I41" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="47"/>
+      <c r="J41" s="56"/>
     </row>
     <row r="42" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I42" s="2">
@@ -9034,10 +9196,10 @@
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="44" t="s">
+      <c r="N42" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="45"/>
+      <c r="O42" s="58"/>
     </row>
     <row r="43" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I43" s="9">
@@ -9046,10 +9208,10 @@
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="46" t="s">
+      <c r="N43" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="47"/>
+      <c r="O43" s="56"/>
     </row>
     <row r="44" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N44" s="2">
@@ -9060,10 +9222,10 @@
       </c>
     </row>
     <row r="45" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="45"/>
+      <c r="J45" s="58"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -9072,10 +9234,10 @@
       </c>
     </row>
     <row r="46" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I46" s="46" t="s">
+      <c r="I46" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="47"/>
+      <c r="J46" s="56"/>
     </row>
     <row r="47" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I47" s="2">
@@ -9084,10 +9246,10 @@
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="44" t="s">
+      <c r="N47" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="45"/>
+      <c r="O47" s="58"/>
     </row>
     <row r="48" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I48" s="9">
@@ -9096,10 +9258,10 @@
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="46" t="s">
+      <c r="N48" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="47"/>
+      <c r="O48" s="56"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.3">
       <c r="N49" s="2">
@@ -9127,22 +9289,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -9155,13 +9308,22 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9174,8 +9336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9256,38 +9418,38 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="J7" s="44" t="s">
+      <c r="H7" s="58"/>
+      <c r="J7" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="45"/>
-      <c r="P7" s="44" t="s">
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="58"/>
+      <c r="P7" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="45"/>
-      <c r="U7" s="44" t="s">
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="58"/>
+      <c r="U7" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="45"/>
-      <c r="Y7" s="54" t="s">
+      <c r="V7" s="58"/>
+      <c r="Y7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="55"/>
-      <c r="AB7" s="62" t="s">
+      <c r="Z7" s="44"/>
+      <c r="AB7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="63"/>
-      <c r="AF7" s="62" t="s">
+      <c r="AC7" s="52"/>
+      <c r="AF7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="63"/>
+      <c r="AG7" s="52"/>
     </row>
     <row r="8" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -9299,38 +9461,38 @@
       <c r="D8" s="26">
         <v>35</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="51"/>
+      <c r="H8" s="54"/>
       <c r="J8" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
       <c r="M8" s="65"/>
       <c r="P8" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
       <c r="S8" s="65"/>
-      <c r="U8" s="46" t="s">
+      <c r="U8" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="Y8" s="52" t="s">
+      <c r="V8" s="56"/>
+      <c r="Y8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="53"/>
-      <c r="AB8" s="50" t="s">
+      <c r="Z8" s="42"/>
+      <c r="AB8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AC8" s="51"/>
-      <c r="AF8" s="50" t="s">
+      <c r="AC8" s="54"/>
+      <c r="AF8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="51"/>
+      <c r="AG8" s="54"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -9525,10 +9687,10 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="58"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
@@ -9579,10 +9741,10 @@
       </c>
     </row>
     <row r="13" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="56"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
@@ -9695,14 +9857,14 @@
       <c r="S15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="U15" s="44" t="s">
+      <c r="U15" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="V15" s="45"/>
-      <c r="Y15" s="44" t="s">
+      <c r="V15" s="58"/>
+      <c r="Y15" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="Z15" s="45"/>
+      <c r="Z15" s="58"/>
     </row>
     <row r="16" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="6">
@@ -9727,14 +9889,14 @@
         <v>16</v>
       </c>
       <c r="S16" s="8"/>
-      <c r="U16" s="46" t="s">
+      <c r="U16" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="V16" s="47"/>
-      <c r="Y16" s="46" t="s">
+      <c r="V16" s="56"/>
+      <c r="Y16" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="47"/>
+      <c r="Z16" s="56"/>
     </row>
     <row r="17" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G17" s="6">
@@ -9771,13 +9933,13 @@
         <v>1</v>
       </c>
       <c r="V17" s="37" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="Y17" s="36">
         <v>1</v>
       </c>
       <c r="Z17" s="37" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9826,40 +9988,40 @@
     </row>
     <row r="19" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="L20" s="44" t="s">
+      <c r="H20" s="58"/>
+      <c r="L20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="U20" s="44" t="s">
+      <c r="M20" s="58"/>
+      <c r="U20" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="V20" s="45"/>
-      <c r="Y20" s="44" t="s">
+      <c r="V20" s="58"/>
+      <c r="Y20" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="45"/>
+      <c r="Z20" s="58"/>
     </row>
     <row r="21" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="L21" s="46" t="s">
+      <c r="H21" s="56"/>
+      <c r="L21" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="U21" s="46" t="s">
+      <c r="M21" s="56"/>
+      <c r="U21" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="V21" s="47"/>
-      <c r="Y21" s="46" t="s">
+      <c r="V21" s="56"/>
+      <c r="Y21" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="47"/>
+      <c r="Z21" s="56"/>
     </row>
     <row r="22" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G22" s="2">
@@ -9934,10 +10096,10 @@
       </c>
     </row>
     <row r="25" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L25" s="44" t="s">
+      <c r="L25" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="45"/>
+      <c r="M25" s="58"/>
       <c r="U25" s="6">
         <v>4</v>
       </c>
@@ -9952,14 +10114,14 @@
       </c>
     </row>
     <row r="26" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="L26" s="46" t="s">
+      <c r="H26" s="58"/>
+      <c r="L26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="47"/>
+      <c r="M26" s="56"/>
       <c r="U26" s="9">
         <v>5</v>
       </c>
@@ -9974,10 +10136,10 @@
       </c>
     </row>
     <row r="27" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="56"/>
       <c r="L27" s="2">
         <v>1</v>
       </c>
@@ -10008,26 +10170,26 @@
       </c>
     </row>
     <row r="30" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L30" s="44" t="s">
+      <c r="L30" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="45"/>
+      <c r="M30" s="58"/>
     </row>
     <row r="31" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="58"/>
       <c r="L31" s="64" t="s">
         <v>21</v>
       </c>
       <c r="M31" s="65"/>
     </row>
     <row r="32" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="47"/>
+      <c r="H32" s="56"/>
       <c r="L32" s="2">
         <v>1</v>
       </c>
@@ -10058,20 +10220,20 @@
       </c>
     </row>
     <row r="35" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="44" t="s">
+      <c r="L35" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="M35" s="45"/>
-      <c r="AF35" s="44" t="s">
+      <c r="M35" s="58"/>
+      <c r="AF35" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="AG35" s="45"/>
+      <c r="AG35" s="58"/>
     </row>
     <row r="36" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="45"/>
+      <c r="H36" s="58"/>
       <c r="L36" s="64" t="s">
         <v>21</v>
       </c>
@@ -10082,10 +10244,10 @@
       <c r="AG36" s="65"/>
     </row>
     <row r="37" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="47"/>
+      <c r="H37" s="56"/>
       <c r="L37" s="2">
         <v>1</v>
       </c>
@@ -10128,14 +10290,14 @@
       </c>
     </row>
     <row r="40" spans="7:33" x14ac:dyDescent="0.3">
-      <c r="L40" s="44" t="s">
+      <c r="L40" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="45"/>
-      <c r="AF40" s="44" t="s">
+      <c r="M40" s="58"/>
+      <c r="AF40" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="AG40" s="45"/>
+      <c r="AG40" s="58"/>
     </row>
     <row r="41" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L41" s="64" t="s">
@@ -10177,12 +10339,12 @@
     </row>
     <row r="45" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J46" s="41" t="s">
+      <c r="J46" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="43"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="63"/>
     </row>
     <row r="47" spans="7:33" x14ac:dyDescent="0.3">
       <c r="J47" s="2">
@@ -10197,10 +10359,10 @@
       <c r="M47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y47" s="44" t="s">
+      <c r="Y47" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="Z47" s="45"/>
+      <c r="Z47" s="58"/>
     </row>
     <row r="48" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J48" s="6">
@@ -10346,39 +10508,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:M7"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="U20:V20"/>
@@ -10395,6 +10524,39 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11162,7 +11324,7 @@
   <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+      <selection activeCell="AC20" sqref="AB20:AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +481,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -838,10 +844,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,6 +926,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -7016,8 +7037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1260807" y="632402"/>
-          <a:ext cx="4736483" cy="2059446"/>
+          <a:off x="1261221" y="639856"/>
+          <a:ext cx="4719918" cy="2084294"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7241,14 +7262,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>537318</xdr:colOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>242043</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>57881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>256760</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>647285</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>74543</xdr:rowOff>
     </xdr:to>
@@ -7265,7 +7286,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11367243" y="3829781"/>
+          <a:off x="17244168" y="3829781"/>
           <a:ext cx="2462642" cy="4207662"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7403,14 +7424,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>576510</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>614610</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>126286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>240195</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>278295</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>41412</xdr:rowOff>
     </xdr:to>
@@ -7427,7 +7448,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11406435" y="4736386"/>
+          <a:off x="16930935" y="4736386"/>
           <a:ext cx="2406885" cy="3267926"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7780,14 +7801,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>12V</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -7985,16 +8006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>40149</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142726</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>176471</xdr:rowOff>
+      <xdr:rowOff>183798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>43962</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>140804</xdr:rowOff>
+      <xdr:rowOff>148131</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8009,8 +8030,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1555866" y="2454188"/>
-          <a:ext cx="647308" cy="171399"/>
+          <a:off x="1417611" y="2521086"/>
+          <a:ext cx="648582" cy="176814"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8045,14 +8066,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>DC48V</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -8065,15 +8086,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>32256</xdr:colOff>
+      <xdr:colOff>234462</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>168284</xdr:rowOff>
+      <xdr:rowOff>160957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>226946</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168331</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>168964</xdr:rowOff>
+      <xdr:rowOff>161637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8088,8 +8109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2293408" y="2446001"/>
-          <a:ext cx="443168" cy="207746"/>
+          <a:off x="2505808" y="2498245"/>
+          <a:ext cx="432100" cy="213161"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8124,14 +8145,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>12V</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -8139,6 +8160,799 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>82079</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2104310" y="2504107"/>
+          <a:ext cx="357536" cy="213161"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RF</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2049</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>153024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276934" y="3765197"/>
+          <a:ext cx="648582" cy="176814"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DC48V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7345</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>115765</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41476</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1780460" y="3228007"/>
+          <a:ext cx="357536" cy="213161"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RF</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159727</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>49587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>93596</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2431073" y="3236799"/>
+          <a:ext cx="432100" cy="213161"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="사각형: 둥근 모서리 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8345581" y="437030"/>
+          <a:ext cx="4360769" cy="8890747"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>135934</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>181803</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="사각형: 둥근 모서리 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10946809" y="638005"/>
+          <a:ext cx="102191" cy="2058398"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>CPU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>120x100</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>22971</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12319746" y="639856"/>
+          <a:ext cx="110379" cy="2084294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3624"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>PWR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>190x100</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>16175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>194227</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="그룹 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10628146" y="3217330"/>
+          <a:ext cx="2079885" cy="5067544"/>
+          <a:chOff x="8731550" y="452279"/>
+          <a:chExt cx="2088850" cy="4990223"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="사각형: 둥근 모서리 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8731550" y="452279"/>
+            <a:ext cx="98125" cy="4990223"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 3334"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+              <a:t>RF</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>240x100</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="사각형: 둥근 모서리 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8837998" y="1790699"/>
+            <a:ext cx="1982402" cy="2257425"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1406"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+              <a:t>Heat</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+              <a:t>Sink</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>80x80x110</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="사각형: 둥근 모서리 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8837998" y="1247775"/>
+            <a:ext cx="1982402" cy="533400"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1406"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1"/>
+              <a:t>FAN</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1050" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>80x80x25</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8469,12 +9283,12 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
@@ -8613,12 +9427,12 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="57" t="s">
+      <c r="N10" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="58"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46"/>
+      <c r="O10" s="54"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
     </row>
     <row r="11" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="9" t="s">
@@ -8642,14 +9456,14 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="55" t="s">
+      <c r="N11" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="S11" s="47" t="s">
+      <c r="O11" s="52"/>
+      <c r="S11" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="48"/>
+      <c r="T11" s="44"/>
     </row>
     <row r="12" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="22" t="s">
@@ -8755,10 +9569,10 @@
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="58"/>
+      <c r="J16" s="54"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -8769,10 +9583,10 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="52"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -8828,32 +9642,32 @@
     </row>
     <row r="20" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="57" t="s">
+      <c r="I21" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="58"/>
-      <c r="N21" s="57" t="s">
+      <c r="J21" s="54"/>
+      <c r="N21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="58"/>
-      <c r="S21" s="45" t="s">
+      <c r="O21" s="54"/>
+      <c r="S21" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="46"/>
+      <c r="T21" s="42"/>
     </row>
     <row r="22" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="54"/>
-      <c r="N22" s="53" t="s">
+      <c r="J22" s="50"/>
+      <c r="N22" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="54"/>
-      <c r="S22" s="47" t="s">
+      <c r="O22" s="50"/>
+      <c r="S22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="48"/>
+      <c r="T22" s="44"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I23" s="2">
@@ -8897,32 +9711,32 @@
     </row>
     <row r="25" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I26" s="57" t="s">
+      <c r="I26" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="58"/>
-      <c r="N26" s="57" t="s">
+      <c r="J26" s="54"/>
+      <c r="N26" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="58"/>
-      <c r="S26" s="51" t="s">
+      <c r="O26" s="54"/>
+      <c r="S26" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="52"/>
+      <c r="T26" s="48"/>
     </row>
     <row r="27" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="55" t="s">
+      <c r="I27" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="56"/>
-      <c r="N27" s="55" t="s">
+      <c r="J27" s="52"/>
+      <c r="N27" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="56"/>
-      <c r="S27" s="49" t="s">
+      <c r="O27" s="52"/>
+      <c r="S27" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="50"/>
+      <c r="T27" s="46"/>
     </row>
     <row r="28" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I28" s="2">
@@ -9026,40 +9840,40 @@
     </row>
     <row r="33" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="9:23" x14ac:dyDescent="0.3">
-      <c r="I34" s="57" t="s">
+      <c r="I34" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="58"/>
-      <c r="N34" s="57" t="s">
+      <c r="J34" s="54"/>
+      <c r="N34" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="58"/>
-      <c r="S34" s="51" t="s">
+      <c r="O34" s="54"/>
+      <c r="S34" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="52"/>
-      <c r="V34" s="43" t="s">
+      <c r="T34" s="48"/>
+      <c r="V34" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="44"/>
+      <c r="W34" s="40"/>
     </row>
     <row r="35" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I35" s="55" t="s">
+      <c r="I35" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="56"/>
-      <c r="N35" s="59" t="s">
+      <c r="J35" s="52"/>
+      <c r="N35" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="60"/>
-      <c r="S35" s="53" t="s">
+      <c r="O35" s="56"/>
+      <c r="S35" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="54"/>
-      <c r="V35" s="41" t="s">
+      <c r="T35" s="50"/>
+      <c r="V35" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="42"/>
+      <c r="W35" s="38"/>
     </row>
     <row r="36" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I36" s="2">
@@ -9160,10 +9974,10 @@
       </c>
     </row>
     <row r="40" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="57" t="s">
+      <c r="I40" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="58"/>
+      <c r="J40" s="54"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -9184,10 +9998,10 @@
       </c>
     </row>
     <row r="41" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I41" s="55" t="s">
+      <c r="I41" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="56"/>
+      <c r="J41" s="52"/>
     </row>
     <row r="42" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I42" s="2">
@@ -9196,10 +10010,10 @@
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="57" t="s">
+      <c r="N42" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="58"/>
+      <c r="O42" s="54"/>
     </row>
     <row r="43" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I43" s="9">
@@ -9208,10 +10022,10 @@
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="55" t="s">
+      <c r="N43" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="56"/>
+      <c r="O43" s="52"/>
     </row>
     <row r="44" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N44" s="2">
@@ -9222,10 +10036,10 @@
       </c>
     </row>
     <row r="45" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I45" s="57" t="s">
+      <c r="I45" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="58"/>
+      <c r="J45" s="54"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -9234,10 +10048,10 @@
       </c>
     </row>
     <row r="46" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I46" s="55" t="s">
+      <c r="I46" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="56"/>
+      <c r="J46" s="52"/>
     </row>
     <row r="47" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I47" s="2">
@@ -9246,10 +10060,10 @@
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="57" t="s">
+      <c r="N47" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="58"/>
+      <c r="O47" s="54"/>
     </row>
     <row r="48" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I48" s="9">
@@ -9258,10 +10072,10 @@
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="55" t="s">
+      <c r="N48" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="56"/>
+      <c r="O48" s="52"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.3">
       <c r="N49" s="2">
@@ -9336,8 +10150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9418,38 +10232,38 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="J7" s="57" t="s">
+      <c r="H7" s="54"/>
+      <c r="J7" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="58"/>
-      <c r="P7" s="57" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="54"/>
+      <c r="P7" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="58"/>
-      <c r="U7" s="57" t="s">
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="54"/>
+      <c r="U7" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="58"/>
-      <c r="Y7" s="43" t="s">
+      <c r="V7" s="54"/>
+      <c r="Y7" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="44"/>
-      <c r="AB7" s="51" t="s">
+      <c r="Z7" s="72"/>
+      <c r="AB7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="52"/>
-      <c r="AF7" s="51" t="s">
+      <c r="AC7" s="48"/>
+      <c r="AF7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="52"/>
+      <c r="AG7" s="48"/>
     </row>
     <row r="8" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -9461,38 +10275,38 @@
       <c r="D8" s="26">
         <v>35</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="J8" s="64" t="s">
+      <c r="H8" s="50"/>
+      <c r="J8" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="65"/>
-      <c r="P8" s="64" t="s">
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="61"/>
+      <c r="P8" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="65"/>
-      <c r="U8" s="55" t="s">
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="61"/>
+      <c r="U8" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="56"/>
-      <c r="Y8" s="41" t="s">
+      <c r="V8" s="52"/>
+      <c r="Y8" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="42"/>
-      <c r="AB8" s="53" t="s">
+      <c r="Z8" s="74"/>
+      <c r="AB8" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AC8" s="54"/>
-      <c r="AF8" s="53" t="s">
+      <c r="AC8" s="50"/>
+      <c r="AF8" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="54"/>
+      <c r="AG8" s="50"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -9534,10 +10348,10 @@
       <c r="S9" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="64">
         <v>1</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="V9" s="65" t="s">
         <v>6</v>
       </c>
       <c r="Y9" s="2">
@@ -9595,10 +10409,10 @@
       <c r="S10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="66">
         <v>2</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="V10" s="67" t="s">
         <v>1</v>
       </c>
       <c r="Y10" s="6">
@@ -9650,10 +10464,10 @@
       <c r="S11" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="66">
         <v>3</v>
       </c>
-      <c r="V11" s="8" t="s">
+      <c r="V11" s="67" t="s">
         <v>1</v>
       </c>
       <c r="Y11" s="6">
@@ -9687,10 +10501,10 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="58"/>
+      <c r="H12" s="54"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
@@ -9715,10 +10529,10 @@
       <c r="S12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="66">
         <v>4</v>
       </c>
-      <c r="V12" s="8" t="s">
+      <c r="V12" s="67" t="s">
         <v>1</v>
       </c>
       <c r="Y12" s="6">
@@ -9741,10 +10555,10 @@
       </c>
     </row>
     <row r="13" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="56"/>
+      <c r="H13" s="52"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
@@ -9769,10 +10583,10 @@
       <c r="S13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="69">
         <v>5</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="V13" s="70" t="s">
         <v>1</v>
       </c>
       <c r="Y13" s="9">
@@ -9857,14 +10671,14 @@
       <c r="S15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="U15" s="57" t="s">
+      <c r="U15" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="V15" s="58"/>
-      <c r="Y15" s="57" t="s">
+      <c r="V15" s="54"/>
+      <c r="Y15" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="Z15" s="58"/>
+      <c r="Z15" s="54"/>
     </row>
     <row r="16" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="6">
@@ -9889,14 +10703,14 @@
         <v>16</v>
       </c>
       <c r="S16" s="8"/>
-      <c r="U16" s="55" t="s">
+      <c r="U16" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="V16" s="56"/>
-      <c r="Y16" s="55" t="s">
+      <c r="V16" s="52"/>
+      <c r="Y16" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="56"/>
+      <c r="Z16" s="52"/>
     </row>
     <row r="17" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G17" s="6">
@@ -9929,16 +10743,16 @@
       <c r="S17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U17" s="36">
+      <c r="U17" s="64">
         <v>1</v>
       </c>
-      <c r="V17" s="37" t="s">
+      <c r="V17" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="Y17" s="36">
+      <c r="Y17" s="64">
         <v>1</v>
       </c>
-      <c r="Z17" s="37" t="s">
+      <c r="Z17" s="65" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9973,55 +10787,55 @@
       <c r="S18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U18" s="38">
+      <c r="U18" s="69">
         <v>2</v>
       </c>
-      <c r="V18" s="39" t="s">
+      <c r="V18" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="Y18" s="38">
+      <c r="Y18" s="69">
         <v>2</v>
       </c>
-      <c r="Z18" s="39" t="s">
+      <c r="Z18" s="70" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="L20" s="57" t="s">
+      <c r="H20" s="54"/>
+      <c r="L20" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="58"/>
-      <c r="U20" s="57" t="s">
+      <c r="M20" s="54"/>
+      <c r="U20" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="V20" s="58"/>
-      <c r="Y20" s="57" t="s">
+      <c r="V20" s="54"/>
+      <c r="Y20" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="58"/>
+      <c r="Z20" s="54"/>
     </row>
     <row r="21" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="56"/>
-      <c r="L21" s="55" t="s">
+      <c r="H21" s="52"/>
+      <c r="L21" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="56"/>
-      <c r="U21" s="55" t="s">
+      <c r="M21" s="52"/>
+      <c r="U21" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="V21" s="56"/>
-      <c r="Y21" s="55" t="s">
+      <c r="V21" s="52"/>
+      <c r="Y21" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="56"/>
+      <c r="Z21" s="52"/>
     </row>
     <row r="22" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G22" s="2">
@@ -10036,16 +10850,16 @@
       <c r="M22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="64">
         <v>1</v>
       </c>
-      <c r="V22" s="5" t="s">
+      <c r="V22" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y22" s="64">
         <v>1</v>
       </c>
-      <c r="Z22" s="5" t="s">
+      <c r="Z22" s="65" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10062,16 +10876,16 @@
       <c r="M23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="66">
         <v>2</v>
       </c>
-      <c r="V23" s="8" t="s">
+      <c r="V23" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="Y23" s="66">
         <v>2</v>
       </c>
-      <c r="Z23" s="8" t="s">
+      <c r="Z23" s="67" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10082,64 +10896,64 @@
       <c r="H24" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="66">
         <v>3</v>
       </c>
-      <c r="V24" s="7" t="s">
+      <c r="V24" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y24" s="66">
         <v>3</v>
       </c>
-      <c r="Z24" s="7" t="s">
+      <c r="Z24" s="68" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L25" s="57" t="s">
+      <c r="L25" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="58"/>
-      <c r="U25" s="6">
+      <c r="M25" s="54"/>
+      <c r="U25" s="66">
         <v>4</v>
       </c>
-      <c r="V25" s="8" t="s">
+      <c r="V25" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Y25" s="66">
         <v>4</v>
       </c>
-      <c r="Z25" s="8" t="s">
+      <c r="Z25" s="67" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="58"/>
-      <c r="L26" s="55" t="s">
+      <c r="H26" s="54"/>
+      <c r="L26" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="56"/>
-      <c r="U26" s="9">
+      <c r="M26" s="52"/>
+      <c r="U26" s="69">
         <v>5</v>
       </c>
-      <c r="V26" s="11" t="s">
+      <c r="V26" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="Y26" s="69">
         <v>5</v>
       </c>
-      <c r="Z26" s="11" t="s">
+      <c r="Z26" s="70" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="56"/>
+      <c r="H27" s="52"/>
       <c r="L27" s="2">
         <v>1</v>
       </c>
@@ -10170,26 +10984,26 @@
       </c>
     </row>
     <row r="30" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L30" s="57" t="s">
+      <c r="L30" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="58"/>
+      <c r="M30" s="54"/>
     </row>
     <row r="31" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="L31" s="64" t="s">
+      <c r="H31" s="54"/>
+      <c r="L31" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="65"/>
+      <c r="M31" s="61"/>
     </row>
     <row r="32" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="56"/>
+      <c r="H32" s="52"/>
       <c r="L32" s="2">
         <v>1</v>
       </c>
@@ -10220,34 +11034,34 @@
       </c>
     </row>
     <row r="35" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="57" t="s">
+      <c r="L35" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="M35" s="58"/>
-      <c r="AF35" s="57" t="s">
+      <c r="M35" s="54"/>
+      <c r="AF35" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="AG35" s="58"/>
+      <c r="AG35" s="54"/>
     </row>
     <row r="36" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="57" t="s">
+      <c r="G36" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="58"/>
-      <c r="L36" s="64" t="s">
+      <c r="H36" s="54"/>
+      <c r="L36" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="65"/>
-      <c r="AF36" s="64" t="s">
+      <c r="M36" s="61"/>
+      <c r="AF36" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="AG36" s="65"/>
+      <c r="AG36" s="61"/>
     </row>
     <row r="37" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G37" s="55" t="s">
+      <c r="G37" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="56"/>
+      <c r="H37" s="52"/>
       <c r="L37" s="2">
         <v>1</v>
       </c>
@@ -10290,24 +11104,24 @@
       </c>
     </row>
     <row r="40" spans="7:33" x14ac:dyDescent="0.3">
-      <c r="L40" s="57" t="s">
+      <c r="L40" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="58"/>
-      <c r="AF40" s="57" t="s">
+      <c r="M40" s="54"/>
+      <c r="AF40" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="AG40" s="58"/>
+      <c r="AG40" s="54"/>
     </row>
     <row r="41" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L41" s="64" t="s">
+      <c r="L41" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="M41" s="65"/>
-      <c r="AF41" s="64" t="s">
+      <c r="M41" s="61"/>
+      <c r="AF41" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="AG41" s="65"/>
+      <c r="AG41" s="61"/>
     </row>
     <row r="42" spans="7:33" x14ac:dyDescent="0.3">
       <c r="L42" s="2">
@@ -10339,12 +11153,12 @@
     </row>
     <row r="45" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J46" s="61" t="s">
+      <c r="J46" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="63"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="59"/>
     </row>
     <row r="47" spans="7:33" x14ac:dyDescent="0.3">
       <c r="J47" s="2">
@@ -10359,10 +11173,10 @@
       <c r="M47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y47" s="57" t="s">
+      <c r="Y47" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="Z47" s="58"/>
+      <c r="Z47" s="54"/>
     </row>
     <row r="48" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J48" s="6">
@@ -10377,10 +11191,10 @@
       <c r="M48" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y48" s="64" t="s">
+      <c r="Y48" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="Z48" s="65"/>
+      <c r="Z48" s="61"/>
     </row>
     <row r="49" spans="10:26" x14ac:dyDescent="0.3">
       <c r="J49" s="6">
@@ -11321,24 +12135,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AT44"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AB20:AC20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ22" sqref="AZ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
     <col min="3" max="25" width="3.25" customWidth="1"/>
+    <col min="28" max="28" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="56" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C2" s="34">
         <v>10</v>
       </c>
@@ -11409,38 +12225,110 @@
         <v>230</v>
       </c>
       <c r="Z2" s="33"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC2" s="34">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="34">
+        <v>20</v>
+      </c>
+      <c r="AE2" s="34">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="34">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="34">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="34">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="34">
+        <v>70</v>
+      </c>
+      <c r="AJ2" s="34">
+        <v>80</v>
+      </c>
+      <c r="AK2" s="34">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="34">
+        <v>100</v>
+      </c>
+      <c r="AM2" s="34">
+        <v>110</v>
+      </c>
+      <c r="AN2" s="34">
+        <v>120</v>
+      </c>
+      <c r="AO2" s="34">
+        <v>130</v>
+      </c>
+      <c r="AP2" s="34">
+        <v>140</v>
+      </c>
+      <c r="AQ2" s="34">
+        <v>150</v>
+      </c>
+      <c r="AR2" s="34">
+        <v>160</v>
+      </c>
+      <c r="AS2" s="34">
+        <v>170</v>
+      </c>
+      <c r="AT2" s="34">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B3" s="33">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB3" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B4" s="33">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB4" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B5" s="33">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB5" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B6" s="33">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB6" s="33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB7" s="33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB8" s="33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>70</v>
       </c>
@@ -11450,179 +12338,287 @@
       <c r="AA9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB9" s="33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB10" s="33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B11" s="33">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB11" s="33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B12" s="33">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB12" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B13" s="33">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB13" s="33">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B14" s="33">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB14" s="33">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B15" s="33">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB15" s="33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B16" s="33">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB16" s="33">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="33">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB17" s="33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="33">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB18" s="33">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19" s="33">
         <v>170</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB19" s="33">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="33">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB20" s="33">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21" s="33">
         <v>190</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB21" s="33">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="33">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB22" s="33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23" s="33">
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB23" s="33">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24" s="33">
         <v>220</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB24" s="33">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25" s="33">
         <v>230</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB25" s="33">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="33">
         <v>240</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB26" s="33">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27" s="33">
         <v>250</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB27" s="33">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28" s="33">
         <v>260</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB28" s="33">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29" s="33">
         <v>270</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB29" s="33">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B30" s="33">
         <v>280</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB30" s="33">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31" s="33">
         <v>290</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB31" s="33">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B32" s="33">
         <v>300</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB32" s="33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B33" s="33">
         <v>310</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB33" s="33">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B34" s="33">
         <v>320</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB34" s="33">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B35" s="33">
         <v>330</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB35" s="33">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B36" s="33">
         <v>340</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB36" s="33">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B37" s="33">
         <v>350</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB37" s="33">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B38" s="33">
         <v>360</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB38" s="33">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B39" s="33">
         <v>370</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB39" s="33">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B40" s="33">
         <v>380</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB40" s="33">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B41" s="33">
         <v>390</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB41" s="33">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B42" s="33">
         <v>400</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB42" s="33">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B43" s="33">
         <v>410</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="AB43" s="33">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B44" s="33">
+        <v>420</v>
+      </c>
+      <c r="AB44" s="33">
         <v>420</v>
       </c>
     </row>
@@ -11667,7 +12663,7 @@
       <c r="D9" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="36">
         <f>(E7*E8)^0.5</f>
         <v>122.47448713915891</v>
       </c>
@@ -11679,7 +12675,7 @@
       <c r="D10" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="36">
         <f>(E9/0.707)*2</f>
         <v>346.46248129889369</v>
       </c>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7B08E3-A484-4028-A4FF-24B97A6B15C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="Block3" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -399,7 +400,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -845,6 +846,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,68 +922,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -982,7 +983,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1054,7 +1055,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,7 +1127,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1193,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,7 +1259,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1387,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1492,7 +1493,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1571,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1649,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1744,7 @@
         <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1838,7 +1839,7 @@
         <xdr:cNvPr id="8" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1899,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1959,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2027,7 @@
         <xdr:cNvPr id="16" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2095,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2193,7 @@
         <xdr:cNvPr id="13" name="화살표: 왼쪽/오른쪽 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2253,7 @@
         <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2334,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2402,7 @@
         <xdr:cNvPr id="21" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2470,7 @@
         <xdr:cNvPr id="22" name="화살표: 왼쪽/오른쪽 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2530,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2590,7 @@
         <xdr:cNvPr id="24" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +2669,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2740,7 +2741,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2812,7 +2813,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,7 +2879,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +2945,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3072,7 +3073,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3178,7 +3179,7 @@
         <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3256,7 +3257,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3335,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,7 +3430,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3524,7 +3525,7 @@
         <xdr:cNvPr id="12" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3584,7 +3585,7 @@
         <xdr:cNvPr id="13" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3644,7 +3645,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3712,7 +3713,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3780,7 +3781,7 @@
         <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3878,7 +3879,7 @@
         <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3938,7 +3939,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4019,7 +4020,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4087,7 +4088,7 @@
         <xdr:cNvPr id="21" name="화살표: 왼쪽/오른쪽 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4147,7 +4148,7 @@
         <xdr:cNvPr id="22" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4207,7 +4208,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4281,7 +4282,7 @@
         <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4353,7 +4354,7 @@
         <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4404,22 +4405,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>28302</xdr:colOff>
+      <xdr:colOff>267788</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>153217</xdr:rowOff>
+      <xdr:rowOff>207644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>280037</xdr:colOff>
+      <xdr:colOff>519523</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>3539</xdr:rowOff>
+      <xdr:rowOff>57966</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4427,8 +4428,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11825695" y="4004038"/>
-          <a:ext cx="1381128" cy="693965"/>
+          <a:off x="11991702" y="4235358"/>
+          <a:ext cx="1372964" cy="742951"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4464,7 +4465,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>48V -&gt; 12V</a:t>
+            <a:t>+48V -&gt; +12V</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4482,22 +4483,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>9254</xdr:colOff>
+      <xdr:colOff>259625</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>217170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>260989</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>213087</xdr:rowOff>
+      <xdr:colOff>511360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4505,8 +4506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11806647" y="4835434"/>
-          <a:ext cx="1381128" cy="725260"/>
+          <a:off x="11983539" y="5137513"/>
+          <a:ext cx="1372964" cy="757917"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4542,7 +4543,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>12V -&gt; -12V</a:t>
+            <a:t>+12V -&gt; -12V</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4575,7 +4576,7 @@
         <xdr:cNvPr id="28" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4656,7 +4657,7 @@
         <xdr:cNvPr id="29" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4716,7 +4717,7 @@
         <xdr:cNvPr id="30" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4782,7 +4783,7 @@
         <xdr:cNvPr id="31" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4854,7 +4855,7 @@
         <xdr:cNvPr id="32" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4922,7 +4923,7 @@
         <xdr:cNvPr id="33" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4982,7 +4983,7 @@
         <xdr:cNvPr id="34" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5042,7 +5043,7 @@
         <xdr:cNvPr id="35" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5102,7 +5103,7 @@
         <xdr:cNvPr id="36" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5174,6 +5175,84 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>39187</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>73208</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="모서리가 둥근 직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408B0CD4-0184-4EFF-92F4-78610C9DA6C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10424158" y="5149760"/>
+          <a:ext cx="1372964" cy="742951"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>DC/DC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>+12V -&gt; +9V</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>LM2576HV-12 3A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5202,7 +5281,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5278,7 +5357,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5354,7 +5433,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5427,7 +5506,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5506,7 +5585,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5569,7 +5648,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5641,7 +5720,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5713,7 +5792,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +5871,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5871,7 +5950,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5950,7 +6029,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A77AD8-C8A0-407A-9C9C-3C7E70C7EA64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6031,7 +6110,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6115,7 +6194,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6199,7 +6278,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6280,7 +6359,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6379,7 +6458,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6442,7 +6521,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6529,7 +6608,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6601,7 +6680,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6680,7 +6759,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6759,7 +6838,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6838,7 +6917,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6937,7 +7016,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7029,7 +7108,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7113,7 +7192,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7197,7 +7276,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7278,7 +7357,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE4500D-F764-43EA-820B-86881BB81791}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7377,7 +7456,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7440,7 +7519,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD670-C20F-432B-9F99-791457FDC723}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7527,7 +7606,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12DE4EF-2976-48E0-BC1C-AF49AD3605D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7599,7 +7678,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE372FF0-C4E4-4086-8560-F983F0762A74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7678,7 +7757,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7757,7 +7836,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7836,7 +7915,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62FA63-E115-4216-A3BD-755CDA78680C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7935,7 +8014,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8022,7 +8101,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8101,7 +8180,7 @@
         <xdr:cNvPr id="15" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8180,7 +8259,7 @@
         <xdr:cNvPr id="16" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8259,7 +8338,7 @@
         <xdr:cNvPr id="17" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E22FFC-9E34-486B-9169-705394D54359}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8338,7 +8417,7 @@
         <xdr:cNvPr id="18" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8417,7 +8496,7 @@
         <xdr:cNvPr id="19" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A87BC-2F88-42BD-9493-3EFB5DE32D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8496,7 +8575,7 @@
         <xdr:cNvPr id="20" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1F820-C80B-45BF-8D1C-725C4F73AA81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8559,7 +8638,7 @@
         <xdr:cNvPr id="21" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05A2CB9-E356-4835-9C98-02FC047B45C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8640,7 +8719,7 @@
         <xdr:cNvPr id="22" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C5B1E-CB63-4117-8D00-50BC1A27F7F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8721,13 +8800,19 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="그룹 25"/>
+        <xdr:cNvPr id="26" name="그룹 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10628146" y="3217330"/>
-          <a:ext cx="2079885" cy="5067544"/>
+          <a:off x="10442128" y="3385419"/>
+          <a:ext cx="2044026" cy="5325279"/>
           <a:chOff x="8731550" y="452279"/>
           <a:chExt cx="2088850" cy="4990223"/>
         </a:xfrm>
@@ -8737,7 +8822,7 @@
           <xdr:cNvPr id="23" name="사각형: 둥근 모서리 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF26FDA-60DD-42E9-BEEA-EFF023C1EF3C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8806,7 +8891,7 @@
           <xdr:cNvPr id="24" name="사각형: 둥근 모서리 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8885,7 +8970,7 @@
           <xdr:cNvPr id="25" name="사각형: 둥근 모서리 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F131502-0C5F-4969-9F15-D733E96A040B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9001,7 +9086,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9034,9 +9119,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9069,6 +9171,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9244,36 +9363,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:W72"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="4.625" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
-    <col min="14" max="14" width="4.625" customWidth="1"/>
-    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.59765625" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.69921875" customWidth="1"/>
+    <col min="13" max="13" width="9.8984375" customWidth="1"/>
+    <col min="14" max="14" width="4.59765625" customWidth="1"/>
+    <col min="15" max="15" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
@@ -9283,14 +9402,14 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
-    </row>
-    <row r="5" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46"/>
+    </row>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D5" s="6" t="s">
         <v>56</v>
       </c>
@@ -9313,7 +9432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D6" s="6" t="s">
         <v>57</v>
       </c>
@@ -9336,7 +9455,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D7" s="18" t="s">
         <v>60</v>
       </c>
@@ -9359,7 +9478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
@@ -9382,7 +9501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="6" t="s">
         <v>58</v>
       </c>
@@ -9405,7 +9524,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D10" s="6" t="s">
         <v>61</v>
       </c>
@@ -9427,14 +9546,14 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="53" t="s">
+      <c r="N10" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="54"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="42"/>
-    </row>
-    <row r="11" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O10" s="48"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="60"/>
+    </row>
+    <row r="11" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="9" t="s">
         <v>60</v>
       </c>
@@ -9456,16 +9575,16 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="51" t="s">
+      <c r="N11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="52"/>
-      <c r="S11" s="43" t="s">
+      <c r="O11" s="50"/>
+      <c r="S11" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="44"/>
-    </row>
-    <row r="12" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T11" s="62"/>
+    </row>
+    <row r="12" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D12" s="22" t="s">
         <v>59</v>
       </c>
@@ -9502,7 +9621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:20" x14ac:dyDescent="0.4">
       <c r="I13" s="6">
         <v>17</v>
       </c>
@@ -9528,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I14" s="9">
         <v>19</v>
       </c>
@@ -9554,7 +9673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N15" s="6">
         <v>4</v>
       </c>
@@ -9568,11 +9687,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="53" t="s">
+    <row r="16" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="I16" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="54"/>
+      <c r="J16" s="48"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -9582,11 +9701,11 @@
       </c>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I17" s="51" t="s">
+    <row r="17" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="52"/>
+      <c r="J17" s="50"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -9600,7 +9719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I18" s="2">
         <v>1</v>
       </c>
@@ -9620,7 +9739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I19" s="9">
         <v>2</v>
       </c>
@@ -9640,36 +9759,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="53" t="s">
+    <row r="20" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I21" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="N21" s="53" t="s">
+      <c r="J21" s="48"/>
+      <c r="N21" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="54"/>
-      <c r="S21" s="41" t="s">
+      <c r="O21" s="48"/>
+      <c r="S21" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="42"/>
-    </row>
-    <row r="22" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I22" s="49" t="s">
+      <c r="T21" s="60"/>
+    </row>
+    <row r="22" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="50"/>
-      <c r="N22" s="49" t="s">
+      <c r="J22" s="54"/>
+      <c r="N22" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="50"/>
-      <c r="S22" s="43" t="s">
+      <c r="O22" s="54"/>
+      <c r="S22" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="44"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="T22" s="62"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I23" s="2">
         <v>1</v>
       </c>
@@ -9689,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I24" s="9">
         <v>2</v>
       </c>
@@ -9709,36 +9828,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I26" s="53" t="s">
+    <row r="25" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I26" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="N26" s="53" t="s">
+      <c r="J26" s="48"/>
+      <c r="N26" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="54"/>
-      <c r="S26" s="47" t="s">
+      <c r="O26" s="48"/>
+      <c r="S26" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="48"/>
-    </row>
-    <row r="27" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="51" t="s">
+      <c r="T26" s="66"/>
+    </row>
+    <row r="27" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I27" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="N27" s="51" t="s">
+      <c r="J27" s="50"/>
+      <c r="N27" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="52"/>
-      <c r="S27" s="45" t="s">
+      <c r="O27" s="50"/>
+      <c r="S27" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="46"/>
-    </row>
-    <row r="28" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="T27" s="64"/>
+    </row>
+    <row r="28" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I28" s="2">
         <v>1</v>
       </c>
@@ -9758,7 +9877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="9:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I29" s="6">
         <v>2</v>
       </c>
@@ -9778,7 +9897,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="9:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I30" s="6">
         <v>3</v>
       </c>
@@ -9798,7 +9917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="9:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I31" s="6">
         <v>4</v>
       </c>
@@ -9818,7 +9937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I32" s="9">
         <v>5</v>
       </c>
@@ -9838,44 +9957,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="9:23" x14ac:dyDescent="0.3">
-      <c r="I34" s="53" t="s">
+    <row r="33" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I34" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="54"/>
-      <c r="N34" s="53" t="s">
+      <c r="J34" s="48"/>
+      <c r="N34" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="54"/>
-      <c r="S34" s="47" t="s">
+      <c r="O34" s="48"/>
+      <c r="S34" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="48"/>
-      <c r="V34" s="39" t="s">
+      <c r="T34" s="66"/>
+      <c r="V34" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="40"/>
-    </row>
-    <row r="35" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I35" s="51" t="s">
+      <c r="W34" s="58"/>
+    </row>
+    <row r="35" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I35" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="N35" s="55" t="s">
+      <c r="J35" s="50"/>
+      <c r="N35" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="56"/>
-      <c r="S35" s="49" t="s">
+      <c r="O35" s="52"/>
+      <c r="S35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="50"/>
-      <c r="V35" s="37" t="s">
+      <c r="T35" s="54"/>
+      <c r="V35" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="38"/>
-    </row>
-    <row r="36" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="W35" s="56"/>
+    </row>
+    <row r="36" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I36" s="2">
         <v>1</v>
       </c>
@@ -9901,7 +10020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="9:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I37" s="6">
         <v>2</v>
       </c>
@@ -9927,7 +10046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I38" s="9">
         <v>3</v>
       </c>
@@ -9953,7 +10072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N39" s="6">
         <v>4</v>
       </c>
@@ -9973,11 +10092,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="53" t="s">
+    <row r="40" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I40" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="54"/>
+      <c r="J40" s="48"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -9997,37 +10116,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I41" s="51" t="s">
+    <row r="41" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I41" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="52"/>
-    </row>
-    <row r="42" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="J41" s="50"/>
+    </row>
+    <row r="42" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="53" t="s">
+      <c r="N42" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="54"/>
-    </row>
-    <row r="43" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O42" s="48"/>
+    </row>
+    <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I43" s="9">
         <v>2</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="51" t="s">
+      <c r="N43" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="52"/>
-    </row>
-    <row r="44" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O43" s="50"/>
+    </row>
+    <row r="44" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N44" s="2">
         <v>1</v>
       </c>
@@ -10035,11 +10154,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I45" s="53" t="s">
+    <row r="45" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I45" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="54"/>
+      <c r="J45" s="48"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -10047,37 +10166,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I46" s="51" t="s">
+    <row r="46" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I46" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="52"/>
-    </row>
-    <row r="47" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="J46" s="50"/>
+    </row>
+    <row r="47" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I47" s="2">
         <v>1</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="53" t="s">
+      <c r="N47" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="54"/>
-    </row>
-    <row r="48" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O47" s="48"/>
+    </row>
+    <row r="48" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I48" s="9">
         <v>2</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="51" t="s">
+      <c r="N48" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="52"/>
-    </row>
-    <row r="49" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="O48" s="50"/>
+    </row>
+    <row r="49" spans="11:15" x14ac:dyDescent="0.4">
       <c r="N49" s="2">
         <v>1</v>
       </c>
@@ -10085,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="11:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="11:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N50" s="9">
         <v>2</v>
       </c>
@@ -10093,23 +10212,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
     </row>
-    <row r="72" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="11:12" x14ac:dyDescent="0.4">
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -10122,22 +10250,13 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10147,49 +10266,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AG56"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:Z8"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" customWidth="1"/>
-    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.375" customWidth="1"/>
-    <col min="28" max="28" width="4.25" customWidth="1"/>
-    <col min="32" max="32" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.8984375" customWidth="1"/>
+    <col min="10" max="10" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" customWidth="1"/>
+    <col min="13" max="13" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.3984375" customWidth="1"/>
+    <col min="28" max="28" width="4.19921875" customWidth="1"/>
+    <col min="32" max="32" width="4.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.4">
       <c r="V2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
@@ -10200,7 +10319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>56</v>
       </c>
@@ -10211,7 +10330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>57</v>
       </c>
@@ -10222,7 +10341,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B7" s="18" t="s">
         <v>55</v>
       </c>
@@ -10232,40 +10351,40 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="J7" s="53" t="s">
+      <c r="H7" s="48"/>
+      <c r="J7" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="54"/>
-      <c r="P7" s="53" t="s">
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="48"/>
+      <c r="P7" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="54"/>
-      <c r="U7" s="53" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="48"/>
+      <c r="U7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="54"/>
-      <c r="Y7" s="71" t="s">
+      <c r="V7" s="48"/>
+      <c r="Y7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="72"/>
-      <c r="AB7" s="47" t="s">
+      <c r="Z7" s="70"/>
+      <c r="AB7" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="48"/>
-      <c r="AF7" s="47" t="s">
+      <c r="AC7" s="66"/>
+      <c r="AF7" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="48"/>
-    </row>
-    <row r="8" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AG7" s="66"/>
+    </row>
+    <row r="8" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
@@ -10275,40 +10394,40 @@
       <c r="D8" s="26">
         <v>35</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="J8" s="60" t="s">
+      <c r="H8" s="54"/>
+      <c r="J8" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="61"/>
-      <c r="P8" s="60" t="s">
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="68"/>
+      <c r="P8" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="61"/>
-      <c r="U8" s="51" t="s">
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="68"/>
+      <c r="U8" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="52"/>
-      <c r="Y8" s="73" t="s">
+      <c r="V8" s="50"/>
+      <c r="Y8" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="74"/>
-      <c r="AB8" s="49" t="s">
+      <c r="Z8" s="73"/>
+      <c r="AB8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AC8" s="50"/>
-      <c r="AF8" s="49" t="s">
+      <c r="AC8" s="54"/>
+      <c r="AF8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="50"/>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AG8" s="54"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>58</v>
       </c>
@@ -10348,10 +10467,10 @@
       <c r="S9" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="64">
+      <c r="U9" s="37">
         <v>1</v>
       </c>
-      <c r="V9" s="65" t="s">
+      <c r="V9" s="38" t="s">
         <v>6</v>
       </c>
       <c r="Y9" s="2">
@@ -10373,7 +10492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>61</v>
       </c>
@@ -10409,10 +10528,10 @@
       <c r="S10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="U10" s="66">
+      <c r="U10" s="39">
         <v>2</v>
       </c>
-      <c r="V10" s="67" t="s">
+      <c r="V10" s="40" t="s">
         <v>1</v>
       </c>
       <c r="Y10" s="6">
@@ -10434,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="9" t="s">
         <v>55</v>
       </c>
@@ -10464,10 +10583,10 @@
       <c r="S11" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="66">
+      <c r="U11" s="39">
         <v>3</v>
       </c>
-      <c r="V11" s="67" t="s">
+      <c r="V11" s="40" t="s">
         <v>1</v>
       </c>
       <c r="Y11" s="6">
@@ -10489,7 +10608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="22" t="s">
         <v>59</v>
       </c>
@@ -10501,10 +10620,10 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="54"/>
+      <c r="H12" s="48"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
@@ -10529,10 +10648,10 @@
       <c r="S12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="U12" s="66">
+      <c r="U12" s="39">
         <v>4</v>
       </c>
-      <c r="V12" s="67" t="s">
+      <c r="V12" s="40" t="s">
         <v>1</v>
       </c>
       <c r="Y12" s="6">
@@ -10554,11 +10673,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="51" t="s">
+    <row r="13" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G13" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="52"/>
+      <c r="H13" s="50"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
@@ -10583,10 +10702,10 @@
       <c r="S13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="U13" s="69">
+      <c r="U13" s="42">
         <v>5</v>
       </c>
-      <c r="V13" s="70" t="s">
+      <c r="V13" s="43" t="s">
         <v>1</v>
       </c>
       <c r="Y13" s="9">
@@ -10608,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G14" s="2">
         <v>1</v>
       </c>
@@ -10640,7 +10759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.4">
       <c r="G15" s="6">
         <v>2</v>
       </c>
@@ -10671,16 +10790,16 @@
       <c r="S15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="U15" s="53" t="s">
+      <c r="U15" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="V15" s="54"/>
-      <c r="Y15" s="53" t="s">
+      <c r="V15" s="48"/>
+      <c r="Y15" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Z15" s="54"/>
-    </row>
-    <row r="16" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z15" s="48"/>
+    </row>
+    <row r="16" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G16" s="6">
         <v>3</v>
       </c>
@@ -10703,16 +10822,16 @@
         <v>16</v>
       </c>
       <c r="S16" s="8"/>
-      <c r="U16" s="51" t="s">
+      <c r="U16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V16" s="52"/>
-      <c r="Y16" s="51" t="s">
+      <c r="V16" s="50"/>
+      <c r="Y16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="52"/>
-    </row>
-    <row r="17" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="Z16" s="50"/>
+    </row>
+    <row r="17" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G17" s="6">
         <v>4</v>
       </c>
@@ -10743,20 +10862,20 @@
       <c r="S17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U17" s="64">
+      <c r="U17" s="37">
         <v>1</v>
       </c>
-      <c r="V17" s="65" t="s">
+      <c r="V17" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="Y17" s="64">
+      <c r="Y17" s="37">
         <v>1</v>
       </c>
-      <c r="Z17" s="65" t="s">
+      <c r="Z17" s="38" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G18" s="9">
         <v>5</v>
       </c>
@@ -10787,57 +10906,57 @@
       <c r="S18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U18" s="69">
+      <c r="U18" s="42">
         <v>2</v>
       </c>
-      <c r="V18" s="70" t="s">
+      <c r="V18" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="Y18" s="69">
+      <c r="Y18" s="42">
         <v>2</v>
       </c>
-      <c r="Z18" s="70" t="s">
+      <c r="Z18" s="43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="G20" s="53" t="s">
+    <row r="19" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="7:26" x14ac:dyDescent="0.4">
+      <c r="G20" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="L20" s="53" t="s">
+      <c r="H20" s="48"/>
+      <c r="L20" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="54"/>
-      <c r="U20" s="53" t="s">
+      <c r="M20" s="48"/>
+      <c r="U20" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="V20" s="54"/>
-      <c r="Y20" s="53" t="s">
+      <c r="V20" s="48"/>
+      <c r="Y20" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="54"/>
-    </row>
-    <row r="21" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="51" t="s">
+      <c r="Z20" s="48"/>
+    </row>
+    <row r="21" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G21" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="L21" s="51" t="s">
+      <c r="H21" s="50"/>
+      <c r="L21" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="52"/>
-      <c r="U21" s="51" t="s">
+      <c r="M21" s="50"/>
+      <c r="U21" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="V21" s="52"/>
-      <c r="Y21" s="51" t="s">
+      <c r="V21" s="50"/>
+      <c r="Y21" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="52"/>
-    </row>
-    <row r="22" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="Z21" s="50"/>
+    </row>
+    <row r="22" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G22" s="2">
         <v>1</v>
       </c>
@@ -10850,20 +10969,20 @@
       <c r="M22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U22" s="64">
+      <c r="U22" s="37">
         <v>1</v>
       </c>
-      <c r="V22" s="65" t="s">
+      <c r="V22" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="Y22" s="64">
+      <c r="Y22" s="37">
         <v>1</v>
       </c>
-      <c r="Z22" s="65" t="s">
+      <c r="Z22" s="38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G23" s="6">
         <v>2</v>
       </c>
@@ -10876,84 +10995,84 @@
       <c r="M23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U23" s="66">
+      <c r="U23" s="39">
         <v>2</v>
       </c>
-      <c r="V23" s="67" t="s">
+      <c r="V23" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="Y23" s="66">
+      <c r="Y23" s="39">
         <v>2</v>
       </c>
-      <c r="Z23" s="67" t="s">
+      <c r="Z23" s="40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G24" s="9">
         <v>3</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U24" s="66">
+      <c r="U24" s="39">
         <v>3</v>
       </c>
-      <c r="V24" s="68" t="s">
+      <c r="V24" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="Y24" s="66">
+      <c r="Y24" s="39">
         <v>3</v>
       </c>
-      <c r="Z24" s="68" t="s">
+      <c r="Z24" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L25" s="53" t="s">
+    <row r="25" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L25" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="54"/>
-      <c r="U25" s="66">
+      <c r="M25" s="48"/>
+      <c r="U25" s="39">
         <v>4</v>
       </c>
-      <c r="V25" s="67" t="s">
+      <c r="V25" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Y25" s="66">
+      <c r="Y25" s="39">
         <v>4</v>
       </c>
-      <c r="Z25" s="67" t="s">
+      <c r="Z25" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G26" s="53" t="s">
+    <row r="26" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G26" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="54"/>
-      <c r="L26" s="51" t="s">
+      <c r="H26" s="48"/>
+      <c r="L26" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="52"/>
-      <c r="U26" s="69">
+      <c r="M26" s="50"/>
+      <c r="U26" s="42">
         <v>5</v>
       </c>
-      <c r="V26" s="70" t="s">
+      <c r="V26" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="Y26" s="69">
+      <c r="Y26" s="42">
         <v>5</v>
       </c>
-      <c r="Z26" s="70" t="s">
+      <c r="Z26" s="43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="51" t="s">
+    <row r="27" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G27" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="52"/>
+      <c r="H27" s="50"/>
       <c r="L27" s="2">
         <v>1</v>
       </c>
@@ -10961,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G28" s="2">
         <v>1</v>
       </c>
@@ -10975,7 +11094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G29" s="9">
         <v>2</v>
       </c>
@@ -10983,27 +11102,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L30" s="53" t="s">
+    <row r="30" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L30" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="54"/>
-    </row>
-    <row r="31" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="53" t="s">
+      <c r="M30" s="48"/>
+    </row>
+    <row r="31" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G31" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="L31" s="60" t="s">
+      <c r="H31" s="48"/>
+      <c r="L31" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="61"/>
-    </row>
-    <row r="32" spans="7:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="51" t="s">
+      <c r="M31" s="68"/>
+    </row>
+    <row r="32" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G32" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="52"/>
+      <c r="H32" s="50"/>
       <c r="L32" s="2">
         <v>1</v>
       </c>
@@ -11011,7 +11130,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G33" s="2">
         <v>1</v>
       </c>
@@ -11025,7 +11144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G34" s="9">
         <v>2</v>
       </c>
@@ -11033,35 +11152,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="53" t="s">
+    <row r="35" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L35" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="M35" s="54"/>
-      <c r="AF35" s="53" t="s">
+      <c r="M35" s="48"/>
+      <c r="AF35" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AG35" s="54"/>
-    </row>
-    <row r="36" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="53" t="s">
+      <c r="AG35" s="48"/>
+    </row>
+    <row r="36" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G36" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="54"/>
-      <c r="L36" s="60" t="s">
+      <c r="H36" s="48"/>
+      <c r="L36" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="61"/>
-      <c r="AF36" s="60" t="s">
+      <c r="M36" s="68"/>
+      <c r="AF36" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AG36" s="61"/>
-    </row>
-    <row r="37" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G37" s="51" t="s">
+      <c r="AG36" s="68"/>
+    </row>
+    <row r="37" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G37" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="52"/>
+      <c r="H37" s="50"/>
       <c r="L37" s="2">
         <v>1</v>
       </c>
@@ -11075,7 +11194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G38" s="2">
         <v>1</v>
       </c>
@@ -11095,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G39" s="9">
         <v>2</v>
       </c>
@@ -11103,27 +11222,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="7:33" x14ac:dyDescent="0.3">
-      <c r="L40" s="53" t="s">
+    <row r="40" spans="7:33" x14ac:dyDescent="0.4">
+      <c r="L40" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="54"/>
-      <c r="AF40" s="53" t="s">
+      <c r="M40" s="48"/>
+      <c r="AF40" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AG40" s="54"/>
-    </row>
-    <row r="41" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L41" s="60" t="s">
+      <c r="AG40" s="48"/>
+    </row>
+    <row r="41" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L41" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="M41" s="61"/>
-      <c r="AF41" s="60" t="s">
+      <c r="M41" s="68"/>
+      <c r="AF41" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AG41" s="61"/>
-    </row>
-    <row r="42" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="AG41" s="68"/>
+    </row>
+    <row r="42" spans="7:33" x14ac:dyDescent="0.4">
       <c r="L42" s="2">
         <v>1</v>
       </c>
@@ -11137,7 +11256,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L43" s="9">
         <v>2</v>
       </c>
@@ -11151,16 +11270,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J46" s="57" t="s">
+    <row r="45" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J46" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="59"/>
-    </row>
-    <row r="47" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="46"/>
+    </row>
+    <row r="47" spans="7:33" x14ac:dyDescent="0.4">
       <c r="J47" s="2">
         <v>1</v>
       </c>
@@ -11173,12 +11292,12 @@
       <c r="M47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y47" s="53" t="s">
+      <c r="Y47" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="Z47" s="54"/>
-    </row>
-    <row r="48" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z47" s="48"/>
+    </row>
+    <row r="48" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J48" s="6">
         <v>3</v>
       </c>
@@ -11191,12 +11310,12 @@
       <c r="M48" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y48" s="60" t="s">
+      <c r="Y48" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Z48" s="61"/>
-    </row>
-    <row r="49" spans="10:26" x14ac:dyDescent="0.3">
+      <c r="Z48" s="68"/>
+    </row>
+    <row r="49" spans="10:26" x14ac:dyDescent="0.4">
       <c r="J49" s="6">
         <v>5</v>
       </c>
@@ -11216,7 +11335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="10:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J50" s="6">
         <v>7</v>
       </c>
@@ -11236,7 +11355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="10:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:26" x14ac:dyDescent="0.4">
       <c r="J51" s="6">
         <v>9</v>
       </c>
@@ -11250,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="10:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:26" x14ac:dyDescent="0.4">
       <c r="J52" s="6">
         <v>11</v>
       </c>
@@ -11264,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="10:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:26" x14ac:dyDescent="0.4">
       <c r="J53" s="6">
         <v>13</v>
       </c>
@@ -11278,7 +11397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="10:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="10:26" x14ac:dyDescent="0.4">
       <c r="J54" s="6">
         <v>15</v>
       </c>
@@ -11292,7 +11411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="10:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="10:26" x14ac:dyDescent="0.4">
       <c r="J55" s="6">
         <v>17</v>
       </c>
@@ -11306,7 +11425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="10:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J56" s="9">
         <v>19</v>
       </c>
@@ -11322,6 +11441,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="U20:V20"/>
@@ -11338,39 +11490,6 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11380,25 +11499,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AL34" sqref="AL34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="44" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="44" width="3.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.4">
       <c r="C2" s="34">
         <v>10</v>
       </c>
@@ -11470,57 +11589,57 @@
       </c>
       <c r="Z2" s="33"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B3" s="33">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B4" s="33">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B5" s="33">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B6" s="33">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B7" s="33">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B8" s="33">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B9" s="33">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B10" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B11" s="33">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B12" s="33">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B13" s="33">
         <v>110</v>
       </c>
@@ -11583,7 +11702,7 @@
       </c>
       <c r="AS13" s="34"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B14" s="33">
         <v>120</v>
       </c>
@@ -11591,7 +11710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B15" s="33">
         <v>130</v>
       </c>
@@ -11599,7 +11718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B16" s="33">
         <v>140</v>
       </c>
@@ -11607,7 +11726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B17" s="33">
         <v>150</v>
       </c>
@@ -11615,7 +11734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B18" s="33">
         <v>160</v>
       </c>
@@ -11623,7 +11742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B19" s="33">
         <v>170</v>
       </c>
@@ -11631,7 +11750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B20" s="33">
         <v>180</v>
       </c>
@@ -11639,7 +11758,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B21" s="33">
         <v>190</v>
       </c>
@@ -11647,7 +11766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B22" s="33">
         <v>200</v>
       </c>
@@ -11655,7 +11774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B23" s="33">
         <v>210</v>
       </c>
@@ -11663,7 +11782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B24" s="33">
         <v>220</v>
       </c>
@@ -11671,7 +11790,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B25" s="33">
         <v>230</v>
       </c>
@@ -11679,7 +11798,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B26" s="33">
         <v>240</v>
       </c>
@@ -11687,7 +11806,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B27" s="33">
         <v>250</v>
       </c>
@@ -11695,7 +11814,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B28" s="33">
         <v>260</v>
       </c>
@@ -11703,7 +11822,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B29" s="33">
         <v>270</v>
       </c>
@@ -11711,7 +11830,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B30" s="33">
         <v>280</v>
       </c>
@@ -11719,7 +11838,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B31" s="33">
         <v>290</v>
       </c>
@@ -11727,7 +11846,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B32" s="33">
         <v>300</v>
       </c>
@@ -11735,7 +11854,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B33" s="33">
         <v>310</v>
       </c>
@@ -11743,7 +11862,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B34" s="33">
         <v>320</v>
       </c>
@@ -11751,7 +11870,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B35" s="33">
         <v>330</v>
       </c>
@@ -11759,7 +11878,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B36" s="33">
         <v>340</v>
       </c>
@@ -11767,7 +11886,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B37" s="33">
         <v>350</v>
       </c>
@@ -11775,37 +11894,37 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B38" s="33">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B39" s="33">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B40" s="33">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B41" s="33">
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B42" s="33">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B43" s="33">
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B44" s="33">
         <v>420</v>
       </c>
@@ -11819,25 +11938,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="3.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="C2" s="34">
         <v>10</v>
       </c>
@@ -11909,37 +12028,37 @@
       </c>
       <c r="Z2" s="33"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B3" s="33">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B4" s="33">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B5" s="33">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B6" s="33">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B7" s="33">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B8" s="33">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B9" s="33">
         <v>70</v>
       </c>
@@ -11950,177 +12069,177 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B10" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B11" s="33">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B12" s="33">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B13" s="33">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B14" s="33">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B15" s="33">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B16" s="33">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="33">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="33">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="33">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="33">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="33">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="33">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="33">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="33">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="33">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="33">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="33">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="33">
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="33">
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="33">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="33">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="33">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="33">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="33">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" s="33">
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="33">
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" s="33">
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="33">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="33">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" s="33">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" s="33">
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" s="33">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" s="33">
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" s="33">
         <v>420</v>
       </c>
@@ -12134,27 +12253,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AT44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AZ22" sqref="AZ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="3.25" customWidth="1"/>
-    <col min="28" max="28" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="56" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="3.19921875" customWidth="1"/>
+    <col min="28" max="28" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="56" width="3.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.4">
       <c r="C2" s="34">
         <v>10</v>
       </c>
@@ -12280,7 +12399,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B3" s="33">
         <v>10</v>
       </c>
@@ -12288,7 +12407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B4" s="33">
         <v>20</v>
       </c>
@@ -12296,7 +12415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B5" s="33">
         <v>30</v>
       </c>
@@ -12304,7 +12423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B6" s="33">
         <v>40</v>
       </c>
@@ -12312,7 +12431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B7" s="33">
         <v>50</v>
       </c>
@@ -12320,7 +12439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B8" s="33">
         <v>60</v>
       </c>
@@ -12328,7 +12447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B9" s="33">
         <v>70</v>
       </c>
@@ -12342,7 +12461,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B10" s="33">
         <v>80</v>
       </c>
@@ -12350,7 +12469,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B11" s="33">
         <v>90</v>
       </c>
@@ -12358,7 +12477,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B12" s="33">
         <v>100</v>
       </c>
@@ -12366,7 +12485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B13" s="33">
         <v>110</v>
       </c>
@@ -12374,7 +12493,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B14" s="33">
         <v>120</v>
       </c>
@@ -12382,7 +12501,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B15" s="33">
         <v>130</v>
       </c>
@@ -12390,7 +12509,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B16" s="33">
         <v>140</v>
       </c>
@@ -12398,7 +12517,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B17" s="33">
         <v>150</v>
       </c>
@@ -12406,7 +12525,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B18" s="33">
         <v>160</v>
       </c>
@@ -12414,7 +12533,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B19" s="33">
         <v>170</v>
       </c>
@@ -12422,7 +12541,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B20" s="33">
         <v>180</v>
       </c>
@@ -12430,7 +12549,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B21" s="33">
         <v>190</v>
       </c>
@@ -12438,7 +12557,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B22" s="33">
         <v>200</v>
       </c>
@@ -12446,7 +12565,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B23" s="33">
         <v>210</v>
       </c>
@@ -12454,7 +12573,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B24" s="33">
         <v>220</v>
       </c>
@@ -12462,7 +12581,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B25" s="33">
         <v>230</v>
       </c>
@@ -12470,7 +12589,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B26" s="33">
         <v>240</v>
       </c>
@@ -12478,7 +12597,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B27" s="33">
         <v>250</v>
       </c>
@@ -12486,7 +12605,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B28" s="33">
         <v>260</v>
       </c>
@@ -12494,7 +12613,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B29" s="33">
         <v>270</v>
       </c>
@@ -12502,7 +12621,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B30" s="33">
         <v>280</v>
       </c>
@@ -12510,7 +12629,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B31" s="33">
         <v>290</v>
       </c>
@@ -12518,7 +12637,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B32" s="33">
         <v>300</v>
       </c>
@@ -12526,7 +12645,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B33" s="33">
         <v>310</v>
       </c>
@@ -12534,7 +12653,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B34" s="33">
         <v>320</v>
       </c>
@@ -12542,7 +12661,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B35" s="33">
         <v>330</v>
       </c>
@@ -12550,7 +12669,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B36" s="33">
         <v>340</v>
       </c>
@@ -12558,7 +12677,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B37" s="33">
         <v>350</v>
       </c>
@@ -12566,7 +12685,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B38" s="33">
         <v>360</v>
       </c>
@@ -12574,7 +12693,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B39" s="33">
         <v>370</v>
       </c>
@@ -12582,7 +12701,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B40" s="33">
         <v>380</v>
       </c>
@@ -12590,7 +12709,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B41" s="33">
         <v>390</v>
       </c>
@@ -12598,7 +12717,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B42" s="33">
         <v>400</v>
       </c>
@@ -12606,7 +12725,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B43" s="33">
         <v>410</v>
       </c>
@@ -12614,7 +12733,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B44" s="33">
         <v>420</v>
       </c>
@@ -12631,16 +12750,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>87</v>
       </c>
@@ -12651,7 +12770,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>88</v>
       </c>
@@ -12659,7 +12778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>90</v>
       </c>
@@ -12671,7 +12790,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>91</v>
       </c>
@@ -12686,5 +12805,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7B08E3-A484-4028-A4FF-24B97A6B15C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A86437-B45E-42DB-85FD-4EF34BF6FEFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
-    <sheet name="RFGEN V2.0B" sheetId="4" r:id="rId2"/>
+    <sheet name="RFGEN V2.0_191105" sheetId="4" r:id="rId2"/>
     <sheet name="Block1" sheetId="2" r:id="rId3"/>
     <sheet name="Block2" sheetId="5" r:id="rId4"/>
     <sheet name="Block3" sheetId="6" r:id="rId5"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="97">
   <si>
     <t>+12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +395,18 @@
   </si>
   <si>
     <t>+9V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -853,39 +866,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -922,10 +902,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -937,15 +959,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2871,8 +2890,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2887,8 +2906,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4230462" y="680354"/>
-          <a:ext cx="5059134" cy="8640539"/>
+          <a:off x="4214133" y="718454"/>
+          <a:ext cx="5021035" cy="9318175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3925,14 +3944,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>145597</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>176895</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>32658</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3947,8 +3966,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17383124" y="5527222"/>
-          <a:ext cx="815071" cy="763361"/>
+          <a:off x="17144133" y="5992217"/>
+          <a:ext cx="794289" cy="616403"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4346,8 +4365,8 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4362,8 +4381,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16196312" y="734785"/>
-          <a:ext cx="2948938" cy="6408965"/>
+          <a:off x="16009276" y="787729"/>
+          <a:ext cx="2871995" cy="7206344"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4908,15 +4927,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>122959</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>10884</xdr:rowOff>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>471054</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>96983</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4931,8 +4950,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9182100" y="6706959"/>
-          <a:ext cx="8134350" cy="112941"/>
+          <a:off x="9114559" y="7301346"/>
+          <a:ext cx="6790459" cy="193964"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -5087,16 +5106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>164647</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>213879</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>176895</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>51708</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>24495</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>120981</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5111,8 +5130,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17383124" y="6422572"/>
-          <a:ext cx="815071" cy="763361"/>
+          <a:off x="17975406" y="5055301"/>
+          <a:ext cx="794289" cy="815316"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5252,6 +5271,66 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>LM2576HV-12 3A</a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>310273</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>484912</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>198024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="오른쪽 화살표 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CCC15B-4107-45DA-B241-3883D3CED6A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="18143236" y="6232383"/>
+          <a:ext cx="669078" cy="174639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -9402,12 +9481,12 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D5" s="6" t="s">
@@ -9546,12 +9625,12 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="47" t="s">
+      <c r="N10" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="48"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="60"/>
+      <c r="O10" s="61"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="49"/>
     </row>
     <row r="11" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="9" t="s">
@@ -9575,14 +9654,14 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="49" t="s">
+      <c r="N11" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="50"/>
-      <c r="S11" s="61" t="s">
+      <c r="O11" s="59"/>
+      <c r="S11" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="62"/>
+      <c r="T11" s="51"/>
     </row>
     <row r="12" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D12" s="22" t="s">
@@ -9688,10 +9767,10 @@
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="48"/>
+      <c r="J16" s="61"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -9702,10 +9781,10 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="50"/>
+      <c r="J17" s="59"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -9761,32 +9840,32 @@
     </row>
     <row r="20" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="N21" s="47" t="s">
+      <c r="J21" s="61"/>
+      <c r="N21" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="48"/>
-      <c r="S21" s="59" t="s">
+      <c r="O21" s="61"/>
+      <c r="S21" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="60"/>
+      <c r="T21" s="49"/>
     </row>
     <row r="22" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="54"/>
-      <c r="N22" s="53" t="s">
+      <c r="J22" s="57"/>
+      <c r="N22" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="54"/>
-      <c r="S22" s="61" t="s">
+      <c r="O22" s="57"/>
+      <c r="S22" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="62"/>
+      <c r="T22" s="51"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I23" s="2">
@@ -9830,32 +9909,32 @@
     </row>
     <row r="25" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="48"/>
-      <c r="N26" s="47" t="s">
+      <c r="J26" s="61"/>
+      <c r="N26" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="48"/>
-      <c r="S26" s="65" t="s">
+      <c r="O26" s="61"/>
+      <c r="S26" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="66"/>
+      <c r="T26" s="55"/>
     </row>
     <row r="27" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="50"/>
-      <c r="N27" s="49" t="s">
+      <c r="J27" s="59"/>
+      <c r="N27" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="50"/>
-      <c r="S27" s="63" t="s">
+      <c r="O27" s="59"/>
+      <c r="S27" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="64"/>
+      <c r="T27" s="53"/>
     </row>
     <row r="28" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I28" s="2">
@@ -9959,40 +10038,40 @@
     </row>
     <row r="33" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I34" s="47" t="s">
+      <c r="I34" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="48"/>
-      <c r="N34" s="47" t="s">
+      <c r="J34" s="61"/>
+      <c r="N34" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="48"/>
-      <c r="S34" s="65" t="s">
+      <c r="O34" s="61"/>
+      <c r="S34" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="66"/>
-      <c r="V34" s="57" t="s">
+      <c r="T34" s="55"/>
+      <c r="V34" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="58"/>
+      <c r="W34" s="47"/>
     </row>
     <row r="35" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I35" s="49" t="s">
+      <c r="I35" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="50"/>
-      <c r="N35" s="51" t="s">
+      <c r="J35" s="59"/>
+      <c r="N35" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="52"/>
-      <c r="S35" s="53" t="s">
+      <c r="O35" s="63"/>
+      <c r="S35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="54"/>
-      <c r="V35" s="55" t="s">
+      <c r="T35" s="57"/>
+      <c r="V35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="56"/>
+      <c r="W35" s="45"/>
     </row>
     <row r="36" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I36" s="2">
@@ -10093,10 +10172,10 @@
       </c>
     </row>
     <row r="40" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I40" s="47" t="s">
+      <c r="I40" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="48"/>
+      <c r="J40" s="61"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -10117,10 +10196,10 @@
       </c>
     </row>
     <row r="41" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I41" s="49" t="s">
+      <c r="I41" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="50"/>
+      <c r="J41" s="59"/>
     </row>
     <row r="42" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I42" s="2">
@@ -10129,10 +10208,10 @@
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="47" t="s">
+      <c r="N42" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="48"/>
+      <c r="O42" s="61"/>
     </row>
     <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I43" s="9">
@@ -10141,10 +10220,10 @@
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="49" t="s">
+      <c r="N43" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="50"/>
+      <c r="O43" s="59"/>
     </row>
     <row r="44" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N44" s="2">
@@ -10155,10 +10234,10 @@
       </c>
     </row>
     <row r="45" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I45" s="47" t="s">
+      <c r="I45" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="48"/>
+      <c r="J45" s="61"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -10167,10 +10246,10 @@
       </c>
     </row>
     <row r="46" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I46" s="49" t="s">
+      <c r="I46" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="50"/>
+      <c r="J46" s="59"/>
     </row>
     <row r="47" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I47" s="2">
@@ -10179,10 +10258,10 @@
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="47" t="s">
+      <c r="N47" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="48"/>
+      <c r="O47" s="61"/>
     </row>
     <row r="48" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I48" s="9">
@@ -10191,10 +10270,10 @@
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="49" t="s">
+      <c r="N48" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="50"/>
+      <c r="O48" s="59"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.4">
       <c r="N49" s="2">
@@ -10222,22 +10301,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -10250,13 +10320,22 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10269,8 +10348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10294,6 +10373,7 @@
     <col min="22" max="22" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.3984375" customWidth="1"/>
     <col min="28" max="28" width="4.19921875" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.3984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10351,38 +10431,38 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="J7" s="47" t="s">
+      <c r="H7" s="61"/>
+      <c r="J7" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="48"/>
-      <c r="P7" s="47" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="61"/>
+      <c r="P7" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="48"/>
-      <c r="U7" s="47" t="s">
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="61"/>
+      <c r="U7" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="48"/>
-      <c r="Y7" s="69" t="s">
+      <c r="V7" s="61"/>
+      <c r="Y7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="70"/>
-      <c r="AB7" s="65" t="s">
+      <c r="Z7" s="73"/>
+      <c r="AB7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="66"/>
-      <c r="AF7" s="65" t="s">
+      <c r="AC7" s="55"/>
+      <c r="AF7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="66"/>
+      <c r="AG7" s="55"/>
     </row>
     <row r="8" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
@@ -10394,38 +10474,38 @@
       <c r="D8" s="26">
         <v>35</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="54"/>
+      <c r="H8" s="57"/>
       <c r="J8" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
       <c r="M8" s="68"/>
       <c r="P8" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
       <c r="S8" s="68"/>
-      <c r="U8" s="49" t="s">
+      <c r="U8" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="50"/>
-      <c r="Y8" s="72" t="s">
+      <c r="V8" s="59"/>
+      <c r="Y8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="73"/>
-      <c r="AB8" s="53" t="s">
+      <c r="Z8" s="71"/>
+      <c r="AB8" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AC8" s="54"/>
-      <c r="AF8" s="53" t="s">
+      <c r="AC8" s="57"/>
+      <c r="AF8" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="54"/>
+      <c r="AG8" s="57"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
@@ -10620,10 +10700,10 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="48"/>
+      <c r="H12" s="61"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
@@ -10674,10 +10754,10 @@
       </c>
     </row>
     <row r="13" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="50"/>
+      <c r="H13" s="59"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
@@ -10790,14 +10870,14 @@
       <c r="S15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="U15" s="47" t="s">
+      <c r="U15" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="V15" s="48"/>
-      <c r="Y15" s="47" t="s">
+      <c r="V15" s="61"/>
+      <c r="Y15" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="Z15" s="48"/>
+      <c r="Z15" s="61"/>
     </row>
     <row r="16" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G16" s="6">
@@ -10822,16 +10902,16 @@
         <v>16</v>
       </c>
       <c r="S16" s="8"/>
-      <c r="U16" s="49" t="s">
+      <c r="U16" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="V16" s="50"/>
-      <c r="Y16" s="49" t="s">
+      <c r="V16" s="59"/>
+      <c r="Y16" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="50"/>
-    </row>
-    <row r="17" spans="7:26" x14ac:dyDescent="0.4">
+      <c r="Z16" s="59"/>
+    </row>
+    <row r="17" spans="7:29" x14ac:dyDescent="0.4">
       <c r="G17" s="6">
         <v>4</v>
       </c>
@@ -10875,7 +10955,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G18" s="9">
         <v>5</v>
       </c>
@@ -10919,44 +10999,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="7:26" x14ac:dyDescent="0.4">
-      <c r="G20" s="47" t="s">
+    <row r="19" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="7:29" x14ac:dyDescent="0.4">
+      <c r="G20" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="48"/>
-      <c r="L20" s="47" t="s">
+      <c r="H20" s="61"/>
+      <c r="L20" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="48"/>
-      <c r="U20" s="47" t="s">
+      <c r="M20" s="61"/>
+      <c r="U20" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="V20" s="48"/>
-      <c r="Y20" s="47" t="s">
+      <c r="V20" s="61"/>
+      <c r="Y20" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="48"/>
-    </row>
-    <row r="21" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="49" t="s">
+      <c r="Z20" s="61"/>
+    </row>
+    <row r="21" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G21" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="L21" s="49" t="s">
+      <c r="H21" s="59"/>
+      <c r="L21" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="50"/>
-      <c r="U21" s="49" t="s">
+      <c r="M21" s="59"/>
+      <c r="U21" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="V21" s="50"/>
-      <c r="Y21" s="49" t="s">
+      <c r="V21" s="59"/>
+      <c r="Y21" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="50"/>
-    </row>
-    <row r="22" spans="7:26" x14ac:dyDescent="0.4">
+      <c r="Z21" s="59"/>
+    </row>
+    <row r="22" spans="7:29" x14ac:dyDescent="0.4">
       <c r="G22" s="2">
         <v>1</v>
       </c>
@@ -10982,7 +11062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G23" s="6">
         <v>2</v>
       </c>
@@ -11008,7 +11088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G24" s="9">
         <v>3</v>
       </c>
@@ -11028,11 +11108,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L25" s="47" t="s">
+    <row r="25" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L25" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="48"/>
+      <c r="M25" s="61"/>
       <c r="U25" s="39">
         <v>4</v>
       </c>
@@ -11046,15 +11126,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G26" s="47" t="s">
+    <row r="26" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G26" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="L26" s="49" t="s">
+      <c r="H26" s="61"/>
+      <c r="L26" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="50"/>
+      <c r="M26" s="59"/>
       <c r="U26" s="42">
         <v>5</v>
       </c>
@@ -11068,11 +11148,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G27" s="49" t="s">
+    <row r="27" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G27" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="50"/>
+      <c r="H27" s="59"/>
       <c r="L27" s="2">
         <v>1</v>
       </c>
@@ -11080,7 +11160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G28" s="2">
         <v>1</v>
       </c>
@@ -11094,7 +11174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G29" s="9">
         <v>2</v>
       </c>
@@ -11102,32 +11182,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L30" s="47" t="s">
+    <row r="30" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L30" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="48"/>
-    </row>
-    <row r="31" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G31" s="47" t="s">
+      <c r="M30" s="61"/>
+      <c r="Y30" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z30" s="61"/>
+      <c r="AB30" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC30" s="61"/>
+    </row>
+    <row r="31" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G31" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="L31" s="67" t="s">
+      <c r="H31" s="61"/>
+      <c r="L31" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="68"/>
-    </row>
-    <row r="32" spans="7:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G32" s="49" t="s">
+      <c r="M31" s="59"/>
+      <c r="Y31" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="50"/>
-      <c r="L32" s="2">
+      <c r="Z31" s="59"/>
+      <c r="AB31" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC31" s="59"/>
+    </row>
+    <row r="32" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G32" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="59"/>
+      <c r="L32" s="75">
         <v>1</v>
       </c>
-      <c r="M32" s="35" t="s">
-        <v>80</v>
+      <c r="M32" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="75">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="75">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="76" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -11137,11 +11245,23 @@
       <c r="H33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="77">
         <v>2</v>
       </c>
-      <c r="M33" s="11" t="s">
-        <v>1</v>
+      <c r="M33" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y33" s="77">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB33" s="79">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="80" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -11151,42 +11271,48 @@
       <c r="H34" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="L34" s="79">
+        <v>3</v>
+      </c>
+      <c r="M34" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="79">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="80" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L35" s="47" t="s">
+      <c r="AF35" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG35" s="61"/>
+    </row>
+    <row r="36" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G36" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="61"/>
+      <c r="L36" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="M35" s="48"/>
-      <c r="AF35" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG35" s="48"/>
-    </row>
-    <row r="36" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G36" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="48"/>
-      <c r="L36" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="68"/>
+      <c r="M36" s="61"/>
       <c r="AF36" s="67" t="s">
         <v>21</v>
       </c>
       <c r="AG36" s="68"/>
     </row>
     <row r="37" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="L37" s="2">
-        <v>1</v>
-      </c>
-      <c r="M37" s="35" t="s">
-        <v>84</v>
-      </c>
+      <c r="H37" s="59"/>
+      <c r="L37" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="68"/>
       <c r="AF37" s="2">
         <v>1</v>
       </c>
@@ -11201,11 +11327,11 @@
       <c r="H38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L38" s="9">
-        <v>2</v>
-      </c>
-      <c r="M38" s="11" t="s">
+      <c r="L38" s="2">
         <v>1</v>
+      </c>
+      <c r="M38" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="AF38" s="9">
         <v>2</v>
@@ -11221,34 +11347,34 @@
       <c r="H39" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="7:33" x14ac:dyDescent="0.4">
-      <c r="L40" s="47" t="s">
+      <c r="L39" s="9">
+        <v>2</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF40" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG40" s="61"/>
+    </row>
+    <row r="41" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L41" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="48"/>
-      <c r="AF40" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG40" s="48"/>
-    </row>
-    <row r="41" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L41" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="68"/>
+      <c r="M41" s="61"/>
       <c r="AF41" s="67" t="s">
         <v>21</v>
       </c>
       <c r="AG41" s="68"/>
     </row>
-    <row r="42" spans="7:33" x14ac:dyDescent="0.4">
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-      <c r="M42" s="35" t="s">
-        <v>85</v>
-      </c>
+    <row r="42" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L42" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="68"/>
       <c r="AF42" s="2">
         <v>1</v>
       </c>
@@ -11257,11 +11383,11 @@
       </c>
     </row>
     <row r="43" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L43" s="9">
-        <v>2</v>
-      </c>
-      <c r="M43" s="11" t="s">
+      <c r="L43" s="2">
         <v>1</v>
+      </c>
+      <c r="M43" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="AF43" s="9">
         <v>2</v>
@@ -11270,14 +11396,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L44" s="9">
+        <v>2</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="45" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J46" s="44" t="s">
+      <c r="J46" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="46"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="66"/>
     </row>
     <row r="47" spans="7:33" x14ac:dyDescent="0.4">
       <c r="J47" s="2">
@@ -11292,10 +11426,10 @@
       <c r="M47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y47" s="47" t="s">
+      <c r="Y47" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="Z47" s="48"/>
+      <c r="Z47" s="61"/>
     </row>
     <row r="48" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J48" s="6">
@@ -11440,29 +11574,23 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
+  <mergeCells count="53">
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="U15:V15"/>
@@ -11474,22 +11602,32 @@
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A86437-B45E-42DB-85FD-4EF34BF6FEFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391AC156-EF85-4C3F-BC87-C8770050644B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Block1" sheetId="2" r:id="rId3"/>
     <sheet name="Block2" sheetId="5" r:id="rId4"/>
     <sheet name="Block3" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Block1106" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="113">
   <si>
     <t>+12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +408,70 @@
   </si>
   <si>
     <t>TH-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat Sink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bracket T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF HS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR HS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF FAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR FAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50x50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80x80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -866,6 +931,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -959,12 +1031,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -7420,16 +7486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>242043</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>89643</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57881</xdr:rowOff>
+      <xdr:rowOff>219246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>647285</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>74543</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>494885</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11791</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7444,8 +7510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17244168" y="3829781"/>
-          <a:ext cx="2462642" cy="4207662"/>
+          <a:off x="16297831" y="4253364"/>
+          <a:ext cx="2422301" cy="4499015"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7582,16 +7648,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>614610</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>126286</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>211198</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72497</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>278295</xdr:colOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>547236</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
+      <xdr:rowOff>211741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7606,8 +7672,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16930935" y="4736386"/>
-          <a:ext cx="2406885" cy="3267926"/>
+          <a:off x="16419386" y="5227203"/>
+          <a:ext cx="2353097" cy="3501009"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9117,6 +9183,2930 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>233082</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>216905</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>212036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="사각형: 둥근 모서리 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE3FFA3-CD32-4B6E-AD2D-9106FD917DB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1237129" y="3164542"/>
+          <a:ext cx="2404294" cy="5339847"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>RF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>240x100</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242046</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8FD2A3-BA11-44B5-941B-9E49E9C19577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247886" y="674146"/>
+          <a:ext cx="4643718" cy="2198594"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3624"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>PWR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>190x100</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>26334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2600C0CC-B23E-468F-85E0-895EF1D5A717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948045" y="689274"/>
+          <a:ext cx="2934596" cy="2161268"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>CPU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>120x100</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>107572</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>109403</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11791</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6FD400-8A84-4FE9-A387-B86913778F37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3774137" y="3581011"/>
+          <a:ext cx="2422301" cy="4499015"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>48V SMPS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>203.1x101.6x40.6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>197223</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD919A1F-36AD-47BB-AD95-7C7018E672F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1017046" y="459890"/>
+          <a:ext cx="5062817" cy="9370807"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>157409</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>36638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>90036</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB71F28-042C-421B-8C3B-5A8DFAC09788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3823974" y="4518991"/>
+          <a:ext cx="2353097" cy="3501009"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>12V SMPS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>158x97x38</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>232635</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031223A0-F521-446F-9EF3-769B7CCEBEBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1236682" y="8751793"/>
+          <a:ext cx="2432123" cy="661148"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>FAN</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>80196</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>116347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>230354</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF583544-A03C-479F-91A0-E2E90AD394D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524436" y="2547127"/>
+          <a:ext cx="881678" cy="187361"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HD</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78248</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3937F5-50F5-4F5D-B8CB-1FA7DCA3327E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4497848" y="2529394"/>
+          <a:ext cx="575084" cy="196910"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>48V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12377</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>207066</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A9A120-06BF-4C82-8853-D55D98B83A4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5163497" y="2537773"/>
+          <a:ext cx="438529" cy="221660"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>345842</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>522875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>185531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDAA6CF0-021C-4435-B830-64A1D4407458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13192266" y="4427104"/>
+          <a:ext cx="965927" cy="4499015"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>48V SMPS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>203.1x101.6x40.6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>89005</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>376519</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>140025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0794F4C8-86C1-4F43-8AE7-72F892B22D15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14396676" y="4500188"/>
+          <a:ext cx="959867" cy="3483955"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>12V SMPS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>158x97x38</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142726</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>183798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43962</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>148131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49F9732-3B51-4598-AB90-5646E4040F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1392406" y="2614578"/>
+          <a:ext cx="632756" cy="185313"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DC48V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168331</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243666F5-BF95-447E-AF8E-C83491881238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2459502" y="2591737"/>
+          <a:ext cx="421549" cy="221660"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>82079</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB2106D-CD88-417F-A60F-5F80CFD6D420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2063279" y="2597599"/>
+          <a:ext cx="352261" cy="221660"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RF</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2049</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>153024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED878544-19D6-4C17-9697-DE3305B87584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1251729" y="3909684"/>
+          <a:ext cx="638032" cy="185313"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DC48V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7345</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>115765</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41476</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23AD56CA-73D6-4212-9270-6AE0333494FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1744705" y="3355495"/>
+          <a:ext cx="352260" cy="221661"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RF</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159727</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>49587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>93596</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E2D980-7A79-42A5-9FC7-B6800C44166C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2384767" y="3364287"/>
+          <a:ext cx="421549" cy="221661"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>82924</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>233643</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="사각형: 둥근 모서리 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D952BF9-B7BE-4579-9806-5C2AB8714D33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7998759" y="466165"/>
+          <a:ext cx="4265519" cy="9502588"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>181802</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="사각형: 둥근 모서리 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D2D80C-8313-4703-BBE0-B98D50058FAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10524565" y="681707"/>
+          <a:ext cx="49866" cy="2189507"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>CPU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>120x100</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>238129</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>80684</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC6294D-63D5-4FA9-9A24-8D3077CB3C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11784670" y="683559"/>
+          <a:ext cx="84602" cy="2229970"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3624"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+            <a:t>PWR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>190x100</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>161363</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>27455</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="사각형: 둥근 모서리 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E0DE19-E6B6-4915-8121-61CBE6F60EF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10013575" y="528917"/>
+          <a:ext cx="2044515" cy="2608729"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>98613</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>205180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>233084</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="사각형: 둥근 모서리 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26698AD-06DC-4EFA-A5F6-0E12971F3820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10676966" y="877533"/>
+          <a:ext cx="1102659" cy="610609"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Heat </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sink</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>224121</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="사각형: 둥근 모서리 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBB4D64-C2CE-4AED-BA88-A1F5E16765E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10578354" y="680310"/>
+          <a:ext cx="1192308" cy="126514"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>233085</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="사각형: 둥근 모서리 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06714A05-17BF-4FEC-B7B6-C80E6EDB263E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10587318" y="2715298"/>
+          <a:ext cx="1192308" cy="126514"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>97602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98610</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="사각형: 둥근 모서리 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4D2C82-970D-4336-A997-EA0ED2CEDA8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10165977" y="1890543"/>
+          <a:ext cx="349624" cy="897479"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1"/>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="사각형: 둥근 모서리 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B8DED1-DEC6-48E6-9AE7-906E8C3B9196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10165977" y="716167"/>
+          <a:ext cx="349624" cy="1103668"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1"/>
+            <a:t>FAN</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>143435</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>170403</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161608</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="그룹 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBABC761-D251-4943-BABB-1FFB140199F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14451106" y="5818094"/>
+          <a:ext cx="2044026" cy="5325279"/>
+          <a:chOff x="8731550" y="452279"/>
+          <a:chExt cx="2088850" cy="4990223"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="사각형: 둥근 모서리 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD9F962-0C5E-44B8-8411-DF2F5DB994B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8731550" y="452279"/>
+            <a:ext cx="98125" cy="4990223"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 3334"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+              <a:t>RF</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>240x100</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="사각형: 둥근 모서리 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D5B9EE-51E2-400E-AF77-2497A08E6FF6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8837998" y="1790699"/>
+            <a:ext cx="1982402" cy="2257425"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1406"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+              <a:t>Heat</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+              <a:t>Sink</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>80x80x110</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="사각형: 둥근 모서리 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CF4F39-2C09-44D8-90E5-2492EBF7B844}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8837998" y="1247775"/>
+            <a:ext cx="1982402" cy="533400"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1406"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1"/>
+              <a:t>FAN</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1050" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>80x80x25</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>220880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>233081</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>167336</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="그룹 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE9032E-0350-4648-ADED-3E96F7CCFAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9699812" y="3582645"/>
+          <a:ext cx="2079810" cy="5325279"/>
+          <a:chOff x="9699812" y="3358527"/>
+          <a:chExt cx="2079810" cy="5325279"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="사각형: 둥근 모서리 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F1CF37-F5B2-47FE-A153-8816C01CEA57}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="10776487" y="3358527"/>
+            <a:ext cx="52878" cy="5325279"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 3334"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+              <a:t>RF</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>240x100</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="사각형: 둥근 모서리 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E778B7C-6561-4ED9-A317-A3DDFE92C117}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="10065609" y="4266856"/>
+            <a:ext cx="701002" cy="1784319"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1406"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Heat</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sink</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="사각형: 둥근 모서리 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093A682F-8DCC-4121-8A44-5B0F35C0F39A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="9699812" y="4270188"/>
+            <a:ext cx="367553" cy="1807884"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1406"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>FAN</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="사각형: 둥근 모서리 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6455C44B-4F50-4D6F-9769-8DE2847961DE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10825467" y="4270026"/>
+            <a:ext cx="954155" cy="2623831"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 3334"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1"/>
+              <a:t>RF</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>240x100</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>18490</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="사각형: 둥근 모서리 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{735BB5C0-87CA-41EA-9CA4-DAA5FAE282D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9861176" y="3370729"/>
+          <a:ext cx="2187949" cy="5728447"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>8967</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="사각형: 둥근 모서리 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209B8568-8B98-4997-8D41-E64E7A4B0B54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10847294" y="3593839"/>
+          <a:ext cx="1192308" cy="126514"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>233085</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="사각형: 둥근 모서리 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9848033-02D1-4502-9C0B-4E95EACF8641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10829365" y="8784403"/>
+          <a:ext cx="1192308" cy="126514"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 1406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9481,12 +12471,12 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73"/>
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D5" s="6" t="s">
@@ -9625,12 +12615,12 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="60" t="s">
+      <c r="N10" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="61"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="49"/>
+      <c r="O10" s="68"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="56"/>
     </row>
     <row r="11" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="9" t="s">
@@ -9654,14 +12644,14 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="58" t="s">
+      <c r="N11" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="59"/>
-      <c r="S11" s="50" t="s">
+      <c r="O11" s="66"/>
+      <c r="S11" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="51"/>
+      <c r="T11" s="58"/>
     </row>
     <row r="12" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D12" s="22" t="s">
@@ -9767,10 +12757,10 @@
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="61"/>
+      <c r="J16" s="68"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -9781,10 +12771,10 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="59"/>
+      <c r="J17" s="66"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -9840,32 +12830,32 @@
     </row>
     <row r="20" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="61"/>
-      <c r="N21" s="60" t="s">
+      <c r="J21" s="68"/>
+      <c r="N21" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="61"/>
-      <c r="S21" s="48" t="s">
+      <c r="O21" s="68"/>
+      <c r="S21" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="49"/>
+      <c r="T21" s="56"/>
     </row>
     <row r="22" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I22" s="56" t="s">
+      <c r="I22" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="N22" s="56" t="s">
+      <c r="J22" s="64"/>
+      <c r="N22" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="57"/>
-      <c r="S22" s="50" t="s">
+      <c r="O22" s="64"/>
+      <c r="S22" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="51"/>
+      <c r="T22" s="58"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I23" s="2">
@@ -9909,32 +12899,32 @@
     </row>
     <row r="25" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I26" s="60" t="s">
+      <c r="I26" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="61"/>
-      <c r="N26" s="60" t="s">
+      <c r="J26" s="68"/>
+      <c r="N26" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="61"/>
-      <c r="S26" s="54" t="s">
+      <c r="O26" s="68"/>
+      <c r="S26" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="55"/>
+      <c r="T26" s="62"/>
     </row>
     <row r="27" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="58" t="s">
+      <c r="I27" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="N27" s="58" t="s">
+      <c r="J27" s="66"/>
+      <c r="N27" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="59"/>
-      <c r="S27" s="52" t="s">
+      <c r="O27" s="66"/>
+      <c r="S27" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="53"/>
+      <c r="T27" s="60"/>
     </row>
     <row r="28" spans="9:20" x14ac:dyDescent="0.4">
       <c r="I28" s="2">
@@ -10038,40 +13028,40 @@
     </row>
     <row r="33" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I34" s="60" t="s">
+      <c r="I34" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="61"/>
-      <c r="N34" s="60" t="s">
+      <c r="J34" s="68"/>
+      <c r="N34" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="61"/>
-      <c r="S34" s="54" t="s">
+      <c r="O34" s="68"/>
+      <c r="S34" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="55"/>
-      <c r="V34" s="46" t="s">
+      <c r="T34" s="62"/>
+      <c r="V34" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="47"/>
+      <c r="W34" s="54"/>
     </row>
     <row r="35" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I35" s="58" t="s">
+      <c r="I35" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="59"/>
-      <c r="N35" s="62" t="s">
+      <c r="J35" s="66"/>
+      <c r="N35" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="63"/>
-      <c r="S35" s="56" t="s">
+      <c r="O35" s="70"/>
+      <c r="S35" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="57"/>
-      <c r="V35" s="44" t="s">
+      <c r="T35" s="64"/>
+      <c r="V35" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="45"/>
+      <c r="W35" s="52"/>
     </row>
     <row r="36" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I36" s="2">
@@ -10172,10 +13162,10 @@
       </c>
     </row>
     <row r="40" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I40" s="60" t="s">
+      <c r="I40" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="61"/>
+      <c r="J40" s="68"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -10196,10 +13186,10 @@
       </c>
     </row>
     <row r="41" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I41" s="58" t="s">
+      <c r="I41" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="59"/>
+      <c r="J41" s="66"/>
     </row>
     <row r="42" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I42" s="2">
@@ -10208,10 +13198,10 @@
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="60" t="s">
+      <c r="N42" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="61"/>
+      <c r="O42" s="68"/>
     </row>
     <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I43" s="9">
@@ -10220,10 +13210,10 @@
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="58" t="s">
+      <c r="N43" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="59"/>
+      <c r="O43" s="66"/>
     </row>
     <row r="44" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N44" s="2">
@@ -10234,10 +13224,10 @@
       </c>
     </row>
     <row r="45" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I45" s="60" t="s">
+      <c r="I45" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="61"/>
+      <c r="J45" s="68"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -10246,10 +13236,10 @@
       </c>
     </row>
     <row r="46" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I46" s="58" t="s">
+      <c r="I46" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="59"/>
+      <c r="J46" s="66"/>
     </row>
     <row r="47" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I47" s="2">
@@ -10258,10 +13248,10 @@
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="60" t="s">
+      <c r="N47" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="61"/>
+      <c r="O47" s="68"/>
     </row>
     <row r="48" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I48" s="9">
@@ -10270,10 +13260,10 @@
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="58" t="s">
+      <c r="N48" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="59"/>
+      <c r="O48" s="66"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.4">
       <c r="N49" s="2">
@@ -10348,7 +13338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
@@ -10431,38 +13421,38 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="J7" s="60" t="s">
+      <c r="H7" s="68"/>
+      <c r="J7" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="61"/>
-      <c r="P7" s="60" t="s">
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="68"/>
+      <c r="P7" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="61"/>
-      <c r="U7" s="60" t="s">
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="68"/>
+      <c r="U7" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="61"/>
-      <c r="Y7" s="72" t="s">
+      <c r="V7" s="68"/>
+      <c r="Y7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="73"/>
-      <c r="AB7" s="54" t="s">
+      <c r="Z7" s="80"/>
+      <c r="AB7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="55"/>
-      <c r="AF7" s="54" t="s">
+      <c r="AC7" s="62"/>
+      <c r="AF7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="55"/>
+      <c r="AG7" s="62"/>
     </row>
     <row r="8" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
@@ -10474,38 +13464,38 @@
       <c r="D8" s="26">
         <v>35</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="J8" s="67" t="s">
+      <c r="H8" s="64"/>
+      <c r="J8" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="68"/>
-      <c r="P8" s="67" t="s">
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="75"/>
+      <c r="P8" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="68"/>
-      <c r="U8" s="58" t="s">
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="75"/>
+      <c r="U8" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="59"/>
-      <c r="Y8" s="70" t="s">
+      <c r="V8" s="66"/>
+      <c r="Y8" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="71"/>
-      <c r="AB8" s="56" t="s">
+      <c r="Z8" s="78"/>
+      <c r="AB8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AC8" s="57"/>
-      <c r="AF8" s="56" t="s">
+      <c r="AC8" s="64"/>
+      <c r="AF8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="57"/>
+      <c r="AG8" s="64"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
@@ -10700,10 +13690,10 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="61"/>
+      <c r="H12" s="68"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
@@ -10754,10 +13744,10 @@
       </c>
     </row>
     <row r="13" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="59"/>
+      <c r="H13" s="66"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
@@ -10870,14 +13860,14 @@
       <c r="S15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="U15" s="60" t="s">
+      <c r="U15" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="Y15" s="60" t="s">
+      <c r="V15" s="68"/>
+      <c r="Y15" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="Z15" s="61"/>
+      <c r="Z15" s="68"/>
     </row>
     <row r="16" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G16" s="6">
@@ -10902,14 +13892,14 @@
         <v>16</v>
       </c>
       <c r="S16" s="8"/>
-      <c r="U16" s="58" t="s">
+      <c r="U16" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="V16" s="59"/>
-      <c r="Y16" s="58" t="s">
+      <c r="V16" s="66"/>
+      <c r="Y16" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="59"/>
+      <c r="Z16" s="66"/>
     </row>
     <row r="17" spans="7:29" x14ac:dyDescent="0.4">
       <c r="G17" s="6">
@@ -11001,40 +13991,40 @@
     </row>
     <row r="19" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="20" spans="7:29" x14ac:dyDescent="0.4">
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="61"/>
-      <c r="L20" s="60" t="s">
+      <c r="H20" s="68"/>
+      <c r="L20" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="61"/>
-      <c r="U20" s="60" t="s">
+      <c r="M20" s="68"/>
+      <c r="U20" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="V20" s="61"/>
-      <c r="Y20" s="60" t="s">
+      <c r="V20" s="68"/>
+      <c r="Y20" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="61"/>
+      <c r="Z20" s="68"/>
     </row>
     <row r="21" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="L21" s="58" t="s">
+      <c r="H21" s="66"/>
+      <c r="L21" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="59"/>
-      <c r="U21" s="58" t="s">
+      <c r="M21" s="66"/>
+      <c r="U21" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="V21" s="59"/>
-      <c r="Y21" s="58" t="s">
+      <c r="V21" s="66"/>
+      <c r="Y21" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="59"/>
+      <c r="Z21" s="66"/>
     </row>
     <row r="22" spans="7:29" x14ac:dyDescent="0.4">
       <c r="G22" s="2">
@@ -11109,10 +14099,10 @@
       </c>
     </row>
     <row r="25" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="61"/>
+      <c r="M25" s="68"/>
       <c r="U25" s="39">
         <v>4</v>
       </c>
@@ -11127,14 +14117,14 @@
       </c>
     </row>
     <row r="26" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="L26" s="58" t="s">
+      <c r="H26" s="68"/>
+      <c r="L26" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="59"/>
+      <c r="M26" s="66"/>
       <c r="U26" s="42">
         <v>5</v>
       </c>
@@ -11149,10 +14139,10 @@
       </c>
     </row>
     <row r="27" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="59"/>
+      <c r="H27" s="66"/>
       <c r="L27" s="2">
         <v>1</v>
       </c>
@@ -11183,58 +14173,58 @@
       </c>
     </row>
     <row r="30" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L30" s="60" t="s">
+      <c r="L30" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="61"/>
-      <c r="Y30" s="60" t="s">
+      <c r="M30" s="68"/>
+      <c r="Y30" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="Z30" s="61"/>
-      <c r="AB30" s="60" t="s">
+      <c r="Z30" s="68"/>
+      <c r="AB30" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="AC30" s="61"/>
+      <c r="AC30" s="68"/>
     </row>
     <row r="31" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="61"/>
-      <c r="L31" s="58" t="s">
+      <c r="H31" s="68"/>
+      <c r="L31" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="59"/>
-      <c r="Y31" s="58" t="s">
+      <c r="M31" s="66"/>
+      <c r="Y31" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="Z31" s="59"/>
-      <c r="AB31" s="58" t="s">
+      <c r="Z31" s="66"/>
+      <c r="AB31" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AC31" s="59"/>
+      <c r="AC31" s="66"/>
     </row>
     <row r="32" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G32" s="58" t="s">
+      <c r="G32" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="59"/>
-      <c r="L32" s="75">
+      <c r="H32" s="66"/>
+      <c r="L32" s="44">
         <v>1</v>
       </c>
-      <c r="M32" s="76" t="s">
+      <c r="M32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="Y32" s="75">
+      <c r="Y32" s="44">
         <v>1</v>
       </c>
-      <c r="Z32" s="76" t="s">
+      <c r="Z32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="AB32" s="75">
+      <c r="AB32" s="44">
         <v>1</v>
       </c>
-      <c r="AC32" s="76" t="s">
+      <c r="AC32" s="45" t="s">
         <v>95</v>
       </c>
     </row>
@@ -11245,22 +14235,22 @@
       <c r="H33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="77">
+      <c r="L33" s="46">
         <v>2</v>
       </c>
-      <c r="M33" s="78" t="s">
+      <c r="M33" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="Y33" s="77">
+      <c r="Y33" s="46">
         <v>2</v>
       </c>
-      <c r="Z33" s="78" t="s">
+      <c r="Z33" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AB33" s="79">
+      <c r="AB33" s="48">
         <v>2</v>
       </c>
-      <c r="AC33" s="80" t="s">
+      <c r="AC33" s="49" t="s">
         <v>96</v>
       </c>
     </row>
@@ -11271,48 +14261,48 @@
       <c r="H34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="79">
+      <c r="L34" s="48">
         <v>3</v>
       </c>
-      <c r="M34" s="80" t="s">
+      <c r="M34" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Y34" s="79">
+      <c r="Y34" s="48">
         <v>3</v>
       </c>
-      <c r="Z34" s="80" t="s">
+      <c r="Z34" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AF35" s="60" t="s">
+      <c r="AF35" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="AG35" s="61"/>
+      <c r="AG35" s="68"/>
     </row>
     <row r="36" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G36" s="60" t="s">
+      <c r="G36" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="61"/>
-      <c r="L36" s="60" t="s">
+      <c r="H36" s="68"/>
+      <c r="L36" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="M36" s="61"/>
-      <c r="AF36" s="67" t="s">
+      <c r="M36" s="68"/>
+      <c r="AF36" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AG36" s="68"/>
+      <c r="AG36" s="75"/>
     </row>
     <row r="37" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G37" s="58" t="s">
+      <c r="G37" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="59"/>
-      <c r="L37" s="67" t="s">
+      <c r="H37" s="66"/>
+      <c r="L37" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="M37" s="68"/>
+      <c r="M37" s="75"/>
       <c r="AF37" s="2">
         <v>1</v>
       </c>
@@ -11355,26 +14345,26 @@
       </c>
     </row>
     <row r="40" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AF40" s="60" t="s">
+      <c r="AF40" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="AG40" s="61"/>
+      <c r="AG40" s="68"/>
     </row>
     <row r="41" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L41" s="60" t="s">
+      <c r="L41" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="M41" s="61"/>
-      <c r="AF41" s="67" t="s">
+      <c r="M41" s="68"/>
+      <c r="AF41" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AG41" s="68"/>
+      <c r="AG41" s="75"/>
     </row>
     <row r="42" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L42" s="67" t="s">
+      <c r="L42" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="M42" s="68"/>
+      <c r="M42" s="75"/>
       <c r="AF42" s="2">
         <v>1</v>
       </c>
@@ -11406,12 +14396,12 @@
     </row>
     <row r="45" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J46" s="64" t="s">
+      <c r="J46" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="66"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="73"/>
     </row>
     <row r="47" spans="7:33" x14ac:dyDescent="0.4">
       <c r="J47" s="2">
@@ -11426,10 +14416,10 @@
       <c r="M47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y47" s="60" t="s">
+      <c r="Y47" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="Z47" s="61"/>
+      <c r="Z47" s="68"/>
     </row>
     <row r="48" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J48" s="6">
@@ -11444,10 +14434,10 @@
       <c r="M48" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y48" s="67" t="s">
+      <c r="Y48" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="Z48" s="68"/>
+      <c r="Z48" s="75"/>
     </row>
     <row r="49" spans="10:26" x14ac:dyDescent="0.4">
       <c r="J49" s="6">
@@ -12392,10 +15382,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AT44"/>
+  <dimension ref="A1:AX44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ22" sqref="AZ22"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12403,15 +15393,16 @@
     <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="25" width="3.19921875" customWidth="1"/>
     <col min="28" max="28" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="56" width="3.19921875" customWidth="1"/>
+    <col min="29" max="47" width="3.19921875" customWidth="1"/>
+    <col min="48" max="48" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C2" s="34">
         <v>10</v>
       </c>
@@ -12537,7 +15528,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B3" s="33">
         <v>10</v>
       </c>
@@ -12545,23 +15536,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B4" s="33">
         <v>20</v>
       </c>
       <c r="AB4" s="33">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="AV4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW4">
+        <v>45</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B5" s="33">
         <v>30</v>
       </c>
       <c r="AB5" s="33">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="AV5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW5">
+        <v>50</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B6" s="33">
         <v>40</v>
       </c>
@@ -12569,23 +15578,35 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B7" s="33">
         <v>50</v>
       </c>
       <c r="AB7" s="33">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="AV7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B8" s="33">
         <v>60</v>
       </c>
       <c r="AB8" s="33">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="AV8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B9" s="33">
         <v>70</v>
       </c>
@@ -12598,61 +15619,110 @@
       <c r="AB9" s="33">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="AV9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B10" s="33">
         <v>80</v>
       </c>
       <c r="AB10" s="33">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="AV10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW10">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B11" s="33">
         <v>90</v>
       </c>
       <c r="AB11" s="33">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="AV11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B12" s="33">
         <v>100</v>
       </c>
       <c r="AB12" s="33">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="AV12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B13" s="33">
         <v>110</v>
       </c>
       <c r="AB13" s="33">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="AV13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B14" s="33">
         <v>120</v>
       </c>
       <c r="AB14" s="33">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="AV14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B15" s="33">
         <v>130</v>
       </c>
       <c r="AB15" s="33">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="AV15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B16" s="33">
         <v>140</v>
       </c>
       <c r="AB16" s="33">
         <v>140</v>
+      </c>
+      <c r="AV16" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW16" s="50">
+        <f>SUM(AW7:AW15)</f>
+        <v>94.199999999999989</v>
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.4">
@@ -12888,6 +15958,728 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0E493E-E73D-487A-B239-572961424B67}">
+  <dimension ref="A1:BC44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="3.19921875" customWidth="1"/>
+    <col min="28" max="45" width="3.19921875" customWidth="1"/>
+    <col min="46" max="46" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="3.19921875" customWidth="1"/>
+    <col min="48" max="48" width="10.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="C2" s="34">
+        <v>10</v>
+      </c>
+      <c r="D2" s="34">
+        <v>20</v>
+      </c>
+      <c r="E2" s="34">
+        <v>30</v>
+      </c>
+      <c r="F2" s="34">
+        <v>40</v>
+      </c>
+      <c r="G2" s="34">
+        <v>50</v>
+      </c>
+      <c r="H2" s="34">
+        <v>60</v>
+      </c>
+      <c r="I2" s="34">
+        <v>70</v>
+      </c>
+      <c r="J2" s="34">
+        <v>80</v>
+      </c>
+      <c r="K2" s="34">
+        <v>90</v>
+      </c>
+      <c r="L2" s="34">
+        <v>100</v>
+      </c>
+      <c r="M2" s="34">
+        <v>110</v>
+      </c>
+      <c r="N2" s="34">
+        <v>120</v>
+      </c>
+      <c r="O2" s="34">
+        <v>130</v>
+      </c>
+      <c r="P2" s="34">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="34">
+        <v>150</v>
+      </c>
+      <c r="R2" s="34">
+        <v>160</v>
+      </c>
+      <c r="S2" s="34">
+        <v>170</v>
+      </c>
+      <c r="T2" s="34">
+        <v>180</v>
+      </c>
+      <c r="U2" s="34">
+        <v>190</v>
+      </c>
+      <c r="V2" s="34">
+        <v>200</v>
+      </c>
+      <c r="W2" s="34">
+        <v>210</v>
+      </c>
+      <c r="X2" s="34">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="34">
+        <v>230</v>
+      </c>
+      <c r="Z2" s="33"/>
+      <c r="AB2" s="34">
+        <v>180</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>170</v>
+      </c>
+      <c r="AD2" s="34">
+        <v>160</v>
+      </c>
+      <c r="AE2" s="34">
+        <v>150</v>
+      </c>
+      <c r="AF2" s="34">
+        <v>140</v>
+      </c>
+      <c r="AG2" s="34">
+        <v>130</v>
+      </c>
+      <c r="AH2" s="34">
+        <v>120</v>
+      </c>
+      <c r="AI2" s="34">
+        <v>110</v>
+      </c>
+      <c r="AJ2" s="34">
+        <v>100</v>
+      </c>
+      <c r="AK2" s="34">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="34">
+        <v>80</v>
+      </c>
+      <c r="AM2" s="34">
+        <v>70</v>
+      </c>
+      <c r="AN2" s="34">
+        <v>60</v>
+      </c>
+      <c r="AO2" s="34">
+        <v>50</v>
+      </c>
+      <c r="AP2" s="34">
+        <v>40</v>
+      </c>
+      <c r="AQ2" s="34">
+        <v>30</v>
+      </c>
+      <c r="AR2" s="34">
+        <v>20</v>
+      </c>
+      <c r="AS2" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B3" s="33">
+        <v>10</v>
+      </c>
+      <c r="AT3" s="33">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW3">
+        <v>15</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ3">
+        <v>25</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B4" s="33">
+        <v>20</v>
+      </c>
+      <c r="AT4" s="33">
+        <v>20</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW4">
+        <v>45</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ4">
+        <v>30</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B5" s="33">
+        <v>30</v>
+      </c>
+      <c r="AT5" s="33">
+        <v>30</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW5">
+        <v>50</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B6" s="33">
+        <v>40</v>
+      </c>
+      <c r="AT6" s="33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B7" s="33">
+        <v>50</v>
+      </c>
+      <c r="AT7" s="33">
+        <v>50</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW7">
+        <v>3</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B8" s="33">
+        <v>60</v>
+      </c>
+      <c r="AT8" s="33">
+        <v>60</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW8">
+        <v>5</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ8">
+        <v>3</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B9" s="33">
+        <v>70</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT9" s="33">
+        <v>70</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW9">
+        <v>15</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ9">
+        <v>5</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B10" s="33">
+        <v>80</v>
+      </c>
+      <c r="AT10" s="33">
+        <v>80</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW10">
+        <v>1.6</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ10">
+        <v>80</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B11" s="33">
+        <v>90</v>
+      </c>
+      <c r="AT11" s="33">
+        <v>90</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW11">
+        <v>50</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ11">
+        <v>1.6</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B12" s="33">
+        <v>100</v>
+      </c>
+      <c r="AT12" s="33">
+        <v>100</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW12">
+        <v>1.6</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ12">
+        <v>40</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B13" s="33">
+        <v>110</v>
+      </c>
+      <c r="AT13" s="33">
+        <v>110</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW13">
+        <v>10</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ13">
+        <v>10</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B14" s="33">
+        <v>120</v>
+      </c>
+      <c r="AT14" s="33">
+        <v>120</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW14">
+        <v>3</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ14">
+        <v>3</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B15" s="33">
+        <v>130</v>
+      </c>
+      <c r="AT15" s="33">
+        <v>130</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW15">
+        <v>5</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ15">
+        <v>5</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B16" s="33">
+        <v>140</v>
+      </c>
+      <c r="AT16" s="33">
+        <v>140</v>
+      </c>
+      <c r="AV16" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW16" s="50">
+        <f>SUM(AW7:AW15)</f>
+        <v>94.199999999999989</v>
+      </c>
+      <c r="AY16" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ16" s="50">
+        <f>SUM(AZ7:AZ15)</f>
+        <v>147.6</v>
+      </c>
+      <c r="BA16" s="50"/>
+      <c r="BB16" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC16" s="50">
+        <f>SUM(BC7:BC15)</f>
+        <v>122.6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B17" s="33">
+        <v>150</v>
+      </c>
+      <c r="AT17" s="33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B18" s="33">
+        <v>160</v>
+      </c>
+      <c r="AT18" s="33">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B19" s="33">
+        <v>170</v>
+      </c>
+      <c r="AT19" s="33">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B20" s="33">
+        <v>180</v>
+      </c>
+      <c r="AT20" s="33">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B21" s="33">
+        <v>190</v>
+      </c>
+      <c r="AT21" s="33">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B22" s="33">
+        <v>200</v>
+      </c>
+      <c r="AT22" s="33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B23" s="33">
+        <v>210</v>
+      </c>
+      <c r="AT23" s="33">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B24" s="33">
+        <v>220</v>
+      </c>
+      <c r="AT24" s="33">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B25" s="33">
+        <v>230</v>
+      </c>
+      <c r="AT25" s="33">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B26" s="33">
+        <v>240</v>
+      </c>
+      <c r="AT26" s="33">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B27" s="33">
+        <v>250</v>
+      </c>
+      <c r="AT27" s="33">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B28" s="33">
+        <v>260</v>
+      </c>
+      <c r="AT28" s="33">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B29" s="33">
+        <v>270</v>
+      </c>
+      <c r="AT29" s="33">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B30" s="33">
+        <v>280</v>
+      </c>
+      <c r="AT30" s="33">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B31" s="33">
+        <v>290</v>
+      </c>
+      <c r="AT31" s="33">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B32" s="33">
+        <v>300</v>
+      </c>
+      <c r="AT32" s="33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B33" s="33">
+        <v>310</v>
+      </c>
+      <c r="AT33" s="33">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B34" s="33">
+        <v>320</v>
+      </c>
+      <c r="AT34" s="33">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B35" s="33">
+        <v>330</v>
+      </c>
+      <c r="AT35" s="33">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B36" s="33">
+        <v>340</v>
+      </c>
+      <c r="AT36" s="33">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B37" s="33">
+        <v>350</v>
+      </c>
+      <c r="AT37" s="33">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B38" s="33">
+        <v>360</v>
+      </c>
+      <c r="AT38" s="33">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B39" s="33">
+        <v>370</v>
+      </c>
+      <c r="AT39" s="33">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B40" s="33">
+        <v>380</v>
+      </c>
+      <c r="AT40" s="33">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B41" s="33">
+        <v>390</v>
+      </c>
+      <c r="AT41" s="33">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B42" s="33">
+        <v>400</v>
+      </c>
+      <c r="AT42" s="33">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B43" s="33">
+        <v>410</v>
+      </c>
+      <c r="AT43" s="33">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B44" s="33">
+        <v>420</v>
+      </c>
+      <c r="AT44" s="33">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:F10"/>
   <sheetViews>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391AC156-EF85-4C3F-BC87-C8770050644B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RFGEN V2.0" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <sheet name="Block1106" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="113">
   <si>
     <t>+12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,7 +477,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -938,6 +937,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,52 +1006,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1029,6 +1019,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1068,7 +1067,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1139,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,7 +1211,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1277,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1343,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1471,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1577,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1655,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1733,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1828,7 @@
         <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +1923,7 @@
         <xdr:cNvPr id="8" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1983,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2043,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2111,7 @@
         <xdr:cNvPr id="16" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2179,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2277,7 @@
         <xdr:cNvPr id="13" name="화살표: 왼쪽/오른쪽 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2337,7 @@
         <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2418,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2486,7 @@
         <xdr:cNvPr id="21" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2555,7 +2554,7 @@
         <xdr:cNvPr id="22" name="화살표: 왼쪽/오른쪽 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2614,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2675,7 +2674,7 @@
         <xdr:cNvPr id="24" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2753,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2826,7 +2825,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2898,7 +2897,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +2963,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,7 +3029,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3158,7 +3157,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3263,7 @@
         <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3341,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3419,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3515,7 +3514,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3610,7 +3609,7 @@
         <xdr:cNvPr id="12" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3670,7 +3669,7 @@
         <xdr:cNvPr id="13" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3730,7 +3729,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3798,7 +3797,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3866,7 +3865,7 @@
         <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3964,7 +3963,7 @@
         <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4024,7 +4023,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4105,7 +4104,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4173,7 +4172,7 @@
         <xdr:cNvPr id="21" name="화살표: 왼쪽/오른쪽 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4233,7 +4232,7 @@
         <xdr:cNvPr id="22" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4293,7 +4292,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4367,7 +4366,7 @@
         <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4439,7 +4438,7 @@
         <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4505,7 +4504,7 @@
         <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4583,7 +4582,7 @@
         <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4661,7 +4660,7 @@
         <xdr:cNvPr id="28" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4742,7 +4741,7 @@
         <xdr:cNvPr id="29" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4802,7 +4801,7 @@
         <xdr:cNvPr id="30" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4868,7 +4867,7 @@
         <xdr:cNvPr id="31" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4940,7 +4939,7 @@
         <xdr:cNvPr id="32" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5008,7 +5007,7 @@
         <xdr:cNvPr id="33" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,7 +5067,7 @@
         <xdr:cNvPr id="34" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5128,7 +5127,7 @@
         <xdr:cNvPr id="35" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5188,7 +5187,7 @@
         <xdr:cNvPr id="36" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5283,7 +5282,7 @@
         <xdr:cNvPr id="37" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408B0CD4-0184-4EFF-92F4-78610C9DA6C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{408B0CD4-0184-4EFF-92F4-78610C9DA6C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5361,7 +5360,7 @@
         <xdr:cNvPr id="38" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CCC15B-4107-45DA-B241-3883D3CED6A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2CCC15B-4107-45DA-B241-3883D3CED6A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5426,7 +5425,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5502,7 +5501,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5578,7 +5577,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5651,7 +5650,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5730,7 +5729,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5793,7 +5792,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5865,7 +5864,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5937,7 +5936,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6016,7 +6015,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6095,7 +6094,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6174,7 +6173,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6255,7 +6254,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6339,7 +6338,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6423,7 +6422,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6504,7 +6503,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6603,7 +6602,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6666,7 +6665,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6753,7 +6752,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6825,7 +6824,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6904,7 +6903,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6983,7 +6982,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7062,7 +7061,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7161,7 +7160,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7253,7 +7252,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7337,7 +7336,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7421,7 +7420,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7502,7 +7501,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7601,7 +7600,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7664,7 +7663,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7751,7 +7750,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7823,7 +7822,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7902,7 +7901,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7981,7 +7980,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8060,7 +8059,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8159,7 +8158,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8246,7 +8245,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8325,7 +8324,7 @@
         <xdr:cNvPr id="15" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8404,7 +8403,7 @@
         <xdr:cNvPr id="16" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8483,7 +8482,7 @@
         <xdr:cNvPr id="17" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8562,7 +8561,7 @@
         <xdr:cNvPr id="18" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8641,7 +8640,7 @@
         <xdr:cNvPr id="19" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8720,7 +8719,7 @@
         <xdr:cNvPr id="20" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8783,7 +8782,7 @@
         <xdr:cNvPr id="21" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8864,7 +8863,7 @@
         <xdr:cNvPr id="22" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8948,7 +8947,7 @@
         <xdr:cNvPr id="26" name="그룹 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8967,7 +8966,7 @@
           <xdr:cNvPr id="23" name="사각형: 둥근 모서리 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9036,7 +9035,7 @@
           <xdr:cNvPr id="24" name="사각형: 둥근 모서리 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9115,7 +9114,7 @@
           <xdr:cNvPr id="25" name="사각형: 둥근 모서리 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9208,7 +9207,7 @@
         <xdr:cNvPr id="44" name="사각형: 둥근 모서리 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE3FFA3-CD32-4B6E-AD2D-9106FD917DB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEE3FFA3-CD32-4B6E-AD2D-9106FD917DB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9292,7 +9291,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8FD2A3-BA11-44B5-941B-9E49E9C19577}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D8FD2A3-BA11-44B5-941B-9E49E9C19577}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9376,7 +9375,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2600C0CC-B23E-468F-85E0-895EF1D5A717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2600C0CC-B23E-468F-85E0-895EF1D5A717}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9457,7 +9456,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6FD400-8A84-4FE9-A387-B86913778F37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB6FD400-8A84-4FE9-A387-B86913778F37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9556,7 +9555,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD919A1F-36AD-47BB-AD95-7C7018E672F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD919A1F-36AD-47BB-AD95-7C7018E672F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9619,7 +9618,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB71F28-042C-421B-8C3B-5A8DFAC09788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDB71F28-042C-421B-8C3B-5A8DFAC09788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9706,7 +9705,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031223A0-F521-446F-9EF3-769B7CCEBEBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{031223A0-F521-446F-9EF3-769B7CCEBEBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9778,7 +9777,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF583544-A03C-479F-91A0-E2E90AD394D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF583544-A03C-479F-91A0-E2E90AD394D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9857,7 +9856,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3937F5-50F5-4F5D-B8CB-1FA7DCA3327E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F3937F5-50F5-4F5D-B8CB-1FA7DCA3327E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9936,7 +9935,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A9A120-06BF-4C82-8853-D55D98B83A4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5A9A120-06BF-4C82-8853-D55D98B83A4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10015,7 +10014,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDAA6CF0-021C-4435-B830-64A1D4407458}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDAA6CF0-021C-4435-B830-64A1D4407458}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10114,7 +10113,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0794F4C8-86C1-4F43-8AE7-72F892B22D15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0794F4C8-86C1-4F43-8AE7-72F892B22D15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10201,7 +10200,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49F9732-3B51-4598-AB90-5646E4040F8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49F9732-3B51-4598-AB90-5646E4040F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10280,7 +10279,7 @@
         <xdr:cNvPr id="15" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243666F5-BF95-447E-AF8E-C83491881238}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{243666F5-BF95-447E-AF8E-C83491881238}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10359,7 +10358,7 @@
         <xdr:cNvPr id="16" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB2106D-CD88-417F-A60F-5F80CFD6D420}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AB2106D-CD88-417F-A60F-5F80CFD6D420}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10438,7 +10437,7 @@
         <xdr:cNvPr id="17" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED878544-19D6-4C17-9697-DE3305B87584}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED878544-19D6-4C17-9697-DE3305B87584}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10517,7 +10516,7 @@
         <xdr:cNvPr id="18" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23AD56CA-73D6-4212-9270-6AE0333494FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23AD56CA-73D6-4212-9270-6AE0333494FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10596,7 +10595,7 @@
         <xdr:cNvPr id="19" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E2D980-7A79-42A5-9FC7-B6800C44166C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1E2D980-7A79-42A5-9FC7-B6800C44166C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10675,7 +10674,7 @@
         <xdr:cNvPr id="20" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D952BF9-B7BE-4579-9806-5C2AB8714D33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D952BF9-B7BE-4579-9806-5C2AB8714D33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10738,7 +10737,7 @@
         <xdr:cNvPr id="21" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D2D80C-8313-4703-BBE0-B98D50058FAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60D2D80C-8313-4703-BBE0-B98D50058FAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10822,7 +10821,7 @@
         <xdr:cNvPr id="22" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC6294D-63D5-4FA9-9A24-8D3077CB3C5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEC6294D-63D5-4FA9-9A24-8D3077CB3C5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10906,7 +10905,7 @@
         <xdr:cNvPr id="28" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E0DE19-E6B6-4915-8121-61CBE6F60EF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E0DE19-E6B6-4915-8121-61CBE6F60EF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10969,7 +10968,7 @@
         <xdr:cNvPr id="29" name="사각형: 둥근 모서리 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26698AD-06DC-4EFA-A5F6-0E12971F3820}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B26698AD-06DC-4EFA-A5F6-0E12971F3820}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11054,7 +11053,7 @@
         <xdr:cNvPr id="30" name="사각형: 둥근 모서리 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBB4D64-C2CE-4AED-BA88-A1F5E16765E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EDBB4D64-C2CE-4AED-BA88-A1F5E16765E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11130,7 +11129,7 @@
         <xdr:cNvPr id="31" name="사각형: 둥근 모서리 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06714A05-17BF-4FEC-B7B6-C80E6EDB263E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06714A05-17BF-4FEC-B7B6-C80E6EDB263E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11206,7 +11205,7 @@
         <xdr:cNvPr id="32" name="사각형: 둥근 모서리 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4D2C82-970D-4336-A997-EA0ED2CEDA8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E4D2C82-970D-4336-A997-EA0ED2CEDA8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11276,7 +11275,7 @@
         <xdr:cNvPr id="33" name="사각형: 둥근 모서리 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B8DED1-DEC6-48E6-9AE7-906E8C3B9196}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3B8DED1-DEC6-48E6-9AE7-906E8C3B9196}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11346,7 +11345,7 @@
         <xdr:cNvPr id="34" name="그룹 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBABC761-D251-4943-BABB-1FFB140199F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBABC761-D251-4943-BABB-1FFB140199F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11354,8 +11353,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14451106" y="5818094"/>
-          <a:ext cx="2044026" cy="5325279"/>
+          <a:off x="14699876" y="5528422"/>
+          <a:ext cx="2077645" cy="5065862"/>
           <a:chOff x="8731550" y="452279"/>
           <a:chExt cx="2088850" cy="4990223"/>
         </a:xfrm>
@@ -11365,7 +11364,7 @@
           <xdr:cNvPr id="35" name="사각형: 둥근 모서리 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD9F962-0C5E-44B8-8411-DF2F5DB994B8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FD9F962-0C5E-44B8-8411-DF2F5DB994B8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11434,7 +11433,7 @@
           <xdr:cNvPr id="36" name="사각형: 둥근 모서리 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D5B9EE-51E2-400E-AF77-2497A08E6FF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8D5B9EE-51E2-400E-AF77-2497A08E6FF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11513,7 +11512,7 @@
           <xdr:cNvPr id="37" name="사각형: 둥근 모서리 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CF4F39-2C09-44D8-90E5-2492EBF7B844}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58CF4F39-2C09-44D8-90E5-2492EBF7B844}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11588,7 +11587,7 @@
       <xdr:col>34</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>220880</xdr:rowOff>
+      <xdr:rowOff>211355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
@@ -11601,7 +11600,7 @@
         <xdr:cNvPr id="40" name="그룹 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE9032E-0350-4648-ADED-3E96F7CCFAFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EE9032E-0350-4648-ADED-3E96F7CCFAFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11609,8 +11608,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9699812" y="3582645"/>
-          <a:ext cx="2079810" cy="5325279"/>
+          <a:off x="9872382" y="3405031"/>
+          <a:ext cx="2115670" cy="5065864"/>
           <a:chOff x="9699812" y="3358527"/>
           <a:chExt cx="2079810" cy="5325279"/>
         </a:xfrm>
@@ -11620,7 +11619,7 @@
           <xdr:cNvPr id="24" name="사각형: 둥근 모서리 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F1CF37-F5B2-47FE-A153-8816C01CEA57}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03F1CF37-F5B2-47FE-A153-8816C01CEA57}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11689,7 +11688,7 @@
           <xdr:cNvPr id="25" name="사각형: 둥근 모서리 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E778B7C-6561-4ED9-A317-A3DDFE92C117}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E778B7C-6561-4ED9-A317-A3DDFE92C117}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11765,7 +11764,7 @@
           <xdr:cNvPr id="26" name="사각형: 둥근 모서리 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093A682F-8DCC-4121-8A44-5B0F35C0F39A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{093A682F-8DCC-4121-8A44-5B0F35C0F39A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11827,7 +11826,7 @@
           <xdr:cNvPr id="39" name="사각형: 둥근 모서리 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6455C44B-4F50-4D6F-9769-8DE2847961DE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6455C44B-4F50-4D6F-9769-8DE2847961DE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11897,13 +11896,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>8964</xdr:colOff>
+      <xdr:colOff>134470</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>8964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>18490</xdr:colOff>
+      <xdr:colOff>18489</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
@@ -11912,7 +11911,7 @@
         <xdr:cNvPr id="41" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{735BB5C0-87CA-41EA-9CA4-DAA5FAE282D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{735BB5C0-87CA-41EA-9CA4-DAA5FAE282D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11920,8 +11919,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9861176" y="3370729"/>
-          <a:ext cx="2187949" cy="5728447"/>
+          <a:off x="10163735" y="3202640"/>
+          <a:ext cx="2102783" cy="5448301"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11975,7 +11974,7 @@
         <xdr:cNvPr id="42" name="사각형: 둥근 모서리 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209B8568-8B98-4997-8D41-E64E7A4B0B54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{209B8568-8B98-4997-8D41-E64E7A4B0B54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12051,7 +12050,7 @@
         <xdr:cNvPr id="43" name="사각형: 둥근 모서리 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9848033-02D1-4502-9C0B-4E95EACF8641}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9848033-02D1-4502-9C0B-4E95EACF8641}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12155,7 +12154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12188,26 +12187,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12240,23 +12222,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12432,36 +12397,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:W72"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="4.59765625" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.625" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.59765625" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.69921875" customWidth="1"/>
-    <col min="13" max="13" width="9.8984375" customWidth="1"/>
-    <col min="14" max="14" width="4.59765625" customWidth="1"/>
-    <col min="15" max="15" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
@@ -12471,14 +12436,14 @@
       <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73"/>
-    </row>
-    <row r="5" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
+    </row>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
         <v>56</v>
       </c>
@@ -12501,7 +12466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
         <v>57</v>
       </c>
@@ -12524,7 +12489,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D7" s="18" t="s">
         <v>60</v>
       </c>
@@ -12547,7 +12512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
@@ -12570,7 +12535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="6" t="s">
         <v>58</v>
       </c>
@@ -12593,7 +12558,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
         <v>61</v>
       </c>
@@ -12615,14 +12580,14 @@
       <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="68"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="56"/>
-    </row>
-    <row r="11" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O10" s="55"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="67"/>
+    </row>
+    <row r="11" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="9" t="s">
         <v>60</v>
       </c>
@@ -12644,16 +12609,16 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="65" t="s">
+      <c r="N11" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="66"/>
-      <c r="S11" s="57" t="s">
+      <c r="O11" s="57"/>
+      <c r="S11" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="58"/>
-    </row>
-    <row r="12" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T11" s="69"/>
+    </row>
+    <row r="12" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="22" t="s">
         <v>59</v>
       </c>
@@ -12690,7 +12655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:20" x14ac:dyDescent="0.3">
       <c r="I13" s="6">
         <v>17</v>
       </c>
@@ -12716,7 +12681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I14" s="9">
         <v>19</v>
       </c>
@@ -12742,7 +12707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="4:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N15" s="6">
         <v>4</v>
       </c>
@@ -12756,11 +12721,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="I16" s="67" t="s">
+    <row r="16" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="I16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="68"/>
+      <c r="J16" s="55"/>
       <c r="N16" s="16">
         <v>5</v>
       </c>
@@ -12770,11 +12735,11 @@
       </c>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I17" s="65" t="s">
+    <row r="17" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="66"/>
+      <c r="J17" s="57"/>
       <c r="N17" s="6">
         <v>6</v>
       </c>
@@ -12788,7 +12753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I18" s="2">
         <v>1</v>
       </c>
@@ -12808,7 +12773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I19" s="9">
         <v>2</v>
       </c>
@@ -12828,36 +12793,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I21" s="67" t="s">
+    <row r="20" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I21" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="68"/>
-      <c r="N21" s="67" t="s">
+      <c r="J21" s="55"/>
+      <c r="N21" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="68"/>
-      <c r="S21" s="55" t="s">
+      <c r="O21" s="55"/>
+      <c r="S21" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="56"/>
-    </row>
-    <row r="22" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I22" s="63" t="s">
+      <c r="T21" s="67"/>
+    </row>
+    <row r="22" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="64"/>
-      <c r="N22" s="63" t="s">
+      <c r="J22" s="61"/>
+      <c r="N22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="64"/>
-      <c r="S22" s="57" t="s">
+      <c r="O22" s="61"/>
+      <c r="S22" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="58"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="T22" s="69"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I23" s="2">
         <v>1</v>
       </c>
@@ -12877,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="9">
         <v>2</v>
       </c>
@@ -12897,36 +12862,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I26" s="67" t="s">
+    <row r="25" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I26" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="68"/>
-      <c r="N26" s="67" t="s">
+      <c r="J26" s="55"/>
+      <c r="N26" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="68"/>
-      <c r="S26" s="61" t="s">
+      <c r="O26" s="55"/>
+      <c r="S26" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="62"/>
-    </row>
-    <row r="27" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="65" t="s">
+      <c r="T26" s="73"/>
+    </row>
+    <row r="27" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="66"/>
-      <c r="N27" s="65" t="s">
+      <c r="J27" s="57"/>
+      <c r="N27" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="66"/>
-      <c r="S27" s="59" t="s">
+      <c r="O27" s="57"/>
+      <c r="S27" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="60"/>
-    </row>
-    <row r="28" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="T27" s="71"/>
+    </row>
+    <row r="28" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I28" s="2">
         <v>1</v>
       </c>
@@ -12946,7 +12911,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I29" s="6">
         <v>2</v>
       </c>
@@ -12966,7 +12931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I30" s="6">
         <v>3</v>
       </c>
@@ -12986,7 +12951,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I31" s="6">
         <v>4</v>
       </c>
@@ -13006,7 +12971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="9:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="9:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I32" s="9">
         <v>5</v>
       </c>
@@ -13026,44 +12991,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I34" s="67" t="s">
+    <row r="33" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I34" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="68"/>
-      <c r="N34" s="67" t="s">
+      <c r="J34" s="55"/>
+      <c r="N34" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="68"/>
-      <c r="S34" s="61" t="s">
+      <c r="O34" s="55"/>
+      <c r="S34" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="62"/>
-      <c r="V34" s="53" t="s">
+      <c r="T34" s="73"/>
+      <c r="V34" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="54"/>
-    </row>
-    <row r="35" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I35" s="65" t="s">
+      <c r="W34" s="65"/>
+    </row>
+    <row r="35" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="66"/>
-      <c r="N35" s="69" t="s">
+      <c r="J35" s="57"/>
+      <c r="N35" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="70"/>
-      <c r="S35" s="63" t="s">
+      <c r="O35" s="59"/>
+      <c r="S35" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="64"/>
-      <c r="V35" s="51" t="s">
+      <c r="T35" s="61"/>
+      <c r="V35" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="52"/>
-    </row>
-    <row r="36" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="W35" s="63"/>
+    </row>
+    <row r="36" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I36" s="2">
         <v>1</v>
       </c>
@@ -13089,7 +13054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="9:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I37" s="6">
         <v>2</v>
       </c>
@@ -13115,7 +13080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I38" s="9">
         <v>3</v>
       </c>
@@ -13141,7 +13106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N39" s="6">
         <v>4</v>
       </c>
@@ -13161,11 +13126,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I40" s="67" t="s">
+    <row r="40" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I40" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="68"/>
+      <c r="J40" s="55"/>
       <c r="N40" s="9">
         <v>5</v>
       </c>
@@ -13185,37 +13150,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I41" s="65" t="s">
+    <row r="41" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I41" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="66"/>
-    </row>
-    <row r="42" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="J41" s="57"/>
+    </row>
+    <row r="42" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="67" t="s">
+      <c r="N42" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="68"/>
-    </row>
-    <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O42" s="55"/>
+    </row>
+    <row r="43" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I43" s="9">
         <v>2</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="65" t="s">
+      <c r="N43" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="66"/>
-    </row>
-    <row r="44" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O43" s="57"/>
+    </row>
+    <row r="44" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N44" s="2">
         <v>1</v>
       </c>
@@ -13223,11 +13188,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I45" s="67" t="s">
+    <row r="45" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I45" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="68"/>
+      <c r="J45" s="55"/>
       <c r="N45" s="9">
         <v>2</v>
       </c>
@@ -13235,37 +13200,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I46" s="65" t="s">
+    <row r="46" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I46" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="66"/>
-    </row>
-    <row r="47" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="J46" s="57"/>
+    </row>
+    <row r="47" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I47" s="2">
         <v>1</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="67" t="s">
+      <c r="N47" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="68"/>
-    </row>
-    <row r="48" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O47" s="55"/>
+    </row>
+    <row r="48" spans="9:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I48" s="9">
         <v>2</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="65" t="s">
+      <c r="N48" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="66"/>
-    </row>
-    <row r="49" spans="11:15" x14ac:dyDescent="0.4">
+      <c r="O48" s="57"/>
+    </row>
+    <row r="49" spans="11:15" x14ac:dyDescent="0.3">
       <c r="N49" s="2">
         <v>1</v>
       </c>
@@ -13273,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="11:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="11:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N50" s="9">
         <v>2</v>
       </c>
@@ -13281,23 +13246,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="11:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
     </row>
-    <row r="72" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="N34:O34"/>
@@ -13310,22 +13284,13 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13335,50 +13300,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG56"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.8984375" customWidth="1"/>
-    <col min="10" max="10" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" customWidth="1"/>
-    <col min="13" max="13" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.3984375" customWidth="1"/>
-    <col min="28" max="28" width="4.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.375" customWidth="1"/>
+    <col min="28" max="28" width="4.25" customWidth="1"/>
     <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.3984375" customWidth="1"/>
+    <col min="32" max="32" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="V2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
@@ -13389,7 +13354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>56</v>
       </c>
@@ -13400,7 +13365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>57</v>
       </c>
@@ -13411,7 +13376,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>55</v>
       </c>
@@ -13421,40 +13386,40 @@
       <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="J7" s="67" t="s">
+      <c r="H7" s="55"/>
+      <c r="J7" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="68"/>
-      <c r="P7" s="67" t="s">
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="55"/>
+      <c r="P7" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="68"/>
-      <c r="U7" s="67" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="55"/>
+      <c r="U7" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="68"/>
-      <c r="Y7" s="79" t="s">
+      <c r="V7" s="55"/>
+      <c r="Y7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="80"/>
-      <c r="AB7" s="61" t="s">
+      <c r="Z7" s="77"/>
+      <c r="AB7" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="62"/>
-      <c r="AF7" s="61" t="s">
+      <c r="AC7" s="73"/>
+      <c r="AF7" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="62"/>
-    </row>
-    <row r="8" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AG7" s="73"/>
+    </row>
+    <row r="8" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
@@ -13464,40 +13429,40 @@
       <c r="D8" s="26">
         <v>35</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="64"/>
+      <c r="H8" s="61"/>
       <c r="J8" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
       <c r="M8" s="75"/>
       <c r="P8" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
       <c r="S8" s="75"/>
-      <c r="U8" s="65" t="s">
+      <c r="U8" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="66"/>
-      <c r="Y8" s="77" t="s">
+      <c r="V8" s="57"/>
+      <c r="Y8" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="78"/>
-      <c r="AB8" s="63" t="s">
+      <c r="Z8" s="80"/>
+      <c r="AB8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AC8" s="64"/>
-      <c r="AF8" s="63" t="s">
+      <c r="AC8" s="61"/>
+      <c r="AF8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="64"/>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="AG8" s="61"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>58</v>
       </c>
@@ -13562,7 +13527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>61</v>
       </c>
@@ -13623,7 +13588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>55</v>
       </c>
@@ -13678,7 +13643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
         <v>59</v>
       </c>
@@ -13690,10 +13655,10 @@
         <f>SUM(D4:D11)</f>
         <v>150.19999999999999</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="68"/>
+      <c r="H12" s="55"/>
       <c r="J12" s="6">
         <v>7</v>
       </c>
@@ -13743,11 +13708,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G13" s="65" t="s">
+    <row r="13" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="66"/>
+      <c r="H13" s="57"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
@@ -13797,7 +13762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="2">
         <v>1</v>
       </c>
@@ -13829,7 +13794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="G15" s="6">
         <v>2</v>
       </c>
@@ -13860,16 +13825,16 @@
       <c r="S15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="U15" s="67" t="s">
+      <c r="U15" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="V15" s="68"/>
-      <c r="Y15" s="67" t="s">
+      <c r="V15" s="55"/>
+      <c r="Y15" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="Z15" s="68"/>
-    </row>
-    <row r="16" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Z15" s="55"/>
+    </row>
+    <row r="16" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="6">
         <v>3</v>
       </c>
@@ -13892,16 +13857,16 @@
         <v>16</v>
       </c>
       <c r="S16" s="8"/>
-      <c r="U16" s="65" t="s">
+      <c r="U16" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="V16" s="66"/>
-      <c r="Y16" s="65" t="s">
+      <c r="V16" s="57"/>
+      <c r="Y16" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="66"/>
-    </row>
-    <row r="17" spans="7:29" x14ac:dyDescent="0.4">
+      <c r="Z16" s="57"/>
+    </row>
+    <row r="17" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G17" s="6">
         <v>4</v>
       </c>
@@ -13945,7 +13910,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="9">
         <v>5</v>
       </c>
@@ -13989,44 +13954,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="7:29" x14ac:dyDescent="0.4">
-      <c r="G20" s="67" t="s">
+    <row r="19" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G20" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="68"/>
-      <c r="L20" s="67" t="s">
+      <c r="H20" s="55"/>
+      <c r="L20" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="68"/>
-      <c r="U20" s="67" t="s">
+      <c r="M20" s="55"/>
+      <c r="U20" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="V20" s="68"/>
-      <c r="Y20" s="67" t="s">
+      <c r="V20" s="55"/>
+      <c r="Y20" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="68"/>
-    </row>
-    <row r="21" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="65" t="s">
+      <c r="Z20" s="55"/>
+    </row>
+    <row r="21" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="L21" s="65" t="s">
+      <c r="H21" s="57"/>
+      <c r="L21" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="66"/>
-      <c r="U21" s="65" t="s">
+      <c r="M21" s="57"/>
+      <c r="U21" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="V21" s="66"/>
-      <c r="Y21" s="65" t="s">
+      <c r="V21" s="57"/>
+      <c r="Y21" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="66"/>
-    </row>
-    <row r="22" spans="7:29" x14ac:dyDescent="0.4">
+      <c r="Z21" s="57"/>
+    </row>
+    <row r="22" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G22" s="2">
         <v>1</v>
       </c>
@@ -14052,7 +14017,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="6">
         <v>2</v>
       </c>
@@ -14078,7 +14043,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="9">
         <v>3</v>
       </c>
@@ -14098,11 +14063,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L25" s="67" t="s">
+    <row r="25" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="68"/>
+      <c r="M25" s="55"/>
       <c r="U25" s="39">
         <v>4</v>
       </c>
@@ -14116,15 +14081,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G26" s="67" t="s">
+    <row r="26" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="68"/>
-      <c r="L26" s="65" t="s">
+      <c r="H26" s="55"/>
+      <c r="L26" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="66"/>
+      <c r="M26" s="57"/>
       <c r="U26" s="42">
         <v>5</v>
       </c>
@@ -14138,11 +14103,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G27" s="65" t="s">
+    <row r="27" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="66"/>
+      <c r="H27" s="57"/>
       <c r="L27" s="2">
         <v>1</v>
       </c>
@@ -14150,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G28" s="2">
         <v>1</v>
       </c>
@@ -14164,7 +14129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G29" s="9">
         <v>2</v>
       </c>
@@ -14172,43 +14137,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L30" s="67" t="s">
+    <row r="30" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L30" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="68"/>
-      <c r="Y30" s="67" t="s">
+      <c r="M30" s="55"/>
+      <c r="Y30" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="Z30" s="68"/>
-      <c r="AB30" s="67" t="s">
+      <c r="Z30" s="55"/>
+      <c r="AB30" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="AC30" s="68"/>
-    </row>
-    <row r="31" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G31" s="67" t="s">
+      <c r="AC30" s="55"/>
+    </row>
+    <row r="31" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="68"/>
-      <c r="L31" s="65" t="s">
+      <c r="H31" s="55"/>
+      <c r="L31" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="66"/>
-      <c r="Y31" s="65" t="s">
+      <c r="M31" s="57"/>
+      <c r="Y31" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="Z31" s="66"/>
-      <c r="AB31" s="65" t="s">
+      <c r="Z31" s="57"/>
+      <c r="AB31" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="AC31" s="66"/>
-    </row>
-    <row r="32" spans="7:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G32" s="65" t="s">
+      <c r="AC31" s="57"/>
+    </row>
+    <row r="32" spans="7:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="66"/>
+      <c r="H32" s="57"/>
       <c r="L32" s="44">
         <v>1</v>
       </c>
@@ -14228,7 +14193,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G33" s="2">
         <v>1</v>
       </c>
@@ -14254,7 +14219,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G34" s="9">
         <v>2</v>
       </c>
@@ -14274,31 +14239,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AF35" s="67" t="s">
+    <row r="35" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF35" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="AG35" s="68"/>
-    </row>
-    <row r="36" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G36" s="67" t="s">
+      <c r="AG35" s="55"/>
+    </row>
+    <row r="36" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="68"/>
-      <c r="L36" s="67" t="s">
+      <c r="H36" s="55"/>
+      <c r="L36" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="M36" s="68"/>
+      <c r="M36" s="55"/>
       <c r="AF36" s="74" t="s">
         <v>21</v>
       </c>
       <c r="AG36" s="75"/>
     </row>
-    <row r="37" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G37" s="65" t="s">
+    <row r="37" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="66"/>
+      <c r="H37" s="57"/>
       <c r="L37" s="74" t="s">
         <v>21</v>
       </c>
@@ -14310,7 +14275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G38" s="2">
         <v>1</v>
       </c>
@@ -14330,7 +14295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G39" s="9">
         <v>2</v>
       </c>
@@ -14344,23 +14309,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AF40" s="67" t="s">
+    <row r="40" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF40" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="AG40" s="68"/>
-    </row>
-    <row r="41" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L41" s="67" t="s">
+      <c r="AG40" s="55"/>
+    </row>
+    <row r="41" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L41" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="M41" s="68"/>
+      <c r="M41" s="55"/>
       <c r="AF41" s="74" t="s">
         <v>21</v>
       </c>
       <c r="AG41" s="75"/>
     </row>
-    <row r="42" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L42" s="74" t="s">
         <v>21</v>
       </c>
@@ -14372,7 +14337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L43" s="2">
         <v>1</v>
       </c>
@@ -14386,7 +14351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L44" s="9">
         <v>2</v>
       </c>
@@ -14394,16 +14359,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J46" s="71" t="s">
+    <row r="45" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J46" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="73"/>
-    </row>
-    <row r="47" spans="7:33" x14ac:dyDescent="0.4">
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="53"/>
+    </row>
+    <row r="47" spans="7:33" x14ac:dyDescent="0.3">
       <c r="J47" s="2">
         <v>1</v>
       </c>
@@ -14416,12 +14381,12 @@
       <c r="M47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y47" s="67" t="s">
+      <c r="Y47" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="Z47" s="68"/>
-    </row>
-    <row r="48" spans="7:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Z47" s="55"/>
+    </row>
+    <row r="48" spans="7:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J48" s="6">
         <v>3</v>
       </c>
@@ -14439,7 +14404,7 @@
       </c>
       <c r="Z48" s="75"/>
     </row>
-    <row r="49" spans="10:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="10:26" x14ac:dyDescent="0.3">
       <c r="J49" s="6">
         <v>5</v>
       </c>
@@ -14459,7 +14424,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="10:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="10:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J50" s="6">
         <v>7</v>
       </c>
@@ -14479,7 +14444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="10:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="10:26" x14ac:dyDescent="0.3">
       <c r="J51" s="6">
         <v>9</v>
       </c>
@@ -14493,7 +14458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="10:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="10:26" x14ac:dyDescent="0.3">
       <c r="J52" s="6">
         <v>11</v>
       </c>
@@ -14507,7 +14472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="10:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="10:26" x14ac:dyDescent="0.3">
       <c r="J53" s="6">
         <v>13</v>
       </c>
@@ -14521,7 +14486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="10:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="10:26" x14ac:dyDescent="0.3">
       <c r="J54" s="6">
         <v>15</v>
       </c>
@@ -14535,7 +14500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="10:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="10:26" x14ac:dyDescent="0.3">
       <c r="J55" s="6">
         <v>17</v>
       </c>
@@ -14549,7 +14514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="10:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="10:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J56" s="9">
         <v>19</v>
       </c>
@@ -14565,6 +14530,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="U20:V20"/>
@@ -14581,43 +14583,6 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14627,25 +14592,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AL34" sqref="AL34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="44" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="44" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="C2" s="34">
         <v>10</v>
       </c>
@@ -14717,57 +14682,57 @@
       </c>
       <c r="Z2" s="33"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B3" s="33">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B4" s="33">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B5" s="33">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B6" s="33">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B11" s="33">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B12" s="33">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B13" s="33">
         <v>110</v>
       </c>
@@ -14830,7 +14795,7 @@
       </c>
       <c r="AS13" s="34"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B14" s="33">
         <v>120</v>
       </c>
@@ -14838,7 +14803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B15" s="33">
         <v>130</v>
       </c>
@@ -14846,7 +14811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B16" s="33">
         <v>140</v>
       </c>
@@ -14854,7 +14819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="33">
         <v>150</v>
       </c>
@@ -14862,7 +14827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B18" s="33">
         <v>160</v>
       </c>
@@ -14870,7 +14835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B19" s="33">
         <v>170</v>
       </c>
@@ -14878,7 +14843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20" s="33">
         <v>180</v>
       </c>
@@ -14886,7 +14851,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21" s="33">
         <v>190</v>
       </c>
@@ -14894,7 +14859,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22" s="33">
         <v>200</v>
       </c>
@@ -14902,7 +14867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23" s="33">
         <v>210</v>
       </c>
@@ -14910,7 +14875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B24" s="33">
         <v>220</v>
       </c>
@@ -14918,7 +14883,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B25" s="33">
         <v>230</v>
       </c>
@@ -14926,7 +14891,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B26" s="33">
         <v>240</v>
       </c>
@@ -14934,7 +14899,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B27" s="33">
         <v>250</v>
       </c>
@@ -14942,7 +14907,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B28" s="33">
         <v>260</v>
       </c>
@@ -14950,7 +14915,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B29" s="33">
         <v>270</v>
       </c>
@@ -14958,7 +14923,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B30" s="33">
         <v>280</v>
       </c>
@@ -14966,7 +14931,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B31" s="33">
         <v>290</v>
       </c>
@@ -14974,7 +14939,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B32" s="33">
         <v>300</v>
       </c>
@@ -14982,7 +14947,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="33">
         <v>310</v>
       </c>
@@ -14990,7 +14955,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34" s="33">
         <v>320</v>
       </c>
@@ -14998,7 +14963,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35" s="33">
         <v>330</v>
       </c>
@@ -15006,7 +14971,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36" s="33">
         <v>340</v>
       </c>
@@ -15014,7 +14979,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B37" s="33">
         <v>350</v>
       </c>
@@ -15022,37 +14987,37 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B38" s="33">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B39" s="33">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B40" s="33">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B41" s="33">
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B42" s="33">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B43" s="33">
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B44" s="33">
         <v>420</v>
       </c>
@@ -15066,25 +15031,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C2" s="34">
         <v>10</v>
       </c>
@@ -15156,37 +15121,37 @@
       </c>
       <c r="Z2" s="33"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3" s="33">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" s="33">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="33">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6" s="33">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>70</v>
       </c>
@@ -15197,177 +15162,177 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B11" s="33">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12" s="33">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13" s="33">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14" s="33">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" s="33">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" s="33">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="33">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="33">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="33">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="33">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="33">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="33">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="33">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="33">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="33">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="33">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="33">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="33">
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="33">
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="33">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="33">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="33">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="33">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="33">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="33">
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="33">
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="33">
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="33">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="33">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="33">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="33">
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="33">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="33">
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="33">
         <v>420</v>
       </c>
@@ -15381,28 +15346,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="3.19921875" customWidth="1"/>
-    <col min="28" max="28" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="47" width="3.19921875" customWidth="1"/>
-    <col min="48" max="48" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="3.25" customWidth="1"/>
+    <col min="28" max="28" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="47" width="3.25" customWidth="1"/>
+    <col min="48" max="48" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C2" s="34">
         <v>10</v>
       </c>
@@ -15528,7 +15493,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B3" s="33">
         <v>10</v>
       </c>
@@ -15536,7 +15501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B4" s="33">
         <v>20</v>
       </c>
@@ -15553,7 +15518,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B5" s="33">
         <v>30</v>
       </c>
@@ -15570,7 +15535,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B6" s="33">
         <v>40</v>
       </c>
@@ -15578,7 +15543,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>50</v>
       </c>
@@ -15592,7 +15557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>60</v>
       </c>
@@ -15606,7 +15571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>70</v>
       </c>
@@ -15626,7 +15591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>80</v>
       </c>
@@ -15640,7 +15605,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B11" s="33">
         <v>90</v>
       </c>
@@ -15654,7 +15619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B12" s="33">
         <v>100</v>
       </c>
@@ -15668,7 +15633,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B13" s="33">
         <v>110</v>
       </c>
@@ -15682,7 +15647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B14" s="33">
         <v>120</v>
       </c>
@@ -15696,7 +15661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B15" s="33">
         <v>130</v>
       </c>
@@ -15710,7 +15675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B16" s="33">
         <v>140</v>
       </c>
@@ -15725,7 +15690,7 @@
         <v>94.199999999999989</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="33">
         <v>150</v>
       </c>
@@ -15733,7 +15698,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="33">
         <v>160</v>
       </c>
@@ -15741,7 +15706,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19" s="33">
         <v>170</v>
       </c>
@@ -15749,7 +15714,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="33">
         <v>180</v>
       </c>
@@ -15757,7 +15722,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21" s="33">
         <v>190</v>
       </c>
@@ -15765,7 +15730,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="33">
         <v>200</v>
       </c>
@@ -15773,7 +15738,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23" s="33">
         <v>210</v>
       </c>
@@ -15781,7 +15746,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24" s="33">
         <v>220</v>
       </c>
@@ -15789,7 +15754,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25" s="33">
         <v>230</v>
       </c>
@@ -15797,7 +15762,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="33">
         <v>240</v>
       </c>
@@ -15805,7 +15770,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27" s="33">
         <v>250</v>
       </c>
@@ -15813,7 +15778,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28" s="33">
         <v>260</v>
       </c>
@@ -15821,7 +15786,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29" s="33">
         <v>270</v>
       </c>
@@ -15829,7 +15794,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B30" s="33">
         <v>280</v>
       </c>
@@ -15837,7 +15802,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31" s="33">
         <v>290</v>
       </c>
@@ -15845,7 +15810,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B32" s="33">
         <v>300</v>
       </c>
@@ -15853,7 +15818,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B33" s="33">
         <v>310</v>
       </c>
@@ -15861,7 +15826,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B34" s="33">
         <v>320</v>
       </c>
@@ -15869,7 +15834,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B35" s="33">
         <v>330</v>
       </c>
@@ -15877,7 +15842,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B36" s="33">
         <v>340</v>
       </c>
@@ -15885,7 +15850,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B37" s="33">
         <v>350</v>
       </c>
@@ -15893,7 +15858,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B38" s="33">
         <v>360</v>
       </c>
@@ -15901,7 +15866,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B39" s="33">
         <v>370</v>
       </c>
@@ -15909,7 +15874,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B40" s="33">
         <v>380</v>
       </c>
@@ -15917,7 +15882,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B41" s="33">
         <v>390</v>
       </c>
@@ -15925,7 +15890,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B42" s="33">
         <v>400</v>
       </c>
@@ -15933,7 +15898,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B43" s="33">
         <v>410</v>
       </c>
@@ -15941,7 +15906,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B44" s="33">
         <v>420</v>
       </c>
@@ -15958,29 +15923,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0E493E-E73D-487A-B239-572961424B67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BE24" sqref="BE24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="3.19921875" customWidth="1"/>
-    <col min="28" max="45" width="3.19921875" customWidth="1"/>
-    <col min="46" max="46" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="3.19921875" customWidth="1"/>
-    <col min="48" max="48" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="3.25" customWidth="1"/>
+    <col min="28" max="45" width="3.25" customWidth="1"/>
+    <col min="46" max="46" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="3.25" customWidth="1"/>
+    <col min="48" max="48" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="C2" s="34">
         <v>10</v>
       </c>
@@ -16106,7 +16071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B3" s="33">
         <v>10</v>
       </c>
@@ -16122,17 +16087,20 @@
       <c r="AX3" t="s">
         <v>111</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AY3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="1">
         <v>25</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BA3" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="BB3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B4" s="33">
         <v>20</v>
       </c>
@@ -16148,17 +16116,20 @@
       <c r="AX4" t="s">
         <v>98</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AY4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="1">
         <v>30</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BA4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB4" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B5" s="33">
         <v>30</v>
       </c>
@@ -16175,7 +16146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B6" s="33">
         <v>40</v>
       </c>
@@ -16183,7 +16154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>50</v>
       </c>
@@ -16203,7 +16174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>60</v>
       </c>
@@ -16229,7 +16200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>70</v>
       </c>
@@ -16261,7 +16232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>80</v>
       </c>
@@ -16287,7 +16258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B11" s="33">
         <v>90</v>
       </c>
@@ -16313,7 +16284,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B12" s="33">
         <v>100</v>
       </c>
@@ -16339,7 +16310,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B13" s="33">
         <v>110</v>
       </c>
@@ -16365,7 +16336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B14" s="33">
         <v>120</v>
       </c>
@@ -16391,7 +16362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B15" s="33">
         <v>130</v>
       </c>
@@ -16417,7 +16388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B16" s="33">
         <v>140</v>
       </c>
@@ -16447,7 +16418,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="33">
         <v>150</v>
       </c>
@@ -16455,7 +16426,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="33">
         <v>160</v>
       </c>
@@ -16463,7 +16434,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="33">
         <v>170</v>
       </c>
@@ -16471,7 +16442,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="33">
         <v>180</v>
       </c>
@@ -16479,7 +16450,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="33">
         <v>190</v>
       </c>
@@ -16487,7 +16458,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="33">
         <v>200</v>
       </c>
@@ -16495,23 +16466,30 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="33">
         <v>210</v>
       </c>
       <c r="AT23" s="33">
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="BB23">
+        <v>27.94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="33">
         <v>220</v>
       </c>
       <c r="AT24" s="33">
         <v>220</v>
       </c>
-    </row>
-    <row r="25" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="BB24">
+        <f>BB23/2</f>
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="33">
         <v>230</v>
       </c>
@@ -16519,7 +16497,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="33">
         <v>240</v>
       </c>
@@ -16527,7 +16505,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="33">
         <v>250</v>
       </c>
@@ -16535,7 +16513,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="33">
         <v>260</v>
       </c>
@@ -16543,7 +16521,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="33">
         <v>270</v>
       </c>
@@ -16551,7 +16529,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="33">
         <v>280</v>
       </c>
@@ -16559,7 +16537,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="33">
         <v>290</v>
       </c>
@@ -16567,7 +16545,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="33">
         <v>300</v>
       </c>
@@ -16575,7 +16553,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B33" s="33">
         <v>310</v>
       </c>
@@ -16583,7 +16561,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B34" s="33">
         <v>320</v>
       </c>
@@ -16591,7 +16569,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B35" s="33">
         <v>330</v>
       </c>
@@ -16599,7 +16577,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B36" s="33">
         <v>340</v>
       </c>
@@ -16607,7 +16585,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B37" s="33">
         <v>350</v>
       </c>
@@ -16615,7 +16593,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B38" s="33">
         <v>360</v>
       </c>
@@ -16623,7 +16601,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B39" s="33">
         <v>370</v>
       </c>
@@ -16631,7 +16609,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B40" s="33">
         <v>380</v>
       </c>
@@ -16639,7 +16617,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B41" s="33">
         <v>390</v>
       </c>
@@ -16647,7 +16625,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B42" s="33">
         <v>400</v>
       </c>
@@ -16655,7 +16633,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B43" s="33">
         <v>410</v>
       </c>
@@ -16663,7 +16641,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B44" s="33">
         <v>420</v>
       </c>
@@ -16680,16 +16658,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>87</v>
       </c>
@@ -16700,7 +16678,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>88</v>
       </c>
@@ -16708,7 +16686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>90</v>
       </c>
@@ -16720,7 +16698,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>91</v>
       </c>

--- a/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
+++ b/0_Block Diagram/Plasma_Gen_Block Diagram_V2.0.xlsx
@@ -937,39 +937,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1006,10 +973,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1019,15 +1028,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1067,7 +1067,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1139,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,7 +1211,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1277,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1343,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1577,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1655,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,7 +1733,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1828,7 @@
         <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1923,7 @@
         <xdr:cNvPr id="8" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1983,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2043,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2111,7 @@
         <xdr:cNvPr id="16" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2179,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2277,7 +2277,7 @@
         <xdr:cNvPr id="13" name="화살표: 왼쪽/오른쪽 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2337,7 @@
         <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2418,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2486,7 @@
         <xdr:cNvPr id="21" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2554,7 @@
         <xdr:cNvPr id="22" name="화살표: 왼쪽/오른쪽 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2614,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2674,7 +2674,7 @@
         <xdr:cNvPr id="24" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2753,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,7 +2825,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2963,7 +2963,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,7 +3029,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3157,7 +3157,7 @@
         <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3263,7 +3263,7 @@
         <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,7 +3341,7 @@
         <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3419,7 +3419,7 @@
         <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3514,7 @@
         <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3609,7 +3609,7 @@
         <xdr:cNvPr id="12" name="오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3669,7 +3669,7 @@
         <xdr:cNvPr id="13" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3729,7 +3729,7 @@
         <xdr:cNvPr id="14" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3797,7 +3797,7 @@
         <xdr:cNvPr id="15" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3865,7 +3865,7 @@
         <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3963,7 +3963,7 @@
         <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4023,7 +4023,7 @@
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4104,7 +4104,7 @@
         <xdr:cNvPr id="20" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4172,7 +4172,7 @@
         <xdr:cNvPr id="21" name="화살표: 왼쪽/오른쪽 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4232,7 +4232,7 @@
         <xdr:cNvPr id="22" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4292,7 +4292,7 @@
         <xdr:cNvPr id="23" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4366,7 +4366,7 @@
         <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4438,7 +4438,7 @@
         <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4504,7 +4504,7 @@
         <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4582,7 +4582,7 @@
         <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4660,7 +4660,7 @@
         <xdr:cNvPr id="28" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4741,7 +4741,7 @@
         <xdr:cNvPr id="29" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4801,7 +4801,7 @@
         <xdr:cNvPr id="30" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4867,7 +4867,7 @@
         <xdr:cNvPr id="31" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4939,7 +4939,7 @@
         <xdr:cNvPr id="32" name="오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5007,7 +5007,7 @@
         <xdr:cNvPr id="33" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5067,7 +5067,7 @@
         <xdr:cNvPr id="34" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5127,7 +5127,7 @@
         <xdr:cNvPr id="35" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5187,7 +5187,7 @@
         <xdr:cNvPr id="36" name="모서리가 둥근 직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5282,7 +5282,7 @@
         <xdr:cNvPr id="37" name="모서리가 둥근 직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{408B0CD4-0184-4EFF-92F4-78610C9DA6C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408B0CD4-0184-4EFF-92F4-78610C9DA6C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5360,7 +5360,7 @@
         <xdr:cNvPr id="38" name="오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2CCC15B-4107-45DA-B241-3883D3CED6A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CCC15B-4107-45DA-B241-3883D3CED6A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5425,7 +5425,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5501,7 +5501,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5577,7 +5577,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5650,7 +5650,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5729,7 +5729,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +5792,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5864,7 +5864,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5936,7 +5936,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6015,7 +6015,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6094,7 +6094,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6173,7 +6173,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6254,7 +6254,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6338,7 +6338,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6422,7 +6422,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6503,7 +6503,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6602,7 +6602,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6665,7 +6665,7 @@
         <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6752,7 +6752,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6824,7 +6824,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6903,7 +6903,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6982,7 +6982,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300